--- a/spreadsheet/macrofree/wafsg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/wafsg_checklist.es.xlsx
@@ -1091,7 +1091,7 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Anticipe posibles errores: planifique estrategias de mitigación para posibles errores. En la tabla siguiente se muestran ejemplos de análisis de modo de error.</t>
+          <t>Anticipar posibles fallos: Planifique estrategias de mitigación para posibles errores. En la tabla siguiente se muestran ejemplos de análisis del modo de error.</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Planifique su capacidad de recuperación: La redundancia es crucial para la continuidad del negocio. Conmutación por error a otra instancia si no se puede acceder a una instancia. Explore las capacidades de recuperación automática de App Service, como la reparación automática de instancias.</t>
+          <t>Planifique su capacidad de recuperación: la redundancia es crucial para la continuidad del negocio. Conmutar por error a otra instancia si no se puede acceder a una instancia. Explore las capacidades de recuperación automática de App Service, como la reparación automática de instancias.</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr"/>
@@ -1211,7 +1211,7 @@
       <c r="B13" s="21" t="n"/>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Realice pruebas de confiabilidad: realice pruebas de carga para evaluar la confiabilidad y el rendimiento de su aplicación bajo carga. Los planes de prueba deben incluir escenarios que validen las operaciones de recuperación automatizadas.</t>
+          <t>Realizar pruebas de confiabilidad: Realice pruebas de carga para evaluar la confiabilidad y el rendimiento de su aplicación bajo carga. Los planes de prueba deben incluir escenarios que validen las operaciones de recuperación automatizadas.</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr"/>
@@ -1305,12 +1305,12 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>(Plan de App Service) Habilite la redundancia de zona. Considere la posibilidad de aprovisionar más de tres instancias para mejorar la tolerancia a errores.  Compruebe la compatibilidad regional con la redundancia de zona, ya que no todas las regiones ofrecen esta función.</t>
+          <t>(Plan de App Service) Habilite la redundancia de zona. Considere la posibilidad de aprovisionar más de tres instancias para mejorar la tolerancia a errores.  Compruebe la compatibilidad regional con la redundancia de zona, ya que no todas las regiones ofrecen esta característica.</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>La aplicación puede soportar errores en una sola zona cuando hay varias instancias distribuidas entre zonas. El tráfico cambia automáticamente a instancias en buen estado en otras zonas y mantiene la confiabilidad de la aplicación si una zona no está disponible.</t>
+          <t>La aplicación puede soportar errores en una sola zona cuando varias instancias se distribuyen entre zonas. El tráfico cambia automáticamente a instancias en buen estado en otras zonas y mantiene la confiabilidad de la aplicación si una zona no está disponible.</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1339,12 +1339,12 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>(Servicio de aplicaciones) Considere la posibilidad de deshabilitar la característica de afinidad de enrutamiento de solicitudes de aplicación (ARR). La afinidad de ARR crea sesiones permanentes que redirigen a los usuarios al nodo que manejó sus solicitudes anteriores.</t>
+          <t>(Servicio de aplicaciones) Considere la posibilidad de deshabilitar la característica de afinidad de enrutamiento de solicitudes de aplicación (ARR). La afinidad ARR crea sesiones permanentes que redirigen a los usuarios al nodo que manejó sus solicitudes anteriores.</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>Las solicitudes entrantes se distribuyen uniformemente entre todos los nodos disponibles cuando se deshabilita la afinidad de ARR. Las solicitudes distribuidas uniformemente evitan que el tráfico abrume a un solo nodo. Las solicitudes se pueden redirigir sin problemas a otros nodos en buen estado si un nodo no está disponible.  Evite la afinidad de sesión para asegurarse de que la instancia de App Service permanezca sin estado. Un Servicio de aplicaciones sin estado reduce la complejidad y garantiza un comportamiento coherente en todos los nodos.  Quite las sesiones permanentes para que App Service pueda agregar o quitar instancias para escalar horizontalmente.</t>
+          <t>Las solicitudes entrantes se distribuyen uniformemente entre todos los nodos disponibles cuando se deshabilita la afinidad ARR. Las solicitudes distribuidas uniformemente evitan que el tráfico abrume a un solo nodo. Las solicitudes se pueden redirigir sin problemas a otros nodos en buen estado si un nodo no está disponible.  Evite la afinidad de sesión para asegurarse de que la instancia de App Service permanezca sin estado. Un servicio de aplicaciones sin estado reduce la complejidad y garantiza un comportamiento coherente en todos los nodos.  Quite las sesiones permanentes para que App Service pueda agregar o quitar instancias para escalar horizontalmente.</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1407,12 +1407,12 @@
       <c r="B19" s="21" t="n"/>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>(Servicio de aplicaciones) Habilite la característica de comprobación de estado y proporcione una ruta que responda a las solicitudes de comprobación de estado.</t>
+          <t>(Servicio de aplicaciones) Habilite la característica de comprobación de estado y proporcione una ruta de acceso que responda a las solicitudes de comprobación de estado.</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>Las comprobaciones de estado pueden detectar problemas de forma temprana. A continuación, el sistema puede tomar automáticamente medidas correctivas cuando se produce un error en una solicitud de comprobación de estado.  El equilibrador de carga aleja el tráfico de las instancias en mal estado, lo que dirige a los usuarios a los nodos en buen estado.</t>
+          <t>Las comprobaciones de estado pueden detectar problemas de forma temprana. A continuación, el sistema puede tomar automáticamente medidas correctivas cuando se produce un error en una solicitud de comprobación de estado.  El equilibrador de carga enruta el tráfico lejos de las instancias en mal estado, lo que dirige a los usuarios a los nodos en buen estado.</t>
         </is>
       </c>
       <c r="E19" s="21" t="n"/>
@@ -1471,7 +1471,7 @@
       <c r="B21" s="21" t="n"/>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Utilice el tiempo de ejecución y las bibliotecas más recientes: pruebe exhaustivamente las compilaciones de su aplicación antes de realizar actualizaciones para detectar problemas temprano y garantizar una transición sin problemas a la nueva versión. App Service admite la directiva de compatibilidad con Language Runtime para actualizar las pilas existentes y retirar las pilas de fin de soporte.</t>
+          <t>Utilice el tiempo de ejecución y las bibliotecas más recientes: pruebe exhaustivamente las compilaciones de su aplicación antes de realizar actualizaciones para detectar problemas temprano y garantizar una transición sin problemas a la nueva versión. App Service admite la directiva de compatibilidad de Language Runtime para actualizar las pilas existentes y retirar las pilas de fin de soporte.</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr"/>
@@ -1501,7 +1501,7 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Crear segmentación a través de límites de aislamiento para contener la infracción: Aplique la segmentación de identidad. Por ejemplo, implemente el control de acceso basado en roles (RBAC) para asignar permisos específicos en función de los roles. Siga el principio de privilegios mínimos para limitar los derechos de acceso solo a lo necesario. También cree segmentación a nivel de red. Inserte aplicaciones de App Service en una red virtual de Azure para el aislamiento y defina grupos de seguridad de red (NSG) para filtrar el tráfico.</t>
+          <t>Creación de segmentación a través de límites de aislamiento para contener la infracción: Aplique la segmentación de identidad. Por ejemplo, implemente el control de acceso basado en roles (RBAC) para asignar permisos específicos en función de los roles. Siga el principio de privilegios mínimos para limitar los derechos de acceso solo a lo necesario. También cree segmentación a nivel de red. Inserte aplicaciones de App Service en una red virtual de Azure para el aislamiento y defina grupos de seguridad de red (NSG) para filtrar el tráfico.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr"/>
@@ -1531,7 +1531,7 @@
       <c r="B23" s="21" t="n"/>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Aplicar controles de acceso a las identidades: restrinja el acceso interno a la aplicación web y el acceso externo desde la aplicación web a otros recursos. Esta configuración aplica controles de acceso a las identidades y ayuda a mantener la posición de seguridad general de la carga de trabajo.</t>
+          <t>Aplicar controles de acceso a las identidades: restrinja el acceso interno a la aplicación web y el acceso externo de la aplicación web a otros recursos. Esta configuración aplica controles de acceso a las identidades y ayuda a mantener la posición de seguridad general de la carga de trabajo.</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr"/>
@@ -1561,7 +1561,7 @@
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Controle el tráfico de red hacia y desde la aplicación: no exponga los puntos de conexión de la aplicación a la red pública de Internet. En su lugar, agregue un punto de conexión privado en la aplicación web que se coloque en una subred dedicada. Enfrente su aplicación con un proxy inverso que se comunique con ese punto de conexión privado. Considere la posibilidad de usar Application Gateway o Azure Front Door para ese propósito.</t>
+          <t>Controle el tráfico de red hacia y desde la aplicación: no exponga los puntos de conexión de la aplicación a la red pública de Internet. En su lugar, agregue un punto de conexión privado en la aplicación web que se coloque en una subred dedicada. Enfrente su aplicación con un proxy inverso que se comunique con ese punto de conexión privado. Considere la posibilidad de usar Application Gateway o Azure Front Door para ese fin.</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr"/>
@@ -1591,7 +1591,7 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Cifre datos: proteja los datos en tránsito con la seguridad de la capa de transporte (TLS) de extremo a extremo. Utilice las claves administradas por el cliente para el cifrado completo de los datos en reposo. Para obtener más información, consulte Cifrado en reposo mediante claves administradas por el cliente.</t>
+          <t>Cifre los datos: proteja los datos en tránsito con la seguridad de la capa de transporte (TLS) de extremo a extremo. Utilice las claves administradas por el cliente para el cifrado completo de los datos en reposo. Para obtener más información, consulte Cifrado en reposo mediante claves administradas por el cliente.</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr"/>
@@ -1621,7 +1621,7 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Reduzca la superficie expuesta a ataques: elimine las configuraciones predeterminadas que no necesite. Por ejemplo, deshabilite la depuración remota, la autenticación local para los sitios del Administrador de control de código fuente (SCM) y la autenticación básica. Deshabilite los protocolos no seguros como HTTP y el Protocolo de transferencia de archivos (FTP). Aplicación de configuraciones a través de directivas de Azure. Para más información, consulte Directivas de Azure.</t>
+          <t>Reduzca la superficie expuesta a ataques: elimine las configuraciones predeterminadas que no necesite. Por ejemplo, deshabilite la depuración remota, la autenticación local para los sitios del Administrador de control de código fuente (SCM) y la autenticación básica. Deshabilite los protocolos no seguros como HTTP y el Protocolo de transferencia de archivos (FTP). Aplique configuraciones a través de directivas de Azure. Para más información, consulte Directivas de Azure.</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr"/>
@@ -1651,7 +1651,7 @@
       <c r="B27" s="21" t="n"/>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Proteger los secretos de las aplicaciones: debe manejar información confidencial, como claves de API o tokens de autenticación. En lugar de codificar estos secretos directamente en el código de la aplicación o en los archivos de configuración, puede usar referencias de Azure Key Vault en la configuración de la aplicación. Cuando se inicia la aplicación, App Service recupera automáticamente los valores secretos de Key Vault mediante la identidad administrada de la aplicación.</t>
+          <t>Proteja los secretos de las aplicaciones: debe manejar información confidencial, como claves de API o tokens de autenticación. En lugar de codificar estos secretos directamente en el código de la aplicación o en los archivos de configuración, puede usar referencias de Azure Key Vault en la configuración de la aplicación. Cuando se inicia la aplicación, App Service recupera automáticamente los valores secretos de Key Vault mediante la identidad administrada de la aplicación.</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr"/>
@@ -1680,7 +1680,7 @@
       <c r="B28" s="21" t="n"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Habilite los registros de recursos para su aplicación: habilite los registros de recursos para su aplicación a fin de crear registros de actividad completos que proporcionen datos valiosos durante las investigaciones que siguen a los incidentes de seguridad.</t>
+          <t>Habilite los registros de recursos para su aplicación: habilite los registros de recursos para su aplicación para crear registros de actividad completos que proporcionen datos valiosos durante las investigaciones que siguen a los incidentes de seguridad.</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr"/>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>Al usar esta característica, no tiene que usar bibliotecas de autenticación en el código de la aplicación, lo que reduce la complejidad. El usuario ya está autenticado cuando una solicitud llega a la aplicación.</t>
+          <t>Al usar esta característica, no es necesario usar bibliotecas de autenticación en el código de la aplicación, lo que reduce la complejidad. El usuario ya está autenticado cuando una solicitud llega a la aplicación.</t>
         </is>
       </c>
       <c r="E31" s="21" t="n"/>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>Obtenga las ventajas de seguridad de usar una red virtual de Azure. Por ejemplo, la aplicación puede acceder de forma segura a los recursos dentro de la red.   Agregue un punto de conexión privado para ayudar a proteger la aplicación. Los puntos de conexión privados limitan la exposición directa a la red pública y permiten el acceso controlado a través del proxy inverso.</t>
+          <t>Obtenga las ventajas de seguridad del uso de una red virtual de Azure. Por ejemplo, la aplicación puede acceder de forma segura a los recursos dentro de la red.   Agregue un punto de conexión privado para ayudar a proteger la aplicación. Los puntos de conexión privados limitan la exposición directa a la red pública y permiten el acceso controlado a través del proxy inverso.</t>
         </is>
       </c>
       <c r="E32" s="21" t="n"/>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>Los secretos se mantienen independientes de la configuración de la aplicación. La configuración de la aplicación se cifra en reposo. App Service también administra las rotaciones secretas.</t>
+          <t>Los secretos se mantienen separados de la configuración de la aplicación. La configuración de la aplicación se cifra en reposo. App Service también administra las rotaciones secretas.</t>
         </is>
       </c>
       <c r="E34" s="21" t="n"/>
@@ -1944,12 +1944,12 @@
       <c r="B36" s="21" t="n"/>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>(Plan de App Service) Habilite el registro de diagnóstico y agregue instrumentación a la aplicación. Los registros se envían a cuentas de Azure Storage, Azure Event Hubs y Log Analytics. Para obtener más información sobre los tipos de registro de auditoría, consulte Tipos de registro admitidos.</t>
+          <t>(Plan de App Service) Habilite el registro de diagnóstico y agregue instrumentación a su aplicación. Los registros se envían a cuentas de Azure Storage, Azure Event Hubs y Log Analytics. Para obtener más información sobre los tipos de registro de auditoría, consulte Tipos de registro compatibles.</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>El registro captura patrones de acceso. Registra eventos relevantes que proporcionan información valiosa sobre cómo los usuarios interactúan con una aplicación o plataforma. Esta información es crucial para fines de responsabilidad, cumplimiento y seguridad.</t>
+          <t>El registro captura patrones de acceso. Registra eventos relevantes que proporcionan información valiosa sobre cómo interactúan los usuarios con una aplicación o plataforma. Esta información es crucial para fines de responsabilidad, cumplimiento y seguridad.</t>
         </is>
       </c>
       <c r="E36" s="21" t="n"/>
@@ -1978,7 +1978,7 @@
       <c r="B37" s="21" t="n"/>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Calcule el costo inicial: como parte del ejercicio de modelado de costos, use la calculadora de precios de Azure para evaluar los costos aproximados asociados a los distintos niveles en función del número de instancias que planea ejecutar. Cada nivel de App Service ofrece diferentes opciones de proceso.</t>
+          <t>Calcule el costo inicial: como parte del ejercicio de modelado de costos, use la calculadora de precios de Azure para evaluar los costos aproximados asociados a varios niveles en función del número de instancias que planea ejecutar. Cada nivel de App Service ofrece diferentes opciones de proceso.</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr"/>
@@ -2038,7 +2038,7 @@
       <c r="B39" s="21" t="n"/>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Descripción de los medidores de uso: Azure cobra una tarifa por hora, prorrateada por segundo, en función del plan de tarifa de App Service. Los cargos se aplican a cada instancia escalada horizontalmente del plan, en función del tiempo que asigne a la instancia de VM. Preste atención a los recursos de proceso infrautilizados que podrían aumentar los costos como resultado de una sobreasignación debido a una selección de SKU subóptima o a una configuración de reducción horizontal mal configurada.</t>
+          <t>Descripción de los medidores de uso: Azure cobra una tarifa por hora, prorrateada al segundo, en función del plan de tarifa de App Service. Los cargos se aplican a cada instancia escalada horizontalmente del plan, en función del tiempo que asigne a la instancia de VM. Preste atención a los recursos de proceso infrautilizados que podrían aumentar los costos como resultado de una asignación excesiva debido a una selección de SKU subóptima o a una configuración de reducción horizontal mal configurada.</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr"/>
@@ -2098,7 +2098,7 @@
       <c r="B41" s="21" t="n"/>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Evalúe el efecto de su estrategia de escalado en el costo: debe diseñar, probar y configurar correctamente el escalado horizontal y el escalado horizontal al implementar el escalado automático. Establezca límites máximos y mínimos precisos para el escalado automático.</t>
+          <t>Evalúe el efecto de su estrategia de escalado en el costo: debe diseñar, probar y configurar correctamente el escalado horizontal y horizontal al implementar el escalado automático. Establezca límites máximos y mínimos precisos para el escalado automático.</t>
         </is>
       </c>
       <c r="D41" s="21" t="inlineStr"/>
@@ -2128,7 +2128,7 @@
       <c r="B42" s="21" t="n"/>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Optimice los costos del entorno: considere el nivel Básico o Gratuito para ejecutar entornos de preproducción. Estos niveles son de bajo rendimiento y bajo costo. Si utiliza el nivel Básico o Gratuito, utilice la gobernanza para aplicar el nivel, restringir el número de instancias y CPU, restringir el escalado y limitar la retención de registros.</t>
+          <t>Optimice los costos del entorno: considere el nivel Básico o Gratis para ejecutar entornos de preproducción. Estos niveles son de bajo rendimiento y bajo costo. Si utiliza el nivel Básico o Gratuito, utilice la gobernanza para aplicar el nivel, restringir el número de instancias y CPU, restringir el escalado y limitar la retención de registros.</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr"/>
@@ -2348,7 +2348,7 @@
       <c r="B49" s="21" t="n"/>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>(Plan de App Service) Amplíe cuando la demanda disminuya. Para reducir horizontalmente, defina reglas de escalado para reducir el número de instancias en Azure Monitor.</t>
+          <t>(Plan de App Service) Escale horizontalmente cuando la demanda disminuya. Para reducir horizontalmente, defina reglas de escalado para reducir el número de instancias en Azure Monitor.</t>
         </is>
       </c>
       <c r="D49" s="21" t="inlineStr">
@@ -2381,7 +2381,7 @@
       <c r="B50" s="21" t="n"/>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Administrar versiones: use ranuras de implementación para administrar versiones de manera eficaz. Puede implementar la aplicación en una ranura, realizar pruebas y validar su funcionalidad. Después de la verificación, puede mover sin problemas la aplicación a producción. Este proceso no incurre en costos adicionales porque la ranura se ejecuta en el mismo entorno de máquina virtual (VM) que la instancia de producción.</t>
+          <t>Administrar versiones: use ranuras de implementación para administrar versiones de forma eficaz. Puede implementar la aplicación en una ranura, realizar pruebas y validar su funcionalidad. Después de la verificación, puede mover sin problemas la aplicación a producción. Este proceso no incurre en costos adicionales porque la ranura se ejecuta en el mismo entorno de máquina virtual (VM) que la instancia de producción.</t>
         </is>
       </c>
       <c r="D50" s="21" t="inlineStr"/>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="D55" s="21" t="inlineStr">
         <is>
-          <t>Puede detectar problemas rápidamente y tomar las medidas necesarias para mantener la disponibilidad y el rendimiento.</t>
+          <t>Puede detectar problemas con prontitud y tomar las medidas necesarias para mantener la disponibilidad y el rendimiento.</t>
         </is>
       </c>
       <c r="E55" s="21" t="n"/>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="D56" s="21" t="inlineStr">
         <is>
-          <t>Los registros de diagnóstico proporcionan información valiosa sobre el comportamiento de la aplicación. Supervise los patrones de tráfico e identifique anomalías.</t>
+          <t>Los registros de diagnóstico proporcionan información valiosa sobre el comportamiento de tu app. Supervise los patrones de tráfico e identifique anomalías.</t>
         </is>
       </c>
       <c r="E56" s="21" t="n"/>
@@ -2691,7 +2691,7 @@
       <c r="B60" s="21" t="n"/>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Evalúe la capacidad: simule varios escenarios de usuario para determinar la capacidad óptima que necesita para controlar el tráfico esperado. Utilice las pruebas de carga para comprender cómo se comporta la aplicación en diferentes niveles de carga.</t>
+          <t>Evaluar la capacidad: simule varios escenarios de usuario para determinar la capacidad óptima que necesita para manejar el tráfico esperado. Utilice las pruebas de carga para comprender cómo se comporta la aplicación bajo diferentes niveles de carga.</t>
         </is>
       </c>
       <c r="D60" s="21" t="inlineStr"/>
@@ -2720,7 +2720,7 @@
       <c r="B61" s="21" t="n"/>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Seleccione el nivel adecuado: use el proceso dedicado para las cargas de trabajo de producción. Los niveles Premium ofrecen SKU más grandes con mayor capacidad de memoria y CPU, más instancias y más características, como redundancia de zona. Para obtener más información, consulte Plan de tarifa Premium V3.</t>
+          <t>Seleccione el nivel adecuado: use el proceso dedicado para las cargas de trabajo de producción. Los niveles Premium ofrecen SKU más grandes con mayor capacidad de memoria y CPU, más instancias y más funciones, como redundancia de zona. Para obtener más información, consulte Plan de tarifa Premium V3.</t>
         </is>
       </c>
       <c r="D61" s="21" t="inlineStr"/>
@@ -2778,7 +2778,7 @@
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Usar el almacenamiento en caché: la recuperación de información de un recurso que no cambia con frecuencia y cuyo acceso es costoso afecta al rendimiento. Las consultas complejas, incluidas las combinaciones y las búsquedas múltiples, contribuyen al tiempo de ejecución. Realice el almacenamiento en caché para minimizar el tiempo de procesamiento y la latencia. Caché los resultados de las consultas para evitar repetidos viajes de ida y vuelta a la base de datos o al back-end y reducir el tiempo de procesamiento de las solicitudes posteriores.</t>
+          <t>Usar el almacenamiento en caché: Recuperar información de un recurso que no cambia con frecuencia y cuyo acceso es costoso afecta al rendimiento. Las consultas complejas, incluidas las combinaciones y las búsquedas múltiples, contribuyen al tiempo de ejecución. Realice el almacenamiento en caché para minimizar el tiempo de procesamiento y la latencia. Almacene en caché los resultados de las consultas para evitar repetidos viajes de ida y vuelta a la base de datos o al back-end y reducir el tiempo de procesamiento de las solicitudes posteriores.</t>
         </is>
       </c>
       <c r="D63" s="21" t="inlineStr"/>
@@ -2838,7 +2838,7 @@
       <c r="B65" s="21" t="n"/>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Habilite la opción Siempre activo cuando las aplicaciones compartan un único plan de App Service. Las aplicaciones de App Service se descargan automáticamente cuando están inactivas para ahorrar recursos. La siguiente solicitud desencadena un inicio en frío, lo que puede provocar tiempos de espera de solicitud.</t>
+          <t>Habilite la opción AlwaysOn cuando las aplicaciones compartan un único plan de App Service. Las aplicaciones de App Service se descargan automáticamente cuando están inactivas para ahorrar recursos. La siguiente solicitud desencadena un inicio en frío, lo que puede provocar tiempos de espera de solicitud.</t>
         </is>
       </c>
       <c r="D65" s="21" t="inlineStr">
@@ -2872,7 +2872,7 @@
       <c r="B66" s="21" t="n"/>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar HTTP/2 para que las aplicaciones mejoren la eficiencia del protocolo.</t>
+          <t>Considere la posibilidad de utilizar HTTP/2 para que las aplicaciones mejoren la eficiencia del protocolo.</t>
         </is>
       </c>
       <c r="D66" s="21" t="inlineStr">
@@ -2905,7 +2905,7 @@
       <c r="B67" s="21" t="n"/>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Implemente las instancias en una configuración con reconocimiento de zonas, si está disponible.</t>
+          <t>Implemente las instancias en una configuración con reconocimiento de zonas, cuando esté disponible.</t>
         </is>
       </c>
       <c r="D67" s="21" t="inlineStr"/>
@@ -3085,7 +3085,7 @@
       <c r="B73" s="21" t="n"/>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Comprobación de las dependencias de nivel inferior a través de los puntos de conexión de estado</t>
+          <t>Comprobación de las dependencias de nivel inferior a través de puntos de conexión de estado</t>
         </is>
       </c>
       <c r="D73" s="21" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="D74" s="21" t="inlineStr">
         <is>
-          <t>Planee el tiempo suficiente para las actualizaciones antes de acceder a Application Gateway o realizar más cambios. Por ejemplo, la eliminación de servidores del grupo de back-end puede llevar algún tiempo porque tienen que purgar las conexiones existentes.</t>
+          <t>Planifique el tiempo suficiente para las actualizaciones antes de acceder a Application Gateway o realizar más cambios. Por ejemplo, la eliminación de servidores del grupo de back-end puede llevar algún tiempo porque tienen que purgar las conexiones existentes.</t>
         </is>
       </c>
       <c r="E74" s="21" t="n"/>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="D76" s="21" t="inlineStr">
         <is>
-          <t>El sondeo de estado envía solicitudes al punto de conexión configurado en un intervalo establecido. Además, hay un umbral de solicitudes fallidas que se tolerarán antes de que el back-end se marque como incorrecto. Estos números presentan una compensación.- Establecer un intervalo más alto pone una mayor carga en su servicio. Cada instancia de Application Gateway envía sus propios sondeos de estado, por lo que 100 instancias cada 30 segundos significa 100 solicitudes cada 30 segundos.- Establecer un intervalo inferior deja más tiempo antes de que se detecte una interrupción.- Establecer un umbral incorrecto bajo podría significar que errores breves y transitorios podrían derribar un back-end. - Al establecer un umbral alto, puede llevar más tiempo sacar un backend de la rotación.</t>
+          <t>El sondeo de estado envía solicitudes al punto de conexión configurado en un intervalo establecido. Además, hay un umbral de solicitudes con errores que se tolerarán antes de que el back-end se marque como incorrecto. Estos números presentan una compensación.- Establecer un intervalo más alto pone una mayor carga en su servicio. Cada instancia de Application Gateway envía sus propios sondeos de estado, por lo que 100 instancias cada 30 segundos significa 100 solicitudes cada 30 segundos.- Establecer un intervalo inferior deja más tiempo antes de que se detecte una interrupción.- Establecer un umbral incorrecto bajo podría significar que errores breves y transitorios podrían derribar un back-end. - Al establecer un umbral alto, puede llevar más tiempo sacar un backend de la rotación.</t>
         </is>
       </c>
       <c r="E76" s="21" t="n"/>
@@ -3217,12 +3217,12 @@
       <c r="B77" s="21" t="n"/>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Comprobación de las dependencias de nivel inferior a través de los puntos de conexión de estado</t>
+          <t>Comprobación de las dependencias de nivel inferior a través de puntos de conexión de estado</t>
         </is>
       </c>
       <c r="D77" s="21" t="inlineStr">
         <is>
-          <t>Supongamos que cada backend tiene sus propias dependencias para garantizar que se aíslen los errores. Por ejemplo, una aplicación hospedada detrás de Application Gateway puede tener varios back-ends, cada uno conectado a una base de datos diferente (réplica). Cuando se produce un error en una dependencia de este tipo, es posible que la aplicación esté funcionando, pero no devolverá resultados válidos. Por ese motivo, lo ideal es que el punto de conexión de mantenimiento valide todas las dependencias. Tenga en cuenta que si cada llamada al punto de conexión de mantenimiento tiene una llamada de dependencia directa, esa base de datos recibiría 100 consultas cada 30 segundos en lugar de 1. Para evitar esto, el punto de conexión de mantenimiento debe almacenar en caché el estado de las dependencias durante un breve período de tiempo.</t>
+          <t>Supongamos que cada backend tiene sus propias dependencias para garantizar que se aíslen los errores. Por ejemplo, una aplicación hospedada detrás de Application Gateway puede tener varios back-ends, cada uno conectado a una base de datos diferente (réplica). Cuando se produce un error en una dependencia de este tipo, es posible que la aplicación esté funcionando, pero no devolverá resultados válidos. Por ese motivo, lo ideal es que el punto de conexión de mantenimiento valide todas las dependencias. Tenga en cuenta que si cada llamada al punto de conexión de estado tiene una llamada de dependencia directa, esa base de datos recibiría 100 consultas cada 30 segundos en lugar de 1. Para evitar esto, el punto de conexión de mantenimiento debe almacenar en caché el estado de las dependencias durante un breve período de tiempo.</t>
         </is>
       </c>
       <c r="E77" s="21" t="n"/>
@@ -3285,7 +3285,7 @@
       <c r="B79" s="21" t="n"/>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Configuración de una política TLS para mejorar la seguridad</t>
+          <t>Configuración de una política de TLS para mejorar la seguridad</t>
         </is>
       </c>
       <c r="D79" s="21" t="inlineStr"/>
@@ -3525,12 +3525,12 @@
       <c r="B87" s="21" t="n"/>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Configuración de una política TLS para mejorar la seguridad</t>
+          <t>Configuración de una política de TLS para mejorar la seguridad</t>
         </is>
       </c>
       <c r="D87" s="21" t="inlineStr">
         <is>
-          <t>Configure una política TLS para mayor seguridad. Asegúrese de usar siempre la última versión de la política TLS disponible. Esto aplica TLS 1.2 y cifrados más seguros.</t>
+          <t>Configure una política de TLS para mayor seguridad. Asegúrese de usar siempre la última versión de la política TLS disponible. Esto aplica TLS 1.2 y cifrados más seguros.</t>
         </is>
       </c>
       <c r="E87" s="21" t="n"/>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="D88" s="21" t="inlineStr">
         <is>
-          <t>Hay ventajas de usar Application Gateway para la terminación de TLS:- El rendimiento mejora porque las solicitudes que van a diferentes backends tienen que volver a autenticarse en cada backend.- Mejor utilización de los servidores de back-end porque no tienen que realizar el procesamiento de TLS- Enrutamiento inteligente mediante el acceso al contenido de la solicitud.- Administración de certificados más fácil porque el certificado solo necesita instalarse en Application Gateway.</t>
+          <t>Hay ventajas de usar Application Gateway para la terminación de TLS:- El rendimiento mejora porque las solicitudes que van a diferentes backends tienen que volver a autenticarse en cada backend.- Mejor utilización de los servidores de back-end porque no tienen que realizar el procesamiento de TLS.- Enrutamiento inteligente mediante el acceso al contenido de la solicitud.- Administración de certificados más fácil porque el certificado solo necesita instalarse en Application Gateway.</t>
         </is>
       </c>
       <c r="E88" s="21" t="n"/>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="D90" s="21" t="inlineStr">
         <is>
-          <t>Un certificado TLS del servidor backend debe ser emitido por una CA conocida. Si el certificado no fue emitido por una entidad de certificación de confianza, Application Gateway comprueba si el certificado fue emitido por una entidad de certificación de confianza, y así sucesivamente, hasta que se encuentre un certificado de entidad de certificación de confianza. Solo entonces se establece una conexión segura. De lo contrario, Application Gateway marca el back-end como incorrecto.</t>
+          <t>Un certificado TLS del servidor backend debe ser emitido por una CA conocida. Si el certificado no fue emitido por una entidad de certificación de confianza, Application Gateway comprueba si el certificado fue emitido por una entidad de certificación de confianza, y así sucesivamente, hasta que se encuentra un certificado de entidad de certificación de confianza. Solo entonces se establece una conexión segura. De lo contrario, Application Gateway marca el back-end como incorrecto.</t>
         </is>
       </c>
       <c r="E90" s="21" t="n"/>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="D91" s="21" t="inlineStr">
         <is>
-          <t>Cuando el grupo de back-end contiene un FQDN que se puede resolver, la resolución DNS se basa en una zona DNS privada o en un servidor DNS personalizado (si está configurado en la red virtual), o usa el DNS predeterminado proporcionado por Azure.</t>
+          <t>Cuando el grupo de back-end contiene un FQDN que se puede resolver, la resolución de DNS se basa en una zona DNS privada o en un servidor DNS personalizado (si está configurado en la red virtual), o bien usa el DNS predeterminado proporcionado por Azure.</t>
         </is>
       </c>
       <c r="E91" s="21" t="n"/>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="D93" s="21" t="inlineStr">
         <is>
-          <t>El uso de rutas definidas por el usuario (UDR) en la subred de Application Gateway puede causar algunos problemas. Es posible que se desconozca el estado de mantenimiento en el back-end. Es posible que no se generen los registros y las métricas de Application Gateway. Se recomienda no usar UDR en la subred de Application Gateway para poder ver el estado, los registros y las métricas del back-end. Si las organizaciones necesitan usar UDR en la subred de Application Gateway, asegúrese de revisar los escenarios admitidos. Para obtener más información, consulte Rutas definidas por el usuario admitidas.</t>
+          <t>El uso de rutas definidas por el usuario (UDR) en la subred de Application Gateway puede causar algunos problemas. Es posible que se desconozca el estado de mantenimiento en el back-end. Es posible que los registros y las métricas de Application Gateway no se generen. Se recomienda no usar UDR en la subred de Application Gateway para poder ver el estado, los registros y las métricas del back-end. Si las organizaciones necesitan usar UDR en la subred de Application Gateway, asegúrese de revisar los escenarios admitidos. Para obtener más información, consulte Rutas definidas por el usuario admitidas.</t>
         </is>
       </c>
       <c r="E93" s="21" t="n"/>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="D94" s="21" t="inlineStr">
         <is>
-          <t>Cuando WAF está habilitado, Application Gateway debe almacenar en búfer cada solicitud hasta que llegue por completo, comprueba si la solicitud coincide con alguna infracción de regla en su conjunto de reglas principal y, a continuación, reenvía el paquete a las instancias de back-end. Cuando hay cargas de archivos grandes (30 MB+ de tamaño), puede resultar en una latencia significativa. Dado que los requisitos de capacidad de Application Gateway son diferentes con WAF, no se recomienda habilitar WAF en Application Gateway sin las pruebas y validaciones adecuadas.</t>
+          <t>Cuando WAF está habilitado, Application Gateway debe almacenar en búfer cada solicitud hasta que llegue por completo, comprueba si la solicitud coincide con alguna infracción de regla en su conjunto de reglas principal y, a continuación, reenvía el paquete a las instancias de back-end. Cuando hay cargas de archivos grandes (30 MB + de tamaño), puede resultar en una latencia significativa. Dado que los requisitos de capacidad de Application Gateway son diferentes con WAF, no se recomienda habilitar WAF en Application Gateway sin las pruebas y validaciones adecuadas.</t>
         </is>
       </c>
       <c r="E94" s="21" t="n"/>
@@ -3887,7 +3887,7 @@
       <c r="B98" s="21" t="n"/>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Tener una política de escalado vertical y horizontal</t>
+          <t>Tener una política de escalado horizontal y horizontal</t>
         </is>
       </c>
       <c r="D98" s="21" t="inlineStr"/>
@@ -4015,12 +4015,12 @@
       <c r="B102" s="21" t="n"/>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Detener instancias de Application Gateway cuando no están en uso</t>
+          <t>Detener instancias de Application Gateway cuando no estén en uso</t>
         </is>
       </c>
       <c r="D102" s="21" t="inlineStr">
         <is>
-          <t>No se le facturará cuando Application Gateway esté en estado detenido. Las instancias de Application Gateway que se ejecutan de forma continua pueden incurrir en costos superfluos. Evalúe los patrones de uso y detenga las instancias cuando no las necesite. Por ejemplo, se espera que el uso después del horario comercial en entornos de desarrollo y pruebas sea bajo. Consulte estos artículos para obtener información sobre cómo detener e iniciar instancias.- Stop-AzApplicationGateway- Start-AzApplicationGateway</t>
+          <t>No se le facturará cuando Application Gateway esté en estado detenido. La ejecución continua de instancias de Application Gateway puede incurrir en costos superfluos. Evalúe los patrones de uso y detenga las instancias cuando no las necesite. Por ejemplo, se espera que el uso fuera del horario comercial en entornos de desarrollo y pruebas sea bajo. Consulte estos artículos para obtener información sobre cómo detener e iniciar instancias.- Stop-AzApplicationGateway- Start-AzApplicationGateway</t>
         </is>
       </c>
       <c r="E102" s="21" t="n"/>
@@ -4049,7 +4049,7 @@
       <c r="B103" s="21" t="n"/>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Tener una política de escalado vertical y horizontal</t>
+          <t>Tener una política de escalado horizontal y horizontal</t>
         </is>
       </c>
       <c r="D103" s="21" t="inlineStr">
@@ -4297,7 +4297,7 @@
       <c r="B111" s="21" t="n"/>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Tenga en cuenta las limitaciones de los puertos SNAT en su diseño</t>
+          <t>Tenga en cuenta las limitaciones de los puertos SNAT en el diseño</t>
         </is>
       </c>
       <c r="D111" s="21" t="inlineStr"/>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="D112" s="21" t="inlineStr">
         <is>
-          <t>Utilice estas métricas como indicadores de uso de la capacidad aprovisionada de Application Gateway. Le recomendamos encarecidamente que configure alertas sobre la capacidad. Para obtener más información, consulte Compatibilidad con el tráfico elevado de Application Gateway.</t>
+          <t>Use estas métricas como indicadores de uso de la capacidad aprovisionada de Application Gateway. Recomendamos encarecidamente configurar alertas sobre la capacidad. Para obtener más información, consulte Compatibilidad con alto tráfico de Application Gateway.</t>
         </is>
       </c>
       <c r="E112" s="21" t="n"/>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="D113" s="21" t="inlineStr">
         <is>
-          <t>Hay otras métricas que pueden indicar problemas en Application Gateway o en el back-end. Se recomienda evaluar las siguientes alertas:- Recuento de hosts incorrectos- Estado de respuesta (dimensión 4xx y 5xx)- Estado de respuesta del back-end (dimensión 4xx y 5xx)- Tiempo de respuesta del último byte del back-end- Tiempo total de Application GatewayPara obtener más información, consulte Métricas para Application Gateway.</t>
+          <t>Hay otras métricas que pueden indicar problemas en Application Gateway o en el back-end. Se recomienda evaluar las siguientes alertas:- Recuento de hosts incorrectos- Estado de respuesta (dimensión 4xx y 5xx)- Estado de respuesta de back-end (dimensión 4xx y 5xx)- Tiempo de respuesta del último byte de back-end- Tiempo total de Application GatewayPara obtener más información, consulte Métricas para Application Gateway.</t>
         </is>
       </c>
       <c r="E113" s="21" t="n"/>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="D116" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha configurado la configuración de IdleTimeout para que coincida con las características del agente de escucha y el tráfico de la aplicación back-end. El valor predeterminado se establece en cuatro minutos y se puede configurar hasta un máximo de 30. Para obtener más información, consulte Restablecimiento de TCP del equilibrador de carga y tiempo de espera de inactividad.Para obtener consideraciones sobre la carga de trabajo, consulte Supervisión del estado de la aplicación para la confiabilidad.</t>
+          <t>Asegúrese de que ha configurado la configuración de IdleTimeout para que coincida con las características de escucha y tráfico de la aplicación back-end. El valor predeterminado se establece en cuatro minutos y se puede configurar hasta un máximo de 30. Para obtener más información, consulte Restablecimiento de TCP del equilibrador de carga y tiempo de espera de inactividad.Para obtener consideraciones sobre la carga de trabajo, consulte Supervisión del estado de la aplicación para la confiabilidad.</t>
         </is>
       </c>
       <c r="E116" s="21" t="n"/>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D117" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway comprueba la versión de certificado renovada en la instancia de Key Vault vinculada cada intervalo de 4 horas. Si no se puede acceder a él debido a una configuración incorrecta de Key Vault, registra ese error y envía una recomendación de Advisor correspondiente. Debe configurar las alertas de Advisor para mantenerse actualizado y solucionar estos problemas de inmediato para evitar problemas relacionados con el plano de control o de datos. Para obtener más información, consulte Investigación y resolución de errores de Key Vault. Para establecer una alerta para este caso específico, use el tipo de recomendación como Resolver problema de Azure Key Vault para Application Gateway.</t>
+          <t>Application Gateway comprueba la versión de certificado renovada en el almacén de claves vinculado cada intervalo de 4 horas. Si no se puede acceder a él debido a una configuración incorrecta de Key Vault, registra ese error y envía una recomendación de Advisor correspondiente. Debe configurar las alertas de Advisor para mantenerse actualizado y solucionar dichos problemas de inmediato para evitar problemas relacionados con el plano de control o de datos. Para obtener más información, consulte Investigación y resolución de errores de Key Vault. Para establecer una alerta para este caso específico, use el tipo de recomendación como Resolver problema de Azure Key Vault para Application Gateway.</t>
         </is>
       </c>
       <c r="E117" s="21" t="n"/>
@@ -4527,12 +4527,12 @@
       <c r="B118" s="21" t="n"/>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Tenga en cuenta las limitaciones de los puertos SNAT en su diseño</t>
+          <t>Tenga en cuenta las limitaciones de los puertos SNAT en el diseño</t>
         </is>
       </c>
       <c r="D118" s="21" t="inlineStr">
         <is>
-          <t>Las limitaciones del puerto SNAT son importantes para las conexiones de back-end en Application Gateway. Hay factores independientes que afectan a la forma en que Application Gateway alcanza el límite de puertos SNAT. Por ejemplo, si el backend es una dirección IP pública, requerirá su propio puerto SNAT. Para evitar las limitaciones del puerto SNAT, puede aumentar el número de instancias por Application Gateway, escalar horizontalmente los back-end para que tengan más direcciones IP o mover los back-end a la misma red virtual y usar direcciones IP privadas para los back-ends. Las solicitudes por segundo (RPS) en Application Gateway se verán afectadas si se alcanza el límite de puertos SNAT. Por ejemplo, si Application Gateway alcanza el límite de puertos SNAT, no podrá abrir una nueva conexión al back-end y se producirá un error en la solicitud.</t>
+          <t>Las limitaciones del puerto SNAT son importantes para las conexiones de back-end en Application Gateway. Hay factores independientes que afectan a la forma en que Application Gateway alcanza el límite de puertos SNAT. Por ejemplo, si el backend es una dirección IP pública, requerirá su propio puerto SNAT. Para evitar las limitaciones del puerto SNAT, puede aumentar el número de instancias por Application Gateway, escalar horizontalmente los back-end para que tengan más direcciones IP o mover los back-end a la misma red virtual y usar direcciones IP privadas para los back-end. Las solicitudes por segundo (RPS) en Application Gateway se verán afectadas si se alcanza el límite de puertos SNAT. Por ejemplo, si una puerta de enlace de aplicaciones alcanza el límite de puertos SNAT, no podrá abrir una nueva conexión al back-end y se producirá un error en la solicitud.</t>
         </is>
       </c>
       <c r="E118" s="21" t="n"/>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D124" s="21" t="inlineStr">
         <is>
-          <t>En el caso de la SKU de Application Gateway v2, el escalado automático tarda algún tiempo (aproximadamente de seis a siete minutos) antes de que el conjunto adicional de instancias esté listo para atender el tráfico. Durante ese tiempo, si hay picos cortos en el tráfico, espere latencia transitoria o pérdida de tráfico. Le recomendamos que establezca el número mínimo de instancias en un nivel óptimo. Después de calcular el número medio de instancias y determinar las tendencias de escalado automático de Application Gateway, defina el recuento mínimo de instancias en función de los patrones de la aplicación. Para obtener información, consulte Compatibilidad con alto tráfico de Application Gateway. Compruebe las unidades de cálculo actuales del último mes. Esta métrica representa la utilización de la CPU de la puerta de enlace. Para definir el número mínimo de instancias, divida el uso máximo por 10. Por ejemplo, si el promedio de unidades de proceso actuales en el último mes es de 50, establezca el recuento mínimo de instancias en cinco.</t>
+          <t>En el caso de la SKU de Application Gateway v2, el escalado automático tarda algún tiempo (aproximadamente de seis a siete minutos) antes de que el conjunto adicional de instancias esté listo para atender el tráfico. Durante ese tiempo, si hay picos cortos en el tráfico, espere latencia transitoria o pérdida de tráfico. Le recomendamos que establezca el número mínimo de instancias en un nivel óptimo. Después de calcular el número medio de instancias y determinar las tendencias de escalado automático de Application Gateway, defina el número mínimo de instancias en función de los patrones de la aplicación. Para obtener información, consulte Compatibilidad con el tráfico alto de Application Gateway. Compruebe las unidades de proceso actuales del último mes. Esta métrica representa la utilización de la CPU de la puerta de enlace. Para definir el número mínimo de instancias, divida el uso máximo por 10. Por ejemplo, si el promedio de unidades de proceso actuales en el último mes es de 50, establezca el recuento mínimo de instancias en cinco.</t>
         </is>
       </c>
       <c r="E124" s="21" t="n"/>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="D126" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway necesita una subred dedicada dentro de una red virtual. La subred puede tener varias instancias del recurso de Application Gateway implementado. También puede implementar otros recursos de Application Gateway en esa SKU de subred, v1 o v2. Estas son algunas consideraciones para definir el tamaño de la subred:- Application Gateway usa una dirección IP privada por instancia y otra dirección IP privada si se configura una IP de front-end privada.- Azure reserva cinco direcciones IP en cada subred para uso interno.- Application Gateway (SKU estándar o WAF) puede admitir hasta 32 instancias. Tomando 32 direcciones IP de instancia + 1 IP de front-end privada + 5 reservadas de Azure, se recomienda un tamaño de subred mínimo de /26. Dado que la SKU de Standard_v2 o WAF_v2 puede admitir hasta 125 instancias, con el mismo cálculo, se recomienda un tamaño de subred de /24.- Si desea implementar recursos adicionales de Application Gateway en la misma subred, tenga en cuenta las direcciones IP adicionales que se requerirán para su recuento máximo de instancias tanto para Estándar como para Estándar v2.</t>
+          <t>Application Gateway necesita una subred dedicada dentro de una red virtual. La subred puede tener varias instancias del recurso de Application Gateway implementado. También puede implementar otros recursos de Application Gateway en esa SKU de subred, v1 o v2. Estas son algunas consideraciones para definir el tamaño de la subred:- Application Gateway usa una dirección IP privada por instancia y otra dirección IP privada si se configura una IP front-end privada.- Azure reserva cinco direcciones IP en cada subred para uso interno.- Application Gateway (SKU estándar o WAF) puede admitir hasta 32 instancias. Tomando 32 direcciones IP de instancia + 1 IP de front-end privada + 5 reservadas de Azure, se recomienda un tamaño de subred mínimo de /26. Dado que la SKU de Standard_v2 o WAF_v2 puede admitir hasta 125 instancias, con el mismo cálculo, se recomienda un tamaño de subred de /24.- Si desea implementar recursos adicionales de Application Gateway en la misma subred, tenga en cuenta las direcciones IP adicionales que se requerirán para su recuento máximo de instancias tanto para Estándar como para Estándar v2.</t>
         </is>
       </c>
       <c r="E126" s="21" t="n"/>
@@ -4810,12 +4810,12 @@
       <c r="B127" s="21" t="n"/>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Aproveche las características de escalado automático y las ventajas de rendimiento</t>
+          <t>Aproveche las características para el escalado automático y las ventajas de rendimiento</t>
         </is>
       </c>
       <c r="D127" s="21" t="inlineStr">
         <is>
-          <t>La SKU v2 ofrece escalado automático para garantizar que Application Gateway pueda escalar verticalmente a medida que aumenta el tráfico. En comparación con la SKU v1, v2 tiene capacidades que mejoran el rendimiento de la carga de trabajo. Por ejemplo, un mejor rendimiento de descarga de TLS, tiempos de implementación y actualización más rápidos, redundancia de zona y más. Para obtener más información sobre las características de escalado automático, consulte Escalado de Application Gateway v2 y WAF v2. Si ejecuta la SKU v1 Application Gateway, considere la posibilidad de migrar a la SKU Application Gateway v2. Para más información, consulte Migración de Azure Application Gateway y Web Application Firewall de v1 a v2.</t>
+          <t>La SKU v2 ofrece escalado automático para garantizar que Application Gateway se pueda escalar verticalmente a medida que aumenta el tráfico. En comparación con la SKU v1, v2 tiene capacidades que mejoran el rendimiento de la carga de trabajo. Por ejemplo, un mejor rendimiento de descarga de TLS, tiempos de implementación y actualización más rápidos, redundancia de zona y más. Para obtener más información sobre las características de escalado automático, consulte Escalado de Application Gateway v2 y WAF v2. Si ejecuta la SKU de Application Gateway v1, considere la posibilidad de migrar a la SKU de Application Gateway v2. Para obtener más información, consulte Migración de Azure Application Gateway y Web Application Firewall de v1 a v2.</t>
         </is>
       </c>
       <c r="E127" s="21" t="n"/>
@@ -4843,7 +4843,7 @@
       <c r="B128" s="21" t="n"/>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Use el análisis del modo de error: minimice los puntos de error teniendo en cuenta las dependencias internas, como la disponibilidad de redes virtuales, Azure Key Vault, Azure Content Delivery Network o Azure Front Door, puntos de conexión de Azure Front Door. Se pueden producir errores si las credenciales requeridas por las cargas de trabajo para acceder a Blob Storage desaparecen de Key Vault o si las cargas de trabajo usan un punto de conexión basado en una red de entrega de contenido que se quita. En estos casos, es posible que las cargas de trabajo deban usar un punto de conexión alternativo para conectarse. Para obtener información general sobre el análisis del modo de error, consulte Recomendaciones para realizar el análisis del modo de error.</t>
+          <t>Use el análisis del modo de error: minimice los puntos de error teniendo en cuenta las dependencias internas, como la disponibilidad de redes virtuales, Azure Key Vault, Azure Content Delivery Network o Azure Front Door, puntos de conexión. Se pueden producir errores si las credenciales necesarias para que las cargas de trabajo accedan a Blob Storage desaparecen de Key Vault o si las cargas de trabajo usan un punto de conexión basado en una red de entrega de contenido que se quita. En estos casos, es posible que las cargas de trabajo deban usar un punto de conexión alternativo para conectarse. Para obtener información general sobre el análisis del modo de error, consulte Recomendaciones para realizar el análisis del modo de error.</t>
         </is>
       </c>
       <c r="D128" s="21" t="inlineStr"/>
@@ -4872,7 +4872,7 @@
       <c r="B129" s="21" t="n"/>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Definir objetivos de confiabilidad y recuperación: revise los contratos de nivel de servicio (SLA) de Azure. Derive el objetivo de nivel de servicio (SLO) para la cuenta de almacenamiento. Por ejemplo, el SLO puede verse afectado por la configuración de redundancia que eligió. Tenga en cuenta el efecto de una interrupción regional, la posibilidad de pérdida de datos y el tiempo necesario para restaurar el acceso después de una interrupción. Tenga en cuenta también la disponibilidad de las dependencias internas que identificó como parte del análisis del modo de error.</t>
+          <t>Definición de objetivos de confiabilidad y recuperación: revise los contratos de nivel de servicio (SLA) de Azure. Derive el objetivo de nivel de servicio (SLO) para la cuenta de almacenamiento. Por ejemplo, el SLO puede verse afectado por la configuración de redundancia que eligió. Tenga en cuenta el efecto de una interrupción regional, la posibilidad de pérdida de datos y el tiempo necesario para restaurar el acceso después de una interrupción. Tenga en cuenta también la disponibilidad de las dependencias internas que identificó como parte del análisis del modo de error.</t>
         </is>
       </c>
       <c r="D129" s="21" t="inlineStr"/>
@@ -4930,7 +4930,7 @@
       <c r="B131" s="21" t="n"/>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Aplicaciones de diseño: diseñe aplicaciones para cambiar sin problemas a la lectura de datos de la región secundaria si la región primaria deja de estar disponible por cualquier motivo. Esto solo se aplica a las configuraciones de almacenamiento con redundancia geográfica (GRS) y almacenamiento con redundancia de zona geográfica (GZRS). El diseño de aplicaciones para manejar interrupciones reduce el tiempo de inactividad para los usuarios finales.</t>
+          <t>Aplicaciones de diseño: diseñe aplicaciones para que cambien sin problemas a la lectura de datos de la región secundaria si la región primaria deja de estar disponible por cualquier motivo. Esto solo se aplica a las configuraciones de almacenamiento con redundancia geográfica (GRS) y almacenamiento con redundancia de zona geográfica (GZRS). El diseño de aplicaciones para manejar interrupciones reduce el tiempo de inactividad para los usuarios finales.</t>
         </is>
       </c>
       <c r="D131" s="21" t="inlineStr"/>
@@ -4959,7 +4959,7 @@
       <c r="B132" s="21" t="n"/>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Explore las características que le ayudarán a cumplir sus objetivos de recuperación: haga que los blobs se puedan restaurar para que se puedan recuperar si se dañan, editan o eliminan por error.</t>
+          <t>Explore las características que le ayudarán a cumplir sus objetivos de recuperación: Haga que los blobs se puedan restaurar para que se puedan recuperar si se dañan, editan o eliminan por error.</t>
         </is>
       </c>
       <c r="D132" s="21" t="inlineStr"/>
@@ -4988,7 +4988,7 @@
       <c r="B133" s="21" t="n"/>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Cree un plan de recuperación: considere las características de protección de datos, las operaciones de copia de seguridad y restauración o los procedimientos de conmutación por error. Prepárese para posibles pérdidas de datos e inconsistencias de datos, así como para el tiempo y el costo de la conmutación por error. Para obtener más información, consulte Recomendaciones para diseñar una estrategia de recuperación ante desastres.</t>
+          <t>Cree un plan de recuperación: considere las características de protección de datos, las operaciones de copia de seguridad y restauración o los procedimientos de conmutación por error. Prepárese para posibles pérdidas de datos e inconsistencias en los datos, así como para el tiempo y el costo de la conmutación por error. Para obtener más información, consulte Recomendaciones para diseñar una estrategia de recuperación ante desastres.</t>
         </is>
       </c>
       <c r="D133" s="21" t="inlineStr"/>
@@ -5112,7 +5112,7 @@
       <c r="B137" s="21" t="n"/>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Como parte de la estrategia de copia de seguridad y recuperación, habilite las opciones de eliminación temporal de contenedor, eliminación temporal de blobs, control de versiones y restauración a un momento dado.</t>
+          <t>Como parte de la estrategia de copia de seguridad y recuperación, habilite las opciones de eliminación temporal de contenedores, eliminación temporal de blobs, control de versiones y restauración a un momento dado.</t>
         </is>
       </c>
       <c r="D137" s="21" t="inlineStr">
@@ -5203,7 +5203,7 @@
       <c r="B140" s="21" t="n"/>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Reducir la superficie expuesta a ataques: impedir el acceso anónimo, el acceso a claves de cuenta o el acceso a través de conexiones no seguras (HTTP) puede reducir la superficie expuesta a ataques. Requerir que los clientes envíen y reciban datos mediante la versión más reciente del protocolo de seguridad de la capa de transporte (TLS).</t>
+          <t>Reducir la superficie de ataque: Evitar el acceso anónimo, el acceso a claves de cuenta o el acceso a través de conexiones no seguras (HTTP) puede reducir la superficie de ataque. Exigir a los clientes que envíen y reciban datos mediante la versión más reciente del protocolo de seguridad de la capa de transporte (TLS).</t>
         </is>
       </c>
       <c r="D140" s="21" t="inlineStr"/>
@@ -5232,7 +5232,7 @@
       <c r="B141" s="21" t="n"/>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Autorice el acceso sin usar contraseñas o claves: Microsoft Entra ID proporciona una seguridad y facilidad de uso superiores en comparación con las claves compartidas y las firmas de acceso compartido. Otorgue a las entidades de seguridad solo los permisos necesarios para que realicen sus tareas.</t>
+          <t>Autorice el acceso sin usar contraseñas o claves: Microsoft Entra ID proporciona una seguridad y facilidad de uso superiores en comparación con las claves compartidas y las firmas de acceso compartido. Conceda a las entidades de seguridad solo los permisos necesarios para que realicen sus tareas.</t>
         </is>
       </c>
       <c r="D141" s="21" t="inlineStr"/>
@@ -5290,7 +5290,7 @@
       <c r="B143" s="21" t="n"/>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Habilitar la opción de transferencia segura requerida: habilitar esta configuración para todas las cuentas de almacenamiento garantiza que todas las solicitudes realizadas en la cuenta de almacenamiento deben realizarse a través de conexiones seguras. Se produce un error en las solicitudes realizadas a través de HTTP.</t>
+          <t>Habilitar la opción de transferencia segura requerida: la habilitación de esta configuración para todas las cuentas de almacenamiento garantiza que todas las solicitudes realizadas en la cuenta de almacenamiento se realicen a través de conexiones seguras. Se produce un error en las solicitudes realizadas a través de HTTP.</t>
         </is>
       </c>
       <c r="D143" s="21" t="inlineStr"/>
@@ -5319,7 +5319,7 @@
       <c r="B144" s="21" t="n"/>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Proteger objetos críticos: aplique políticas de inmutabilidad para proteger objetos críticos. Las directivas protegen los blobs que se almacenan con fines legales, de cumplimiento u otros fines empresariales para que no se modifiquen o eliminen. Configure las retenciones durante períodos de tiempo establecidos o hasta que un administrador levante las restricciones.</t>
+          <t>Proteger objetos críticos: aplique políticas de inmutabilidad para proteger objetos críticos. Las directivas protegen los blobs que se almacenan con fines legales, de cumplimiento u otros fines empresariales para que no se modifiquen o eliminen. Configure retenciones durante períodos de tiempo establecidos o hasta que un administrador levante las restricciones.</t>
         </is>
       </c>
       <c r="D144" s="21" t="inlineStr"/>
@@ -5348,7 +5348,7 @@
       <c r="B145" s="21" t="n"/>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Detección de amenazas: habilite Microsoft Defender para Storage para detectar amenazas. Las alertas de seguridad se activan cuando se producen anomalías en la actividad. Las alertas notifican a los administradores de suscripciones por correo electrónico con detalles de actividades sospechosas y recomendaciones sobre cómo investigar y remediar amenazas.</t>
+          <t>Detección de amenazas: habilite Microsoft Defender para Storage para detectar amenazas. Las alertas de seguridad se activan cuando se producen anomalías en la actividad. Las alertas notifican a los administradores de suscripciones por correo electrónico con detalles de actividad sospechosa y recomendaciones sobre cómo investigar y remediar las amenazas.</t>
         </is>
       </c>
       <c r="D145" s="21" t="inlineStr"/>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="D148" s="21" t="inlineStr">
         <is>
-          <t>Comience con acceso cero y, a continuación, autorice gradualmente los niveles más bajos de acceso necesarios para los clientes y los servicios a fin de minimizar el riesgo de crear aperturas innecesarias para los atacantes.</t>
+          <t>Comience con acceso cero y, a continuación, autorice gradualmente los niveles más bajos de acceso necesarios para los clientes y servicios a fin de minimizar el riesgo de crear aperturas innecesarias para los atacantes.</t>
         </is>
       </c>
       <c r="E148" s="21" t="n"/>
@@ -5509,12 +5509,12 @@
       <c r="B150" s="21" t="n"/>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>No permitir la autorización de clave compartida. Esto deshabilita no solo el acceso a la clave de cuenta, sino también los tokens de firma de acceso compartido de cuenta y servicio, ya que se basan en claves de cuenta.</t>
+          <t>No permitir la autorización de clave compartida. Esto deshabilita no solo el acceso a la clave de cuenta, sino también a los tokens de firma de acceso compartido de cuenta y servicio, ya que se basan en claves de cuenta.</t>
         </is>
       </c>
       <c r="D150" s="21" t="inlineStr">
         <is>
-          <t>Solo se permiten las solicitudes protegidas que estén autorizadas con el identificador de Microsoft Entra.</t>
+          <t>Solo se permiten las solicitudes protegidas autorizadas con el identificador de Microsoft Entra.</t>
         </is>
       </c>
       <c r="E150" s="21" t="n"/>
@@ -5575,7 +5575,7 @@
       <c r="B152" s="21" t="n"/>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda no usar tokens de firma de acceso compartido. Evalúe si necesita tokens de firma de acceso compartido para proteger el acceso a los recursos de Blob Storage. Si debe crear una, revise esta lista de prácticas recomendadas para la firma de acceso compartido antes de crearla y distribuirla.</t>
+          <t>Se recomienda no usar tokens de firma de acceso compartido. Evalúe si necesita tokens de firma de acceso compartido para proteger el acceso a los recursos de Blob Storage. Si debe crear una, revise esta lista de prácticas recomendadas para firmas de acceso compartido antes de crearla y distribuirla.</t>
         </is>
       </c>
       <c r="D152" s="21" t="inlineStr">
@@ -5703,7 +5703,7 @@
       <c r="B156" s="21" t="n"/>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Comprenda el precio de cada medidor: asegúrese de usar la página de precios adecuada y aplique la configuración adecuada en esa página. Para obtener más información, consulte Búsqueda del precio unitario de cada medidor. Tenga en cuenta el número de operaciones asociadas a cada precio. Por ejemplo, el precio asociado a las operaciones de escritura y lectura se aplica a 10.000 operaciones. Para determinar el precio de una operación individual, divida el precio de lista por 10.000.</t>
+          <t>Comprenda el precio de cada medidor: asegúrese de usar la página de precios adecuada y aplicar la configuración adecuada en esa página. Para obtener más información, consulte Búsqueda del precio unitario de cada medidor. Tenga en cuenta el número de operaciones asociadas a cada precio. Por ejemplo, el precio asociado a las operaciones de escritura y lectura se aplica a 10.000 operaciones. Para determinar el precio de una operación individual, divida el precio de lista por 10.000.</t>
         </is>
       </c>
       <c r="D156" s="21" t="inlineStr"/>
@@ -5732,7 +5732,7 @@
       <c r="B157" s="21" t="n"/>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Calcular el costo de la capacidad y las operaciones: puede modelar los costos asociados con el almacenamiento, la entrada y la salida de datos mediante la calculadora de precios de Azure. Utilice campos para comparar el costo asociado con varias regiones, tipos de cuenta, tipos de espacio de nombres y configuraciones de redundancia. Para determinados escenarios, puede usar cálculos de ejemplo y hojas de cálculo disponibles en la documentación de Microsoft. Por ejemplo, puede calcular el costo de archivar datos o calcular el costo de usar el comando AzCopy para transferir blobs.</t>
+          <t>Calcule el costo de la capacidad y las operaciones: puede modelar los costos asociados con el almacenamiento, la entrada y la salida de datos mediante la calculadora de precios de Azure. Utilice campos para comparar el costo asociado con varias regiones, tipos de cuenta, tipos de espacio de nombres y configuraciones de redundancia. Para determinados escenarios, puede usar cálculos de ejemplo y hojas de cálculo disponibles en la documentación de Microsoft. Por ejemplo, puede calcular el costo de archivar datos o calcular el costo de usar el comando AzCopy para transferir blobs.</t>
         </is>
       </c>
       <c r="D157" s="21" t="inlineStr"/>
@@ -5790,7 +5790,7 @@
       <c r="B159" s="21" t="n"/>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Elija un tipo de cuenta, un nivel de redundancia y un nivel de acceso predeterminado: debe seleccionar un valor para cada una de estas opciones al crear una cuenta de almacenamiento. Todos los valores afectan a los cargos de transacción y a los cargos de capacidad. Todas estas configuraciones, excepto el tipo de cuenta, se pueden cambiar después de crear la cuenta.</t>
+          <t>Elija un tipo de cuenta, un nivel de redundancia y un nivel de acceso predeterminado: debe seleccionar un valor para cada una de estas opciones de configuración al crear una cuenta de almacenamiento. Todos los valores afectan a los cargos de transacción y a los cargos de capacidad. Todas estas configuraciones, excepto el tipo de cuenta, se pueden cambiar después de crear la cuenta.</t>
         </is>
       </c>
       <c r="D159" s="21" t="inlineStr"/>
@@ -5819,7 +5819,7 @@
       <c r="B160" s="21" t="n"/>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Elija el nivel de acceso predeterminado más rentable: a menos que se especifique un nivel con cada carga de blobs, los blobs deducen su nivel de acceso de la configuración del nivel de acceso predeterminado. Un cambio en la configuración del nivel de acceso predeterminado de una cuenta de almacenamiento se aplica a todos los blobs de la cuenta para los que no se ha establecido explícitamente un nivel de acceso. Este costo podría ser significativo si ha recopilado un gran número de blobs. Para obtener más información sobre cómo afecta un cambio de nivel a cada blob existente, consulte Cambiar el nivel de acceso de un blob.</t>
+          <t>Elija el nivel de acceso predeterminado más rentable: a menos que se especifique un nivel con cada carga de blobs, los blobs deducen su nivel de acceso de la configuración predeterminada del nivel de acceso. Un cambio en la configuración del nivel de acceso predeterminado de una cuenta de almacenamiento se aplica a todos los blobs de la cuenta para los que no se ha establecido explícitamente un nivel de acceso. Este costo podría ser significativo si ha recopilado un gran número de blobs. Para obtener más información sobre cómo afecta un cambio de nivel a cada blob existente, consulte Cambiar el nivel de acceso de un blob.</t>
         </is>
       </c>
       <c r="D160" s="21" t="inlineStr"/>
@@ -5848,7 +5848,7 @@
       <c r="B161" s="21" t="n"/>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Cargue datos directamente en el nivel de acceso más rentable: por ejemplo, si la configuración del nivel de acceso predeterminado de su cuenta es frecuente, pero está cargando archivos con fines de archivado, especifique un nivel más esporádico como archivo o un nivel inactivo como parte de la operación de carga. Después de cargar blobs, use políticas de administración del ciclo de vida para mover los blobs a los niveles más rentables en función de las métricas de uso, como la hora del último acceso. Elegir el nivel más óptimo por adelantado puede reducir los costos. Si cambia el nivel de un blob en bloques que ya ha cargado, pagará el costo de escribir en el nivel inicial cuando cargue el blob por primera vez y, a continuación, pagará el costo de escribir en el nivel deseado.</t>
+          <t>Cargue datos directamente en el nivel de acceso más rentable: por ejemplo, si la configuración del nivel de acceso predeterminado de su cuenta es frecuente, pero está cargando archivos con fines de archivado, especifique un nivel más esporádico como archivo o un nivel inactivo como parte de la operación de carga. Después de cargar blobs, use directivas de administración del ciclo de vida para mover los blobs a los niveles más rentables en función de las métricas de uso, como la hora del último acceso. Elegir el nivel más óptimo por adelantado puede reducir los costos. Si cambia el nivel de un blob en bloques que ya ha cargado, pagará el costo de escribir en el nivel inicial cuando cargue el blob por primera vez y, a continuación, pagará el costo de escribir en el nivel deseado.</t>
         </is>
       </c>
       <c r="D161" s="21" t="inlineStr"/>
@@ -5906,7 +5906,7 @@
       <c r="B163" s="21" t="n"/>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Decida qué características necesita: algunas características, como el control de versiones y la eliminación temporal de blobs, incurren en costos de transacción y capacidad adicionales, así como en otros cargos. Asegúrese de revisar las secciones de precios y facturación en los artículos que describen esas capacidades cuando elija qué capacidades agregar a su cuenta.</t>
+          <t>Decida qué características necesita: algunas características, como el control de versiones y la eliminación temporal de blobs, incurren en costos de transacción y capacidad adicionales, así como en otros cargos. Asegúrese de revisar las secciones de precios y facturación de los artículos que describen esas capacidades cuando elija qué capacidades agregar a su cuenta.</t>
         </is>
       </c>
       <c r="D163" s="21" t="inlineStr"/>
@@ -5993,7 +5993,7 @@
       <c r="B166" s="21" t="n"/>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Supervise el uso: supervise continuamente los patrones de uso y detecte cuentas y contenedores no utilizados o infrautilizados. Use la información de almacenamiento para identificar cuentas sin uso o con poco uso. Habilite los informes de inventario de blobs y use herramientas como Azure Databricks o Azure Synapse Analytics y Power BI para analizar los datos de costos. Tenga cuidado con los aumentos inesperados de la capacidad, lo que podría indicar que está recopilando numerosos archivos de registro, versiones de blobs o blobs eliminados temporalmente. Desarrolle una estrategia para la caducidad o la transición de objetos a niveles de acceso más rentables. Tenga un plan para los objetos que caducan o los que los mueve a niveles de acceso más asequibles.</t>
+          <t>Supervise el uso: supervise continuamente los patrones de uso y detecte cuentas y contenedores no utilizados o infrautilizados. Use la información de almacenamiento para identificar cuentas con un uso bajo o nulo. Habilite los informes de inventario de blobs y use herramientas como Azure Databricks o Azure Synapse Analytics y Power BI para analizar los datos de costos. Esté atento a los aumentos inesperados de la capacidad, lo que podría indicar que está recopilando numerosos archivos de registro, versiones de blobs o blobs eliminados temporalmente. Desarrolle una estrategia para caducar o hacer la transición de objetos a niveles de acceso más rentables. Tenga un plan para los objetos que caducan o los que los mueve a niveles de acceso más asequibles.</t>
         </is>
       </c>
       <c r="D166" s="21" t="inlineStr"/>
@@ -6022,12 +6022,12 @@
       <c r="B167" s="21" t="n"/>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Empaquete archivos pequeños en archivos más grandes antes de moverlos a niveles más esporádicos. Puede utilizar formatos de archivo como TAR o ZIP.</t>
+          <t>Empaqueta archivos pequeños en archivos más grandes antes de moverlos a niveles más esporádicos. Puede utilizar formatos de archivo como TAR o ZIP.</t>
         </is>
       </c>
       <c r="D167" s="21" t="inlineStr">
         <is>
-          <t>Los niveles de esporádico tienen costos de transferencia de datos más altos. Al tener menos archivos grandes, puede reducir el número de operaciones necesarias para transferir datos.</t>
+          <t>Los niveles más esporádicos tienen costos de transferencia de datos más altos. Al tener menos archivos grandes, puede reducir el número de operaciones necesarias para transferir datos.</t>
         </is>
       </c>
       <c r="E167" s="21" t="n"/>
@@ -6088,12 +6088,12 @@
       <c r="B169" s="21" t="n"/>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Reduzca el costo de usar registros de recursos eligiendo la ubicación de almacenamiento de registros adecuada y administrando los períodos de retención de registros. Si solo planea consultar registros ocasionalmente (por ejemplo, consultar registros para auditoría de cumplimiento), considere la posibilidad de enviar registros de recursos a una cuenta de almacenamiento en lugar de enviarlos a un área de trabajo de registros de Azure Monitor. Puede usar una solución de consulta sin servidor, como Azure Synapse Analytics, para analizar los registros. Para obtener más información, consulte Optimización del costo para consultas poco frecuentes. Utilice políticas de administración del ciclo de vida para eliminar o archivar registros.</t>
+          <t>Reduzca el costo del uso de registros de recursos eligiendo la ubicación de almacenamiento de registros adecuada y administrando los períodos de retención de registros. Si solo planea consultar registros ocasionalmente (por ejemplo, consultar registros para auditoría de cumplimiento), considere la posibilidad de enviar registros de recursos a una cuenta de almacenamiento en lugar de enviarlos a un área de trabajo de registros de Azure Monitor. Puede usar una solución de consulta sin servidor, como Azure Synapse Analytics, para analizar los registros. Para obtener más información, consulte Optimización del costo para consultas poco frecuentes. Utilice políticas de administración del ciclo de vida para eliminar o archivar registros.</t>
         </is>
       </c>
       <c r="D169" s="21" t="inlineStr">
         <is>
-          <t>Almacenar registros de recursos en una cuenta de almacenamiento para su posterior análisis puede ser una opción más económica. El uso de políticas de administración del ciclo de vida para administrar la retención de registros en una cuenta de almacenamiento evita que se acumule un gran número de archivos de registros con el tiempo, lo que puede provocar cargos de capacidad innecesarios.</t>
+          <t>Almacenar registros de recursos en una cuenta de almacenamiento para su posterior análisis puede ser una opción más económica. El uso de directivas de administración del ciclo de vida para administrar la retención de registros en una cuenta de almacenamiento evita que se acumule un gran número de archivos de registros con el tiempo, lo que puede provocar cargos de capacidad innecesarios.</t>
         </is>
       </c>
       <c r="E169" s="21" t="n"/>
@@ -6120,7 +6120,7 @@
       <c r="B170" s="21" t="n"/>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Si habilita el control de versiones, use una política de administración del ciclo de vida para eliminar automáticamente las versiones antiguas de los blobs.</t>
+          <t>Si habilita el control de versiones, use una política de administración del ciclo de vida para eliminar automáticamente las versiones antiguas de blobs.</t>
         </is>
       </c>
       <c r="D170" s="21" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="D171" s="21" t="inlineStr">
         <is>
-          <t>Cada vez que se sobrescribe un blob, se agrega una nueva versión, lo que aumenta los cargos por capacidad de almacenamiento. Para reducir los cargos de capacidad, almacene los datos que se sobrescriben con frecuencia en una cuenta de almacenamiento independiente con el control de versiones deshabilitado.</t>
+          <t>Cada vez que se sobrescribe un blob, se agrega una nueva versión, lo que aumenta los cargos por capacidad de almacenamiento. Para reducir los cargos de capacidad, almacene los datos sobrescritos con frecuencia en una cuenta de almacenamiento independiente con el control de versiones deshabilitado.</t>
         </is>
       </c>
       <c r="E171" s="21" t="n"/>
@@ -6280,7 +6280,7 @@
       <c r="B175" s="21" t="n"/>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Cree planes de mantenimiento y recuperación de emergencia: tenga en cuenta las características de protección de datos, las operaciones de copia de seguridad y restauración, y los procedimientos de conmutación por error. Prepárese para posibles pérdidas de datos e inconsistencias de datos, así como para el tiempo y el costo de la conmutación por error.</t>
+          <t>Cree planes de mantenimiento y recuperación de emergencia: tenga en cuenta las características de protección de datos, las operaciones de copia de seguridad y restauración, y los procedimientos de conmutación por error. Prepárese para posibles pérdidas de datos e inconsistencias en los datos, así como para el tiempo y el costo de la conmutación por error.</t>
         </is>
       </c>
       <c r="D175" s="21" t="inlineStr"/>
@@ -6336,7 +6336,7 @@
       <c r="B177" s="21" t="n"/>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Habilitar informes de inventario de blobs: habilite los informes de inventario de blobs para revisar el estado de retención, retención legal o cifrado del contenido de la cuenta de almacenamiento. También puede usar informes de inventario de blobs para comprender el tamaño total de los datos, la antigüedad, la distribución de niveles u otros atributos de los datos. Use herramientas como Azure Databricks o Azure Synapse Analytics y Power BI para visualizar mejor los datos de inventario y crear informes para las partes interesadas.</t>
+          <t>Habilitar informes de inventario de blobs: habilite los informes de inventario de blobs para revisar el estado de retención, retención legal o cifrado del contenido de la cuenta de almacenamiento. También puede usar los informes de inventario de blobs para comprender el tamaño total de los datos, la antigüedad, la distribución de niveles u otros atributos de los datos. Use herramientas como Azure Databricks o Azure Synapse Analytics y Power BI para visualizar mejor los datos de inventario y crear informes para las partes interesadas.</t>
         </is>
       </c>
       <c r="D177" s="21" t="inlineStr"/>
@@ -6364,7 +6364,7 @@
       <c r="B178" s="21" t="n"/>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Configure directivas que eliminen blobs o los muevan a niveles de acceso rentables: cree una política de administración del ciclo de vida con un conjunto inicial de condiciones. La directiva se ejecuta, elimina o establece automáticamente el nivel de acceso de los blobs en función de las condiciones que defina. Analice periódicamente el uso de contenedores mediante el uso de métricas de supervisión e informes de inventario de blobs para que pueda refinar las condiciones y optimizar la rentabilidad.</t>
+          <t>Configure políticas que eliminen blobs o los muevan a niveles de acceso rentables: cree una política de administración del ciclo de vida con un conjunto inicial de condiciones. Las ejecuciones de directivas eliminan o establecen automáticamente el nivel de acceso de los blobs en función de las condiciones que defina. Analice periódicamente el uso de contenedores mediante el uso de métricas de supervisión e informes de inventario de blobs para que pueda refinar las condiciones y optimizar la rentabilidad.</t>
         </is>
       </c>
       <c r="D178" s="21" t="inlineStr"/>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="D180" s="21" t="inlineStr">
         <is>
-          <t>Puede realizar un seguimiento del estado y el funcionamiento de cada una de sus cuentas. Cree fácilmente paneles e informes que las partes interesadas pueden usar para realizar un seguimiento del estado de sus cuentas de almacenamiento.</t>
+          <t>Puede realizar un seguimiento del estado y el funcionamiento de cada una de sus cuentas. Cree fácilmente paneles e informes que las partes interesadas puedan usar para realizar un seguimiento del estado de sus cuentas de almacenamiento.</t>
         </is>
       </c>
       <c r="E180" s="21" t="n"/>
@@ -6456,7 +6456,7 @@
       <c r="B181" s="21" t="n"/>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Planeación de la escala: descripción de los objetivos de escala para las cuentas de almacenamiento.</t>
+          <t>Planeación de la escala: comprenda los objetivos de escala de las cuentas de almacenamiento.</t>
         </is>
       </c>
       <c r="D181" s="21" t="inlineStr"/>
@@ -6484,7 +6484,7 @@
       <c r="B182" s="21" t="n"/>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Elija el tipo de cuenta de almacenamiento óptimo: si la carga de trabajo requiere altas tasas de transacción, objetos más pequeños y una latencia de transacción baja y constante, considere la posibilidad de usar cuentas de almacenamiento premium de blobs en bloques. En la mayoría de los casos, una cuenta estándar de uso general v2 es la más adecuada.</t>
+          <t>Elija el tipo de cuenta de almacenamiento óptimo: si su carga de trabajo requiere altas tasas de transacción, objetos más pequeños y una latencia de transacción baja y constante, considere la posibilidad de usar cuentas de almacenamiento premium de blobs en bloques. En la mayoría de los casos, una cuenta estándar de uso general v2 es la más adecuada.</t>
         </is>
       </c>
       <c r="D182" s="21" t="inlineStr"/>
@@ -6624,7 +6624,7 @@
       <c r="B187" s="21" t="n"/>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Recopilación de datos de rendimiento: supervise la cuenta de almacenamiento para identificar los cuellos de botella de rendimiento que se producen debido a la limitación. Para obtener más información, consulte Supervisión del servicio de almacenamiento con información de Supervisar almacenamiento. Utilice tanto las métricas como los registros. Las métricas proporcionan números como los errores de limitación. Los registros describen la actividad. Si ve métricas de limitación, puede usar registros para identificar qué clientes reciben errores de limitación. Para obtener más información, consulte Auditoría de operaciones del plano de datos.</t>
+          <t>Recopilación de datos de rendimiento: supervise la cuenta de almacenamiento para identificar los cuellos de botella de rendimiento que se producen debido a la limitación. Para obtener más información, consulte Supervisión del servicio de almacenamiento con información de supervisión del almacenamiento. Utilice tanto las métricas como los registros. Las métricas proporcionan números, como los errores de limitación. Los registros describen la actividad. Si ve métricas de limitación, puede usar registros para identificar qué clientes reciben errores de limitación. Para obtener más información, consulte Auditoría de operaciones del plano de datos.</t>
         </is>
       </c>
       <c r="D187" s="21" t="inlineStr"/>
@@ -6652,7 +6652,7 @@
       <c r="B188" s="21" t="n"/>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione cuentas de almacenamiento en la misma región donde se colocan los recursos dependientes. En el caso de las aplicaciones que no están hospedadas en Azure, como aplicaciones de dispositivos móviles o servicios empresariales locales, ubique la cuenta de almacenamiento en una región más cercana a esos clientes. Para obtener más información, consulte Geografías de Azure. Si los clientes de una región diferente no requieren los mismos datos, cree una cuenta independiente en cada región. Si los clientes de una región diferente solo requieren algunos datos, considere la posibilidad de usar una directiva de replicación de objetos para copiar de forma asincrónica los objetos relevantes en una cuenta de almacenamiento de la otra región.</t>
+          <t>Aprovisione cuentas de almacenamiento en la misma región donde se colocan los recursos dependientes. En el caso de las aplicaciones que no están hospedadas en Azure, como las aplicaciones de dispositivos móviles o los servicios empresariales locales, ubique la cuenta de almacenamiento en una región más cercana a esos clientes. Para más información, consulte Geografías de Azure. Si los clientes de una región diferente no requieren los mismos datos, cree una cuenta independiente en cada región. Si los clientes de una región diferente solo requieren algunos datos, considere la posibilidad de usar una directiva de replicación de objetos para copiar de forma asincrónica los objetos relevantes en una cuenta de almacenamiento de la otra región.</t>
         </is>
       </c>
       <c r="D188" s="21" t="inlineStr">
@@ -6748,12 +6748,12 @@
       <c r="B191" s="21" t="n"/>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Al cargar blobs o bloques, use un tamaño de blob o bloque superior a 256 KiB.</t>
+          <t>Al cargar blobs o bloques, use un tamaño de blob o bloque superior a 256 KB.</t>
         </is>
       </c>
       <c r="D191" s="21" t="inlineStr">
         <is>
-          <t>Los tamaños de blob o bloque superiores a 256 KiB aprovechan las mejoras de rendimiento de la plataforma creadas específicamente para blobs y tamaños de bloque más grandes.</t>
+          <t>Los tamaños de blob o bloque superiores a 256 KB aprovechan las mejoras de rendimiento de la plataforma, creadas específicamente para blobs y tamaños de bloque más grandes.</t>
         </is>
       </c>
       <c r="E191" s="21" t="n"/>
@@ -6836,7 +6836,7 @@
       <c r="B194" s="21" t="n"/>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Configure las puertas de enlace de red virtual de ExpressRoute compatibles con la zona de disponibilidad.</t>
+          <t>Configure puertas de enlace de red virtual de ExpressRoute compatibles con zonas de disponibilidad.</t>
         </is>
       </c>
       <c r="D194" s="21" t="inlineStr"/>
@@ -6953,7 +6953,7 @@
       </c>
       <c r="D198" s="21" t="inlineStr">
         <is>
-          <t>Durante la fase de planeación inicial, debe decidir si desea configurar un circuito ExpressRoute o una conexión ExpressRoute Direct. Un circuito ExpressRoute permite una conexión privada dedicada a Azure con la ayuda de un proveedor de conectividad. ExpressRoute Direct permite extender la red local directamente a la red de Microsoft en una ubicación de emparejamiento. También debe identificar el requisito de ancho de banda y el requisito de tipo de SKU para las necesidades de su empresa.</t>
+          <t>Durante la fase de planeación inicial, debe decidir si desea configurar un circuito ExpressRoute o una conexión ExpressRoute Direct. Un circuito ExpressRoute permite una conexión privada dedicada a Azure con la ayuda de un proveedor de conectividad. ExpressRoute Direct permite ampliar la red local directamente a la red de Microsoft en una ubicación de emparejamiento. También debe identificar el requisito de ancho de banda y el requisito de tipo de SKU para las necesidades de su negocio.</t>
         </is>
       </c>
       <c r="E198" s="21" t="n"/>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="D199" s="21" t="inlineStr">
         <is>
-          <t>Para mejorar la resistencia, planee tener varias rutas de acceso entre el perímetro local y las ubicaciones de emparejamiento (ubicaciones perimetrales del proveedor/Microsoft). Esta configuración se puede lograr a través de un proveedor de servicios diferente o a través de una ubicación diferente de la red local.</t>
+          <t>Para mejorar la resistencia, planee tener varias rutas de acceso entre el perímetro local y las ubicaciones de emparejamiento (ubicaciones perimetrales del proveedor/Microsoft). Esta configuración se puede lograr pasando por un proveedor de servicios diferente o a través de una ubicación diferente de la red local.</t>
         </is>
       </c>
       <c r="E199" s="21" t="n"/>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="D200" s="21" t="inlineStr">
         <is>
-          <t>Para planear la recuperación ante desastres, configure circuitos ExpressRoute en más de una ubicación de emparejamiento. Puede crear circuitos en ubicaciones de emparejamiento en el mismo metro o en uno diferente y elegir trabajar con diferentes proveedores de servicios para diversas rutas a través de cada circuito. Para obtener más información, consulte Diseño para la recuperación ante desastres y Diseño para alta disponibilidad.</t>
+          <t>Para planear la recuperación ante desastres, configure circuitos ExpressRoute en más de una ubicación de emparejamiento. Puede crear circuitos en ubicaciones de emparejamiento en el mismo metro o en diferentes áreas metropolitanas y elegir trabajar con diferentes proveedores de servicios para diversas rutas a través de cada circuito. Para obtener más información, consulte Diseño para la recuperación ante desastres y Diseño para alta disponibilidad.</t>
         </is>
       </c>
       <c r="E200" s="21" t="n"/>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="D202" s="21" t="inlineStr">
         <is>
-          <t>Cree una puerta de enlace de red virtual compatible con la zona de disponibilidad para una mayor resistencia y planifique puertas de enlace de red virtual en diferentes regiones para la recuperación ante desastres y la alta disponibilidad.</t>
+          <t>Cree una puerta de enlace de red virtual compatible con la zona de disponibilidad para una mayor resistencia y planee puertas de enlace de red virtual en diferentes regiones para la recuperación ante desastres y la alta disponibilidad.</t>
         </is>
       </c>
       <c r="E202" s="21" t="n"/>
@@ -7413,7 +7413,7 @@
       </c>
       <c r="D213" s="21" t="inlineStr">
         <is>
-          <t>La seguridad del control de acceso a medios es una seguridad punto a punto en la capa de enlace de datos. ExpressRoute Direct admite la configuración de MACSec para evitar amenazas de seguridad a protocolos como ARP, DHCP, LACP que normalmente no están protegidos en el vínculo Ethernet. Para obtener más información sobre cómo configurar MACSec, consulte MACSec para puertos ExpressRoute Direct.</t>
+          <t>La seguridad de control de acceso a medios es una seguridad punto a punto en la capa de enlace de datos. ExpressRoute Direct admite la configuración de MACSec para evitar amenazas de seguridad a protocolos como ARP, DHCP, LACP que normalmente no están protegidos en el vínculo Ethernet. Para obtener más información sobre cómo configurar MACSec, consulte MACSec para puertos ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="E213" s="21" t="n"/>
@@ -7584,7 +7584,7 @@
       <c r="B219" s="21" t="n"/>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>Desaprovisionamiento de circuitos ExpressRoute que ya no están en uso.</t>
+          <t>Desaprovisionar los circuitos ExpressRoute que ya no están en uso.</t>
         </is>
       </c>
       <c r="D219" s="21" t="inlineStr"/>
@@ -7644,12 +7644,12 @@
       <c r="B221" s="21" t="n"/>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>Determinar el SKU y el ancho de banda necesarios</t>
+          <t>Determinar la SKU y el ancho de banda necesarios</t>
         </is>
       </c>
       <c r="D221" s="21" t="inlineStr">
         <is>
-          <t>La forma en que se le cobra por el uso de ExpressRoute varía entre los tres tipos de SKU diferentes. Con el SKU local, se te cobra automáticamente un plan de datos ilimitados. Con los SKU Estándar y Premium, puedes seleccionar entre un plan de datos medido o ilimitado. Todos los datos de entrada son gratuitos, excepto cuando se utiliza el complemento Global Reach. Es importante comprender qué tipos de SKU y plan de datos funcionan mejor para su carga de trabajo para optimizar mejor el costo y el presupuesto. Para obtener más información sobre cómo cambiar el tamaño del circuito ExpressRoute, consulte Actualización del ancho de banda del circuito ExpressRoute.</t>
+          <t>La forma en que se le cobra por el uso de ExpressRoute varía entre los tres tipos de SKU diferentes. Con el SKU local, se te cobra automáticamente un plan de datos ilimitados. Con los SKU Estándar y Premium, puedes elegir entre un plan de datos medido o ilimitado. Todos los datos de entrada son gratuitos, excepto cuando se utiliza el complemento Global Reach. Es importante comprender qué tipos de SKU y plan de datos funcionan mejor para su carga de trabajo para optimizar mejor el costo y el presupuesto. Para obtener más información sobre cómo cambiar el tamaño del circuito ExpressRoute, consulte Actualización del ancho de banda del circuito ExpressRoute.</t>
         </is>
       </c>
       <c r="E221" s="21" t="n"/>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="D222" s="21" t="inlineStr">
         <is>
-          <t>Las puertas de enlace de red virtual de ExpressRoute se usan para pasar tráfico a una red virtual a través del emparejamiento privado. Revise las necesidades de rendimiento y escalado de la SKU de puerta de enlace de red virtual preferida. Seleccione la SKU de puerta de enlace adecuada en la carga de trabajo local a Azure.</t>
+          <t>Las puertas de enlace de red virtual de ExpressRoute se usan para pasar tráfico a una red virtual a través del emparejamiento privado. Revise las necesidades de rendimiento y escalado de su SKU de puerta de enlace de red virtual preferida. Seleccione la SKU de puerta de enlace adecuada en la carga de trabajo local a Azure.</t>
         </is>
       </c>
       <c r="E222" s="21" t="n"/>
@@ -7745,7 +7745,7 @@
       </c>
       <c r="D224" s="21" t="inlineStr">
         <is>
-          <t>Los circuitos ExpressRoute se cargan desde el momento en que se crean. Para reducir el costo innecesario, desaprovisione el circuito con el proveedor de servicios y elimine el circuito ExpressRoute de la suscripción. Para conocer los pasos sobre cómo quitar un circuito ExpressRoute, consulte Desaprovisionamiento de un circuito ExpressRoute.</t>
+          <t>Los circuitos ExpressRoute se cobran desde el momento en que se crean. Para reducir costos innecesarios, desaprovisione el circuito con el proveedor de servicios y elimine el circuito ExpressRoute de la suscripción. Para conocer los pasos sobre cómo quitar un circuito ExpressRoute, consulte Desaprovisionamiento de un circuito ExpressRoute.</t>
         </is>
       </c>
       <c r="E224" s="21" t="n"/>
@@ -7772,7 +7772,7 @@
       <c r="B225" s="21" t="n"/>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>Configure la supervisión de conexiones entre el entorno local y la red de Azure.</t>
+          <t>Configure la supervisión de la conexión entre el entorno local y la red de Azure.</t>
         </is>
       </c>
       <c r="D225" s="21" t="inlineStr"/>
@@ -7884,7 +7884,7 @@
       <c r="B229" s="21" t="n"/>
       <c r="C229" s="21" t="inlineStr">
         <is>
-          <t>Configurar la supervisión de la conexión</t>
+          <t>Configurar la supervisión de conexiones</t>
         </is>
       </c>
       <c r="D229" s="21" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="D230" s="21" t="inlineStr">
         <is>
-          <t>Configure las notificaciones de estado del servicio para avisar cuando se produzca un mantenimiento planeado y próximo en todos los circuitos ExpressRoute de la suscripción. El estado del servicio también muestra el mantenimiento anterior junto con el RCA si se produjera un mantenimiento no planificado.</t>
+          <t>Configure las notificaciones de estado del servicio para alertar cuando se produzca un mantenimiento planeado y próximo en todos los circuitos ExpressRoute de la suscripción. El estado del servicio también muestra el mantenimiento anterior junto con el RCA si se produjera un mantenimiento no planeado.</t>
         </is>
       </c>
       <c r="E230" s="21" t="n"/>
@@ -7948,12 +7948,12 @@
       <c r="B231" s="21" t="n"/>
       <c r="C231" s="21" t="inlineStr">
         <is>
-          <t>Revise las métricas con Network Insights</t>
+          <t>Revisión de métricas con Network Insights</t>
         </is>
       </c>
       <c r="D231" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Insights con Network Insights le permite revisar y analizar circuitos, puertas de enlace, métricas de conexiones y paneles de estado de ExpressRoute. ExpressRoute Insights también proporciona una vista de topología de las conexiones de ExpressRoute en la que puede ver los detalles de los componentes del emparejamiento en un solo lugar. Métricas disponibles:- Disponibilidad- Rendimiento- Métricas de puerta de enlace</t>
+          <t>ExpressRoute Insights con Network Insights le permite revisar y analizar circuitos, puertas de enlace, métricas de conexiones y paneles de estado de ExpressRoute. ExpressRoute Insights también proporciona una vista de topología de las conexiones de ExpressRoute en la que puede ver los detalles de los componentes de emparejamiento en un solo lugar. Métricas disponibles:- Disponibilidad- Rendimiento- Métricas de puerta de enlace</t>
         </is>
       </c>
       <c r="E231" s="21" t="n"/>
@@ -7985,7 +7985,7 @@
       </c>
       <c r="D232" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute usa Azure Monitor para recopilar métricas y crear alertas en función de la configuración. Las métricas se recopilan para los circuitos ExpressRoute, las puertas de enlace de ExpressRoute, las conexiones de puerta de enlace de ExpressRoute y ExpressRoute Direct. Estas métricas son útiles para diagnosticar problemas de conectividad y comprender el rendimiento de la conexión de ExpressRoute.</t>
+          <t>ExpressRoute usa Azure Monitor para recopilar métricas y crear alertas basadas en la configuración. Las métricas se recopilan para los circuitos ExpressRoute, las puertas de enlace de ExpressRoute, las conexiones de puerta de enlace de ExpressRoute y ExpressRoute Direct. Estas métricas son útiles para diagnosticar problemas de conectividad y comprender el rendimiento de la conexión de ExpressRoute.</t>
         </is>
       </c>
       <c r="E232" s="21" t="n"/>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="D238" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Connectivity Toolkit para probar el rendimiento en el circuito ExpressRoute para comprender la capacidad de ancho de banda y la latencia de la conexión de red.</t>
+          <t>Use Azure Connectivity Toolkit para probar el rendimiento en el circuito ExpressRoute a fin de comprender la capacidad de ancho de banda y la latencia de la conexión de red.</t>
         </is>
       </c>
       <c r="E238" s="21" t="n"/>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="D240" s="21" t="inlineStr">
         <is>
-          <t>Actualice el ancho de banda de su circuito para cumplir con sus requisitos de carga de trabajo. El ancho de banda del circuito se comparte entre todas las redes virtuales conectadas al circuito ExpressRoute. En función de la carga de trabajo, una o varias redes virtuales pueden utilizar todo el ancho de banda del circuito.</t>
+          <t>Actualice el ancho de banda de su circuito para cumplir con los requisitos de carga de trabajo. El ancho de banda del circuito se comparte entre todas las redes virtuales conectadas al circuito ExpressRoute. En función de la carga de trabajo, una o varias redes virtuales pueden utilizar todo el ancho de banda del circuito.</t>
         </is>
       </c>
       <c r="E240" s="21" t="n"/>
@@ -8280,7 +8280,7 @@
       <c r="B242" s="21" t="n"/>
       <c r="C242" s="21" t="inlineStr">
         <is>
-          <t>Supervisión de métricas de circuitos y puertas de enlace de ExpressRoute</t>
+          <t>Supervisión de las métricas de circuitos y puertas de enlace de ExpressRoute</t>
         </is>
       </c>
       <c r="D242" s="21" t="inlineStr">
@@ -8312,7 +8312,7 @@
       <c r="B243" s="21" t="n"/>
       <c r="C243" s="21" t="inlineStr">
         <is>
-          <t>Use el análisis del modo de error: minimice los puntos de error teniendo en cuenta las dependencias internas, como la disponibilidad de redes virtuales, Azure Key Vault, Azure Content Delivery Network o Azure Front Door, puntos de conexión de Azure Front Door. Se pueden producir errores si necesita credenciales para acceder a Azure Files y las credenciales faltan en Key Vault. O bien, es posible que se produzca un error si las cargas de trabajo usan un punto de conexión basado en una red de entrega de contenido que falta. En estos casos, es posible que tenga que configurar las cargas de trabajo para conectarse a un punto de conexión alternativo. Para obtener información general sobre el análisis del modo de error, consulte Recomendaciones para realizar el análisis del modo de error.</t>
+          <t>Use el análisis del modo de error: minimice los puntos de error teniendo en cuenta las dependencias internas, como la disponibilidad de redes virtuales, Azure Key Vault, Azure Content Delivery Network o Azure Front Door, puntos de conexión. Se pueden producir errores si necesita credenciales para acceder a Azure Files y las credenciales faltan en Key Vault. O bien, es posible que se produzca un error si las cargas de trabajo usan un punto de conexión basado en una red de entrega de contenido que falta. En estos casos, es posible que tenga que configurar las cargas de trabajo para que se conecten a un punto de conexión alternativo. Para obtener información general sobre el análisis del modo de error, consulte Recomendaciones para realizar el análisis del modo de error.</t>
         </is>
       </c>
       <c r="D243" s="21" t="inlineStr"/>
@@ -8340,7 +8340,7 @@
       <c r="B244" s="21" t="n"/>
       <c r="C244" s="21" t="inlineStr">
         <is>
-          <t>Definir objetivos de confiabilidad y recuperación: revise los contratos de nivel de servicio (SLA) de Azure. Derive el objetivo de nivel de servicio (SLO) para la cuenta de almacenamiento. Por ejemplo, la configuración de redundancia que elija podría afectar al SLO. Tenga en cuenta el efecto de una interrupción regional, la posibilidad de pérdida de datos y el tiempo necesario para restaurar el acceso después de una interrupción. Tenga en cuenta también la disponibilidad de las dependencias internas que identificó como parte del análisis del modo de error.</t>
+          <t>Definición de objetivos de confiabilidad y recuperación: revise los contratos de nivel de servicio (SLA) de Azure. Derive el objetivo de nivel de servicio (SLO) para la cuenta de almacenamiento. Por ejemplo, la configuración de redundancia que elija podría afectar al SLO. Tenga en cuenta el efecto de una interrupción regional, la posibilidad de pérdida de datos y el tiempo necesario para restaurar el acceso después de una interrupción. Tenga en cuenta también la disponibilidad de las dependencias internas que identificó como parte del análisis del modo de error.</t>
         </is>
       </c>
       <c r="D244" s="21" t="inlineStr"/>
@@ -8396,7 +8396,7 @@
       <c r="B246" s="21" t="n"/>
       <c r="C246" s="21" t="inlineStr">
         <is>
-          <t>Diseñar aplicaciones: diseñe sus aplicaciones para que cambien sin problemas de modo que lean datos de una región secundaria si la región primaria no está disponible. Esta consideración de diseño solo se aplica a las configuraciones de almacenamiento con redundancia geográfica (GRS) y almacenamiento con redundancia de zona geográfica (GZRS). Diseñe sus aplicaciones para manejar adecuadamente las interrupciones, lo que reduce el tiempo de inactividad de los clientes.</t>
+          <t>Aplicaciones de diseño: diseñe sus aplicaciones para que cambien sin problemas de modo que lean datos de una región secundaria si la región primaria no está disponible. Esta consideración de diseño solo se aplica a las configuraciones de almacenamiento con redundancia geográfica (GRS) y almacenamiento con redundancia de zona geográfica (GZRS). Diseñe sus aplicaciones para manejar adecuadamente las interrupciones, lo que reduce el tiempo de inactividad para los clientes.</t>
         </is>
       </c>
       <c r="D246" s="21" t="inlineStr"/>
@@ -8424,7 +8424,7 @@
       <c r="B247" s="21" t="n"/>
       <c r="C247" s="21" t="inlineStr">
         <is>
-          <t>Explore las funciones que le ayudarán a cumplir sus objetivos de recuperación: Haga que los archivos se puedan restaurar para que pueda recuperar archivos dañados, editados o eliminados.</t>
+          <t>Explore las funciones que le ayudarán a cumplir sus objetivos de recuperación: Haga que los archivos se puedan restaurar para que pueda recuperar los archivos dañados, editados o eliminados.</t>
         </is>
       </c>
       <c r="D247" s="21" t="inlineStr"/>
@@ -8452,7 +8452,7 @@
       <c r="B248" s="21" t="n"/>
       <c r="C248" s="21" t="inlineStr">
         <is>
-          <t>Cree un plan de recuperación: considere las características de protección de datos, las operaciones de copia de seguridad y restauración o los procedimientos de conmutación por error. Prepárese para posibles pérdidas de datos e inconsistencias de datos, así como para el tiempo y el costo de la conmutación por error. Para obtener más información, consulte Recomendaciones para diseñar una estrategia de recuperación ante desastres.</t>
+          <t>Cree un plan de recuperación: considere las características de protección de datos, las operaciones de copia de seguridad y restauración o los procedimientos de conmutación por error. Prepárese para posibles pérdidas de datos e inconsistencias en los datos, así como para el tiempo y el costo de la conmutación por error. Para obtener más información, consulte Recomendaciones para diseñar una estrategia de recuperación ante desastres.</t>
         </is>
       </c>
       <c r="D248" s="21" t="inlineStr"/>
@@ -8508,7 +8508,7 @@
       <c r="B250" s="21" t="n"/>
       <c r="C250" s="21" t="inlineStr">
         <is>
-          <t>Configure la cuenta de almacenamiento para la redundancia. Para obtener la máxima disponibilidad y durabilidad, configure su cuenta con almacenamiento con redundancia de zona (ZRS), GRS o GZRS. Las regiones limitadas de Azure admiten ZRS para recursos compartidos de archivos estándar y premium. Solo las cuentas SMB estándar son compatibles con GRS y GZRS. Los recursos compartidos premium de SMB y NFS no son compatibles con GRS y GZRS. Azure Files no admite el almacenamiento con redundancia geográfica con acceso de lectura (RA-GRS) ni el almacenamiento con redundancia de zona geográfica con acceso de lectura (RA-GZRS). Si configura una cuenta de almacenamiento para usar RA-GRS o RA-GZRS, los recursos compartidos de archivos se configuran y facturan como GRS o GZRS.</t>
+          <t>Configure la cuenta de almacenamiento para la redundancia. Para obtener la máxima disponibilidad y durabilidad, configure su cuenta con almacenamiento con redundancia de zona (ZRS), GRS o GZRS. Las regiones limitadas de Azure admiten ZRS para recursos compartidos de archivos estándar y premium. Solo las cuentas SMB estándar son compatibles con GRS y GZRS. Los recursos compartidos SMB premium y los recursos compartidos NFS no son compatibles con GRS y GZRS. Azure Files no admite el almacenamiento con redundancia geográfica con acceso de lectura (RA-GRS) ni el almacenamiento con redundancia de zona geográfica con acceso de lectura (RA-GZRS). Si configura una cuenta de almacenamiento para usar RA-GRS o RA-GZRS, los recursos compartidos de archivos se configuran y facturan como GRS o GZRS.</t>
         </is>
       </c>
       <c r="D250" s="21" t="inlineStr">
@@ -8540,12 +8540,12 @@
       <c r="B251" s="21" t="n"/>
       <c r="C251" s="21" t="inlineStr">
         <is>
-          <t>Antes de iniciar una conmutación por error o conmutación por recuperación, compruebe el valor de la propiedad de tiempo de la última sincronización para evaluar la posibilidad de pérdida de datos. Esta recomendación sólo se aplica a las configuraciones GRS y GZRS.</t>
+          <t>Antes de iniciar una conmutación por error o conmutación por recuperación, compruebe el valor de la última propiedad de tiempo de sincronización para evaluar la posibilidad de pérdida de datos. Esta recomendación sólo se aplica a las configuraciones GRS y GZRS.</t>
         </is>
       </c>
       <c r="D251" s="21" t="inlineStr">
         <is>
-          <t>Esta propiedad le ayuda a calcular la cantidad de datos que podría perder si inicia una conmutación por error de la cuenta. Todos los datos y metadatos que se escriben antes de la última hora de sincronización están disponibles en la región secundaria, pero es posible que se pierdan los datos y metadatos que se escriben después de la última hora de sincronización porque no se escriben en la región secundaria.</t>
+          <t>Esta propiedad le ayuda a calcular la cantidad de datos que podría perder si inicia una conmutación por error de la cuenta. Todos los datos y metadatos que se escriben antes de la última hora de sincronización están disponibles en la región secundaria, pero es posible que pierda los datos y metadatos que se escriben después de la última hora de sincronización porque no se escriben en la región secundaria.</t>
         </is>
       </c>
       <c r="E251" s="21" t="n"/>
@@ -8572,12 +8572,12 @@
       <c r="B252" s="21" t="n"/>
       <c r="C252" s="21" t="inlineStr">
         <is>
-          <t>Como parte de su estrategia de copia de seguridad y recuperación, habilite la eliminación temporal y use instantáneas para la restauración a un momento dado. Puede usar Azure Backup para realizar copias de seguridad de los recursos compartidos de archivos SMB. También puede usar Azure File Sync para realizar copias de seguridad de recursos compartidos de archivos SMB locales en un recurso compartido de archivos de Azure.  Azure Backup también le permite realizar una copia de seguridad almacenada (versión preliminar) de Azure Files para proteger sus datos de ataques de ransomware o pérdida de datos de origen debido a un actor malintencionado o un administrador no autorizado. Mediante el uso de la copia de seguridad almacenada, Azure Backup copia y almacena los datos en el almacén de Recovery Services. Esto crea una copia externa de los datos que puede conservar durante un máximo de 99 años. Azure Backup crea y administra los puntos de recuperación según la programación y la retención definidas en la directiva de copia de seguridad. Aprende más.</t>
+          <t>Como parte de su estrategia de copia de seguridad y recuperación, habilite la eliminación temporal y use instantáneas para la restauración a un momento dado. Puede usar Azure Backup para realizar una copia de seguridad de los recursos compartidos de archivos SMB. También puede usar Azure File Sync para realizar copias de seguridad de recursos compartidos de archivos SMB locales en un recurso compartido de archivos de Azure.  Azure Backup también le permite realizar una copia de seguridad almacenada (versión preliminar) de Azure Files para proteger sus datos de ataques de ransomware o pérdida de datos de origen debido a un actor malintencionado o un administrador no autorizado. Mediante el uso de la copia de seguridad almacenada, Azure Backup copia y almacena los datos en el almacén de Recovery Services. Esto crea una copia externa de los datos que puede conservar durante un máximo de 99 años. Azure Backup crea y administra los puntos de recuperación según la programación y la retención definidas en la directiva de copia de seguridad. Aprende más.</t>
         </is>
       </c>
       <c r="D252" s="21" t="inlineStr">
         <is>
-          <t>La eliminación temporal funciona en un nivel de recurso compartido de archivos para proteger los recursos compartidos de archivos de Azure frente a la eliminación accidental. La restauración a un momento dado protege contra la eliminación accidental o los daños porque puede restaurar los recursos compartidos de archivos a un estado anterior. Para obtener más información, consulte Información general sobre la protección de datos.</t>
+          <t>La eliminación temporal funciona en un nivel de recurso compartido de archivos para proteger los recursos compartidos de archivos de Azure frente a la eliminación accidental. La restauración a un momento dado protege contra la eliminación accidental o los daños, ya que puede restaurar los recursos compartidos de archivos a un estado anterior. Para obtener más información, consulte Información general sobre la protección de datos.</t>
         </is>
       </c>
       <c r="E252" s="21" t="n"/>
@@ -8604,7 +8604,7 @@
       <c r="B253" s="21" t="n"/>
       <c r="C253" s="21" t="inlineStr">
         <is>
-          <t>Revise la línea base de seguridad para Azure Storage: para empezar, revise la línea base de seguridad para Storage.</t>
+          <t>Revise la línea base de seguridad para Azure Storage: Para empezar, revise la línea base de seguridad para Storage.</t>
         </is>
       </c>
       <c r="D253" s="21" t="inlineStr"/>
@@ -8632,7 +8632,7 @@
       <c r="B254" s="21" t="n"/>
       <c r="C254" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar controles de red para restringir el tráfico de entrada y salida: es posible que le resulte cómodo exponer su cuenta de almacenamiento a la red pública de Internet en determinadas condiciones, por ejemplo, si usa la autenticación basada en identidad para conceder acceso a los recursos compartidos de archivos. Sin embargo, se recomienda usar controles de red para conceder el nivel mínimo necesario de acceso a los usuarios y las aplicaciones. Para obtener más información, consulte Cómo abordar la seguridad de red para la cuenta de almacenamiento.</t>
+          <t>Considere la posibilidad de usar controles de red para restringir el tráfico de entrada y salida: es posible que se sienta cómodo exponiendo su cuenta de almacenamiento a la red pública de Internet en determinadas condiciones, por ejemplo, si usa la autenticación basada en identidad para conceder acceso a los recursos compartidos de archivos. Sin embargo, se recomienda usar controles de red para conceder el nivel mínimo necesario de acceso a los usuarios y las aplicaciones. Para obtener más información, consulte Cómo abordar la seguridad de red para la cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="D254" s="21" t="inlineStr"/>
@@ -8660,7 +8660,7 @@
       <c r="B255" s="21" t="n"/>
       <c r="C255" s="21" t="inlineStr">
         <is>
-          <t>Reduzca la superficie expuesta a ataques: utilice el cifrado en tránsito y evite el acceso a través de conexiones no seguras (HTTP) para reducir la superficie expuesta a ataques. Requerir que los clientes envíen y reciban datos mediante la versión más reciente del protocolo de seguridad de la capa de transporte (TLS).</t>
+          <t>Reduzca la superficie expuesta a ataques: utilice el cifrado en tránsito y evite el acceso a través de conexiones no seguras (HTTP) para reducir la superficie expuesta a ataques. Exigir a los clientes que envíen y reciban datos mediante la versión más reciente del protocolo de seguridad de la capa de transporte (TLS).</t>
         </is>
       </c>
       <c r="D255" s="21" t="inlineStr"/>
@@ -8688,7 +8688,7 @@
       <c r="B256" s="21" t="n"/>
       <c r="C256" s="21" t="inlineStr">
         <is>
-          <t>Minimice el uso de claves de cuenta de almacenamiento: la autenticación basada en identidad proporciona una seguridad superior en comparación con el uso de una clave de cuenta de almacenamiento. Sin embargo, debe usar una clave de cuenta de almacenamiento para obtener el control administrativo total de un recurso compartido de archivos, incluida la capacidad de tomar posesión de un archivo. Otorgue a las entidades de seguridad solo los permisos necesarios para realizar sus tareas.</t>
+          <t>Minimice el uso de claves de cuenta de almacenamiento: la autenticación basada en identidad proporciona una seguridad superior en comparación con el uso de una clave de cuenta de almacenamiento. Sin embargo, debe usar una clave de cuenta de almacenamiento para obtener el control administrativo total de un recurso compartido de archivos, incluida la capacidad de tomar posesión de un archivo. Conceda a las entidades de seguridad solo los permisos necesarios para realizar sus tareas.</t>
         </is>
       </c>
       <c r="D256" s="21" t="inlineStr"/>
@@ -8744,7 +8744,7 @@
       <c r="B258" s="21" t="n"/>
       <c r="C258" s="21" t="inlineStr">
         <is>
-          <t>Detección de amenazas: habilite Microsoft Defender para Storage para detectar intentos potencialmente dañinos de acceder a los recursos compartidos de archivos de Azure a través de los protocolos SMB o FileREST. Los administradores de suscripciones reciben alertas por correo electrónico con detalles de actividades sospechosas y recomendaciones sobre cómo investigar y corregir amenazas. Defender para Storage no admite funcionalidades antivirus para recursos compartidos de archivos de Azure. Si usa Defender para Storage, los recursos compartidos de archivos con muchas transacciones incurren en costos significativos, por lo que considere la posibilidad de optar por no participar en Defender para Storage para cuentas de almacenamiento específicas.</t>
+          <t>Detección de amenazas: habilite Microsoft Defender para Storage para detectar intentos potencialmente dañinos de acceder a los recursos compartidos de archivos de Azure a través de los protocolos SMB o FileREST o aprovecharlos. Los administradores de suscripciones reciben alertas por correo electrónico con detalles de actividades sospechosas y recomendaciones sobre cómo investigar y corregir amenazas. Defender for Storage no admite funcionalidades antivirus para recursos compartidos de archivos de Azure. Si usa Defender para Storage, los recursos compartidos de archivos con transacciones pesadas incurren en costos significativos, por lo que considere la posibilidad de optar por no participar en Defender para Storage para cuentas de almacenamiento específicas.</t>
         </is>
       </c>
       <c r="D258" s="21" t="inlineStr"/>
@@ -8836,7 +8836,7 @@
       <c r="B261" s="21" t="n"/>
       <c r="C261" s="21" t="inlineStr">
         <is>
-          <t>Si abre el puerto 445, asegúrese de deshabilitar SMBv1 en clientes Windows y Linux. Azure Files no es compatible con SMB 1, pero debe deshabilitarlo en sus clientes.</t>
+          <t>Si abre el puerto 445, asegúrese de deshabilitar SMBv1 en clientes Windows y Linux. Azure Files no es compatible con SMB 1, pero aún así debe deshabilitarlo en sus clientes.</t>
         </is>
       </c>
       <c r="D261" s="21" t="inlineStr">
@@ -8868,7 +8868,7 @@
       <c r="B262" s="21" t="n"/>
       <c r="C262" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de deshabilitar el acceso de red pública a la cuenta de almacenamiento. Habilite el acceso a la red pública solo si los clientes y servicios SMB externos a Azure requieren acceso a la cuenta de almacenamiento. Si deshabilita el acceso a la red pública, cree un punto de conexión privado para la cuenta de almacenamiento. Se aplican las tarifas estándar de procesamiento de datos para los puntos de conexión privados. Un punto de conexión privado no bloquea las conexiones con el punto de conexión público. De todos modos, debe deshabilitar el acceso a la red pública como se describió anteriormente. Si no necesita una dirección IP estática para el recurso compartido de archivos y desea evitar el costo de los puntos de conexión privados, puede restringir el acceso del punto de conexión público a redes virtuales y direcciones IP específicas.</t>
+          <t>Considere la posibilidad de deshabilitar el acceso de red pública a la cuenta de almacenamiento. Habilite el acceso a la red pública solo si los clientes y servicios SMB externos a Azure requieren acceso a la cuenta de almacenamiento. Si deshabilita el acceso a la red pública, cree un punto de conexión privado para la cuenta de almacenamiento. Se aplican tarifas de procesamiento de datos estándar para puntos de conexión privados. Un punto de conexión privado no bloquea las conexiones al punto de conexión público. De todos modos, debe deshabilitar el acceso a la red pública como se describió anteriormente. Si no necesita una dirección IP estática para el recurso compartido de archivos y desea evitar el costo de los puntos de conexión privados, puede restringir el acceso de los puntos de conexión públicos a redes virtuales y direcciones IP específicas.</t>
         </is>
       </c>
       <c r="D262" s="21" t="inlineStr">
@@ -8900,7 +8900,7 @@
       <c r="B263" s="21" t="n"/>
       <c r="C263" s="21" t="inlineStr">
         <is>
-          <t>Habilite reglas de firewall que limiten el acceso a redes virtuales específicas. Comience con acceso cero y, a continuación, proporcione de forma metódica e incremental la menor cantidad de acceso necesaria para los clientes y los servicios.</t>
+          <t>Habilite reglas de firewall que limiten el acceso a redes virtuales específicas. Comience con acceso cero y, a continuación, proporcione de forma metódica e incremental la menor cantidad de acceso necesaria para los clientes y servicios.</t>
         </is>
       </c>
       <c r="D263" s="21" t="inlineStr">
@@ -8932,12 +8932,12 @@
       <c r="B264" s="21" t="n"/>
       <c r="C264" s="21" t="inlineStr">
         <is>
-          <t>Cuando sea posible, use la autenticación basada en identidad con el cifrado de vales Kerberos AES-256 para autorizar el acceso a los recursos compartidos de archivos de Azure SMB.</t>
+          <t>Cuando sea posible, use la autenticación basada en identidad con el cifrado de vales AES-256 Kerberos para autorizar el acceso a los recursos compartidos de archivos de Azure SMB.</t>
         </is>
       </c>
       <c r="D264" s="21" t="inlineStr">
         <is>
-          <t>Use la autenticación basada en identidad para reducir la posibilidad de que un atacante use una clave de cuenta de almacenamiento para acceder a recursos compartidos de archivos.</t>
+          <t>Use la autenticación basada en identidad para reducir la posibilidad de que un atacante use una clave de cuenta de almacenamiento para acceder a los recursos compartidos de archivos.</t>
         </is>
       </c>
       <c r="E264" s="21" t="n"/>
@@ -8964,7 +8964,7 @@
       <c r="B265" s="21" t="n"/>
       <c r="C265" s="21" t="inlineStr">
         <is>
-          <t>Si usa claves de cuenta de almacenamiento, almacénelas en Key Vault y asegúrese de volver a generarlas periódicamente. Puede denegar por completo el acceso de la clave de la cuenta de almacenamiento al recurso compartido de archivos quitando NTLMv2 de la configuración de seguridad SMB del recurso compartido. Pero, por lo general, no debe quitar NTLMv2 de la configuración de seguridad de SMB del recurso compartido, ya que los administradores aún necesitan usar la clave de cuenta para algunas tareas.</t>
+          <t>Si usa claves de cuenta de almacenamiento, almacénelas en Key Vault y asegúrese de volver a generarlas periódicamente. Puede denegar por completo el acceso de la clave de la cuenta de almacenamiento al recurso compartido de archivos quitando NTLMv2 de la configuración de seguridad SMB del recurso compartido. Pero, por lo general, no debe quitar NTLMv2 de la configuración de seguridad SMB del recurso compartido, ya que los administradores aún necesitan usar la clave de cuenta para algunas tareas.</t>
         </is>
       </c>
       <c r="D265" s="21" t="inlineStr">
@@ -9092,7 +9092,7 @@
       <c r="B269" s="21" t="n"/>
       <c r="C269" s="21" t="inlineStr">
         <is>
-          <t>Revise la línea base de seguridad para Almacenamiento: Para comenzar, revise la línea base de seguridad para Almacenamiento.</t>
+          <t>Revise la línea base de seguridad para Storage: Para empezar, revise la línea base de seguridad para Storage.</t>
         </is>
       </c>
       <c r="D269" s="21" t="inlineStr"/>
@@ -9120,7 +9120,7 @@
       <c r="B270" s="21" t="n"/>
       <c r="C270" s="21" t="inlineStr">
         <is>
-          <t>Comprenda los requisitos de seguridad de su organización: los recursos compartidos de archivos de Azure de NFS solo admiten clientes de Linux que usan el protocolo NFSv4.1, con compatibilidad con la mayoría de las características de la especificación del protocolo 4.1. Algunas características de seguridad, como la autenticación Kerberos, las listas de control de acceso (ACL) y el cifrado en tránsito, no son compatibles.</t>
+          <t>Comprenda los requisitos de seguridad de su organización: Los recursos compartidos de archivos de Azure NFS solo admiten clientes Linux que usan el protocolo NFSv4.1, con compatibilidad con la mayoría de las características de la especificación del protocolo 4.1. Algunas características de seguridad, como la autenticación Kerberos, las listas de control de acceso (ACL) y el cifrado en tránsito, no son compatibles.</t>
         </is>
       </c>
       <c r="D270" s="21" t="inlineStr"/>
@@ -9240,7 +9240,7 @@
       <c r="B274" s="21" t="n"/>
       <c r="C274" s="21" t="inlineStr">
         <is>
-          <t>Solo se puede acceder a los recursos compartidos de archivos de NFS Azure a través de redes restringidas. Por lo tanto, debe crear un punto de conexión privado para la cuenta de almacenamiento o restringir el acceso del punto de conexión público a las redes virtuales y direcciones IP seleccionadas. Se recomienda crear un punto de conexión privado. Debe configurar la seguridad de nivel de red para los recursos compartidos de NFS, ya que Azure Files no admite el cifrado en tránsito con el protocolo NFS. Debe deshabilitar la opción Requerir transferencia segura en la cuenta de almacenamiento para usar recursos compartidos de archivos de Azure NFS. Se aplican tarifas estándar de procesamiento de datos para los puntos de conexión privados. Si no necesita una dirección IP estática para el recurso compartido de archivos y desea evitar el costo de los puntos de conexión privados, puede restringir el acceso a los puntos de conexión públicos.</t>
+          <t>Solo se puede acceder a los recursos compartidos de archivos de Azure de NFS a través de redes restringidas. Por lo tanto, debe crear un punto de conexión privado para la cuenta de almacenamiento o restringir el acceso del punto de conexión público a las redes virtuales y direcciones IP seleccionadas. Se recomienda crear un punto de conexión privado. Debe configurar la seguridad de nivel de red para los recursos compartidos de NFS, ya que Azure Files no admite el cifrado en tránsito con el protocolo NFS. Debe deshabilitar la opción Requerir transferencia segura en la cuenta de almacenamiento para usar recursos compartidos de archivos de Azure NFS. Se aplican tarifas estándar de procesamiento de datos para los puntos de conexión privados. Si no necesita una dirección IP estática para el recurso compartido de archivos y desea evitar el costo de los puntos de conexión privados, puede restringir el acceso a los puntos de conexión públicos.</t>
         </is>
       </c>
       <c r="D274" s="21" t="inlineStr">
@@ -9272,12 +9272,12 @@
       <c r="B275" s="21" t="n"/>
       <c r="C275" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de no permitir el acceso a la clave de la cuenta de almacenamiento en el nivel de la cuenta de almacenamiento. No necesita este acceso para montar recursos compartidos de archivos NFS. Pero tenga en cuenta que el control administrativo total de un recurso compartido de archivos, incluida la capacidad de tomar posesión de un archivo, requiere el uso de una clave de cuenta de almacenamiento.</t>
+          <t>Considere la posibilidad de no permitir el acceso a la clave de la cuenta de almacenamiento en el nivel de la cuenta de almacenamiento. No necesita este acceso para montar recursos compartidos de archivos NFS. Pero tenga en cuenta que el control administrativo completo de un recurso compartido de archivos, incluida la capacidad de tomar posesión de un archivo, requiere el uso de una clave de cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="D275" s="21" t="inlineStr">
         <is>
-          <t>No permitir el uso de claves de cuenta de almacenamiento para que la cuenta de almacenamiento sea más segura.</t>
+          <t>No permitir el uso de claves de cuenta de almacenamiento para que su cuenta de almacenamiento sea más segura.</t>
         </is>
       </c>
       <c r="E275" s="21" t="n"/>
@@ -9304,7 +9304,7 @@
       <c r="B276" s="21" t="n"/>
       <c r="C276" s="21" t="inlineStr">
         <is>
-          <t>Decida si la carga de trabajo requiere el rendimiento de recursos compartidos de archivos premium (SSD premium de Azure) o si el almacenamiento de HDD estándar de Azure es suficiente: determine el tipo de cuenta de almacenamiento y el modelo de facturación en función del tipo de almacenamiento que necesite. Si necesita grandes cantidades de operaciones de entrada/salida por segundo (IOPS), velocidades de transferencia de datos extremadamente rápidas o una latencia muy baja, debe elegir recursos compartidos de archivos de Azure premium. Los recursos compartidos de archivos de Azure NFS solo están disponibles en el nivel Premium. Los recursos compartidos de archivos NFS y SMB tienen el mismo precio en el nivel premium.</t>
+          <t>Decida si la carga de trabajo requiere el rendimiento de recursos compartidos de archivos premium (SSD premium de Azure) o si el almacenamiento de HDD estándar de Azure es suficiente: determine el tipo de cuenta de almacenamiento y el modelo de facturación en función del tipo de almacenamiento que necesita. Si necesita grandes cantidades de operaciones de entrada/salida por segundo (IOPS), velocidades de transferencia de datos extremadamente rápidas o una latencia muy baja, debe elegir recursos compartidos de archivos de Azure premium. Los recursos compartidos de archivos de Azure NFS solo están disponibles en el nivel Premium. Los recursos compartidos de archivos NFS y SMB tienen el mismo precio en el nivel premium.</t>
         </is>
       </c>
       <c r="D276" s="21" t="inlineStr"/>
@@ -9332,7 +9332,7 @@
       <c r="B277" s="21" t="n"/>
       <c r="C277" s="21" t="inlineStr">
         <is>
-          <t>Cree una cuenta de almacenamiento para el recurso compartido de archivos y elija un nivel de redundancia: elija una cuenta estándar (GPv2) o premium (FileStorage). El nivel de redundancia que elija afecta al costo. Cuanta más redundancia, mayor es el coste. El almacenamiento con redundancia local (LRS) es el más asequible. GRS solo está disponible para recursos compartidos de archivos SMB estándar. Los recursos compartidos de archivos estándar solo muestran información de transacciones en el nivel de cuenta de almacenamiento, por lo que se recomienda implementar solo un recurso compartido de archivos en cada cuenta de almacenamiento para garantizar la visibilidad completa de la facturación.</t>
+          <t>Cree una cuenta de almacenamiento para el recurso compartido de archivos y elija un nivel de redundancia: elija una cuenta estándar (GPv2) o premium (FileStorage). El nivel de redundancia que elija afecta al costo. Cuanta más redundancia, mayor es el coste. El almacenamiento con redundancia local (LRS) es el más asequible. GRS solo está disponible para recursos compartidos de archivos SMB estándar. Los recursos compartidos de archivos estándar solo muestran información de transacciones en el nivel de cuenta de almacenamiento, por lo que se recomienda implementar solo un recurso compartido de archivos en cada cuenta de almacenamiento para garantizar una visibilidad completa de la facturación.</t>
         </is>
       </c>
       <c r="D277" s="21" t="inlineStr"/>
@@ -9388,7 +9388,7 @@
       <c r="B279" s="21" t="n"/>
       <c r="C279" s="21" t="inlineStr">
         <is>
-          <t>Calcular el costo de la capacidad y las operaciones: puede usar la calculadora de precios de Azure para modelar los costos asociados con el almacenamiento, la entrada y la salida de datos. Compare el costo asociado con varias regiones, tipos de cuentas y configuraciones de redundancia. Para obtener más información, consulte Precios de Azure Files.</t>
+          <t>Calcular el costo de la capacidad y las operaciones: puede usar la calculadora de precios de Azure para modelar los costos asociados con el almacenamiento, la entrada y la salida de datos. Compare el costo asociado con varias regiones, tipos de cuentas y configuraciones de redundancia. Para más información, consulte Precios de Azure Files.</t>
         </is>
       </c>
       <c r="D279" s="21" t="inlineStr"/>
@@ -9416,7 +9416,7 @@
       <c r="B280" s="21" t="n"/>
       <c r="C280" s="21" t="inlineStr">
         <is>
-          <t>Elija el nivel de acceso más rentable: los recursos compartidos de archivos de Azure SMB estándar ofrecen tres niveles de acceso: optimizado para transacciones, frecuente y esporádico. Los tres niveles se almacenan en el mismo hardware de almacenamiento estándar. La principal diferencia para estos tres niveles son sus precios de almacenamiento de datos en reposo, que son más bajos en los niveles más esporádicos, y los precios de transacción, que son más altos en los niveles esporádicos. Para obtener más información, consulte Diferencias en los niveles estándar.</t>
+          <t>Elija el nivel de acceso más rentable: los recursos compartidos de archivos de Azure SMB estándar ofrecen tres niveles de acceso: optimizado para transacciones, frecuente y esporádico. Los tres niveles se almacenan en el mismo hardware de almacenamiento estándar. La principal diferencia para estos tres niveles son sus precios de almacenamiento de datos en reposo, que son más bajos en los niveles más esporádicos, y los precios de transacción, que son más altos en los niveles más esporádicos. Para obtener más información, consulte Diferencias en los niveles estándar.</t>
         </is>
       </c>
       <c r="D280" s="21" t="inlineStr"/>
@@ -9472,7 +9472,7 @@
       <c r="B282" s="21" t="n"/>
       <c r="C282" s="21" t="inlineStr">
         <is>
-          <t>Crear barreras de protección: cree presupuestos basados en suscripciones y grupos de recursos. Utilice políticas de gobernanza para restringir los tipos de recursos, las configuraciones y las ubicaciones. Además, utilice el control de acceso basado en roles (RBAC) para bloquear las acciones que pueden provocar un gasto excesivo.</t>
+          <t>Crear barreras de protección: cree presupuestos basados en suscripciones y grupos de recursos. Utilice políticas de gobernanza para restringir los tipos de recursos, las configuraciones y las ubicaciones. Además, utilice el control de acceso basado en roles (RBAC) para bloquear acciones que puedan provocar un gasto excesivo.</t>
         </is>
       </c>
       <c r="D282" s="21" t="inlineStr"/>
@@ -9528,7 +9528,7 @@
       <c r="B284" s="21" t="n"/>
       <c r="C284" s="21" t="inlineStr">
         <is>
-          <t>Supervisión del uso: supervise continuamente los patrones de uso para detectar cuentas de almacenamiento y recursos compartidos de archivos no utilizados o infrautilizados. Compruebe si hay aumentos inesperados en la capacidad, lo que podría indicar que está recopilando numerosos archivos de registro o archivos eliminados temporalmente. Desarrolle una estrategia para eliminar archivos o moverlos a niveles de acceso más rentables.</t>
+          <t>Supervisar el uso: supervise continuamente los patrones de uso para detectar cuentas de almacenamiento y recursos compartidos de archivos no utilizados o infrautilizados. Compruebe si hay aumentos inesperados en la capacidad, lo que podría indicar que está recopilando numerosos archivos de registro o archivos eliminados temporalmente. Desarrolle una estrategia para eliminar archivos o moverlos a niveles de acceso más rentables.</t>
         </is>
       </c>
       <c r="D284" s="21" t="inlineStr"/>
@@ -9556,7 +9556,7 @@
       <c r="B285" s="21" t="n"/>
       <c r="C285" s="21" t="inlineStr">
         <is>
-          <t>Al migrar a recursos compartidos de archivos estándar de Azure, se recomienda comenzar en el nivel optimizado para transacciones durante la migración inicial. El uso de transacciones durante la migración no suele ser indicativo del uso normal de transacciones. Esta consideración no se aplica a los recursos compartidos de archivos premium porque el modelo de facturación aprovisionada no cobra por las transacciones.</t>
+          <t>Al migrar a recursos compartidos de archivos estándar de Azure, se recomienda comenzar en el nivel optimizado para transacciones durante la migración inicial. El uso de transacciones durante la migración no suele ser indicativo del uso normal de las transacciones. Esta consideración no se aplica a los recursos compartidos de archivos premium porque el modelo de facturación aprovisionada no cobra por las transacciones.</t>
         </is>
       </c>
       <c r="D285" s="21" t="inlineStr">
@@ -9588,7 +9588,7 @@
       <c r="B286" s="21" t="n"/>
       <c r="C286" s="21" t="inlineStr">
         <is>
-          <t>Después de migrar la carga de trabajo, si usa recursos compartidos de archivos estándar, elija cuidadosamente el nivel de acceso más rentable para el recurso compartido de archivos: frecuente, esporádico u optimizado para transacciones. Después de operar durante unos días o semanas con uso regular, puede insertar los recuentos de transacciones en la calculadora de precios para averiguar qué nivel se adapta mejor a su carga de trabajo. La mayoría de los clientes deben elegir cool incluso si usan activamente el recurso compartido. Pero debe examinar cada recurso compartido y comparar el saldo de la capacidad de almacenamiento con las transacciones para determinar su nivel. Si los costos de transacción representan un porcentaje significativo de su factura, los ahorros del uso del nivel de acceso esporádico a menudo compensan este costo y minimizan el costo total total. Se recomienda mover recursos compartidos de archivos estándar entre niveles de acceso solo cuando sea necesario para optimizar los cambios en el patrón de carga de trabajo. Cada movimiento incurre en transacciones. Para obtener más información, consulte Cambiar entre niveles estándar.</t>
+          <t>Después de migrar la carga de trabajo, si usa recursos compartidos de archivos estándar, elija cuidadosamente el nivel de acceso más rentable para el recurso compartido de archivos: frecuente, esporádico u optimizado para transacciones. Después de operar durante unos días o semanas con un uso regular, puede insertar los recuentos de transacciones en la calculadora de precios para averiguar qué nivel se adapta mejor a su carga de trabajo. La mayoría de los clientes deben elegir cool incluso si usan activamente el recurso compartido. Pero debe examinar cada recurso compartido y comparar el saldo de la capacidad de almacenamiento con las transacciones para determinar su nivel. Si los costos de transacción representan un porcentaje significativo de su factura, los ahorros del uso del nivel de acceso esporádico a menudo compensan este costo y minimizan el costo total total. Se recomienda mover recursos compartidos de archivos estándar entre niveles de acceso solo cuando sea necesario para optimizar los cambios en el patrón de carga de trabajo. Cada movimiento incurre en transacciones. Para obtener más información, consulte Cambiar entre niveles estándar.</t>
         </is>
       </c>
       <c r="D286" s="21" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="D287" s="21" t="inlineStr">
         <is>
-          <t>Aprovisione en exceso los recursos compartidos de archivos premium en una cantidad razonable para ayudar a mantener el rendimiento y tener en cuenta el crecimiento futuro y los requisitos de rendimiento.</t>
+          <t>Aprovisionar en exceso los recursos compartidos de archivos premium en una cantidad razonable para ayudar a mantener el rendimiento y tener en cuenta el crecimiento futuro y los requisitos de rendimiento.</t>
         </is>
       </c>
       <c r="E287" s="21" t="n"/>
@@ -9652,7 +9652,7 @@
       <c r="B288" s="21" t="n"/>
       <c r="C288" s="21" t="inlineStr">
         <is>
-          <t>Use las reservas de Azure Files, también conocidas como instancias reservadas, para confirmar previamente el uso de almacenamiento y obtener un descuento. Use reservas para cargas de trabajo de producción o cargas de trabajo de desarrollo y pruebas con huellas coherentes. Para obtener más información, consulte Optimización de costos con reservas de almacenamiento. Las reservas no incluyen cargos por transacción, ancho de banda, transferencia de datos y almacenamiento de metadatos.</t>
+          <t>Use las reservas de Azure Files, también conocidas como instancias reservadas, para confirmar previamente el uso del almacenamiento y obtener un descuento. Utilice reservas para cargas de trabajo de producción o cargas de trabajo de desarrollo y pruebas con huellas coherentes. Para obtener más información, consulte Optimización de costos con reservas de almacenamiento. Las reservas no incluyen cargos por transacción, ancho de banda, transferencia de datos y almacenamiento de metadatos.</t>
         </is>
       </c>
       <c r="D288" s="21" t="inlineStr">
@@ -9684,12 +9684,12 @@
       <c r="B289" s="21" t="n"/>
       <c r="C289" s="21" t="inlineStr">
         <is>
-          <t>Supervise el uso de instantáneas. Las instantáneas conllevan cargos, pero se facturan en función del uso de almacenamiento diferencial de cada instantánea. Solo pagas por la diferencia en cada instantánea. Para obtener más información, consulte Instantáneas. Azure File Sync toma instantáneas de nivel de recurso compartido y de nivel de archivo como parte del uso normal, lo que puede aumentar la factura total de Azure Files.</t>
+          <t>Supervise el uso de instantáneas. Las instantáneas conllevan cargos, pero se facturan en función del uso de almacenamiento diferencial de cada instantánea. Solo pagas por la diferencia en cada instantánea. Para obtener más información, consulte Instantáneas. Azure File Sync toma instantáneas de nivel de archivo y de recurso compartido como parte del uso normal, lo que puede aumentar la factura total de Azure Files.</t>
         </is>
       </c>
       <c r="D289" s="21" t="inlineStr">
         <is>
-          <t>Las instantáneas diferenciales garantizan que no se le facture varias veces por almacenar los mismos datos. Sin embargo, debe seguir supervisando el uso de instantáneas para ayudar a reducir la factura de Azure Files.</t>
+          <t>Las instantáneas diferenciales garantizan que no se le facture varias veces por almacenar los mismos datos. Sin embargo, aún debe supervisar el uso de instantáneas para ayudar a reducir la factura de Azure Files.</t>
         </is>
       </c>
       <c r="E289" s="21" t="n"/>
@@ -9716,7 +9716,7 @@
       <c r="B290" s="21" t="n"/>
       <c r="C290" s="21" t="inlineStr">
         <is>
-          <t>Establezca períodos de retención para la función de eliminación temporal, especialmente cuando comience a usarla por primera vez. Considere comenzar con un período de retención corto para comprender mejor cómo afecta la función a su factura. El período de retención mínimo recomendado es de siete días. Al eliminar temporalmente recursos compartidos de archivos estándar y premium, se facturan como capacidad usada en lugar de capacidad aprovisionada. Y los recursos compartidos de archivos premium se facturan a la tarifa de instantánea mientras se encuentran en el estado de eliminación temporal. Los recursos compartidos de archivos estándar se facturan a la tarifa normal mientras se encuentran en el estado de eliminación temporal.</t>
+          <t>Establezca períodos de retención para la función de eliminación temporal, especialmente cuando comience a usarla por primera vez. Considere comenzar con un período de retención corto para comprender mejor cómo afecta la función a su factura. El período de retención mínimo recomendado es de siete días. Al eliminar temporalmente recursos compartidos de archivos estándar y premium, se facturan como capacidad usada en lugar de capacidad aprovisionada. Y los recursos compartidos de archivos premium se facturan a la tarifa de instantáneas mientras se encuentran en el estado de eliminación temporal. Los recursos compartidos de archivos estándar se facturan a la tarifa normal mientras se encuentran en el estado de eliminación temporal.</t>
         </is>
       </c>
       <c r="D290" s="21" t="inlineStr">
@@ -9748,7 +9748,7 @@
       <c r="B291" s="21" t="n"/>
       <c r="C291" s="21" t="inlineStr">
         <is>
-          <t>Cree planes de mantenimiento y recuperación de emergencia: tenga en cuenta las características de protección de datos, las operaciones de copia de seguridad y restauración, y los procedimientos de conmutación por error. Prepárese para posibles pérdidas de datos e inconsistencias de datos, así como para el tiempo y el costo de la conmutación por error.</t>
+          <t>Cree planes de mantenimiento y recuperación de emergencia: tenga en cuenta las características de protección de datos, las operaciones de copia de seguridad y restauración, y los procedimientos de conmutación por error. Prepárese para posibles pérdidas de datos e inconsistencias en los datos, así como para el tiempo y el costo de la conmutación por error.</t>
         </is>
       </c>
       <c r="D291" s="21" t="inlineStr"/>
@@ -9804,7 +9804,7 @@
       <c r="B293" s="21" t="n"/>
       <c r="C293" s="21" t="inlineStr">
         <is>
-          <t>Revise periódicamente la actividad de uso compartido de archivos: la actividad de uso compartido puede cambiar con el tiempo. Mueva los recursos compartidos de archivos estándar a niveles de acceso más esporádicos, o puede aprovisionar o desaprovisionar capacidad para recursos compartidos premium. Al mover recursos compartidos de archivos estándar a un nivel de acceso diferente, se incurre en un cargo por transacción. Mueva los recursos compartidos de archivos estándar solo cuando sea necesario para reducir su factura mensual.</t>
+          <t>Revisar periódicamente la actividad de uso compartido de archivos: la actividad de uso compartido puede cambiar con el tiempo. Mueva los recursos compartidos de archivos estándar a niveles de acceso más esporádicos, o puede aprovisionar o desaprovisionar capacidad para recursos compartidos premium. Al mover recursos compartidos de archivos estándar a un nivel de acceso diferente, se incurre en un cargo por transacción. Mueva los recursos compartidos de archivos estándar solo cuando sea necesario para reducir su factura mensual.</t>
         </is>
       </c>
       <c r="D293" s="21" t="inlineStr"/>
@@ -9869,7 +9869,7 @@
       </c>
       <c r="D295" s="21" t="inlineStr">
         <is>
-          <t>Puede realizar un seguimiento del estado y el funcionamiento de cada una de sus cuentas. Cree fácilmente paneles e informes que las partes interesadas pueden usar para realizar un seguimiento del estado de sus cuentas de almacenamiento.</t>
+          <t>Puede realizar un seguimiento del estado y el funcionamiento de cada una de sus cuentas. Cree fácilmente paneles e informes que las partes interesadas puedan usar para realizar un seguimiento del estado de sus cuentas de almacenamiento.</t>
         </is>
       </c>
       <c r="E295" s="21" t="n"/>
@@ -9928,7 +9928,7 @@
       <c r="B297" s="21" t="n"/>
       <c r="C297" s="21" t="inlineStr">
         <is>
-          <t>Planeación de la escala: comprenda los objetivos de escalabilidad y rendimiento de las cuentas de almacenamiento, Azure Files y Azure File Sync.</t>
+          <t>Planear la escala: comprenda los objetivos de escalabilidad y rendimiento de las cuentas de almacenamiento, Azure Files y Azure File Sync.</t>
         </is>
       </c>
       <c r="D297" s="21" t="inlineStr"/>
@@ -9956,7 +9956,7 @@
       <c r="B298" s="2" t="n"/>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Comprenda los patrones de uso y aplicaciones para lograr un rendimiento predecible: determine la sensibilidad a la latencia, los requisitos de IOPS y rendimiento, la duración y la frecuencia de la carga de trabajo y la paralelización de la carga de trabajo. Use Azure Files para aplicaciones multiproceso para ayudarle a alcanzar los límites superiores de rendimiento de un servicio. Si la mayoría de las solicitudes están centradas en los metadatos, como createfile, openfile, closefile, queryinfo o querydirectory, las solicitudes crean una latencia deficiente que es mayor que las operaciones de lectura y escritura. Si tiene este problema, considere la posibilidad de separar el recurso compartido de archivos en varios recursos compartidos de archivos dentro de la misma cuenta de almacenamiento.</t>
+          <t>Comprenda los patrones de uso y aplicaciones para lograr un rendimiento predecible: determine la sensibilidad de latencia, los requisitos de IOPS y rendimiento, la duración y la frecuencia de la carga de trabajo y la paralelización de la carga de trabajo. Use Azure Files para aplicaciones multiproceso para ayudarle a alcanzar los límites superiores de rendimiento de un servicio. Si la mayoría de las solicitudes están centradas en los metadatos, como createfile, openfile, closefile, queryinfo o querydirectory, las solicitudes crean una latencia deficiente que es mayor que las operaciones de lectura y escritura. Si tiene este problema, considere la posibilidad de separar el recurso compartido de archivos en varios recursos compartidos de archivos dentro de la misma cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="D298" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
       <c r="B300" s="2" t="n"/>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Cree cuentas de almacenamiento en las mismas regiones en las que se conectan los clientes para reducir la latencia: cuanto más lejos esté del servicio Azure Files, mayor será la latencia y más difícil será alcanzar los límites de escala de rendimiento. Esta consideración es especialmente cierta cuando se accede a Azure Files desde entornos locales. Si es posible, asegúrese de que la cuenta de almacenamiento y los clientes estén ubicados en la misma región de Azure. Optimice para los clientes locales minimizando la latencia de red o usando una conexión de ExpressRoute para extender las redes locales a la nube de Microsoft a través de una conexión privada.</t>
+          <t>Cree cuentas de almacenamiento en las mismas regiones que los clientes de conexión para reducir la latencia: cuanto más lejos esté del servicio Azure Files, mayor será la latencia y más difícil será alcanzar los límites de escala de rendimiento. Esta consideración es especialmente cierta cuando se accede a Azure Files desde entornos locales. Si es posible, asegúrese de que la cuenta de almacenamiento y los clientes estén ubicados en la misma región de Azure. Optimice para los clientes locales minimizando la latencia de red o usando una conexión de ExpressRoute para extender las redes locales a la nube de Microsoft a través de una conexión privada.</t>
         </is>
       </c>
       <c r="D300" t="inlineStr"/>
@@ -10036,7 +10036,7 @@
       <c r="B302" s="2" t="n"/>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Optimización para implementaciones híbridas: si usa Azure File Sync, el rendimiento de la sincronización depende de muchos factores: el servidor de Windows y la configuración del disco subyacente, el ancho de banda de red entre el servidor y el almacenamiento de Azure, el tamaño del archivo, el tamaño total del conjunto de datos y la actividad del conjunto de datos. Para medir el rendimiento de una solución basada en Azure File Sync, determine el número de objetos, como archivos y directorios, que procesa por segundo.</t>
+          <t>Optimización para implementaciones híbridas: si usa Azure File Sync, el rendimiento de la sincronización depende de muchos factores: el servidor de Windows y la configuración del disco subyacente, el ancho de banda de red entre el servidor y el almacenamiento de Azure, el tamaño del archivo, el tamaño total del conjunto de datos y la actividad en el conjunto de datos. Para medir el rendimiento de una solución basada en Azure File Sync, determine el número de objetos, como archivos y directorios, que procesa por segundo.</t>
         </is>
       </c>
       <c r="D302" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
     <row r="303">
       <c r="C303" t="inlineStr">
         <is>
-          <t>Habilite SMB Multicanal para recursos compartidos de archivos SMB premium. SMB Multichannel permite a un cliente SMB 3.1.1 establecer varias conexiones de red a un recurso compartido de archivos de Azure SMB. SMB multicanal solo funciona cuando la característica está habilitada tanto en el lado del cliente (su cliente) como en el lado del servicio (Azure). En los clientes de Windows, SMB Multicanal está habilitado de forma predeterminada, pero debe habilitarlo en su cuenta de almacenamiento.</t>
+          <t>Habilite SMB Multicanal para recursos compartidos de archivos SMB premium. SMB Multicanal permite a un cliente SMB 3.1.1 establecer varias conexiones de red a un recurso compartido de archivos de Azure SMB. SMB multicanal solo funciona cuando la característica está habilitada tanto en el lado del cliente (su cliente) como en el lado del servicio (Azure). En los clientes de Windows, SMB multicanal está habilitado de forma predeterminada, pero debe habilitarlo en su cuenta de almacenamiento.</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -10076,7 +10076,7 @@
     <row r="304">
       <c r="C304" t="inlineStr">
         <is>
-          <t>Use la opción de montaje del lado cliente nconnect con recursos compartidos de archivos de Azure NFS en clientes Linux. Nconnect permite usar más conexiones TCP entre el cliente y el servicio premium de Azure Files para NFSv4.1.</t>
+          <t>Use la opción de montaje del lado del cliente nconnect con recursos compartidos de archivos de Azure NFS en clientes Linux. Nconnect permite usar más conexiones TCP entre el cliente y el servicio premium de Azure Files para NFSv4.1.</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -10098,7 +10098,7 @@
     <row r="305">
       <c r="C305" t="inlineStr">
         <is>
-          <t>Asegúrese de que el recurso compartido de archivos o la cuenta de almacenamiento no se estén limitando, lo que puede dar lugar a una alta latencia, un bajo rendimiento o un bajo número de IOPS. Las solicitudes se limitan cuando se alcanzan los límites de IOPS, entrada o salida. En el caso de las cuentas de almacenamiento estándar, la limitación se produce en el nivel de cuenta. En el caso de los recursos compartidos de archivos premium, la limitación suele producirse en el nivel de recurso compartido.</t>
+          <t>Asegúrese de que el recurso compartido de archivos o la cuenta de almacenamiento no se esté limitando, lo que puede dar lugar a una alta latencia, un bajo rendimiento o un bajo número de IOPS. Las solicitudes se limitan cuando se alcanzan los límites de IOPS, entrada o salida. En el caso de las cuentas de almacenamiento estándar, la limitación se produce en el nivel de cuenta. En el caso de los recursos compartidos de archivos premium, la limitación suele producirse en el nivel de recurso compartido.</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -10120,7 +10120,7 @@
     <row r="306">
       <c r="C306" t="inlineStr">
         <is>
-          <t>Implemente Azure Firewall en redes virtuales de centro o como parte de centros de conectividad de Azure Virtual WAN.</t>
+          <t>Implemente Azure Firewall en redes virtuales de centro de conectividad o como parte de centros de conectividad de Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D306" t="inlineStr"/>
@@ -10138,7 +10138,7 @@
     <row r="307">
       <c r="C307" t="inlineStr">
         <is>
-          <t>Aproveche la resistencia de las zonas de disponibilidad.</t>
+          <t>Aproveche la resiliencia de las zonas de disponibilidad.</t>
         </is>
       </c>
       <c r="D307" t="inlineStr"/>
@@ -10215,7 +10215,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Cree fácilmente arquitecturas radiales y transitivas con servicios de seguridad nativos para la gobernanza y la protección del tráfico.  Para obtener más información sobre las topologías de red, consulte la documentación de Azure Cloud Adoption Framework.</t>
+          <t>Cree fácilmente arquitecturas transitivas y radiales con servicios de seguridad nativos para la gobernanza y la protección del tráfico.  Para obtener más información sobre las topologías de red, consulte la documentación de Azure Cloud Adoption Framework.</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -10232,12 +10232,12 @@
     <row r="312">
       <c r="C312" t="inlineStr">
         <is>
-          <t>Cree directivas de Azure Firewall para controlar la posición de seguridad en entornos de red globales. Asigne directivas a todas las instancias de Azure Firewall.</t>
+          <t>Cree directivas de Azure Firewall para controlar la posición de seguridad en los entornos de red globales. Asigne directivas a todas las instancias de Azure Firewall.</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Las directivas de Azure Firewall se pueden organizar en una estructura jerárquica para superponer una directiva base central. Permita que las políticas granulares cumplan con los requisitos de regiones específicas. Delegue políticas de firewall incrementales a los equipos de seguridad locales a través del control de acceso basado en roles (RBAC). Algunas configuraciones son específicas por instancia, por ejemplo, las reglas de DNAT y la configuración de DNS, por lo que es posible que se requieran varias políticas especializadas.</t>
+          <t>Las directivas de Azure Firewall se pueden organizar en una estructura jerárquica para superponer una directiva base central. Permitir políticas granulares para cumplir con los requisitos de regiones específicas. Delegue políticas de firewall incrementales a los equipos de seguridad locales a través del control de acceso basado en roles (RBAC). Algunas opciones de configuración son específicas por instancia, por ejemplo, las reglas de DNAT y la configuración de DNS, por lo que es posible que se requieran varias políticas especializadas.</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>En el caso de las arquitecturas tradicionales de Hub &amp; Spokes, en este artículo se explican los detalles de varias regiones. En el caso de los centros virtuales protegidos (Azure Virtual WAN), la intención y las directivas de enrutamiento deben configurarse para proteger las comunicaciones entre centros y de sucursal a sucursal. En el caso de las cargas de trabajo diseñadas para ser resistentes a errores y tolerantes a errores, recuerde tener en cuenta que las instancias de Azure Firewall y Azure Virtual Network son recursos regionales.</t>
+          <t>En el caso de las arquitecturas tradicionales de Hub &amp; Spokes, en este artículo se explican los detalles de varias regiones. En el caso de los centros de conectividad virtual protegidos (Azure Virtual WAN), la intención y las directivas de enrutamiento deben configurarse para proteger las comunicaciones entre centros y de sucursal a sucursal. En el caso de las cargas de trabajo diseñadas para ser resistentes a errores y tolerantes a errores, recuerde tener en cuenta que las instancias de Azure Firewall y Azure Virtual Network son recursos regionales.</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -10369,7 +10369,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Supervise de cerca el indicador de métricas clave del estado de mantenimiento de Azure Firewall, como el rendimiento, el estado de mantenimiento del firewall, la utilización del puerto SNAT y las métricas de sondeo de latencia de AZFW. Además, Azure Firewall ahora se integra con Azure Resource Health. Con la comprobación de estado de los recursos de Azure Firewall, ahora puede ver el estado de mantenimiento de Azure Firewall y solucionar los problemas de servicio que podrían afectar a los recursos de Azure Firewall.</t>
+          <t>Supervise de cerca el indicador de métricas clave del estado de mantenimiento de Azure Firewall, como el rendimiento, el estado de mantenimiento del firewall, la utilización del puerto SNAT y las métricas de sondeo de latencia de AZFW. Además, Azure Firewall ahora se integra con Azure Resource Health. Con la comprobación del estado de los recursos de Azure Firewall, ahora puede ver el estado de mantenimiento de Azure Firewall y solucionar los problemas de servicio que podrían afectar al recurso de Azure Firewall.</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -10404,7 +10404,7 @@
     <row r="320">
       <c r="C320" t="inlineStr">
         <is>
-          <t>Cree reglas para las políticas basadas en criterios de acceso con privilegios mínimos.</t>
+          <t>Cree reglas para las políticas en función de los criterios de acceso con privilegios mínimos.</t>
         </is>
       </c>
       <c r="D320" t="inlineStr"/>
@@ -10494,7 +10494,7 @@
     <row r="325">
       <c r="C325" t="inlineStr">
         <is>
-          <t>Proteja las direcciones IP públicas de Azure Firewall con DDoS.</t>
+          <t>Proteja sus direcciones IP públicas de Azure Firewall con DDoS.</t>
         </is>
       </c>
       <c r="D325" t="inlineStr"/>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Las directivas de Azure Firewall se pueden organizar en una estructura jerárquica para superponer una directiva base central. Permita que las políticas granulares cumplan con los requisitos de regiones específicas. Cada política puede contener diferentes conjuntos de reglas DNAT, de red y de aplicación con prioridad, acción y orden de procesamiento específicos. Cree sus reglas basadas en el principio de confianza cero de acceso con privilegios mínimos. En este artículo se explica cómo se procesan las reglas.</t>
+          <t>Las directivas de Azure Firewall se pueden organizar en una estructura jerárquica para superponer una directiva base central. Permitir políticas granulares para cumplir con los requisitos de regiones específicas. Cada política puede contener diferentes conjuntos de reglas de DNAT, red y aplicación con prioridad, acción y orden de procesamiento específicos. Cree sus reglas basadas en el principio de confianza cero de acceso con privilegios mínimos. En este artículo se explica cómo se procesan las reglas.</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Al habilitar esta característica, los clientes de las redes virtuales apuntan a Azure Firewall como servidor DNS. Protegerá la infraestructura DNS interna a la que no se accederá ni se expondrá directamente. Azure Firewall también debe estar configurado para usar DNS personalizado que se usará para reenviar consultas DNS.</t>
+          <t>Al habilitar esta característica, los clientes de las redes virtuales apuntan a Azure Firewall como servidor DNS. Protegerá la infraestructura interna del DNS a la que no se accederá ni expondrá directamente. Azure Firewall también debe configurarse para usar DNS personalizado que se usará para reenviar consultas DNS.</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -10627,7 +10627,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>En una arquitectura tradicional de Hub &amp; Spokes, configure los UDR para forzar el tráfico a través de Azure Firewall para la conectividad "SpoketoSpoke", "SpoketoInternet" y "SpoketoHybrid". En Azure Virtual WAN, en su lugar, configure la intención y las directivas de enrutamiento para redirigir el tráfico privado o de Internet a través de la instancia de Azure Firewall integrada en el centro.</t>
+          <t>En una arquitectura tradicional de Hub &amp; Spokes, configure las UDR para forzar el tráfico a través de Azure Firewall para la conectividad "SpoketoSpoke", "SpoketoInternet" y "SpoketoHybrid". En Azure Virtual WAN, en su lugar, configure la intención y las directivas de enrutamiento para redirigir el tráfico privado o de Internet a través de la instancia de Azure Firewall integrada en el centro.</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -10649,7 +10649,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Con la característica de proxy explícito habilitada en la ruta de salida, puede configurar una configuración de proxy en la aplicación web de envío (como un explorador web) con Azure Firewall configurado como proxy. Como resultado, el tráfico web llegará a la dirección IP privada del firewall y, por lo tanto, sale directamente del firewall sin usar una UDR. Esta característica también facilita el uso de múltiples firewalls sin modificar las rutas de red existentes.</t>
+          <t>Con la característica de proxy explícito habilitada en la ruta de acceso de salida, puede configurar una configuración de proxy en la aplicación web de envío (como un explorador web) con Azure Firewall configurado como proxy. Como resultado, el tráfico web llegará a la dirección IP privada del firewall y, por lo tanto, sale directamente del firewall sin usar una UDR. Esta característica también facilita el uso de múltiples firewalls sin modificar las rutas de red existentes.</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -10688,12 +10688,12 @@
     <row r="334">
       <c r="C334" t="inlineStr">
         <is>
-          <t>Use el filtrado de nombres de dominio completos (FQDN) en las reglas de red.</t>
+          <t>Utilice el filtrado de nombres de dominio completos (FQDN) en las reglas de red.</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Puede usar FQDN en función de la resolución de DNS en Azure Firewall y directivas de firewall. Esta capacidad le permite filtrar el tráfico saliente con cualquier protocolo TCP/UDP (incluidos NTP, SSH, RDP y más). Debe habilitar la configuración del proxy DNS de Azure Firewall para usar FQDN en las reglas de red. Para obtener información sobre cómo funciona, consulte Filtrado de FQDN de Azure Firewall en reglas de red.</t>
+          <t>Puede usar FQDN en función de la resolución de DNS en Azure Firewall y las directivas de firewall. Esta capacidad le permite filtrar el tráfico saliente con cualquier protocolo TCP/UDP (incluidos NTP, SSH, RDP y más). Debe habilitar la configuración del proxy DNS de Azure Firewall para usar FQDN en las reglas de red. Para obtener información sobre cómo funciona, consulte Filtrado de FQDN de Azure Firewall en reglas de red.</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -10820,7 +10820,7 @@
     <row r="340">
       <c r="C340" t="inlineStr">
         <is>
-          <t>Seleccione la SKU de Azure Firewall que se va a implementar.</t>
+          <t>Seleccione la SKU de Azure Firewall que desea implementar.</t>
         </is>
       </c>
       <c r="D340" t="inlineStr"/>
@@ -10856,7 +10856,7 @@
     <row r="342">
       <c r="C342" t="inlineStr">
         <is>
-          <t>Determine dónde puede optimizar el uso del firewall en las cargas de trabajo.</t>
+          <t>Determine dónde puede optimizar el uso del firewall en todas las cargas de trabajo.</t>
         </is>
       </c>
       <c r="D342" t="inlineStr"/>
@@ -10874,7 +10874,7 @@
     <row r="343">
       <c r="C343" t="inlineStr">
         <is>
-          <t>Supervise y optimice el uso de las instancias de firewall para determinar la rentabilidad.</t>
+          <t>Supervise y optimice el uso de instancias de firewall para determinar la rentabilidad.</t>
         </is>
       </c>
       <c r="D343" t="inlineStr"/>
@@ -10933,7 +10933,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Azure Firewall se puede implementar en tres SKU diferentes: Básico, Estándar y Premium. Se recomienda Azure Firewall Premium para proteger aplicaciones muy confidenciales (como el procesamiento de pagos). Azure Firewall Standard se recomienda para los clientes que buscan un firewall de capa 3 a capa 7 y necesita escalado automático para controlar períodos de tráfico máximo de hasta 30 Gbps. Azure Firewall Basic se recomienda para clientes de pymes con necesidades de rendimiento de 250 Mbps. Si es necesario, es posible cambiar a una versión anterior o actualizar entre Standard y Premium, como se documenta aquí.   Para más información, consulte Elección de la SKU de Azure Firewall adecuada para satisfacer sus necesidades.</t>
+          <t>Azure Firewall se puede implementar en tres SKU diferentes: Básico, Estándar y Premium. Se recomienda Azure Firewall Premium para proteger aplicaciones muy confidenciales (como el procesamiento de pagos). Azure Firewall Standard se recomienda para los clientes que buscan un firewall de capa 3 a capa 7 y necesita escalado automático para controlar los períodos de tráfico máximo de hasta 30 Gbps. Azure Firewall Basic se recomienda para los clientes de pymes con necesidades de rendimiento de 250 Mbps. Si es necesario, es posible cambiar a una versión anterior o actualizarla entre Estándar y Premium, como se documenta aquí.   Para más información, consulte Elección de la SKU de Azure Firewall adecuada para satisfacer sus necesidades.</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -10977,7 +10977,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Puede usar una instancia central de Azure Firewall en la red virtual del centro de conectividad o en el centro de conectividad segura de Virtual WAN y compartir el mismo firewall entre muchas redes virtuales de radio que estén conectadas al mismo centro de conectividad desde la misma región. Asegúrese de que no haya tráfico inesperado entre regiones como parte de la topología en estrella tipo hub-radi.</t>
+          <t>Puede usar una instancia central de Azure Firewall en la red virtual del centro de conectividad o en el centro de conectividad segura de Virtual WAN y compartir el mismo firewall entre muchas redes virtuales de radio que estén conectadas al mismo centro de conectividad desde la misma región. Asegúrese de que no haya tráfico inesperado entre regiones como parte de la topología en estrella tipo hub-andher.</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>El registro de flujos principales (conocido en la industria como flujos de grasa) muestra las conexiones principales que contribuyen al rendimiento más alto a través del firewall. Se recomienda revisar periódicamente el tráfico procesado por Azure Firewall y buscar posibles optimizaciones para reducir la cantidad de tráfico que atraviesa el firewall.</t>
+          <t>El registro de Top Flows (conocido en el sector como Fat Flows) muestra las principales conexiones que contribuyen al mayor rendimiento a través del firewall. Se recomienda revisar periódicamente el tráfico procesado por Azure Firewall y buscar posibles optimizaciones para reducir la cantidad de tráfico que atraviesa el firewall.</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Para identificar las implementaciones de Azure Firewall no utilizadas, empiece por analizar las métricas de supervisión y las UDR asociadas a las subredes que apuntan a la dirección IP privada del firewall. Combine esa información con otras validaciones, por ejemplo, si la instancia de Azure Firewall tiene reglas (clásicas) para NAT, red y aplicación, o incluso si la configuración de Proxy DNS está configurada en Deshabilitado, y con documentación interna sobre el entorno y las implementaciones. Puede detectar implementaciones que sean rentables a lo largo del tiempo.  Para obtener más información sobre la supervisión de registros y métricas, consulte Supervisión de registros y métricas de Azure Firewall y uso de puertos SNAT.</t>
+          <t>Para identificar las implementaciones de Azure Firewall sin usar, empiece por analizar las métricas de supervisión y las unidades definidas al usuario asociadas a las subredes que apuntan a la dirección IP privada del firewall. Combine esa información con otras validaciones, por ejemplo, si la instancia de Azure Firewall tiene reglas (clásicas) para NAT, red y aplicación, o incluso si la configuración de Proxy DNS está configurada en Deshabilitado, y con documentación interna sobre el entorno y las implementaciones. Puede detectar implementaciones que sean rentables a lo largo del tiempo.  Para obtener más información sobre la supervisión de registros y métricas, consulte Supervisión de registros y métricas de Azure Firewall y uso de puertos SNAT.</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -11043,7 +11043,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Revise detenidamente las políticas, las asociaciones y la herencia de Firewall Manager. Las políticas se facturan en función de las asociaciones de firewall. Una póliza con cero o una asociación de firewall es gratuita. Una política con varias asociaciones de firewall se factura a una tarifa fija. Para obtener más información, consulte Precios: Azure Firewall Manager.</t>
+          <t>Revise detenidamente las políticas, las asociaciones y la herencia de Firewall Manager. Las políticas se facturan en función de las asociaciones de firewall. Una póliza con cero o una asociación de firewall es gratuita. Una política con varias asociaciones de firewall se factura a una tarifa fija. Para más información, consulte Precios: Azure Firewall Manager.</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -11065,7 +11065,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Valide si todas las direcciones IP públicas asociadas están en uso. Si no están en uso, desconsocie y elimínelos. Evalúe la utilización del puerto SNAT antes de eliminar cualquier dirección IP. Solo usarás el número de direcciones IP públicas que necesite tu firewall. Para más información, consulte Supervisión de registros y métricas de Azure Firewall y uso de puertos SNAT.</t>
+          <t>Valida si todas las direcciones IP públicas asociadas están en uso. Si no están en uso, desconsocie y elimínelos. Evalúe la utilización del puerto SNAT antes de eliminar cualquier dirección IP. Solo usarás el número de direcciones IP públicas que necesite tu firewall. Para más información, consulte Supervisión de los registros y métricas de Azure Firewall y el uso de puertos SNAT.</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -11158,7 +11158,7 @@
     <row r="357">
       <c r="C357" t="inlineStr">
         <is>
-          <t>Revise periódicamente la información y los análisis de su política.</t>
+          <t>Revise periódicamente la información y los análisis de su póliza.</t>
         </is>
       </c>
       <c r="D357" t="inlineStr"/>
@@ -11243,7 +11243,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Los registros de diagnóstico son un componente clave para muchas herramientas y estrategias de supervisión de Azure Firewall y deben estar habilitados. Puede supervisar Azure Firewall mediante registros de firewall o libros. También puede usar registros de actividad para auditar operaciones en recursos de Azure Firewall.</t>
+          <t>Los registros de diagnóstico son un componente clave para muchas herramientas y estrategias de supervisión de Azure Firewall y deben estar habilitados. Puede supervisar Azure Firewall mediante registros de firewall o libros. También puede usar registros de actividad para auditar operaciones en los recursos de Azure Firewall.</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -11287,7 +11287,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>La experiencia del portal de Azure Firewall ahora incluye un nuevo libro en la interfaz de usuario de la sección Supervisión, por lo que ya no es necesaria una instalación independiente. Con el libro de Azure Firewall, puede extraer información valiosa de los eventos de Azure Firewall, profundizar en las reglas de red y aplicaciones, y examinar las estadísticas relativas a las actividades del firewall en direcciones URL, puertos y direcciones.</t>
+          <t>La experiencia del portal de Azure Firewall ahora incluye un nuevo libro en la interfaz de usuario de la sección Supervisión, por lo que ya no es necesaria una instalación independiente. Con el libro de Azure Firewall, puede extraer información valiosa de los eventos de Azure Firewall, profundizar en las reglas de red y aplicaciones y examinar estadísticas sobre las actividades del firewall en direcciones URL, puertos y direcciones.</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -11309,7 +11309,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Se deben crear alertas para supervisar al menos el rendimiento, el estado de mantenimiento del firewall, la utilización del puerto SNAT y las métricas de sondeo de latencia de AZFW. Para obtener información sobre la supervisión de registros y métricas, consulte Supervisión de registros y métricas de Azure Firewall.</t>
+          <t>Las alertas deben crearse para supervisar al menos el rendimiento, el estado de mantenimiento del firewall, la utilización del puerto SNAT y las métricas del sondeo de latencia de AZFW. Para obtener información sobre la supervisión de registros y métricas, consulte Supervisión de registros y métricas de Azure Firewall.</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Policy Analytics es una nueva característica que proporciona información sobre el impacto de las directivas de Azure Firewall. Le ayuda a identificar posibles problemas (alcanzar los límites de las directivas, reglas de uso bajo, reglas redundantes, reglas demasiado genéricas, recomendación de uso de grupos IP) en las directivas y proporciona recomendaciones para mejorar la posición de seguridad y el rendimiento del procesamiento de reglas.</t>
+          <t>Policy Analytics es una nueva característica que proporciona información sobre el impacto de las directivas de Azure Firewall. Le ayuda a identificar posibles problemas (alcanzar los límites de las directivas, reglas de baja utilización, reglas redundantes, reglas demasiado genéricas, recomendación de uso de grupos IP) en las directivas y proporciona recomendaciones para mejorar la posición de seguridad y el rendimiento del procesamiento de reglas.</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -11375,7 +11375,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Se proporcionan consultas de ejemplo para Azure Firewall. Estos le permitirán identificar rápidamente lo que está sucediendo dentro de su firewall y verificar qué regla se activó o qué regla está permitiendo/bloqueando una solicitud.</t>
+          <t>Se proporcionan consultas de ejemplo para Azure Firewall. Estos le permitirán identificar rápidamente lo que está sucediendo dentro de su firewall y verificar qué regla se activó o qué regla permite/bloquea una solicitud.</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -11410,7 +11410,7 @@
     <row r="369">
       <c r="C369" t="inlineStr">
         <is>
-          <t>Revise los requisitos de la directiva y las oportunidades para resumir los rangos de IP y la lista de direcciones URL.</t>
+          <t>Revise los requisitos de la directiva y las oportunidades para resumir los intervalos de IP y la lista de direcciones URL.</t>
         </is>
       </c>
       <c r="D369" t="inlineStr"/>
@@ -11428,7 +11428,7 @@
     <row r="370">
       <c r="C370" t="inlineStr">
         <is>
-          <t>Evalúe los requisitos de puerto SNAT.</t>
+          <t>Evalúe los requisitos de los puertos SNAT.</t>
         </is>
       </c>
       <c r="D370" t="inlineStr"/>
@@ -11464,7 +11464,7 @@
     <row r="372">
       <c r="C372" t="inlineStr">
         <is>
-          <t>No habilite las herramientas de diagnóstico y el registro si no son necesarios.</t>
+          <t>No habilite las herramientas de diagnóstico y el registro si no es necesario.</t>
         </is>
       </c>
       <c r="D372" t="inlineStr"/>
@@ -11487,7 +11487,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Policy Analytics es una nueva característica que proporciona información sobre el impacto de las directivas de Azure Firewall. Le ayuda a identificar posibles problemas (alcanzar los límites de las directivas, reglas de uso bajo, reglas redundantes, reglas demasiado genéricas, recomendación de uso de grupos IP) en las directivas y proporciona recomendaciones para mejorar la posición de seguridad y el rendimiento del procesamiento de reglas.</t>
+          <t>Policy Analytics es una nueva característica que proporciona información sobre el impacto de las directivas de Azure Firewall. Le ayuda a identificar posibles problemas (alcanzar los límites de las directivas, reglas de baja utilización, reglas redundantes, reglas demasiado genéricas, recomendación de uso de grupos IP) en las directivas y proporciona recomendaciones para mejorar la posición de seguridad y el rendimiento del procesamiento de reglas.</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -11504,12 +11504,12 @@
     <row r="374">
       <c r="C374" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de utilizar las categorías web para permitir o denegar el acceso saliente de forma masiva.</t>
+          <t>Considere la posibilidad de utilizar categorías web para permitir o denegar el acceso saliente de forma masiva.</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>En lugar de crear y mantener explícitamente una larga lista de sitios públicos de Internet, considere la posibilidad de usar las categorías web de Azure Firewall. Esta función categorizará dinámicamente el contenido web y permitirá la creación de reglas de aplicación compactas.</t>
+          <t>En lugar de crear y mantener explícitamente una larga lista de sitios públicos de Internet, considere el uso de las categorías web de Azure Firewall. Esta función categorizará dinámicamente el contenido web y permitirá la creación de reglas de aplicación compactas.</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -11531,7 +11531,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Si es necesario que Azure Firewall funcione en modo IDPS Alerta y denegación, considere detenidamente el impacto en el rendimiento, tal como se documenta en esta página.</t>
+          <t>Si se requiere que Azure Firewall funcione en modo IDPS Alerta y denegación, considere detenidamente el impacto en el rendimiento, tal y como se documenta en esta página.</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -11553,7 +11553,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Azure Firewall admite actualmente 2496 puertos por dirección IP pública por instancia de conjunto de escalado de máquinas virtuales de back-end. De forma predeterminada, hay dos instancias de Virtual Machine Scale Set. Por lo tanto, hay 4992 puertos por IP de destino de flujo, puerto de destino y protocolo (TCP o UDP). El firewall se escala hasta un máximo de 20 instancias. Puede evitar los límites configurando implementaciones de Azure Firewall con un mínimo de cinco direcciones IP públicas para implementaciones susceptibles al agotamiento de SNAT.</t>
+          <t>Actualmente, Azure Firewall admite 2496 puertos por dirección IP pública por instancia de conjunto de escalado de máquinas virtuales de back-end. De forma predeterminada, hay dos instancias de Virtual Machine Scale Set. Por lo tanto, hay 4992 puertos por IP de destino de flujo, puerto de destino y protocolo (TCP o UDP). El firewall se escala hasta un máximo de 20 instancias. Puede evitar los límites configurando implementaciones de Azure Firewall con un mínimo de cinco direcciones IP públicas para las implementaciones susceptibles al agotamiento de SNAT.</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -11654,7 +11654,7 @@
     <row r="381">
       <c r="C381" t="inlineStr">
         <is>
-          <t>Elija su estrategia de implementación. Los enfoques de implementación fundamentales son activo-activo y activo-pasivo. La implementación activo-activo significa que varios entornos o marcas que ejecutan la carga de trabajo atienden el tráfico. La implementación activa-pasiva significa que solo la región primaria controla todo el tráfico, pero conmuta por error a la región secundaria cuando es necesario. En una implementación de varias regiones, los stamps se ejecutan en diferentes regiones para una mayor disponibilidad con un equilibrador de carga global, como Azure Front Door, que distribuye el tráfico. Por lo tanto, es importante configurar el equilibrador de carga para el enfoque de implementación adecuado.</t>
+          <t>Elija su estrategia de implementación. Los enfoques de implementación fundamentales son activo-activo y activo-pasivo. La implementación activo-activo significa que varios entornos o marcas que ejecutan la carga de trabajo atienden el tráfico. La implementación activa-pasiva significa que solo la región primaria controla todo el tráfico, pero conmuta por error a la región secundaria cuando es necesario. En una implementación multirregional, las marcas se ejecutan en diferentes regiones para una mayor disponibilidad con un equilibrador de carga global, como Azure Front Door, que distribuye el tráfico. Por lo tanto, es importante configurar el equilibrador de carga para el enfoque de implementación adecuado.</t>
         </is>
       </c>
       <c r="D381" t="inlineStr"/>
@@ -11749,7 +11749,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Puede seleccionar el mejor recurso de origen mediante una serie de pasos de decisión y su diseño. El origen seleccionado atiende el tráfico dentro del rango de latencia permitido en la proporción de pesos especificada.</t>
+          <t>Puede seleccionar el mejor recurso de origen mediante una serie de pasos de decisión y su diseño. El origen seleccionado atiende el tráfico dentro del rango de latencia permitido en la proporción de ponderaciones especificada.</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -11788,12 +11788,12 @@
     <row r="388">
       <c r="C388" t="inlineStr">
         <is>
-          <t>Configure sondeos de estado en el origen. Configure Azure Front Door para realizar comprobaciones de estado y determinar si la instancia de back-end está disponible y lista para seguir recibiendo solicitudes.</t>
+          <t>Configure sondeos de estado en el origen. Configure Azure Front Door para realizar comprobaciones de estado a fin de determinar si la instancia de back-end está disponible y lista para seguir recibiendo solicitudes.</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Los sondeos de estado habilitados forman parte de la implementación del patrón de supervisión de estado. Los sondeos de estado se aseguran de que Azure Front Door solo enruta el tráfico a las instancias que están en buen estado para controlar las solicitudes.  Para obtener más información, consulte Procedimientos recomendados para sondeos de estado.</t>
+          <t>Los sondeos de estado habilitados forman parte de la implementación del patrón de supervisión de estado. Los sondeos de estado se aseguran de que Azure Front Door solo enruta el tráfico a las instancias que están en buen estado para controlar las solicitudes.  Para obtener más información, consulte Procedimientos recomendados sobre sondeos de estado.</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -11832,7 +11832,7 @@
     <row r="390">
       <c r="C390" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de host en Azure Front Door y en su origen. Azure Front Door puede reescribir el encabezado de host de las solicitudes entrantes, lo que resulta útil cuando hay varios nombres de dominio personalizados que se enrutan a un origen. Sin embargo, reescribir el encabezado del host puede causar problemas con las cookies de solicitud y el redireccionamiento de URL.</t>
+          <t>Use el mismo nombre de host en Azure Front Door y en el origen. Azure Front Door puede reescribir el encabezado de host de las solicitudes entrantes, lo que resulta útil cuando hay varios nombres de dominio personalizados que se enrutan a un origen. Sin embargo, reescribir el encabezado del host puede causar problemas con las cookies de solicitud y el redireccionamiento de URL.</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -11934,7 +11934,7 @@
     <row r="395">
       <c r="C395" t="inlineStr">
         <is>
-          <t>Permitir solo el acceso autorizado al plano de control. Use el control de acceso basado en rol (RBAC) de Azure Front Door para restringir el acceso solo a las identidades que lo necesiten.</t>
+          <t>Permitir solo el acceso autorizado al plano de control. Use el control de acceso basado en roles (RBAC) de Azure Front Door para restringir el acceso solo a las identidades que lo necesiten.</t>
         </is>
       </c>
       <c r="D395" t="inlineStr"/>
@@ -11952,7 +11952,7 @@
     <row r="396">
       <c r="C396" t="inlineStr">
         <is>
-          <t>Bloquee las amenazas comunes en el perímetro. WAF está integrado con Azure Front Door. Habilite las reglas de WAF en los front-end para proteger las aplicaciones de exploits y vulnerabilidades comunes en el perímetro de la red, más cerca de la fuente de ataque.</t>
+          <t>Bloquee las amenazas comunes en el perímetro. WAF está integrado con Azure Front Door. Habilite las reglas de WAF en los front-end para proteger las aplicaciones de vulnerabilidades y exploits comunes en el perímetro de la red, más cerca de la fuente de ataque.</t>
         </is>
       </c>
       <c r="D396" t="inlineStr"/>
@@ -11970,7 +11970,7 @@
     <row r="397">
       <c r="C397" t="inlineStr">
         <is>
-          <t>Proteja Azure Front Door frente al tráfico inesperado. Azure Front Door usa el plan básico de protección contra DDoS de Azure para proteger los puntos de conexión de la aplicación frente a ataques DDoS. Si necesita exponer otras direcciones IP públicas de su aplicación, considere la posibilidad de agregar el plan estándar de protección DDoS para esas direcciones para capacidades avanzadas de protección y detección.</t>
+          <t>Proteja Azure Front Door frente al tráfico inesperado. Azure Front Door usa el plan básico de protección contra DDoS de Azure para proteger los puntos de conexión de las aplicaciones frente a ataques DDoS. Si necesita exponer otras direcciones IP públicas de su aplicación, considere la posibilidad de agregar el plan estándar DDoS Protection para esas direcciones para capacidades avanzadas de protección y detección.</t>
         </is>
       </c>
       <c r="D397" t="inlineStr"/>
@@ -12006,7 +12006,7 @@
     <row r="399">
       <c r="C399" t="inlineStr">
         <is>
-          <t>Supervise la actividad anómala. Revise periódicamente los registros para comprobar si hay ataques y falsos positivos. Envíe registros de WAF desde Azure Front Door a la administración centralizada de eventos e información de seguridad (SIEM) de su organización, como Microsoft Sentinel, para detectar patrones de amenazas e incorporar medidas preventivas en el diseño de la carga de trabajo.</t>
+          <t>Supervisar la actividad anómala. Revise periódicamente los registros para comprobar si hay ataques y falsos positivos. Envíe registros de WAF desde Azure Front Door a la administración centralizada de eventos e información de seguridad (SIEM) de su organización, como Microsoft Sentinel, para detectar patrones de amenazas e incorporar medidas preventivas en el diseño de la carga de trabajo.</t>
         </is>
       </c>
       <c r="D399" t="inlineStr"/>
@@ -12029,7 +12029,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Los conjuntos de reglas predeterminados se actualizan con frecuencia en función de los 10 tipos de ataque principales de OWASP y de la información de Microsoft Threat Intelligence.  Los conjuntos de reglas especializadas detectan determinados casos de uso. Por ejemplo, las reglas de bots clasifican los bots como buenos, malos o desconocidos en función de las direcciones IP del cliente. También bloquean los bots maliciosos y las direcciones IP conocidas y restringen el tráfico en función de la ubicación geográfica de las personas que llaman.  Mediante el uso de una combinación de conjuntos de reglas, puede detectar y bloquear ataques con varias intenciones.</t>
+          <t>Los conjuntos de reglas predeterminados se actualizan con frecuencia en función de los 10 tipos de ataque principales de OWASP y de la información de Microsoft Threat Intelligence.  Los conjuntos de reglas especializadas detectan ciertos casos de uso. Por ejemplo, las reglas de bots clasifican los bots como buenos, malos o desconocidos en función de las direcciones IP del cliente. También bloquean los bots maliciosos y las direcciones IP conocidas y restringen el tráfico en función de la ubicación geográfica de las personas que llaman.  Mediante el uso de una combinación de conjuntos de reglas, puede detectar y bloquear ataques con varias intenciones.</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -12073,7 +12073,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>TLS garantiza que los intercambios de datos entre el explorador, Azure Front Door y los orígenes back-end estén cifrados para evitar la manipulación.  Key Vault ofrece compatibilidad con certificados administrados y renovación y rotación sencillas de certificados.</t>
+          <t>TLS garantiza que los intercambios de datos entre el explorador, Azure Front Door y los orígenes de back-end estén cifrados para evitar la manipulación.  Key Vault ofrece compatibilidad con certificados administrados y renovación y rotación sencillas de certificados.</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -12144,7 +12144,7 @@
     <row r="406">
       <c r="C406" t="inlineStr">
         <is>
-          <t>Utilice los recursos de manera eficiente. Azure Front Door usa un método de enrutamiento que ayuda a optimizar los recursos. A menos que la carga de trabajo sea extremadamente sensible a la latencia, distribuya el tráfico de manera uniforme en todos los entornos para usar eficazmente los recursos implementados.</t>
+          <t>Utilice los recursos de manera eficiente. Azure Front Door usa un método de enrutamiento que ayuda con la optimización de recursos. A menos que la carga de trabajo sea extremadamente sensible a la latencia, distribuya el tráfico de manera uniforme en todos los entornos para usar eficazmente los recursos implementados.</t>
         </is>
       </c>
       <c r="D406" t="inlineStr"/>
@@ -12162,7 +12162,7 @@
     <row r="407">
       <c r="C407" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar una instancia compartida proporcionada por la organización. Los costos incurridos por los servicios centralizados se comparten entre las cargas de trabajo. Sin embargo, considere la compensación con la confiabilidad. En el caso de las aplicaciones críticas que tienen requisitos de alta disponibilidad, se recomienda una instancia autónoma.</t>
+          <t>Considere la posibilidad de usar una instancia compartida proporcionada por la organización. Los costos incurridos por los servicios centralizados se comparten entre las cargas de trabajo. Sin embargo, considere la compensación con la confiabilidad. Para las aplicaciones críticas que tienen requisitos de alta disponibilidad, recomendamos una instancia autónoma.</t>
         </is>
       </c>
       <c r="D407" t="inlineStr"/>
@@ -12282,7 +12282,7 @@
     <row r="413">
       <c r="C413" t="inlineStr">
         <is>
-          <t>Simplifique las configuraciones. Use Azure Front Door para administrar fácilmente las configuraciones. Por ejemplo, supongamos que su arquitectura admite microservicios. Azure Front Door admite funcionalidades de redireccionamiento, por lo que puede usar el redireccionamiento basado en rutas de acceso para dirigirse a servicios individuales.</t>
+          <t>Simplifique las configuraciones. Use Azure Front Door para administrar fácilmente las configuraciones. Por ejemplo, supongamos que la arquitectura admite microservicios. Azure Front Door admite funcionalidades de redireccionamiento, por lo que puede usar el redireccionamiento basado en rutas de acceso para dirigirse a servicios individuales.</t>
         </is>
       </c>
       <c r="D413" t="inlineStr"/>
@@ -12318,7 +12318,7 @@
     <row r="415">
       <c r="C415" t="inlineStr">
         <is>
-          <t>Recopile y analice los datos operativos de Azure Front Door como parte de la supervisión de la carga de trabajo. Capture métricas y registros relevantes de Azure Front Door con los registros de Azure Monitor. Estos datos le ayudan a solucionar problemas, comprender los comportamientos de los usuarios y optimizar las operaciones.</t>
+          <t>Recopile y analice datos operativos de Azure Front Door como parte de la supervisión de la carga de trabajo. Capture las métricas y los registros relevantes de Azure Front Door con los registros de Azure Monitor. Estos datos le ayudan a solucionar problemas, comprender los comportamientos de los usuarios y optimizar las operaciones.</t>
         </is>
       </c>
       <c r="D415" t="inlineStr"/>
@@ -12359,7 +12359,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Cuando se habilita el redireccionamiento, Azure Front Door redirige automáticamente a los clientes que usan el protocolo anterior para usar HTTPS para una experiencia segura.</t>
+          <t>Cuando se habilita el redireccionamiento, Azure Front Door redirige automáticamente a los clientes que usan un protocolo anterior para usar HTTPS para una experiencia segura.</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -12376,7 +12376,7 @@
     <row r="418">
       <c r="C418" t="inlineStr">
         <is>
-          <t>Captura de registros y métricas.  Incluya registros de actividad de recursos, registros de acceso, registros de sondeo de estado y registros de WAF. Configura alertas.</t>
+          <t>Capture registros y métricas.  Incluya registros de actividad de recursos, registros de acceso, registros de sondeo de estado y registros de WAF. Configura alertas.</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -12425,7 +12425,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Azure Front Door puede emitir y administrar certificados automáticamente. Esta función elimina la necesidad de renovar certificados y minimiza el riesgo de una interrupción debido a un certificado TLS no válido o caducado.</t>
+          <t>Azure Front Door puede emitir y administrar certificados por usted. Esta función elimina la necesidad de renovar certificados y minimiza el riesgo de una interrupción debido a un certificado TLS no válido o caducado.</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -12464,7 +12464,7 @@
     <row r="422">
       <c r="C422" t="inlineStr">
         <is>
-          <t>Planifique la capacidad mediante el análisis de los patrones de tráfico esperados. Realice pruebas exhaustivas para comprender el rendimiento de su aplicación bajo diferentes cargas. Tenga en cuenta factores como las transacciones simultáneas, las tasas de solicitud y la transferencia de datos.</t>
+          <t>Planifique la capacidad mediante el análisis de los patrones de tráfico esperados. Realice pruebas exhaustivas para comprender el rendimiento de su aplicación bajo diferentes cargas. Tenga en cuenta factores como las transacciones simultáneas, las tasas de solicitudes y la transferencia de datos.</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
@@ -12678,7 +12678,7 @@
     <row r="433">
       <c r="C433" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: planifique el espacio de direcciones IP para asegurarse de que el clúster pueda escalar de forma fiable, incluido el control del tráfico de conmutación por error en topologías de varios clústeres.</t>
+          <t>Arquitectura de clúster: planifique el espacio de direcciones IP para asegurarse de que el clúster pueda escalar de forma fiable, incluida la gestión del tráfico de conmutación por error en topologías de varios clústeres.</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
@@ -12773,7 +12773,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Permite que el programador de Kubernetes aísle lógicamente las cargas de trabajo por hardware en el nodo. A diferencia de las tolerancias, los pods sin un selector de nodos coincidentes se pueden programar en nodos etiquetados, lo que permite que se consuman los recursos no utilizados en los nodos, pero da prioridad a los pods que definen el selector de nodos coincidentes. Utilice la afinidad de nodo para obtener más flexibilidad, lo que le permite definir qué sucede si el pod no se puede hacer coincidir con un nodo.</t>
+          <t>Permite que el programador de Kubernetes aísle lógicamente las cargas de trabajo por hardware en el nodo. A diferencia de las tolerancias, los pods sin un selector de nodos coincidentes se pueden programar en nodos etiquetados, lo que permite que se consuman los recursos no utilizados en los nodos, pero da prioridad a los pods que definen el selector de nodos coincidentes. Utilice la afinidad de nodo para obtener más flexibilidad, lo que le permite definir qué sucede si el pod no puede coincidir con un nodo.</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -12861,7 +12861,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Al distribuir los grupos de nodos en varias zonas, los nodos de un grupo de nodos seguirán ejecutándose incluso si otra zona ha dejado de funcionar. Si existen requisitos de colocalidad, se puede usar una implementación de AKS normal basada en VMSS en una sola zona o grupos de selección de ubicación por proximidad para minimizar la latencia de los entrenudos.</t>
+          <t>Al distribuir los grupos de nodos en varias zonas, los nodos de un grupo de nodos seguirán ejecutándose incluso si otra zona ha dejado de funcionar. Si existen requisitos de colocalidad, se puede usar una implementación de AKS normal basada en VMSS en una sola zona o grupos de ubicación por proximidad para minimizar la latencia de los entrenudos.</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -12878,7 +12878,7 @@
     <row r="443">
       <c r="C443" t="inlineStr">
         <is>
-          <t>Arquitectura de clústeres: adopte una estrategia multirregional mediante la implementación de clústeres de AKS implementados en diferentes regiones de Azure para maximizar la disponibilidad y proporcionar continuidad empresarial.</t>
+          <t>Arquitectura de clúster: adopte una estrategia de varias regiones mediante la implementación de clústeres de AKS implementados en diferentes regiones de Azure para maximizar la disponibilidad y proporcionar continuidad empresarial.</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -12900,7 +12900,7 @@
     <row r="444">
       <c r="C444" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: defina las solicitudes y los límites de recursos de pod en los manifiestos de implementación de aplicaciones y aplíquelos con Azure Policy.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: defina las solicitudes y los límites de recursos de pods en los manifiestos de implementación de aplicaciones y aplíquelos con Azure Policy.</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -12927,7 +12927,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Los grupos de nodos del sistema requieren una SKU de máquina virtual de al menos 2 vCPU y 4 GB de memoria, pero se recomiendan 4 vCPU o más. Sistema de referencia y grupos de nodos de usuario para requisitos detallados.</t>
+          <t>Los grupos de nodos del sistema requieren una SKU de máquina virtual de al menos 2 vCPU y 4 GB de memoria, pero se recomiendan 4 vCPU o más. Sistema de referencia y grupos de nodos de usuario para conocer los requisitos detallados.</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
@@ -12944,12 +12944,12 @@
     <row r="446">
       <c r="C446" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: separe las aplicaciones en grupos de nodos dedicados en función de requisitos específicos.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: separe las aplicaciones de los grupos de nodos dedicados en función de requisitos específicos.</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Las aplicaciones pueden compartir la misma configuración y necesitar máquinas virtuales habilitadas para GPU, máquinas virtuales optimizadas para CPU o memoria, o la capacidad de escalar a cero. Evite un gran número de grupos de nodos para reducir la sobrecarga de administración adicional.</t>
+          <t>Es posible que las aplicaciones compartan la misma configuración y necesiten máquinas virtuales habilitadas para GPU, máquinas virtuales optimizadas para CPU o memoria, o la capacidad de escalar a cero. Evite un gran número de grupos de nodos para reducir la sobrecarga de administración adicional.</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -12971,7 +12971,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Para evitar problemas de confiabilidad con las limitaciones de Azure Load Balancer con un alto tráfico de salida simultáneo, utilice una puerta de enlace NAT en su lugar para admitir el tráfico de salida confiable a escala.</t>
+          <t>Para evitar problemas de confiabilidad con las limitaciones de Azure Load Balancer con un alto tráfico de salida simultáneo, utilice una puerta de enlace NAT en su lugar para admitir tráfico de salida confiable a escala.</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -13078,7 +13078,7 @@
     <row r="453">
       <c r="C453" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: asegúrese de que su canalización de CI/CID esté reforzada con análisis con reconocimiento de contenedores.</t>
+          <t>Arquitectura de carga de trabajo: asegúrese de que su canalización de CI/CID esté reforzada con el análisis compatible con contenedores.</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>AKS y Microsoft Entra ID habilitan la autenticación con Azure Container Registry sin el uso de secretos 'imagePullSecrets'. Para obtener más información, consulte Autenticación con Azure Container Registry desde Azure Kubernetes Service.</t>
+          <t>AKS y Microsoft Entra ID habilitan la autenticación con Azure Container Registry sin el uso de secretos 'imagePullSecrets'. Para obtener más información, consulte Autenticación con Azure Container Registry de Azure Kubernetes Service.</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -13162,7 +13162,7 @@
     <row r="457">
       <c r="C457" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: en el caso de los clústeres de AKS no privados, use intervalos IP autorizados por el servidor de API.</t>
+          <t>Arquitectura de clúster: en el caso de los clústeres de AKS no privados, use intervalos de direcciones IP autorizados por el servidor de API.</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -13184,7 +13184,7 @@
     <row r="458">
       <c r="C458" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: proteja el servidor de API con Microsoft Entra RBAC.</t>
+          <t>Arquitectura de clúster: proteja el servidor de API con RBAC de Microsoft Entra.</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -13233,7 +13233,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Azure Policy puede ayudar a aplicar la aplicación y las protecciones a gran escala en los clústeres de forma centralizada y coherente. También puede controlar qué funciones se otorgan a los pods y si algo se está ejecutando en contra de la política de la empresa.</t>
+          <t>Azure Policy puede ayudar a aplicar la aplicación y las protecciones a gran escala en los clústeres de forma centralizada y coherente. También puede controlar qué funciones se otorgan a los pods y si algo va en contra de la política de la empresa.</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -13250,7 +13250,7 @@
     <row r="461">
       <c r="C461" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: acceso seguro de los contenedores a los recursos.</t>
+          <t>Arquitectura de clúster: acceso seguro de contenedores a los recursos.</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -13321,7 +13321,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Proteja y rote secretos, certificados y cadenas de conexión en Azure Key Vault con cifrado seguro. Proporciona un registro de auditoría de acceso y mantiene los secretos principales fuera de la canalización de implementación.</t>
+          <t>Proteja y rote secretos, certificados y cadenas de conexión en Azure Key Vault con un cifrado seguro. Proporciona un registro de auditoría de acceso y mantiene los secretos principales fuera de la canalización de implementación.</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -13396,7 +13396,7 @@
     <row r="468">
       <c r="C468" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: revise las métricas de rendimiento, empezando por la CPU, la memoria, el almacenamiento y la red, para identificar oportunidades de optimización de costos por clúster, nodos y espacio de nombres.</t>
+          <t>Arquitectura de clúster: revise las métricas de rendimiento, empezando por la CPU, la memoria, el almacenamiento y la red, para identificar las oportunidades de optimización de costos por clúster, nodos y espacio de nombres.</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
@@ -13459,7 +13459,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>La selección del tipo de instancia de máquina virtual correcto es fundamental, ya que afecta directamente al costo de ejecutar aplicaciones en AKS. La elección de una instancia de alto rendimiento sin una utilización adecuada puede generar un gasto innecesario, mientras que la elección de una instancia potente puede provocar problemas de rendimiento y un mayor tiempo de inactividad. Para determinar el tipo de instancia de máquina virtual adecuado, tenga en cuenta las características de la carga de trabajo, los requisitos de recursos y las necesidades de disponibilidad.</t>
+          <t>La selección del tipo de instancia de máquina virtual correcto es fundamental, ya que afecta directamente al costo de ejecutar aplicaciones en AKS. La elección de una instancia de alto rendimiento sin una utilización adecuada puede generar gastos innecesarios, mientras que la elección de una instancia menos potente puede provocar problemas de rendimiento y un mayor tiempo de inactividad. Para determinar el tipo de instancia de máquina virtual adecuado, tenga en cuenta las características de la carga de trabajo, los requisitos de recursos y las necesidades de disponibilidad.</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -13547,7 +13547,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>La optimización de las imágenes ayuda a reducir los costos, ya que los nuevos nodos necesitan descargar estas imágenes. Cree imágenes de una manera que permita que el contenedor se inicie lo antes posible para ayudar a evitar errores de solicitud de usuario o tiempos de espera mientras se inicia la aplicación, lo que podría provocar un sobreaprovisionamiento.</t>
+          <t>La optimización de las imágenes ayuda a reducir los costos, ya que los nuevos nodos necesitan descargar estas imágenes. Cree imágenes de forma que permita que el contenedor se inicie lo antes posible para ayudar a evitar errores de solicitud de usuario o tiempos de espera mientras se inicia la aplicación, lo que podría provocar un sobreaprovisionamiento.</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
@@ -13569,7 +13569,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Reducir verticalmente automáticamente el número de nodos del clúster de AKS permite ejecutar un clúster eficaz cuando la demanda es baja y escalar verticalmente cuando la demanda vuelve.</t>
+          <t>Reducir automáticamente el número de nodos del clúster de AKS permite ejecutar un clúster eficaz cuando la demanda es baja y escalar verticalmente cuando vuelve la demanda.</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
@@ -13608,12 +13608,12 @@
     <row r="478">
       <c r="C478" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: usa el escalador automático de pods horizontal.</t>
+          <t>Arquitectura de cargas de trabajo: usa el escalador automático horizontal de pods.</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Ajuste el número de pods de una implementación en función de la utilización de la CPU u otras métricas seleccionadas, que admitan operaciones de reducción horizontal de clústeres.</t>
+          <t>Ajuste el número de pods de una implementación en función del uso de la CPU u otras métricas seleccionadas, que admitan operaciones de reducción horizontal de clústeres.</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
@@ -13630,7 +13630,7 @@
     <row r="479">
       <c r="C479" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: use el escalador automático de pods vertical (versión preliminar).</t>
+          <t>Arquitectura de carga de trabajo: use el escalador automático de pods verticales (versión preliminar).</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -13701,7 +13701,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Si planeó correctamente la capacidad, la carga de trabajo es predecible y existe durante un período de tiempo prolongado, regístrese para obtener una reserva de Azure o un plan de ahorro para reducir aún más los costos de recursos.</t>
+          <t>Si planeó correctamente la capacidad, la carga de trabajo es predecible y existe durante un período de tiempo prolongado, regístrese en una reserva de Azure o en un plan de ahorro para reducir aún más los costos de recursos.</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -13718,7 +13718,7 @@
     <row r="483">
       <c r="C483" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: configure la supervisión del clúster con Container Insights.</t>
+          <t>Arquitectura del clúster: configure la supervisión del clúster con Container Insights.</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -13852,7 +13852,7 @@
     <row r="490">
       <c r="C490" t="inlineStr">
         <is>
-          <t>Arquitectura de la carga de trabajo: la carga de trabajo debe estar diseñada para emitir datos telemétricos que se puedan recopilar, que también deben incluir estados de vitalidad y preparación.</t>
+          <t>Arquitectura de la carga de trabajo: la carga de trabajo debe diseñarse para emitir datos de telemetría que se puedan recopilar, que también deben incluir estados de vitalidad y preparación.</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
@@ -13888,7 +13888,7 @@
     <row r="492">
       <c r="C492" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: optimice su carga de trabajo para operar e implementar de manera eficiente en un contenedor.</t>
+          <t>Arquitectura de carga de trabajo: optimice su carga de trabajo para que funcione e implemente de manera eficiente en un contenedor.</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
@@ -13924,12 +13924,12 @@
     <row r="494">
       <c r="C494" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: revise la documentación de procedimientos recomendados de AKS.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: consulte la documentación de procedimientos recomendados de AKS.</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Para compilar y ejecutar aplicaciones correctamente en AKS, hay que comprender e implementar consideraciones clave. Estas áreas incluyen funciones de multitenencia y programador, seguridad de clústeres y pods, o continuidad del negocio y recuperación ante desastres.</t>
+          <t>Para compilar y ejecutar aplicaciones correctamente en AKS, hay que comprender e implementar consideraciones clave. Estas áreas incluyen funciones de multiusuario y programador, seguridad de clústeres y pods, o continuidad del negocio y recuperación ante desastres.</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
@@ -13946,7 +13946,7 @@
     <row r="495">
       <c r="C495" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: revise Azure Chaos Studio.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: Revisión de Azure Chaos Studio.</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -13990,7 +13990,7 @@
     <row r="497">
       <c r="C497" t="inlineStr">
         <is>
-          <t>Arquitectura de cargas de trabajo: supervise el rendimiento de las aplicaciones con Azure Monitor.</t>
+          <t>Arquitectura de carga de trabajo: supervise el rendimiento de las aplicaciones con Azure Monitor.</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -14034,7 +14034,7 @@
     <row r="499">
       <c r="C499" t="inlineStr">
         <is>
-          <t>Arquitectura de clústeres: adopte una estrategia multirregional mediante la implementación de clústeres de AKS implementados en diferentes regiones de Azure para maximizar la disponibilidad y proporcionar continuidad empresarial.</t>
+          <t>Arquitectura de clúster: adopte una estrategia de varias regiones mediante la implementación de clústeres de AKS implementados en diferentes regiones de Azure para maximizar la disponibilidad y proporcionar continuidad empresarial.</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -14061,7 +14061,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Azure Policy puede ayudar a aplicar la aplicación y las protecciones a gran escala en los clústeres de forma centralizada y coherente. También puede controlar qué funciones se otorgan a los pods y si algo se está ejecutando en contra de la política de la empresa.</t>
+          <t>Azure Policy puede ayudar a aplicar la aplicación y las protecciones a gran escala en los clústeres de forma centralizada y coherente. También puede controlar qué funciones se otorgan a los pods y si algo va en contra de la política de la empresa.</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
@@ -14078,12 +14078,12 @@
     <row r="501">
       <c r="C501" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: utilice las capacidades de la plataforma en su proceso de ingeniería de versiones.</t>
+          <t>Arquitectura de carga de trabajo: utilice las capacidades de la plataforma en el proceso de ingeniería de versiones.</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Kubernetes y los controladores de entrada admiten muchos patrones de implementación avanzados para su inclusión en el proceso de ingeniería de versiones. Tenga en cuenta patrones como las implementaciones azul-verde o las versiones canary.</t>
+          <t>Los controladores de entrada y Kubernetes admiten muchos patrones de implementación avanzados para su inclusión en el proceso de ingeniería de versiones. Tenga en cuenta patrones como las implementaciones azul-verde o las versiones controladas.</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
@@ -14122,7 +14122,7 @@
     <row r="503">
       <c r="C503" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: realice e itere en iteración en un ejercicio de plan de capacidad detallado que incluya SKU, configuración de escalado automático, direccionamiento IP y consideraciones de conmutación por error.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: realice e itere en un ejercicio de plan de capacidad detallado que incluya SKU, configuración de escalado automático, direccionamiento IP y consideraciones de conmutación por error.</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
@@ -14140,7 +14140,7 @@
     <row r="504">
       <c r="C504" t="inlineStr">
         <is>
-          <t>Arquitectura de clústeres: habilite el escalador automático de clústeres para ajustar automáticamente el número de nodos de agente en las demandas de carga de trabajo de respuesta.</t>
+          <t>Arquitectura de clúster: habilite el escalador automático de clústeres para ajustar automáticamente el número de nodos de agente en las demandas de carga de trabajo de respuesta.</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
@@ -14158,7 +14158,7 @@
     <row r="505">
       <c r="C505" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: utilice el escalador automático de pods horizontal para ajustar el número de pods de una implementación en función del uso de la CPU u otras métricas seleccionadas.</t>
+          <t>Arquitectura de clúster: use el escalador automático de pods horizontal para ajustar el número de pods de una implementación en función del uso de la CPU u otras métricas seleccionadas.</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
@@ -14239,7 +14239,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>La capacidad de escalar o reducir verticalmente automáticamente el número de nodos del clúster de AKS permite ejecutar un clúster eficaz y rentable.</t>
+          <t>La capacidad de escalar o reducir verticalmente automáticamente el número de nodos del clúster de AKS le permite ejecutar un clúster eficaz y rentable.</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
@@ -14278,7 +14278,7 @@
     <row r="511">
       <c r="C511" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: use las características del programador avanzado de AKS.</t>
+          <t>Arquitectura de carga de trabajo: use las características avanzadas del programador de AKS.</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -14340,7 +14340,7 @@
     <row r="514">
       <c r="C514" t="inlineStr">
         <is>
-          <t>Resistencia: asegúrese de tener suficiente proceso tanto para el entrenamiento como para la inferencia. A través de la planeación de recursos, asegúrese de que la SKU de proceso y la configuración de escalado cumplan los requisitos de la carga de trabajo.</t>
+          <t>Resistencia: asegúrese de que tiene suficiente proceso tanto para el entrenamiento como para la inferencia. A través de la planeación de recursos, asegúrese de que la SKU de proceso y la configuración de escalado cumplan los requisitos de la carga de trabajo.</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
@@ -14358,7 +14358,7 @@
     <row r="515">
       <c r="C515" t="inlineStr">
         <is>
-          <t>Resistencia: Separe los espacios de trabajo de Machine Learning utilizados para el trabajo exploratorio de los que se utilizan para la producción.</t>
+          <t>Resistencia: Separe los espacios de trabajo de Machine Learning utilizados para el trabajo exploratorio de los utilizados para la producción.</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
@@ -14394,7 +14394,7 @@
     <row r="517">
       <c r="C517" t="inlineStr">
         <is>
-          <t>Requisitos empresariales: seleccione el uso de clústeres informáticos, instancias informáticas y hosts de inferencia externalizados en función de las necesidades de confiabilidad, teniendo en cuenta los acuerdos de nivel de servicio (SLA) como factor.</t>
+          <t>Requisitos empresariales: seleccione el uso de clústeres de proceso, instancias de proceso y hosts de inferencia externalizados en función de las necesidades de confiabilidad, teniendo en cuenta los acuerdos de nivel de servicio (SLA) como un factor.</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
@@ -14412,7 +14412,7 @@
     <row r="518">
       <c r="C518" t="inlineStr">
         <is>
-          <t>Recuperación: asegúrese de tener capacidades de autorrecuperación, como las características de puntos de control compatibles con Machine Learning, al entrenar modelos grandes.</t>
+          <t>Recuperación: asegúrese de tener capacidades de recuperación automática, como las características de puntos de control compatibles con Machine Learning, al entrenar modelos grandes.</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
@@ -14430,7 +14430,7 @@
     <row r="519">
       <c r="C519" t="inlineStr">
         <is>
-          <t>Recuperación: asegúrese de tener una estrategia de recuperación definida. El aprendizaje automático no tiene conmutación automática por error. Por lo tanto, debe diseñar una estrategia que abarque el área de trabajo y todas sus dependencias, como Key Vault, Azure Storage y Azure Container Registry.</t>
+          <t>Recuperación: asegúrese de tener definida una estrategia de recuperación. Machine Learning no tiene conmutación automática por error. Por lo tanto, debe diseñar una estrategia que abarque el área de trabajo y todas sus dependencias, como Key Vault, Azure Storage y Azure Container Registry.</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
@@ -14448,7 +14448,7 @@
     <row r="520">
       <c r="C520" t="inlineStr">
         <is>
-          <t>Implementación de modelos de varias regiones: para mejorar la confiabilidad y la disponibilidad, considere la posibilidad de utilizar un entorno de implementación de varias regiones cuando sea posible.</t>
+          <t>Implementación de modelos en varias regiones: para mejorar la confiabilidad y la disponibilidad, considere la posibilidad de utilizar un entorno de implementación en varias regiones cuando sea posible.</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -14497,7 +14497,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>Las máquinas virtuales de prioridad baja tienen un precio reducido, pero se pueden interrumpir. Los clústeres que usan el nivel de máquina virtual dedicada no se adelantan.</t>
+          <t>Las máquinas virtuales de prioridad baja tienen un precio reducido, pero son interrumpibles. Los clústeres que usan el nivel de máquina virtual dedicada no se adelantan.</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
@@ -14532,7 +14532,7 @@
     <row r="524">
       <c r="C524" t="inlineStr">
         <is>
-          <t>Confidencialidad: protéjase contra la exfiltración de datos del área de trabajo de Machine Learning mediante la implementación del aislamiento de red. Asegúrese de que el acceso a todos los recursos externos esté aprobado explícitamente y que no se permita el acceso a todos los demás recursos externos.</t>
+          <t>Confidencialidad: protéjase contra la filtración de datos del área de trabajo de Machine Learning mediante la implementación del aislamiento de red. Asegúrese de que el acceso a todos los recursos externos esté aprobado explícitamente y que no se permita el acceso a todos los demás recursos externos.</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
@@ -14586,7 +14586,7 @@
     <row r="527">
       <c r="C527" t="inlineStr">
         <is>
-          <t>Integridad: Regular el acceso a los modelos fundamentales. Asegúrese de que solo los registros aprobados tengan acceso a los modelos del registro de modelos.</t>
+          <t>Integridad: Regular el acceso a los modelos fundacionales. Asegúrese de que solo los registros aprobados tengan acceso a los modelos del registro de modelos.</t>
         </is>
       </c>
       <c r="D527" t="inlineStr"/>
@@ -14658,7 +14658,7 @@
     <row r="531">
       <c r="C531" t="inlineStr">
         <is>
-          <t>Confidencialidad: adhiera al principio de privilegios mínimos para el control de acceso basado en roles (RBAC) en el área de trabajo de Machine Learning y los recursos relacionados, como la cuenta de almacenamiento del área de trabajo, para garantizar que las personas solo tengan los permisos necesarios para su rol, minimizando así los posibles riesgos de seguridad.</t>
+          <t>Confidencialidad: adhiérase al principio de privilegios mínimos para el control de acceso basado en roles (RBAC) para el área de trabajo de Machine Learning y los recursos relacionados, como la cuenta de almacenamiento del área de trabajo, para garantizar que las personas solo tengan los permisos necesarios para su rol, minimizando así los posibles riesgos de seguridad.</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
@@ -14721,7 +14721,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>El aislamiento de red virtual administrado mejora la seguridad al aislar el área de trabajo de otras redes, lo que reduce el riesgo de acceso no autorizado. En un escenario en el que se produce una infracción en otra red de la organización, la red aislada del área de trabajo de Machine Learning no se ve afectada, lo que protege las cargas de trabajo de machine learning.</t>
+          <t>El aislamiento de red virtual administrado mejora la seguridad al aislar el área de trabajo de otras redes, lo que reduce el riesgo de acceso no autorizado. En un escenario en el que se produce una infracción en otra red dentro de la organización, la red aislada del área de trabajo de Machine Learning no se ve afectada, lo que protege las cargas de trabajo de machine learning.</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
@@ -14760,7 +14760,7 @@
     <row r="536">
       <c r="C536" t="inlineStr">
         <is>
-          <t>Permitir solo el acceso de salida aprobado: configure el modo de salida en el acceso de salida administrado del área de trabajo de Machine Learning a "Permitir solo el acceso de salida aprobado" para minimizar el riesgo de exfiltración de datos. Configure puntos de conexión privados, etiquetas de servicio o nombres de dominio completos (FQDN) para los recursos a los que necesita acceder.</t>
+          <t>Permitir solo el acceso saliente aprobado: configure el modo de salida en el acceso saliente administrado del área de trabajo de Machine Learning en "Permitir solo el acceso saliente aprobado" para minimizar el riesgo de filtración de datos. Configure puntos de conexión privados, etiquetas de servicio o nombres de dominio completos (FQDN) para los recursos a los que necesita acceder.</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>La deshabilitación de la autenticación local aumenta la seguridad del proceso de Machine Learning y proporciona un control y una administración centralizados de las identidades y las credenciales de los recursos.</t>
+          <t>La deshabilitación de la autenticación local aumenta la seguridad del proceso de Machine Learning y proporciona un control y una administración centralizados de las identidades y las credenciales de recursos.</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
@@ -14897,7 +14897,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>El uso de las imágenes más recientes garantiza que mantenga un entorno coherente, estable y seguro, lo que incluye asegurarse de tener los parches de seguridad más recientes.</t>
+          <t>El uso de las imágenes más recientes garantiza que se mantenga un entorno coherente, estable y seguro, lo que incluye asegurarse de tener los parches de seguridad más recientes.</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
@@ -14919,7 +14919,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>Los estrictos controles de acceso al espacio de trabajo mejoran la seguridad al garantizar que las personas solo tengan los permisos necesarios para su función. Un científico de datos, por ejemplo, puede tener acceso para ejecutar experimentos, pero no para modificar la configuración de seguridad, lo que minimiza los posibles riesgos de seguridad.</t>
+          <t>Los estrictos controles de acceso al espacio de trabajo mejoran la seguridad al garantizar que las personas solo tengan los permisos necesarios para su función. Un científico de datos, por ejemplo, podría tener acceso para ejecutar experimentos, pero no para modificar la configuración de seguridad, lo que minimiza los posibles riesgos de seguridad.</t>
         </is>
       </c>
       <c r="F543" t="inlineStr">
@@ -14941,7 +14941,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>Al restringir las implementaciones del catálogo de modelos a registros específicos, se garantiza que solo se implementen modelos en registros aprobados. Este enfoque ayuda a regular el acceso a los modelos fundacionales de código abierto.</t>
+          <t>La restricción de las implementaciones del catálogo de modelos a registros específicos garantiza que solo se implementen modelos en registros aprobados. Este enfoque ayuda a regular el acceso a los modelos fundacionales de código abierto.</t>
         </is>
       </c>
       <c r="F544" t="inlineStr">
@@ -15056,7 +15056,7 @@
     <row r="550">
       <c r="C550" t="inlineStr">
         <is>
-          <t>Optimización de uso: pruebe la paralelización de cargas de trabajo de entrenamiento para determinar si los requisitos de entrenamiento se pueden cumplir en SKU de menor costo.</t>
+          <t>Optimización del uso: pruebe la paralelización de cargas de trabajo de entrenamiento para determinar si los requisitos de entrenamiento se pueden cumplir en SKU de menor costo.</t>
         </is>
       </c>
       <c r="D550" t="inlineStr"/>
@@ -15074,7 +15074,7 @@
     <row r="551">
       <c r="C551" t="inlineStr">
         <is>
-          <t>Optimización de tarifas: compre Azure Reserved Virtual Machine Instances si tiene una buena estimación del uso en los próximos uno a tres años.</t>
+          <t>Optimización de tarifas: compre Azure Reserved Virtual Machine Instances si tiene una buena estimación del uso para los próximos uno a tres años.</t>
         </is>
       </c>
       <c r="D551" t="inlineStr"/>
@@ -15092,7 +15092,7 @@
     <row r="552">
       <c r="C552" t="inlineStr">
         <is>
-          <t>Supervisar y optimizar: supervise el uso de recursos, como el uso de CPU y GPU, al entrenar modelos. Si los recursos no se usan por completo, modifique el código para usar mejor los recursos o reduzca verticalmente a tamaños de máquina virtual más pequeños o más baratos.</t>
+          <t>Supervisión y optimización: supervise el uso de recursos, como el uso de CPU y GPU, al entrenar modelos. Si los recursos no se usan por completo, modifique el código para usar mejor los recursos o reduzca verticalmente a tamaños de máquina virtual más pequeños o más baratos.</t>
         </is>
       </c>
       <c r="D552" t="inlineStr"/>
@@ -15110,12 +15110,12 @@
     <row r="553">
       <c r="C553" t="inlineStr">
         <is>
-          <t>Optimice los recursos informáticos: optimice los recursos informáticos en función de los requisitos de la carga de trabajo. Elija la SKU que mejor se adapte a su carga de trabajo:&lt;ul&gt;&lt;li&gt;Propósito general: relación equilibrada entre CPU y memoria, buena para todos los propósitos.&lt;/li&gt;&lt;li&gt;Optimizado para cómputo: alta relación entre CPU y memoria, buena para cálculos matemáticos pesados.&lt;/li&gt;&lt;li&gt;Optimizado para memoria: alta memoria para la CPU, buena para cálculos en memoria o aplicaciones de bases de datos.&lt;/li&gt;&lt;li&gt;Serie M: máquinas muy grandes que tienen grandes cantidades de memoria y CPU. &lt;/li&gt;&lt;li&gt; GPU: mejor para modelos con un gran número de variables que pueden beneficiarse de un mayor paralelismo e instrucciones de núcleo especializadas. Las aplicaciones típicas son el aprendizaje profundo, el procesamiento de imágenes o vídeos, las simulaciones científicas, la minería de datos y el aprovechamiento de los marcos de desarrollo de GPU. Pruebe con varias familias y documente los resultados como referencia. A medida que el modelo y los datos evolucionan, es posible que cambie el recurso informático más adecuado. Supervise los tiempos de ejecución y reevalúe según sea necesario.</t>
+          <t>Optimice los recursos informáticos: optimice los recursos informáticos en función de los requisitos de la carga de trabajo. Elija la SKU que mejor se adapte a su carga de trabajo:&lt;ul&gt;&lt;li&gt;Propósito general: relación equilibrada entre CPU y memoria, buena para todos los propósitos.&lt;/li&gt;&lt;li&gt;Optimizado para cómputo: alta relación entre CPU y memoria, buena para cálculos matemáticos pesados.&lt;/li&gt;&lt;li&gt;Optimizado para memoria: alta memoria para CPU, buena para cálculos en memoria o aplicaciones de bases de datos.&lt;/li&gt;&lt;li&gt;Serie M: máquinas muy grandes que tienen grandes cantidades de memoria y CPU. &lt;/li&gt;&lt;li&gt; GPU: mejor para modelos con un gran número de variables que pueden beneficiarse de un mayor paralelismo e instrucciones de núcleo especializadas. Las aplicaciones típicas son el aprendizaje profundo, el procesamiento de imágenes o vídeos, las simulaciones científicas, la minería de datos y el aprovechamiento de los marcos de desarrollo de GPU. Pruebe con varias familias y documente los resultados como referencia. A medida que el modelo y los datos evolucionan, es posible que cambie el recurso informático más adecuado. Supervise los tiempos de ejecución y reevalúe según sea necesario.</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>La selección del proceso adecuado es fundamental, ya que afecta directamente al costo de ejecución de la carga de trabajo. Elegir una GPU o una SKU de alto rendimiento sin un uso adecuado puede generar gastos innecesarios, mientras que elegir un proceso de tamaño insuficiente puede provocar tiempos de entrenamiento prohibitivos y problemas de rendimiento.</t>
+          <t>La selección del proceso adecuado es fundamental, ya que afecta directamente al costo de ejecución de la carga de trabajo. Elegir una GPU o una SKU de alto rendimiento sin un uso adecuado puede generar gastos innecesarios, mientras que elegir un proceso de tamaño insuficiente puede provocar tiempos de entrenamiento prohibitivamente largos y problemas de rendimiento.</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
@@ -15132,7 +15132,7 @@
     <row r="554">
       <c r="C554" t="inlineStr">
         <is>
-          <t>Optimice el escalado de proceso: configure los clústeres de proceso para el escalado automático a fin de asegurarse de que solo usa lo que necesita. Para los clústeres de entrenamiento, establezca el número mínimo de nodos en 0 y configure la cantidad de tiempo que el nodo está inactivo en un tiempo adecuado. Para una experimentación menos iterativa, reduzca el tiempo para ahorrar costos. Para una experimentación más iterativa, use un tiempo mayor para evitar tener que pagar por escalar hacia arriba o hacia abajo después de cada cambio.</t>
+          <t>Optimice el escalado de proceso: configure los clústeres de proceso para el escalado automático a fin de asegurarse de que solo usa lo que necesita. Para los clústeres de entrenamiento, establezca el número mínimo de nodos en 0 y configure la cantidad de tiempo que el nodo está inactivo en un tiempo adecuado. Para una experimentación menos iterativa, reduzca el tiempo para ahorrar costos. Para una experimentación más iterativa, use un tiempo más alto para evitar pagar por escalar hacia arriba o hacia abajo después de cada cambio.</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -15154,7 +15154,7 @@
     <row r="555">
       <c r="C555" t="inlineStr">
         <is>
-          <t>Establecer directivas de finalización del entrenamiento: establezca directivas de finalización anticipada para limitar la duración de las ejecuciones de entrenamiento o finalizarlas antes de tiempo.</t>
+          <t>Establecer políticas de finalización del entrenamiento: establezca políticas de finalización anticipada para limitar la duración de las ejecuciones de entrenamiento o finalizarlas antes de tiempo.</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -15176,7 +15176,7 @@
     <row r="556">
       <c r="C556" t="inlineStr">
         <is>
-          <t>Use máquinas virtuales de prioridad baja para cargas de trabajo por lotes: considere la posibilidad de usar máquinas virtuales de prioridad baja para cargas de trabajo por lotes que no sean urgentes y en las que se puedan recuperar las interrupciones.</t>
+          <t>Usar máquinas virtuales de prioridad baja para cargas de trabajo por lotes: considere la posibilidad de usar máquinas virtuales de prioridad baja para cargas de trabajo por lotes que no sean urgentes y en las que las interrupciones sean recuperables.</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -15203,7 +15203,7 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>De forma predeterminada, las instancias informáticas están disponibles para usted, acumulando costos. Configurar instancias de proceso para que se apaguen cuando estén inactivas o configurar una programación para ellas ahorra costos cuando no están en uso.</t>
+          <t>De forma predeterminada, las instancias de proceso están disponibles para usted, acumulando costos. Configurar instancias de proceso para que se apaguen cuando estén inactivas o configurar una programación para ellas ahorra costos cuando no están en uso.</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
@@ -15242,12 +15242,12 @@
     <row r="559">
       <c r="C559" t="inlineStr">
         <is>
-          <t>Azure Reserved VM Instances: compre Azure Reserved VM Instances si tiene una buena estimación del uso para los próximos uno a tres años. Aproveche las opciones de capacidad reservada para los servicios cuando tenga buenas estimaciones de uso.</t>
+          <t>Azure Reserved VM Instances: compre Azure Reserved VM Instances si tiene una buena estimación del uso durante los próximos uno a tres años. Aproveche las opciones de capacidad reservada para los servicios cuando tenga buenas estimaciones de uso.</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>Compre Azure Reserved VM Instances para pagar por adelantado el uso de máquinas virtuales y ofrecer descuentos con precios de pago por uso. El descuento se aplica automáticamente al uso de la máquina virtual que coincida con la reserva.</t>
+          <t>Compre Azure Reserved VM Instances para pagar por adelantado el uso de máquinas virtuales y ofrecer descuentos con precios de pago por uso. El descuento se aplica automáticamente por el uso de la máquina virtual que coincida con la reserva.</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
@@ -15282,7 +15282,7 @@
     <row r="561">
       <c r="C561" t="inlineStr">
         <is>
-          <t>Automatice para lograr la eficiencia: siga las buenas prácticas de operaciones de aprendizaje automático (MLOps). Cuando sea posible, cree canalizaciones automatizadas de extremo a extremo para los procesos de preparación, capacitación y puntuación de datos. En el desarrollo, use scripts en lugar de cuadernos para los modelos de entrenamiento, ya que los scripts son más fáciles de integrar en canalizaciones automatizadas.</t>
+          <t>Automatice para lograr la eficiencia: siga las buenas prácticas de operaciones de aprendizaje automático (MLOps). Cuando sea posible, cree canalizaciones automatizadas de extremo a extremo para los procesos de preparación, capacitación y puntuación de datos. En el desarrollo, use scripts en lugar de cuadernos para entrenar modelos, ya que los scripts son más fáciles de integrar en canalizaciones automatizadas.</t>
         </is>
       </c>
       <c r="D561" t="inlineStr"/>
@@ -15300,7 +15300,7 @@
     <row r="562">
       <c r="C562" t="inlineStr">
         <is>
-          <t>Implemente con confianza: implemente infraestructura como código (IaC) para áreas de trabajo de Machine Learning, clústeres informáticos, instancias informáticas y otros entornos de implementación.</t>
+          <t>Implemente con confianza: implemente infraestructura como código (IaC) para áreas de trabajo de Machine Learning, clústeres de proceso, instancias de proceso y otros entornos de implementación.</t>
         </is>
       </c>
       <c r="D562" t="inlineStr"/>
@@ -15318,7 +15318,7 @@
     <row r="563">
       <c r="C563" t="inlineStr">
         <is>
-          <t>Observabilidad: Supervise el rendimiento de los modelos implementados, incluido el desfase de datos.</t>
+          <t>Observabilidad: Supervise el rendimiento de sus modelos implementados, incluido el desfase de datos.</t>
         </is>
       </c>
       <c r="D563" t="inlineStr"/>
@@ -15394,12 +15394,12 @@
     <row r="567">
       <c r="C567" t="inlineStr">
         <is>
-          <t>Aproveche los catálogos y registros de modelos: aproveche los catálogos y registros de modelos de Machine Learning para almacenar, versionar y compartir activos de Machine Learning. Use los catálogos de modelos de Machine Learning para ayudarle a implementar pruebas A/B e implementación de modelos.</t>
+          <t>Aproveche los catálogos y registros de modelos: aproveche los catálogos y registros de modelos de Machine Learning para almacenar, versionar y compartir activos de Machine Learning. Utilice los catálogos de modelos de Machine Learning para ayudarle a implementar las pruebas A/B y la implementación de modelos.</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>Use los registros de modelos de Machine Learning para almacenar y versionar los modelos de Machine Learning para realizar un seguimiento de los cambios y mantener el linaje con el trabajo y los conjuntos de datos utilizados para el entrenamiento. Con los catálogos de modelos de Machine Learning, los equipos de ciencia de datos pueden detectar, evaluar y ajustar modelos básicos de aprendizaje automático preentrenados. El almacenamiento de modelos con versiones en registros de modelos de Machine Learning admite estrategias de implementación como versiones A/B, versiones Canary y reversiones.</t>
+          <t>Use los registros de modelos de Machine Learning para almacenar y versionar los modelos de Machine Learning para realizar un seguimiento de los cambios y mantener el linaje con el trabajo y los conjuntos de datos utilizados para el entrenamiento. Con los catálogos de modelos de Machine Learning, los equipos de ciencia de datos pueden descubrir, evaluar y ajustar modelos fundamentales de aprendizaje automático preentrenados. El almacenamiento de modelos con versiones en registros de modelos de Machine Learning admite estrategias de implementación como versiones A/B, versiones Canary y reversiones.</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
@@ -15443,7 +15443,7 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>La supervisión de los puntos de conexión le proporciona visibilidad de métricas como la latencia de las solicitudes y las solicitudes por minuto. Puede comparar el rendimiento con la línea base y usar esta información para realizar cambios en los recursos informáticos en consecuencia. Las métricas de supervisión, como los bytes de red, pueden alertarte si te estás acercando a los límites de cuota y evitar la limitación. Del mismo modo, la supervisión de su entorno de formación le proporciona la información necesaria para realizar cambios en su entorno de formación. Use esa información para decidir si escalar o reducir horizontalmente, escalar o reducir verticalmente con diferentes SKU de alto rendimiento, o elegir entre CPU o GPU.</t>
+          <t>La supervisión de los puntos de conexión le proporciona visibilidad de métricas como la latencia de las solicitudes y las solicitudes por minuto. Puede comparar el rendimiento con la línea base y usar esta información para realizar cambios en los recursos de proceso en consecuencia. Las métricas de supervisión, como los bytes de red, pueden alertarte si te estás acercando a los límites de cuota y evitar la limitación. Del mismo modo, la supervisión de su entorno de entrenamiento le proporciona la información necesaria para realizar cambios en su entorno de entrenamiento. Use esa información para decidir si escalar o reducir horizontalmente, escalar o reducir verticalmente con diferentes SKU de alto rendimiento, o elegir entre CPU o GPU.</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
@@ -15536,7 +15536,7 @@
     <row r="574">
       <c r="C574" t="inlineStr">
         <is>
-          <t>Cumpla con los requisitos de capacidad: elija los recursos informáticos adecuados para las implementaciones de modelos.</t>
+          <t>Cumplir con los requisitos de capacidad: elija los recursos informáticos adecuados para las implementaciones de modelos.</t>
         </is>
       </c>
       <c r="D574" t="inlineStr"/>
@@ -15590,7 +15590,7 @@
     <row r="577">
       <c r="C577" t="inlineStr">
         <is>
-          <t>Logre y mantenga el rendimiento: supervise continuamente el rendimiento de su infraestructura de modelos implementados, revise los resultados y tome las medidas adecuadas. Supervise la infraestructura de formación para asegurarse de que cumple con los requisitos de tiempo de formación.</t>
+          <t>Logre y mantenga el rendimiento: supervise continuamente el rendimiento de su infraestructura de modelos implementados, revise los resultados y tome las medidas adecuadas. Supervise la infraestructura de formación para asegurarse de que cumple con sus requisitos de tiempo de formación.</t>
         </is>
       </c>
       <c r="D577" t="inlineStr"/>
@@ -15608,12 +15608,12 @@
     <row r="578">
       <c r="C578" t="inlineStr">
         <is>
-          <t>Seleccione los servicios de proceso adecuados para el entrenamiento de modelos: considere la posibilidad de utilizar clústeres de proceso de Machine Learning en lugar de instancias de proceso para el entrenamiento de modelos si necesita el escalado automático. Optimice sus recursos informáticos en función de los requisitos de formación. En primer lugar, elija entre CPU y GPU. De forma predeterminada, utilice CPU, pero considere las GPU para cargas de trabajo como el aprendizaje profundo, el procesamiento de imágenes o vídeos, o grandes cantidades de datos. A continuación, elija la SKU de imagen que mejor se adapte a su carga de trabajo. Use las pruebas para elegir la opción de proceso que optimiza el costo en función del tiempo de entrenamiento al determinar la línea base.</t>
+          <t>Seleccione los servicios de proceso adecuados para el entrenamiento de modelos: considere la posibilidad de utilizar clústeres de proceso de Machine Learning en lugar de instancias de proceso para el entrenamiento de modelos si necesita escalado automático. Optimice sus recursos informáticos en función de los requisitos de formación. En primer lugar, elija entre CPU y GPU. De forma predeterminada, utilice CPU, pero considere las GPU para cargas de trabajo como el aprendizaje profundo, el procesamiento de imágenes o vídeos, o grandes cantidades de datos. A continuación, elija la SKU de imagen que mejor se adapte a su carga de trabajo. Use las pruebas para elegir la opción de proceso que optimiza el costo en función del tiempo de entrenamiento al determinar la línea base.</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>La selección del proceso adecuado es fundamental, ya que afecta directamente al tiempo de entrenamiento. La elección de la SKU y la CPU correctas en comparación con la GPU garantiza que el entrenamiento de modelos pueda cumplir con sus requisitos y objetivos de rendimiento. Elegir un SKU de bajo rendimiento que se use en exceso puede provocar tiempos de entrenamiento prohibitivos y problemas de rendimiento. Los clústeres de proceso proporcionan la capacidad de mejorar el rendimiento mediante el escalado horizontal de las cargas de trabajo que admiten el escalado horizontal. Este método proporciona flexibilidad para manejar cargas de trabajo con diferentes demandas y le permite agregar o quitar máquinas según sea necesario.</t>
+          <t>La selección del proceso adecuado es fundamental, ya que afecta directamente al tiempo de entrenamiento. La elección de la SKU y la CPU correctas en comparación con la GPU garantiza que el entrenamiento de su modelo pueda cumplir con sus requisitos y objetivos de rendimiento. Elegir una SKU de bajo rendimiento que se use en exceso puede provocar tiempos de entrenamiento prohibitivamente largos y problemas de rendimiento. Los clústeres de proceso proporcionan la capacidad de mejorar el rendimiento mediante el escalado horizontal de las cargas de trabajo que admiten el escalado horizontal. Este método proporciona flexibilidad para manejar cargas de trabajo con diferentes demandas y le permite agregar o quitar máquinas según sea necesario.</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
@@ -15679,7 +15679,7 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>La supervisión de los puntos de conexión le proporciona visibilidad de métricas como la latencia de las solicitudes y las solicitudes por minuto. Puede comparar el rendimiento con la línea base y usar esta información para realizar cambios en los recursos informáticos en consecuencia. Las métricas de supervisión, como los bytes de red, pueden alertarte si te estás acercando a los límites de cuota y evitar la limitación. Del mismo modo, la supervisión de su entorno de formación le proporciona la información necesaria para realizar cambios en su entorno de formación. Use esa información para decidir si escalar o reducir horizontalmente, escalar o reducir verticalmente con diferentes SKU de alto rendimiento, o elegir entre CPU o GPU.</t>
+          <t>La supervisión de los puntos de conexión le proporciona visibilidad de métricas como la latencia de las solicitudes y las solicitudes por minuto. Puede comparar el rendimiento con la línea base y usar esta información para realizar cambios en los recursos de proceso en consecuencia. Las métricas de supervisión, como los bytes de red, pueden alertarte si te estás acercando a los límites de cuota y evitar la limitación. Del mismo modo, la supervisión de su entorno de entrenamiento le proporciona la información necesaria para realizar cambios en su entorno de entrenamiento. Use esa información para decidir si escalar o reducir horizontalmente, escalar o reducir verticalmente con diferentes SKU de alto rendimiento, o elegir entre CPU o GPU.</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
@@ -15696,7 +15696,7 @@
     <row r="582">
       <c r="C582" t="inlineStr">
         <is>
-          <t>Resiliencia: elija la opción de implementación adecuada de rendimiento de pago por uso o aprovisionado en función de su caso de uso. Dado que la capacidad reservada aumenta la resistencia, elija el rendimiento aprovisionado para las soluciones de producción. El enfoque de pago por uso es ideal para entornos de desarrollo y pruebas.</t>
+          <t>Resistencia: elija la opción de implementación adecuada de rendimiento de pago por uso o aprovisionado en función de su caso de uso. Dado que la capacidad reservada aumenta la resistencia, elija el rendimiento aprovisionado para las soluciones de producción. El enfoque de pago por uso es ideal para entornos de desarrollo y pruebas.</t>
         </is>
       </c>
       <c r="D582" t="inlineStr"/>
@@ -15714,7 +15714,7 @@
     <row r="583">
       <c r="C583" t="inlineStr">
         <is>
-          <t>Redundancia: agregue las puertas de enlace adecuadas delante de las implementaciones de Azure OpenAI. La puerta de enlace debe tener la capacidad de soportar errores transitorios, como la limitación, y también de enrutar a varias instancias de Azure OpenAI. Considere la posibilidad de enrutar a instancias de diferentes regiones para crear redundancia regional.</t>
+          <t>Redundancia: agregue las puertas de enlace adecuadas delante de las implementaciones de Azure OpenAI. La puerta de enlace debe tener la capacidad de soportar errores transitorios, como la limitación, y también de enrutar a varias instancias de Azure OpenAI. Considere la posibilidad de enrutar a instancias en diferentes regiones para crear redundancia regional.</t>
         </is>
       </c>
       <c r="D583" t="inlineStr"/>
@@ -15732,7 +15732,7 @@
     <row r="584">
       <c r="C584" t="inlineStr">
         <is>
-          <t>Resistencia: si usa el rendimiento aprovisionado, considere también la posibilidad de implementar una instancia de pago por uso para controlar el desbordamiento. Puede enrutar las llamadas a la instancia de pago por uso a través de la puerta de enlace cuando el modelo de rendimiento aprovisionado está limitado. También puede utilizar la supervisión para predecir cuándo se limitará el modelo y enrutar de forma preferente las llamadas a la instancia de pago por uso.</t>
+          <t>Resistencia: si usa el rendimiento aprovisionado, considere también la posibilidad de implementar una instancia de pago por uso para controlar el desbordamiento. Puede enrutar llamadas a la instancia de pago por uso a través de la puerta de enlace cuando el modelo de rendimiento aprovisionado está limitado.</t>
         </is>
       </c>
       <c r="D584" t="inlineStr"/>
@@ -15743,7 +15743,7 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>4b6855b3-069d-4bb2-b9c6-f1c021803f77</t>
+          <t>3861cb87-64b1-4958-b439-5575b8d1fc67</t>
         </is>
       </c>
     </row>
@@ -15768,7 +15768,7 @@
     <row r="586">
       <c r="C586" t="inlineStr">
         <is>
-          <t>Resistencia: siga las instrucciones para archivos de datos de gran tamaño e importe los datos de un almacén de blobs de Azure. Los archivos grandes, de 100 MB o más, pueden volverse inestables cuando se cargan a través de formularios de varias partes porque las solicitudes son atómicas y no se pueden volver a intentar ni reanudar.</t>
+          <t>Resistencia: siga las instrucciones para ajustar con archivos de datos de gran tamaño e importe los datos de un almacén de blobs de Azure. Los archivos grandes, de 100 MB o más, pueden volverse inestables cuando se cargan a través de formularios de varias partes porque las solicitudes son atómicas y no se pueden volver a intentar ni reanudar.</t>
         </is>
       </c>
       <c r="D586" t="inlineStr"/>
@@ -15779,7 +15779,7 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>c41d1ed1-6f1d-4e6e-9dde-2d8172365170</t>
+          <t>950e6010-4345-43e6-a8e9-d8c95e45f818</t>
         </is>
       </c>
     </row>
@@ -15804,7 +15804,7 @@
     <row r="588">
       <c r="C588" t="inlineStr">
         <is>
-          <t>Supervise los límites de frecuencia para el pago por uso: si usa el enfoque de pago por uso, administre los límites de tarifa para las implementaciones del modelo y supervise el uso de tokens por minuto (TPM) y solicitudes por minuto (RPM).</t>
+          <t>Supervise los límites de frecuencia para el pago por uso: si usa el enfoque de pago por uso, administre los límites de velocidad para las implementaciones del modelo y supervise el uso de tokens por minuto (TPM) y solicitudes por minuto (RPM).</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -15831,7 +15831,7 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>Es importante supervisar el uso administrado por aprovisionamiento para asegurarse de que no supera el 100 % para evitar la limitación de las llamadas a los modelos implementados.</t>
+          <t>Es importante supervisar el uso administrado por el aprovisionamiento para asegurarse de que no supera el 100 % para evitar la limitación de las llamadas a los modelos implementados.</t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
@@ -15853,7 +15853,7 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>Los filtros de contenido bloquean las solicitudes o finalizaciones en función de un análisis de riesgos opaco. Asegúrese de que los filtros de contenido estén ajustados para permitir el uso esperado de la carga de trabajo.</t>
+          <t>Los filtros de contenido bloquean las solicitudes o finalizaciones en función de un análisis de riesgos opaco. Asegúrese de que los filtros de contenido estén ajustados para permitir el uso esperado de su carga de trabajo.</t>
         </is>
       </c>
       <c r="F590" t="inlineStr">
@@ -15942,7 +15942,7 @@
     <row r="595">
       <c r="C595" t="inlineStr">
         <is>
-          <t>Proteger la disponibilidad: use controles de seguridad para evitar ataques que puedan agotar las cuotas de uso del modelo. Puede configurar controles para aislar el servicio en una red. Si se debe poder acceder al servicio desde Internet, considere la posibilidad de usar una puerta de enlace para bloquear los abusos sospechosos mediante el enrutamiento o la limitación.</t>
+          <t>Proteja la disponibilidad: use controles de seguridad para evitar ataques que puedan agotar las cuotas de uso del modelo. Puede configurar controles para aislar el servicio en una red. Si el servicio debe ser accesible desde Internet, considere la posibilidad de usar una puerta de enlace para bloquear los posibles abusos mediante el enrutamiento o la limitación.</t>
         </is>
       </c>
       <c r="D595" t="inlineStr"/>
@@ -16004,7 +16004,7 @@
     <row r="598">
       <c r="C598" t="inlineStr">
         <is>
-          <t>Id. de Microsoft Entra: use el identificador de Microsoft Entra para la autenticación y para autorizar el acceso a Azure OpenAI mediante el control de acceso basado en roles (RBAC). Deshabilite la autenticación local en Azure AI Services y establezca 'disableLocalAuth' en 'true'. Otorgue a las identidades que realicen finalizaciones o generación de imágenes el rol de usuario de OpenAI de Cognitive Services. Conceda canalizaciones de automatización de modelos y acceso de ciencia de datos ad-hoc a un rol como Colaborador de OpenAI de Cognitive Services.</t>
+          <t>Id. de Microsoft Entra: use el id. de Microsoft Entra para la autenticación y para autorizar el acceso a Azure OpenAI mediante el control de acceso basado en roles (RBAC). Deshabilite la autenticación local en Azure AI Services y establezca 'disableLocalAuth' en 'true'. Otorgue a las identidades que realicen finalizaciones o generación de imágenes el rol de usuario de OpenAI de Cognitive Services. Otorgue a las canalizaciones de automatización de modelos y al acceso ad-hoc a la ciencia de datos un rol como el de Colaborador de OpenAI de Cognitive Services.</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -16031,7 +16031,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>El uso de claves administradas por el cliente le ofrece una mayor flexibilidad para crear, rotar, deshabilitar y revocar controles de acceso.</t>
+          <t>El uso de claves administradas por el cliente le proporciona una mayor flexibilidad para crear, rotar, deshabilitar y revocar controles de acceso.</t>
         </is>
       </c>
       <c r="F599" t="inlineStr">
@@ -16070,7 +16070,7 @@
     <row r="601">
       <c r="C601" t="inlineStr">
         <is>
-          <t>Gestión de costos: desarrolle su modelo de costos, teniendo en cuenta los tamaños de las solicitudes. Comprender los tamaños de entrada y respuesta de las solicitudes, y cómo el texto se traduce en tokens, lo ayuda a crear un modelo de costos viable.</t>
+          <t>Gestión de costos: Desarrolle su modelo de costos, teniendo en cuenta los tamaños de las solicitudes. Comprender los tamaños de entrada y respuesta de las solicitudes, y cómo el texto se traduce en tokens, lo ayuda a crear un modelo de costos viable.</t>
         </is>
       </c>
       <c r="D601" t="inlineStr"/>
@@ -16124,7 +16124,7 @@
     <row r="604">
       <c r="C604" t="inlineStr">
         <is>
-          <t>Optimización de uso: tenga en cuenta los precios y las capacidades del modelo al elegir los modelos. Comience con modelos menos costosos para tareas menos complejas, como la generación de texto o las tareas de finalización. Para tareas más complejas, como la traducción de idiomas o la comprensión de contenidos, considere la posibilidad de utilizar modelos más avanzados. Tenga en cuenta las diferentes capacidades del modelo y los límites máximos de uso de tokens cuando elija un modelo que sea adecuado para casos de uso como escenarios de incrustación de texto, generación de imágenes o transcripción. Al seleccionar cuidadosamente el modelo que mejor se adapte a sus necesidades, puede optimizar los costos y, al mismo tiempo, lograr el rendimiento deseado de la aplicación.</t>
+          <t>Optimización del uso: tenga en cuenta los precios y las capacidades del modelo al elegir los modelos. Comience con modelos menos costosos para tareas menos complejas, como la generación de texto o las tareas de finalización. Para tareas más complejas, como la traducción de idiomas o la comprensión de contenidos, considere la posibilidad de utilizar modelos más avanzados. Tenga en cuenta las diferentes capacidades del modelo y los límites máximos de uso de tokens cuando elija un modelo que sea adecuado para casos de uso como escenarios de incrustación de texto, generación de imágenes o transcripción. Al seleccionar cuidadosamente el modelo que mejor se adapte a sus necesidades, puede optimizar los costos y, al mismo tiempo, lograr el rendimiento deseado de la aplicación.</t>
         </is>
       </c>
       <c r="D604" t="inlineStr"/>
@@ -16160,7 +16160,7 @@
     <row r="606">
       <c r="C606" t="inlineStr">
         <is>
-          <t>Optimización de uso: maximice los puntos de interrupción de precios de Azure OpenAI, por ejemplo, el ajuste fino y los puntos de interrupción del modelo, como la generación de imágenes. Debido a que el ajuste fino se cobra por hora, use todo el tiempo que tenga disponible por hora para mejorar los resultados del ajuste fino y evitar pasar al siguiente período de facturación. Del mismo modo, el costo de generar 100 imágenes es el mismo que el costo de 1 imagen. Maximice los puntos de ruptura de precios a su favor.</t>
+          <t>Optimización de uso: maximice los puntos de interrupción de precios de Azure OpenAI, por ejemplo, el ajuste preciso y los puntos de interrupción del modelo, como la generación de imágenes. Debido a que el ajuste fino se cobra por hora, use todo el tiempo que tenga disponible por hora para mejorar los resultados del ajuste fino y evitar pasar al siguiente período de facturación. Del mismo modo, el costo de generar 100 imágenes es el mismo que el costo de 1 imagen. Maximice los puntos de ruptura de precios a su favor.</t>
         </is>
       </c>
       <c r="D606" t="inlineStr"/>
@@ -16232,7 +16232,7 @@
     <row r="610">
       <c r="C610" t="inlineStr">
         <is>
-          <t>Rentabilidad: dado que los modelos tienen diferentes costos de ajuste, tenga en cuenta estos costos si su solución requiere un ajuste fino.</t>
+          <t>Rentabilidad: dado que los modelos tienen diferentes costos de ajuste, tenga en cuenta estos costos si su solución requiere un ajuste preciso.</t>
         </is>
       </c>
       <c r="D610" t="inlineStr"/>
@@ -16273,7 +16273,7 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>El uso de las funciones de la API para restringir el uso alinea el consumo del servicio con las necesidades del cliente. Esto ahorra dinero al garantizar que el modelo no genere una respuesta demasiado larga que consuma más tokens de los necesarios.</t>
+          <t>El uso de las funciones de la API para restringir el uso alinea el consumo de servicios con las necesidades del cliente. Esto ahorra dinero al garantizar que el modelo no genere una respuesta demasiado larga que consuma más tokens de los necesarios.</t>
         </is>
       </c>
       <c r="F612" t="inlineStr">
@@ -16290,7 +16290,7 @@
     <row r="613">
       <c r="C613" t="inlineStr">
         <is>
-          <t>Supervise el uso de pago por uso: si usa el enfoque de pago por uso, supervise el uso de TPM y RPM. Utilice esa información para tomar decisiones informadas sobre el diseño arquitectónico, como qué modelos utilizar, y para optimizar los tamaños de las solicitudes.</t>
+          <t>Supervise el uso de pago por uso: si usa el enfoque de pago por uso, supervise el uso de TPM y RPM. Utilice esa información para tomar decisiones informadas sobre el diseño arquitectónico, como los modelos que se van a utilizar, y para optimizar los tamaños de las solicitudes.</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
@@ -16312,12 +16312,12 @@
     <row r="614">
       <c r="C614" t="inlineStr">
         <is>
-          <t>Supervise el uso del rendimiento aprovisionado: si utiliza el rendimiento aprovisionado, supervise el uso administrado por el aprovisionamiento para asegurarse de que no está infrautilizando el rendimiento aprovisionado que compró.</t>
+          <t>Supervise el uso del rendimiento aprovisionado: si usa el rendimiento aprovisionado, supervise el uso administrado por el aprovisionamiento para asegurarse de que no está infrautilizando el rendimiento aprovisionado que adquirió.</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>La supervisión continua de la utilización administrada por provisiones le proporciona la información que necesita para comprender si está infrautilizando el rendimiento aprovisionado.</t>
+          <t>La supervisión continua del uso administrado por el aprovisionamiento le proporciona la información que necesita para comprender si está infrautilizando el rendimiento aprovisionado.</t>
         </is>
       </c>
       <c r="F614" t="inlineStr">
@@ -16334,7 +16334,7 @@
     <row r="615">
       <c r="C615" t="inlineStr">
         <is>
-          <t>Gestión de costes: Utilice las funciones de gestión de costes con OpenAI para supervisar los costes, establecer presupuestos para gestionar los costes y crear alertas para notificar a las partes interesadas sobre riesgos o anomalías.</t>
+          <t>Gestión de costes: Utilice las funciones de gestión de costes con OpenAI para supervisar los costes, establecer presupuestos para gestionarlos y crear alertas para notificar a las partes interesadas sobre riesgos o anomalías.</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
@@ -16392,7 +16392,7 @@
     <row r="618">
       <c r="C618" t="inlineStr">
         <is>
-          <t>Observabilidad: si los diagnósticos de Azure OpenAI son insuficientes para sus necesidades, considere la posibilidad de usar una puerta de enlace como Azure API Management frente a Azure OpenAI para registrar las solicitudes entrantes y las respuestas salientes cuando esté permitido. Esta información puede ayudarle a comprender la eficacia del modelo para las solicitudes entrantes.</t>
+          <t>Observabilidad: si los diagnósticos de Azure OpenAI son insuficientes para sus necesidades, considere la posibilidad de usar una puerta de enlace como Azure API Management delante de Azure OpenAI para registrar tanto las solicitudes entrantes como las respuestas salientes cuando esté permitido. Esta información puede ayudarle a comprender la eficacia del modelo para las solicitudes entrantes.</t>
         </is>
       </c>
       <c r="D618" t="inlineStr"/>
@@ -16410,7 +16410,7 @@
     <row r="619">
       <c r="C619" t="inlineStr">
         <is>
-          <t>Implemente con confianza: use la infraestructura como código (IaC) para implementar Azure OpenAI, implementaciones de modelos y otra infraestructura necesaria para ajustar los modelos.</t>
+          <t>Implemente con confianza: use la infraestructura como código (IaC) para implementar Azure OpenAI, implementaciones de modelos y otra infraestructura necesaria para ajustar modelos.</t>
         </is>
       </c>
       <c r="D619" t="inlineStr"/>
@@ -16469,7 +16469,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>Diagnósticos recopila y analiza métricas y registros, lo que le ayuda a supervisar la disponibilidad, el rendimiento y el funcionamiento de Azure OpenAI.</t>
+          <t>Diagnostics recopila y analiza métricas y registros, lo que le ayuda a supervisar la disponibilidad, el rendimiento y el funcionamiento de Azure OpenAI.</t>
         </is>
       </c>
       <c r="F622" t="inlineStr">
@@ -16594,7 +16594,7 @@
     <row r="629">
       <c r="C629" t="inlineStr">
         <is>
-          <t>Capacidad: seleccione un modelo que se alinee con sus requisitos de rendimiento, teniendo en cuenta el equilibrio entre la velocidad y la complejidad de la salida. El rendimiento del modelo puede variar significativamente en función del tipo de modelo elegido. Los modelos diseñados para la velocidad ofrecen tiempos de respuesta más rápidos, lo que puede ser beneficioso para aplicaciones que requieren interacciones rápidas. Por el contrario, los modelos más sofisticados podrían ofrecer resultados de mayor calidad a expensas de un mayor tiempo de respuesta.</t>
+          <t>Capacidad: seleccione un modelo que se adapte a sus requisitos de rendimiento, teniendo en cuenta el equilibrio entre la velocidad y la complejidad de la salida. El rendimiento del modelo puede variar significativamente en función del tipo de modelo elegido. Los modelos diseñados para la velocidad ofrecen tiempos de respuesta más rápidos, lo que puede ser beneficioso para aplicaciones que requieren interacciones rápidas. Por el contrario, los modelos más sofisticados podrían ofrecer resultados de mayor calidad a expensas de un mayor tiempo de respuesta.</t>
         </is>
       </c>
       <c r="D629" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="630">
       <c r="C630" t="inlineStr">
         <is>
-          <t>Logre rendimiento: para aplicaciones como chatbots o interfaces conversacionales, considere implementar la transmisión. El streaming puede mejorar el rendimiento percibido de las aplicaciones de Azure OpenAI al ofrecer respuestas a los usuarios de forma incremental, lo que mejora la experiencia del usuario.</t>
+          <t>Logre el rendimiento: para aplicaciones como chatbots o interfaces conversacionales, considere implementar la transmisión. El streaming puede mejorar el rendimiento percibido de las aplicaciones de Azure OpenAI al ofrecer respuestas a los usuarios de forma incremental, lo que mejora la experiencia del usuario.</t>
         </is>
       </c>
       <c r="D630" t="inlineStr"/>
@@ -16630,7 +16630,7 @@
     <row r="631">
       <c r="C631" t="inlineStr">
         <is>
-          <t>Logre el rendimiento: determine cuándo usar el ajuste fino antes de comprometerse con el ajuste. Aunque hay buenos casos de uso para el ajuste, como cuando la información necesaria para dirigir el modelo es demasiado larga o compleja para caber en el mensaje, asegúrese de que los enfoques de ingeniería de avisos y generación aumentada de recuperación (RAG) no funcionen o sean demostrablemente más costosos.</t>
+          <t>Logre el rendimiento: determine cuándo usar el ajuste fino antes de comprometerse con el ajuste. Aunque hay buenos casos de uso para el ajuste, como cuando la información necesaria para dirigir el modelo es demasiado larga o compleja para caber en la solicitud, asegúrese de que los enfoques de ingeniería de solicitud y generación aumentada de recuperación (RAG) no funcionen o sean demostrablemente más costosos.</t>
         </is>
       </c>
       <c r="D631" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="635">
       <c r="C635" t="inlineStr">
         <is>
-          <t>Calcule los objetivos de nivel de servicio (SLO) compuestos en función de los contratos de nivel de servicio (SLA) de Azure. Asegúrese de que el SLO no sea superior a los acuerdos de nivel de servicio de Azure para evitar expectativas poco realistas y posibles problemas.</t>
+          <t>Calcule los objetivos de nivel de servicio (SLO) compuestos en función de los contratos de nivel de servicio (SLA) de Azure. Asegúrese de que el SLO no sea superior a los SLA de Azure para evitar expectativas poco realistas y posibles problemas.</t>
         </is>
       </c>
       <c r="D635" t="inlineStr"/>
@@ -16756,7 +16756,7 @@
     <row r="638">
       <c r="C638" t="inlineStr">
         <is>
-          <t>Esté preparado para escalar y escalar horizontalmente para evitar la degradación del nivel de servicio y evitar errores. Los conjuntos de escalado de máquinas virtuales tienen funcionalidades de escalado automático que crean nuevas instancias según sea necesario y distribuyen la carga entre varias máquinas virtuales y zonas de disponibilidad.</t>
+          <t>Esté preparado para escalar vertical y horizontalmente para evitar la degradación del nivel de servicio y evitar errores. Los conjuntos de escalado de máquinas virtuales tienen funcionalidades de escalado automático que crean nuevas instancias según sea necesario y distribuyen la carga entre varias máquinas virtuales y zonas de disponibilidad.</t>
         </is>
       </c>
       <c r="D638" t="inlineStr"/>
@@ -16828,7 +16828,7 @@
     <row r="642">
       <c r="C642" t="inlineStr">
         <is>
-          <t>Ejecute las operaciones con rigor. Las opciones de diseño de confiabilidad deben estar respaldadas por operaciones efectivas basadas en los principios de supervisión, pruebas de resistencia en producción, parches y actualizaciones automatizadas de máquinas virtuales de aplicaciones y coherencia de las implementaciones. Para obtener orientación operativa, consulte Excelencia operativa.</t>
+          <t>Ejecute las operaciones con rigor. Las opciones de diseño de confiabilidad deben estar respaldadas por operaciones efectivas basadas en los principios de supervisión, pruebas de resistencia en producción, parches y actualizaciones de máquinas virtuales de aplicaciones automatizadas y coherencia de las implementaciones. Para obtener orientación operativa, consulte Excelencia operativa.</t>
         </is>
       </c>
       <c r="D642" t="inlineStr"/>
@@ -16868,12 +16868,12 @@
     <row r="644">
       <c r="C644" t="inlineStr">
         <is>
-          <t>(VMs) Implemente puntos de conexión de estado que emitan estados de mantenimiento de instancias en máquinas virtuales.  (Conjunto de escalas) Habilite las reparaciones automáticas en el conjunto de báscula especificando la acción de reparación preferida.  Considere la posibilidad de establecer un período de tiempo durante el cual las reparaciones automáticas se detengan si cambia el estado de la máquina virtual.</t>
+          <t>(Máquinas virtuales) Implemente puntos de conexión de estado que emitan estados de mantenimiento de instancia en máquinas virtuales.  (Conjunto de escalas) Habilite las reparaciones automáticas en el conjunto de báscula especificando la acción de reparación preferida.  Considere la posibilidad de establecer un período de tiempo durante el cual las reparaciones automáticas se detengan si cambia el estado de la máquina virtual.</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>Mantenga la disponibilidad incluso si se considera que una instancia está en mal estado. Las reparaciones automáticas inician la recuperación mediante el reemplazo de la instancia defectuosa. Establecer una ventana de tiempo puede evitar operaciones de reparación inadvertidas o prematuras.</t>
+          <t>Mantenga la disponibilidad incluso si una instancia se considera incorrecta. Las reparaciones automáticas inician la recuperación mediante la sustitución de la instancia defectuosa. Establecer una ventana de tiempo puede evitar operaciones de reparación inadvertidas o prematuras.</t>
         </is>
       </c>
       <c r="F644" t="inlineStr">
@@ -16895,7 +16895,7 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>El sobreaprovisionamiento reduce los tiempos de implementación y tiene un beneficio en cuanto a costos, ya que no se facturan las máquinas virtuales adicionales.</t>
+          <t>El sobreaprovisionamiento reduce los tiempos de implementación y tiene una ventaja en cuanto a costos, ya que no se facturan las máquinas virtuales adicionales.</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
@@ -16939,7 +16939,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>Las instancias de máquina virtual se aprovisionan en ubicaciones físicamente separadas dentro de cada región de Azure que son tolerantes a errores locales.  Tenga en cuenta que, en función de la disponibilidad de recursos, puede haber un número impar de instancias en todas las zonas. El equilibrio de zona admite la disponibilidad al asegurarse de que, si una zona está inactiva, las otras zonas tengan suficientes instancias.  Dos instancias en cada zona proporcionan un búfer durante las actualizaciones.</t>
+          <t>Las instancias de máquina virtual se aprovisionan en ubicaciones físicamente separadas dentro de cada región de Azure que son tolerantes a errores locales.  Tenga en cuenta que, en función de la disponibilidad de recursos, puede haber un número impar de instancias en todas las zonas. El equilibrio de zonas admite la disponibilidad al asegurarse de que, si una zona está inactiva, las otras zonas tengan suficientes instancias.  Dos instancias en cada zona proporcionan un búfer durante las actualizaciones.</t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
@@ -16956,7 +16956,7 @@
     <row r="648">
       <c r="C648" t="inlineStr">
         <is>
-          <t>(VMs) Aproveche la función de reservas de capacidad.</t>
+          <t>(Máquinas virtuales) Aproveche la función de reservas de capacidad.</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
@@ -16978,7 +16978,7 @@
     <row r="649">
       <c r="C649" t="inlineStr">
         <is>
-          <t>Revise las líneas base de seguridad para máquinas virtuales Linux y Windows, así como conjuntos de escalado de máquinas virtuales.</t>
+          <t>Revise las líneas base de seguridad para las máquinas virtuales Linux y Windows y los conjuntos de escalado de máquinas virtuales.</t>
         </is>
       </c>
       <c r="D649" t="inlineStr"/>
@@ -16996,7 +16996,7 @@
     <row r="650">
       <c r="C650" t="inlineStr">
         <is>
-          <t>Garantice la aplicación de parches y actualizaciones de seguridad oportunos y automatizados. Asegúrese de que las actualizaciones se implementen y validen automáticamente mediante un proceso bien definido. Use una solución como Azure Automation para administrar las actualizaciones del sistema operativo y mantener el cumplimiento de la seguridad mediante la realización de actualizaciones críticas.</t>
+          <t>Garantice la aplicación oportuna y automatizada de parches y actualizaciones de seguridad. Asegúrese de que las actualizaciones se implementen y validen automáticamente mediante un proceso bien definido. Use una solución como Azure Automation para administrar las actualizaciones del sistema operativo y mantener el cumplimiento de la seguridad mediante la realización de actualizaciones críticas.</t>
         </is>
       </c>
       <c r="D650" t="inlineStr"/>
@@ -17014,7 +17014,7 @@
     <row r="651">
       <c r="C651" t="inlineStr">
         <is>
-          <t>Identifique las máquinas virtuales que mantienen el estado. Asegúrese de que los datos se clasifican según las etiquetas de confidencialidad proporcionadas por su organización. Proteja los datos mediante el uso de controles de seguridad, como los niveles adecuados de cifrado en reposo y en tránsito. Si tiene requisitos de alta confidencialidad, considere la posibilidad de usar controles de alta seguridad, como el cifrado doble y la informática confidencial de Azure, para proteger los datos en uso.</t>
+          <t>Identifique las máquinas virtuales que mantienen el estado. Asegúrese de que los datos se clasifican según las etiquetas de confidencialidad proporcionadas por su organización. Proteja los datos mediante el uso de controles de seguridad, como niveles adecuados de cifrado en reposo y en tránsito. Si tiene requisitos de alta confidencialidad, considere la posibilidad de usar controles de alta seguridad, como el cifrado doble y la informática confidencial de Azure, para proteger los datos en uso.</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="652">
       <c r="C652" t="inlineStr">
         <is>
-          <t>Proporcione segmentación a las máquinas virtuales y los conjuntos de escalado mediante el establecimiento de límites de red y controles de acceso. Coloque las máquinas virtuales en grupos de recursos que compartan el mismo ciclo de vida.</t>
+          <t>Proporcione segmentación a las máquinas virtuales y a los conjuntos de escalado mediante el establecimiento de límites de red y controles de acceso. Coloque las máquinas virtuales en grupos de recursos que compartan el mismo ciclo de vida.</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
     <row r="653">
       <c r="C653" t="inlineStr">
         <is>
-          <t>Aplique controles de acceso a las identidades que intentan acceder a las máquinas virtuales y también a las máquinas virtuales que acceden a otros recursos. Use el identificador de Microsoft Entra para las necesidades de autenticación y autorización. Implemente contraseñas seguras, autenticación multifactor y control de acceso basado en roles (RBAC) para las máquinas virtuales y sus dependencias, como los secretos, para permitir que las identidades permitidas realicen solo las operaciones que se esperan de sus roles.</t>
+          <t>Aplique controles de acceso a las identidades que intentan llegar a las máquinas virtuales y también a las máquinas virtuales que acceden a otros recursos. Use el identificador de Microsoft Entra para las necesidades de autenticación y autorización. Implemente contraseñas seguras, autenticación multifactor y control de acceso basado en roles (RBAC) para las máquinas virtuales y sus dependencias, como los secretos, para permitir que las identidades permitidas realicen solo las operaciones que se esperan de sus roles.</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
@@ -17068,7 +17068,7 @@
     <row r="654">
       <c r="C654" t="inlineStr">
         <is>
-          <t>Utilice los controles de red para restringir el tráfico de entrada y salida. Aísle las máquinas virtuales y los conjuntos de escalado en Azure Virtual Network y defina grupos de seguridad de red para filtrar el tráfico. Protéjase contra ataques de denegación de servicio distribuido (DDoS). Utilice equilibradores de carga y reglas de firewall para protegerse contra el tráfico malintencionado y los ataques de exfiltración de datos.</t>
+          <t>Utilice los controles de red para restringir el tráfico de entrada y salida. Aísle las máquinas virtuales y los conjuntos de escalado en Azure Virtual Network y defina grupos de seguridad de red para filtrar el tráfico. Protéjase contra ataques de denegación de servicio distribuido (DDoS). Utilice equilibradores de carga y reglas de firewall para protegerse contra el tráfico malicioso y los ataques de exfiltración de datos.</t>
         </is>
       </c>
       <c r="D654" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="657">
       <c r="C657" t="inlineStr">
         <is>
-          <t>Detección de amenazas. Supervise las máquinas virtuales en busca de amenazas y errores de configuración. Use Defender para servidores para capturar los cambios en la máquina virtual y el sistema operativo, y mantener un registro de auditoría del acceso, las cuentas nuevas y los cambios en los permisos.</t>
+          <t>Detección de amenazas. Supervise las máquinas virtuales en busca de amenazas y configuraciones incorrectas. Use Defender para servidores para capturar los cambios en la máquina virtual y el sistema operativo, y mantener un registro de auditoría del acceso, las nuevas cuentas y los cambios en los permisos.</t>
         </is>
       </c>
       <c r="D657" t="inlineStr"/>
@@ -17158,7 +17158,7 @@
     <row r="659">
       <c r="C659" t="inlineStr">
         <is>
-          <t>(Conjunto de escalas) Asigne una identidad administrada a conjuntos de escalado. Todas las máquinas virtuales del conjunto de escalado obtienen la misma identidad a través del perfil de máquina virtual especificado.  (VMs) También puede asignar una identidad administrada a máquinas virtuales individuales al crearlas y, a continuación, agregarla a un conjunto de escalado si es necesario.</t>
+          <t>(Conjunto de escalas) Asigne una identidad administrada a conjuntos de escalado. Todas las máquinas virtuales del conjunto de escalado obtienen la misma identidad a través del perfil de máquina virtual especificado.  (Máquinas virtuales) También puede asignar una identidad administrada a máquinas virtuales individuales al crearlas y, a continuación, agregarla a un conjunto de escalado si es necesario.</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
@@ -17202,12 +17202,12 @@
     <row r="661">
       <c r="C661" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Aplique las etiquetas recomendadas por la organización en los recursos aprovisionados.</t>
+          <t>(VM, conjunto de escalado) Aplique etiquetas recomendadas por la organización en los recursos aprovisionados.</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>El etiquetado es una forma común de segmentar y organizar recursos y puede ser crucial durante la gestión de incidentes. Para obtener más información, consulte Propósito de la nomenclatura y el etiquetado.</t>
+          <t>El etiquetado es una forma común de segmentar y organizar los recursos, y puede ser crucial durante la gestión de incidentes. Para obtener más información, consulte Propósito de la nomenclatura y el etiquetado.</t>
         </is>
       </c>
       <c r="F661" t="inlineStr">
@@ -17224,7 +17224,7 @@
     <row r="662">
       <c r="C662" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Establezca un perfil de seguridad con las características de seguridad que desea habilitar en la configuración de la máquina virtual.  Por ejemplo, cuando se especifica el cifrado en el host del perfil, los datos almacenados en el host de la máquina virtual se cifran en reposo y los flujos se cifran en el servicio de almacenamiento.</t>
+          <t>(VM, conjunto de escalado) Establezca un perfil de seguridad con las características de seguridad que desea habilitar en la configuración de la máquina virtual.  Por ejemplo, cuando se especifica el cifrado en el host en el perfil, los datos almacenados en el host de la máquina virtual se cifran en reposo y los flujos se cifran en el servicio de almacenamiento.</t>
         </is>
       </c>
       <c r="D662" t="inlineStr">
@@ -17246,7 +17246,7 @@
     <row r="663">
       <c r="C663" t="inlineStr">
         <is>
-          <t>(VMs) Elija opciones de red seguras para el perfil de red de la máquina virtual.  No asocie directamente direcciones IP públicas a las máquinas virtuales y no habilite el reenvío de IP.  Asegúrese de que todas las interfaces de red virtual tengan un grupo de seguridad de red asociado.</t>
+          <t>(Máquinas virtuales) Elija opciones de red seguras para el perfil de red de la máquina virtual.  No asocie directamente direcciones IP públicas a las máquinas virtuales y no habilite el reenvío de IP.  Asegúrese de que todas las interfaces de red virtual tengan un grupo de seguridad de red asociado.</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
@@ -17268,7 +17268,7 @@
     <row r="664">
       <c r="C664" t="inlineStr">
         <is>
-          <t>(VMs) Elija opciones de almacenamiento seguro para el perfil de almacenamiento de su máquina virtual.  Habilite el cifrado de disco y el cifrado de datos en reposo de forma predeterminada. Deshabilite el acceso de red pública a los discos de la máquina virtual.</t>
+          <t>(Máquinas virtuales) Elija opciones de almacenamiento seguro para el perfil de almacenamiento de su máquina virtual.  Habilite el cifrado de disco y el cifrado de datos en reposo de forma predeterminada. Deshabilite el acceso de red pública a los discos de la máquina virtual.</t>
         </is>
       </c>
       <c r="D664" t="inlineStr">
@@ -17290,7 +17290,7 @@
     <row r="665">
       <c r="C665" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Incluya extensiones en las máquinas virtuales que protejan contra las amenazas.  Por ejemplo, - Extensión de Key Vault para Windows y Linux - Autenticación de identificador de Microsoft Entra - Microsoft Antimalware para Azure Cloud Services y Virtual Machines - Extensión de Azure Disk Encryption para Windows y Linux.</t>
+          <t>(VM, conjunto de escalado) Incluya extensiones en las máquinas virtuales que protejan contra las amenazas.  Por ejemplo, - Extensión de Key Vault para Windows y Linux - Autenticación de identificador de Microsoft Entra - Microsoft Antimalware para Azure Cloud Services y Virtual Machines - Extensión de Azure Disk Encryption para Windows y Linux.</t>
         </is>
       </c>
       <c r="D665" t="inlineStr">
@@ -17312,7 +17312,7 @@
     <row r="666">
       <c r="C666" t="inlineStr">
         <is>
-          <t>Calcule costos realistas. Use la calculadora de precios para calcular los costos de las máquinas virtuales. Identifique la mejor máquina virtual para la carga de trabajo mediante el selector de máquinas virtuales. Para obtener más información, consulte Precios de Linux y Windows.</t>
+          <t>Calcule costos realistas. Use la calculadora de precios para calcular los costos de sus máquinas virtuales. Identifique la mejor máquina virtual para su carga de trabajo mediante el selector de máquinas virtuales. Para obtener más información, consulte Precios de Linux y Windows.</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
@@ -17330,7 +17330,7 @@
     <row r="667">
       <c r="C667" t="inlineStr">
         <is>
-          <t>Implemente barreras de protección de costos. Utilice políticas de gobernanza para restringir los tipos de recursos, las configuraciones y las ubicaciones. Utilice RBAC para bloquear acciones que puedan conducir a un gasto excesivo.</t>
+          <t>Implemente barreras de protección de costos. Utilice políticas de gobernanza para restringir los tipos de recursos, las configuraciones y las ubicaciones. Utilice RBAC para bloquear acciones que pueden conducir a un gasto excesivo.</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
@@ -17348,7 +17348,7 @@
     <row r="668">
       <c r="C668" t="inlineStr">
         <is>
-          <t>Elija los recursos adecuados. La selección de los tamaños de plan de máquina virtual y las SKU afecta directamente al costo total. Elija las máquinas virtuales en función de las características de la carga de trabajo. ¿La carga de trabajo es intensiva en CPU o ejecuta procesos interrumpibles? Cada SKU tiene opciones de disco asociadas que afectan al costo total.</t>
+          <t>Elija los recursos adecuados. La selección de los tamaños de plan de VM y SKU afecta directamente al costo total. Elija las máquinas virtuales en función de las características de la carga de trabajo. ¿La carga de trabajo hace un uso intensivo de la CPU o ejecuta procesos interrumpibles? Cada SKU tiene opciones de disco asociadas que afectan al costo total.</t>
         </is>
       </c>
       <c r="D668" t="inlineStr"/>
@@ -17366,7 +17366,7 @@
     <row r="669">
       <c r="C669" t="inlineStr">
         <is>
-          <t>Elija las capacidades adecuadas para los recursos dependientes. Ahorre en los costos de almacenamiento de copia de seguridad para el nivel estándar de almacén mediante el almacenamiento de Azure Backup con capacidad reservada. Ofrece un descuento cuando te comprometes con una reserva por un año o tres años.</t>
+          <t>Elija las capacidades adecuadas para los recursos dependientes. Ahorre en costos de almacenamiento de copia de seguridad para el nivel estándar de almacén mediante el almacenamiento de Azure Backup con capacidad reservada. Ofrece un descuento cuando te comprometes a una reserva por un año o tres años.</t>
         </is>
       </c>
       <c r="D669" t="inlineStr"/>
@@ -17402,7 +17402,7 @@
     <row r="671">
       <c r="C671" t="inlineStr">
         <is>
-          <t>Supervise el uso. Supervise continuamente los patrones de uso y detecte las máquinas virtuales no utilizadas o infrautilizadas. Para esas instancias, apague las instancias de VM cuando no estén en uso. El monitoreo es un enfoque clave de la Excelencia Operacional. Para obtener más información, consulte las recomendaciones de Excelencia operativa.</t>
+          <t>Supervise el uso. Supervise continuamente los patrones de uso y detecte las máquinas virtuales no utilizadas o infrautilizadas. Para esas instancias, apague las instancias de VM cuando no estén en uso. El monitoreo es un enfoque clave de la Excelencia Operativa. Para obtener más información, consulte las recomendaciones de Excelencia operativa.</t>
         </is>
       </c>
       <c r="D671" t="inlineStr"/>
@@ -17420,7 +17420,7 @@
     <row r="672">
       <c r="C672" t="inlineStr">
         <is>
-          <t>Busca formas de optimizar. Algunas estrategias incluyen elegir el enfoque más rentable entre aumentar los recursos de un sistema existente, o escalar verticalmente, y agregar más instancias de ese sistema, o escalar horizontalmente. Puede descargar la demanda distribuyéndola a otros recursos, o puede reducir la demanda mediante la implementación de colas de prioridad, descarga de puerta de enlace, almacenamiento en búfer y limitación de velocidad. Para obtener más información, consulte las recomendaciones de Eficiencia del rendimiento.</t>
+          <t>Busca formas de optimizar. Algunas estrategias incluyen la elección del enfoque más rentable entre aumentar los recursos de un sistema existente, o escalar verticalmente, y agregar más instancias de ese sistema, o escalar horizontalmente. Puede descargar la demanda distribuyéndola a otros recursos, o puede reducir la demanda mediante la implementación de colas de prioridad, descarga de puerta de enlace, almacenamiento en búfer y limitación de velocidad. Para obtener más información, consulte las recomendaciones de Eficiencia del rendimiento.</t>
         </is>
       </c>
       <c r="D672" t="inlineStr"/>
@@ -17438,12 +17438,12 @@
     <row r="673">
       <c r="C673" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Elija el tamaño del plan de máquina virtual y la SKU adecuados. Identifique los mejores tamaños de máquina virtual para su carga de trabajo.  Utilice el selector de máquina virtual para identificar la mejor máquina virtual para su carga de trabajo. Consulta los precios de Windows y Linux.  En el caso de cargas de trabajo, como trabajos de procesamiento por lotes muy paralelos que pueden tolerar algunas interrupciones, considere la posibilidad de usar Azure Spot Virtual Machines. Las máquinas virtuales puntuales son buenas para experimentar, desarrollar y probar soluciones a gran escala.</t>
+          <t>(VM, conjunto de escalado) Elija el tamaño del plan de máquina virtual y la SKU adecuados. Identifique los mejores tamaños de máquina virtual para su carga de trabajo.  Utilice el selector de máquina virtual para identificar la mejor máquina virtual para su carga de trabajo. Consulta los precios de Windows y Linux.  En el caso de las cargas de trabajo, como los trabajos de procesamiento por lotes muy paralelos que pueden tolerar algunas interrupciones, considere la posibilidad de usar Azure Spot Virtual Machines. Las máquinas virtuales puntuales son buenas para experimentar, desarrollar y probar soluciones a gran escala.</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>Los SKU tienen un precio de acuerdo con las capacidades que ofrecen. Si no necesitas capacidades avanzadas, no gastes de más en SKU.  Las máquinas virtuales de acceso puntual aprovechan la capacidad excedente de Azure a un costo menor.</t>
+          <t>Los SKU tienen un precio según las capacidades que ofrecen. Si no necesitas capacidades avanzadas, no gastes de más en SKU.  Las máquinas virtuales de acceso puntual aprovechan la capacidad excedente de Azure a un costo menor.</t>
         </is>
       </c>
       <c r="F673" t="inlineStr">
@@ -17460,12 +17460,12 @@
     <row r="674">
       <c r="C674" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Evalúe las opciones de disco asociadas a las SKU de la máquina virtual.  Determine sus necesidades de rendimiento teniendo en cuenta sus necesidades de capacidad de almacenamiento y teniendo en cuenta los patrones de carga de trabajo fluctuantes.  Por ejemplo, el disco SSD v2 de Azure Premium permite ajustar de forma granular el rendimiento independientemente del tamaño del disco.</t>
+          <t>(VM, conjunto de escalado) Evalúe las opciones de disco asociadas a las SKU de la máquina virtual.  Determine sus necesidades de rendimiento teniendo en cuenta sus necesidades de capacidad de almacenamiento y teniendo en cuenta los patrones de carga de trabajo fluctuantes.  Por ejemplo, el disco SSD prémium v2 de Azure permite ajustar de forma granular el rendimiento independientemente del tamaño del disco.</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>Algunos tipos de discos de alto rendimiento ofrecen funciones y estrategias de optimización de costos adicionales.  La capacidad de ajuste del disco SSD prémium v2 puede reducir los costos, ya que proporciona un alto rendimiento sin sobreaprovisionamiento, lo que de otro modo podría conducir a recursos infrautilizados.</t>
+          <t>Algunos tipos de discos de alto rendimiento ofrecen funciones y estrategias de optimización de costos adicionales.  La capacidad de ajuste del disco SSD prémium v2 puede reducir los costos, ya que proporciona un alto rendimiento sin sobreaprovisionamiento, lo que, de otro modo, podría conducir a recursos infrautilizados.</t>
         </is>
       </c>
       <c r="F674" t="inlineStr">
@@ -17487,7 +17487,7 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>Reduzca los costos de infraestructura informática aplicando los grandes descuentos de las máquinas virtuales puntuales.</t>
+          <t>Reduzca los costos de infraestructura informática aplicando los grandes descuentos de las máquinas virtuales de acceso puntual.</t>
         </is>
       </c>
       <c r="F675" t="inlineStr">
@@ -17504,7 +17504,7 @@
     <row r="676">
       <c r="C676" t="inlineStr">
         <is>
-          <t>(Conjunto de escalas) Reduzca el número de instancias de VM cuando disminuya la demanda. Establezca una política de reducción horizontal basada en criterios.   Detenga las máquinas virtuales durante las horas de inactividad. Puede usar la característica Inicio/detención de Azure Automation y configurarla según las necesidades de su empresa.</t>
+          <t>(Conjunto de escalas) Reduzca el número de instancias de VM cuando la demanda disminuya. Establezca una política de reducción horizontal basada en criterios.   Detenga las máquinas virtuales durante las horas de inactividad. Puede usar la característica Iniciar/Detener de Azure Automation y configurarla según las necesidades de su empresa.</t>
         </is>
       </c>
       <c r="D676" t="inlineStr">
@@ -17526,7 +17526,7 @@
     <row r="677">
       <c r="C677" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Aproveche la movilidad de licencias mediante la Ventaja híbrida de Azure. Las máquinas virtuales tienen una opción de licencia que le permite traer sus propias licencias locales del SO de servidor Windows a Azure.  La Ventaja híbrida de Azure también le permite incorporar determinadas suscripciones de Linux a Azure.</t>
+          <t>(VM, conjunto de escalado) Aproveche la movilidad de licencias mediante la Ventaja híbrida de Azure. Las máquinas virtuales tienen una opción de licencia que le permite traer sus propias licencias locales del SO de servidor Windows a Azure.  La Ventaja híbrida de Azure también le permite incorporar determinadas suscripciones de Linux a Azure.</t>
         </is>
       </c>
       <c r="D677" t="inlineStr">
@@ -17584,7 +17584,7 @@
     <row r="680">
       <c r="C680" t="inlineStr">
         <is>
-          <t>Cree un plan de mantenimiento que incluya la aplicación regular de parches al sistema como parte de las operaciones rutinarias. Incluir procesos de emergencia que permitan la aplicación inmediata de parches. Puede tener procesos personalizados para administrar la aplicación de revisiones o delegar parcialmente la tarea a Azure.</t>
+          <t>Cree un plan de mantenimiento que incluya la aplicación regular de parches en el sistema como parte de las operaciones rutinarias. Incluir procesos de emergencia que permitan la aplicación inmediata de parches. Puede tener procesos personalizados para administrar la aplicación de revisiones o delegar parcialmente la tarea a Azure.</t>
         </is>
       </c>
       <c r="D680" t="inlineStr"/>
@@ -17638,7 +17638,7 @@
     <row r="683">
       <c r="C683" t="inlineStr">
         <is>
-          <t>Cree un entorno de prueba que coincida estrechamente con su entorno de producción para probar las actualizaciones y los cambios antes de implementarlos en producción. Implemente procesos para probar las actualizaciones de seguridad, las líneas base de rendimiento y los errores de confiabilidad. Aproveche las bibliotecas de errores de Azure Chaos Studio para insertar y simular condiciones de error. Para más información, consulte Biblioteca de errores y acciones de Azure Chaos Studio.</t>
+          <t>Cree un entorno de prueba que coincida estrechamente con su entorno de producción para probar las actualizaciones y los cambios antes de implementarlos en producción. Contar con procesos para probar las actualizaciones de seguridad, las líneas base de rendimiento y los errores de confiabilidad. Aproveche las bibliotecas de errores de Azure Chaos Studio para insertar y simular condiciones de error. Para más información, consulte Biblioteca de errores y acciones de Azure Chaos Studio.</t>
         </is>
       </c>
       <c r="D683" t="inlineStr"/>
@@ -17656,7 +17656,7 @@
     <row r="684">
       <c r="C684" t="inlineStr">
         <is>
-          <t>Gestiona tu cuota. Planifique el nivel de cuota que requiere su carga de trabajo y revise ese nivel periódicamente a medida que evoluciona la carga de trabajo. Si necesita aumentar o disminuir su cuota, solicite esos cambios con anticipación.</t>
+          <t>Administra tu cuota. Planifique el nivel de cuota que requiere su carga de trabajo y revise ese nivel con regularidad a medida que evoluciona la carga de trabajo. Si necesita aumentar o disminuir su cuota, solicite esos cambios con anticipación.</t>
         </is>
       </c>
       <c r="D684" t="inlineStr"/>
@@ -17718,7 +17718,7 @@
     <row r="687">
       <c r="C687" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Implemente automáticamente aplicaciones de máquina virtual desde Azure Compute Gallery definiendo las aplicaciones en el perfil.</t>
+          <t>(VM, conjunto de escalado) Implemente automáticamente aplicaciones de máquina virtual desde Azure Compute Gallery definiendo las aplicaciones en el perfil.</t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
@@ -17762,12 +17762,12 @@
     <row r="689">
       <c r="C689" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Supervise y mida el estado de las instancias de VM.  Implemente la extensión del agente Monitor en las máquinas virtuales para recopilar datos de supervisión del sistema operativo invitado con reglas de recopilación de datos específicas del sistema operativo.  Habilite la información de VM para supervisar el estado y el rendimiento, y para ver tendencias a partir de los datos recopilados. Use los diagnósticos de arranque para obtener información a medida que arrancan las máquinas virtuales. Los diagnósticos de arranque también diagnostican errores de arranque.</t>
+          <t>(VM, conjunto de escalado) Supervise y mida el estado de las instancias de VM.  Implemente la extensión del agente Monitor en las máquinas virtuales para recopilar datos de supervisión del sistema operativo invitado con reglas de recopilación de datos específicas del sistema operativo.  Permita que VM Insights supervise el estado y el rendimiento, y vea las tendencias de los datos recopilados. Use los diagnósticos de arranque para obtener información a medida que arrancan las máquinas virtuales. Los diagnósticos de arranque también diagnostican errores de arranque.</t>
         </is>
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>La supervisión de los datos es el núcleo de la resolución de incidentes. Una pila de supervisión completa proporciona información sobre el rendimiento de las máquinas virtuales y su estado. Al monitorear continuamente las instancias, puede estar preparado para errores o prevenirlos, como la sobrecarga de rendimiento y los problemas de confiabilidad.</t>
+          <t>La monitorización de los datos es el núcleo de la resolución de incidentes. Una pila de supervisión completa proporciona información sobre el rendimiento de las máquinas virtuales y su estado. Al monitorear continuamente las instancias, puede estar preparado para errores o prevenirlos, como la sobrecarga de rendimiento y los problemas de confiabilidad.</t>
         </is>
       </c>
       <c r="F689" t="inlineStr">
@@ -17784,7 +17784,7 @@
     <row r="690">
       <c r="C690" t="inlineStr">
         <is>
-          <t>Definir objetivos de rendimiento. Identifique las métricas de VM para realizar un seguimiento y medir con indicadores de rendimiento como el tiempo de respuesta, la utilización de la CPU y la utilización de la memoria, así como las métricas de la carga de trabajo, como las transacciones por segundo, los usuarios simultáneos y la disponibilidad y el estado.</t>
+          <t>Definir objetivos de rendimiento. Identifique las métricas de VM para realizar un seguimiento y medir los indicadores de rendimiento, como el tiempo de respuesta, la utilización de la CPU y la utilización de la memoria, así como las métricas de la carga de trabajo, como las transacciones por segundo, los usuarios simultáneos y la disponibilidad y el estado.</t>
         </is>
       </c>
       <c r="D690" t="inlineStr"/>
@@ -17802,7 +17802,7 @@
     <row r="691">
       <c r="C691" t="inlineStr">
         <is>
-          <t>Tenga en cuenta el perfil de rendimiento de las máquinas virtuales, los conjuntos de escalado y la configuración del disco en el planeamiento de la capacidad. Cada SKU tiene un perfil diferente de memoria y CPU y se comporta de forma diferente en función del tipo de carga de trabajo. Realice pruebas piloto y pruebas de concepto para comprender el comportamiento del rendimiento en la carga de trabajo específica.</t>
+          <t>Tenga en cuenta el perfil de rendimiento de las máquinas virtuales, los conjuntos de escalado y la configuración de disco en la planeación de la capacidad. Cada SKU tiene un perfil diferente de memoria y CPU y se comporta de forma diferente en función del tipo de carga de trabajo. Realice pruebas piloto y pruebas de concepto para comprender el comportamiento del rendimiento en la carga de trabajo específica.</t>
         </is>
       </c>
       <c r="D691" t="inlineStr"/>
@@ -17820,7 +17820,7 @@
     <row r="692">
       <c r="C692" t="inlineStr">
         <is>
-          <t>Ajuste del rendimiento de la máquina virtual. Aproveche la optimización del rendimiento y la mejora de las funciones según lo requiera la carga de trabajo. Por ejemplo, utilice Memoria no volátil Express (NVMe) conectada localmente para casos de uso de alto rendimiento y redes aceleradas, y utilice SSD prémium v2 para mejorar el rendimiento y la escalabilidad.</t>
+          <t>Ajuste del rendimiento de la máquina virtual. Aproveche la optimización del rendimiento y la mejora de las características según lo requiera la carga de trabajo. Por ejemplo, use Memoria no volátil Express (NVMe) conectada localmente para casos de uso de alto rendimiento y redes aceleradas, y use SSD Premium v2 para mejorar el rendimiento y la escalabilidad.</t>
         </is>
       </c>
       <c r="D692" t="inlineStr"/>
@@ -17856,7 +17856,7 @@
     <row r="694">
       <c r="C694" t="inlineStr">
         <is>
-          <t>Recopilar datos de rendimiento. Siga las prácticas recomendadas de Excelencia operativa para supervisar e implementar las extensiones adecuadas para ver las métricas que se sitúan en relación con los indicadores de rendimiento.</t>
+          <t>Recopilar datos de rendimiento. Siga las prácticas recomendadas de Excelencia operativa para supervisar e implementar las extensiones adecuadas para ver las métricas que se basan en los indicadores de rendimiento.</t>
         </is>
       </c>
       <c r="D694" t="inlineStr"/>
@@ -17874,7 +17874,7 @@
     <row r="695">
       <c r="C695" t="inlineStr">
         <is>
-          <t>Grupos de ubicación por proximidad. Use grupos de ubicación por proximidad en cargas de trabajo en las que se requiera una latencia baja para asegurarse de que las máquinas virtuales se encuentren físicamente cerca unas de otras.</t>
+          <t>Grupos de ubicación por proximidad. Use grupos de ubicación por proximidad en cargas de trabajo en las que se requiera una latencia baja para asegurarse de que las máquinas virtuales estén ubicadas físicamente cerca unas de otras.</t>
         </is>
       </c>
       <c r="D695" t="inlineStr"/>
@@ -17892,12 +17892,12 @@
     <row r="696">
       <c r="C696" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Elija SKU para máquinas virtuales que se alineen con su planificación de capacidad. Comprenda bien los requisitos de su carga de trabajo, incluido el número de núcleos, la memoria, el almacenamiento y el ancho de banda de red para que pueda filtrar las SKU inadecuadas.</t>
+          <t>(VM, conjunto de escalado) Elija SKU para máquinas virtuales que se alineen con su planificación de capacidad. Comprenda bien los requisitos de su carga de trabajo, incluido el número de núcleos, la memoria, el almacenamiento y el ancho de banda de red para que pueda filtrar las SKU inadecuadas.</t>
         </is>
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>El redimensionamiento de las máquinas virtuales es una decisión fundamental que afecta significativamente al rendimiento de la carga de trabajo. Sin el conjunto adecuado de máquinas virtuales, es posible que experimente problemas de rendimiento y acumule costos innecesarios.</t>
+          <t>El tamaño correcto de las máquinas virtuales es una decisión fundamental que afecta significativamente al rendimiento de la carga de trabajo. Sin el conjunto adecuado de máquinas virtuales, es posible que experimente problemas de rendimiento y acumule costos innecesarios.</t>
         </is>
       </c>
       <c r="F696" t="inlineStr">
@@ -17914,7 +17914,7 @@
     <row r="697">
       <c r="C697" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Implemente máquinas virtuales de carga de trabajo sensibles a la latencia en grupos de selección de ubicación por proximidad.</t>
+          <t>(VM, conjunto de escalado) Implemente máquinas virtuales de carga de trabajo sensibles a la latencia en grupos con ubicación de proximidad.</t>
         </is>
       </c>
       <c r="D697" t="inlineStr">
@@ -17936,7 +17936,7 @@
     <row r="698">
       <c r="C698" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado)  Establezca el perfil de almacenamiento analizando el rendimiento del disco de las cargas de trabajo existentes y la SKU de la máquina virtual.  Use SSD prémium para máquinas virtuales de producción. Ajuste el rendimiento de los discos con SSD prémium v2. Utilice dispositivos NVMe conectados localmente.</t>
+          <t>(VM, conjunto de escalado)  Establezca el perfil de almacenamiento analizando el rendimiento del disco de las cargas de trabajo existentes y la SKU de la máquina virtual.  Use SSD prémium para máquinas virtuales de producción. Ajuste el rendimiento de los discos con SSD prémium v2. Utilice dispositivos NVMe conectados localmente.</t>
         </is>
       </c>
       <c r="D698" t="inlineStr">
@@ -17958,12 +17958,12 @@
     <row r="699">
       <c r="C699" t="inlineStr">
         <is>
-          <t>(VMs) Considere la posibilidad de habilitar las redes aceleradas.</t>
+          <t>(Máquinas virtuales) Considere la posibilidad de habilitar redes aceleradas.</t>
         </is>
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>Permite la virtualización de E/S de raíz única (SR-IOV) en una máquina virtual, lo que mejora en gran medida el rendimiento de su red.</t>
+          <t>Permite la virtualización de E/S de raíz única (SR-IOV) en una máquina virtual, lo que mejora en gran medida su rendimiento de red.</t>
         </is>
       </c>
       <c r="F699" t="inlineStr">
@@ -17980,12 +17980,12 @@
     <row r="700">
       <c r="C700" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales, conjunto de escalado) Establezca reglas de escalado automático para aumentar o disminuir el número de instancias de máquina virtual en el conjunto de escalado en función de la demanda.</t>
+          <t>(VM, conjunto de escalado) Establezca reglas de escalado automático para aumentar o disminuir el número de instancias de VM en el conjunto de escalado en función de la demanda.</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>Si aumenta la demanda de la aplicación, aumenta la carga en las instancias de máquina virtual del conjunto de escalado. Las reglas de escalado automático garantizan que tenga suficientes recursos para satisfacer la demanda.</t>
+          <t>Si aumenta la demanda de la aplicación, aumenta la carga de las instancias de máquina virtual del conjunto de escalado. Las reglas de escalado automático garantizan que tenga suficientes recursos para satisfacer la demanda.</t>
         </is>
       </c>
       <c r="F700" t="inlineStr">
@@ -18226,7 +18226,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Este control aún no se ha examinado</t>
+          <t>Esta comprobación aún no se ha examinado</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">

--- a/spreadsheet/macrofree/wafsg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/wafsg_checklist.es.xlsx
@@ -6808,7 +6808,7 @@
       <c r="B193" s="21" t="n"/>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Configure las conexiones de ExpressRoute activo-activo entre el entorno local y Azure.</t>
+          <t>Configure circuitos ExpressRoute con resistencia máxima o alta para cargas de trabajo de producción.</t>
         </is>
       </c>
       <c r="D193" s="21" t="inlineStr"/>
@@ -6823,7 +6823,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>b356e60e-cb41-4ee6-a8d5-290b429619f7</t>
+          <t>e58c1767-6db4-4b40-a26e-1ab8967517f4</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -6836,7 +6836,7 @@
       <c r="B194" s="21" t="n"/>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Configure puertas de enlace de red virtual de ExpressRoute compatibles con zonas de disponibilidad.</t>
+          <t>Configure las conexiones de ExpressRoute activo-activo entre el entorno local y Azure.</t>
         </is>
       </c>
       <c r="D194" s="21" t="inlineStr"/>
@@ -6851,7 +6851,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>877b9a2d-8171-441b-ba7f-b8c6191f12bc</t>
+          <t>b356e60e-cb41-4ee6-a8d5-290b429619f7</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -6864,7 +6864,7 @@
       <c r="B195" s="21" t="n"/>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Configure puertas de enlace de red virtual de ExpressRoute en diferentes regiones.</t>
+          <t>Configure puertas de enlace de red virtual de ExpressRoute compatibles con zonas de disponibilidad.</t>
         </is>
       </c>
       <c r="D195" s="21" t="inlineStr"/>
@@ -6879,7 +6879,7 @@
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>64ad6a67-7f17-4d55-a365-0ec8716fb135</t>
+          <t>877b9a2d-8171-441b-ba7f-b8c6191f12bc</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -6892,7 +6892,7 @@
       <c r="B196" s="21" t="n"/>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Configure la VPN de sitio a sitio como copia de seguridad del emparejamiento privado de ExpressRoute.</t>
+          <t>Configure puertas de enlace de red virtual de ExpressRoute en diferentes regiones.</t>
         </is>
       </c>
       <c r="D196" s="21" t="inlineStr"/>
@@ -6907,7 +6907,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>20bbf3a5-e3d8-42eb-9b88-9c4a811a483a</t>
+          <t>64ad6a67-7f17-4d55-a365-0ec8716fb135</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -6920,7 +6920,7 @@
       <c r="B197" s="21" t="n"/>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Configure el estado del servicio para recibir la notificación de mantenimiento del circuito ExpressRoute.</t>
+          <t>Configure la VPN de sitio a sitio como copia de seguridad del emparejamiento privado de ExpressRoute.</t>
         </is>
       </c>
       <c r="D197" s="21" t="inlineStr"/>
@@ -6935,7 +6935,7 @@
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>198fd707-5344-46d9-a3f9-c05a90749ccb</t>
+          <t>20bbf3a5-e3d8-42eb-9b88-9c4a811a483a</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -6948,14 +6948,10 @@
       <c r="B198" s="21" t="n"/>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Planeación del circuito ExpressRoute o ExpressRoute Direct</t>
-        </is>
-      </c>
-      <c r="D198" s="21" t="inlineStr">
-        <is>
-          <t>Durante la fase de planeación inicial, debe decidir si desea configurar un circuito ExpressRoute o una conexión ExpressRoute Direct. Un circuito ExpressRoute permite una conexión privada dedicada a Azure con la ayuda de un proveedor de conectividad. ExpressRoute Direct permite ampliar la red local directamente a la red de Microsoft en una ubicación de emparejamiento. También debe identificar el requisito de ancho de banda y el requisito de tipo de SKU para las necesidades de su negocio.</t>
-        </is>
-      </c>
+          <t>Configure el estado del servicio para recibir notificaciones de mantenimiento del circuito ExpressRoute.</t>
+        </is>
+      </c>
+      <c r="D198" s="21" t="inlineStr"/>
       <c r="E198" s="21" t="n"/>
       <c r="F198" t="inlineStr">
         <is>
@@ -6967,7 +6963,7 @@
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>09e0dd1a-b1f7-46c3-8df1-48e841f53dca</t>
+          <t>da08260d-363c-4fcb-a555-ed4448d0be3a</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -6980,12 +6976,12 @@
       <c r="B199" s="21" t="n"/>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Diversidad de capas físicas</t>
+          <t>Planeación del circuito ExpressRoute o ExpressRoute Direct</t>
         </is>
       </c>
       <c r="D199" s="21" t="inlineStr">
         <is>
-          <t>Para mejorar la resistencia, planee tener varias rutas de acceso entre el perímetro local y las ubicaciones de emparejamiento (ubicaciones perimetrales del proveedor/Microsoft). Esta configuración se puede lograr pasando por un proveedor de servicios diferente o a través de una ubicación diferente de la red local.</t>
+          <t>Durante la fase de planeación inicial, debe decidir si desea configurar un circuito ExpressRoute o una conexión ExpressRoute Direct. Un circuito ExpressRoute permite una conexión privada dedicada a Azure con la ayuda de un proveedor de conectividad. ExpressRoute Direct permite ampliar la red local directamente a la red de Microsoft en una ubicación de emparejamiento. También debe identificar el requisito de ancho de banda y el requisito de tipo de SKU para las necesidades de su negocio.</t>
         </is>
       </c>
       <c r="E199" s="21" t="n"/>
@@ -6999,7 +6995,7 @@
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>67812ddc-7c52-4b52-9569-b3f84d591def</t>
+          <t>09e0dd1a-b1f7-46c3-8df1-48e841f53dca</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10303,7 +10299,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Hay límites en la estructura de la política, incluido el número de reglas y grupos de recopilación de reglas, el tamaño total de la política y los destinos de origen y destino. Asegúrese de redactar su póliza y mantenerse dentro de los umbrales documentados.</t>
+          <t>Hay límites en la estructura de la política, incluido el número de reglas y grupos de recopilación de reglas, el tamaño total de la política y los destinos de origen y destino. Asegúrese de redactar su póliza y mantenerse por debajo de los umbrales documentados.</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -10627,7 +10623,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>En una arquitectura tradicional de Hub &amp; Spokes, configure las UDR para forzar el tráfico a través de Azure Firewall para la conectividad "SpoketoSpoke", "SpoketoInternet" y "SpoketoHybrid". En Azure Virtual WAN, en su lugar, configure la intención y las directivas de enrutamiento para redirigir el tráfico privado o de Internet a través de la instancia de Azure Firewall integrada en el centro.</t>
+          <t>En una arquitectura tradicional de Hub &amp; Spokes, configure las UDR para forzar el tráfico a través de Azure Firewall para la conectividad "Spoke-to-Spoke", "Spoke-to-Internet" y "Spoke-to-Hybrid". En Azure Virtual WAN, en su lugar, configure la intención y las directivas de enrutamiento para redirigir el tráfico privado o de Internet a través de la instancia de Azure Firewall integrada en el centro.</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -11531,7 +11527,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Si se requiere que Azure Firewall funcione en modo IDPS Alerta y denegación, considere detenidamente el impacto en el rendimiento, tal y como se documenta en esta página.</t>
+          <t>Si es necesario que Azure Firewall funcione en modo IDPS Alerta y denegación, considere detenidamente el impacto en el rendimiento tal y como se documenta en Rendimiento del firewall.</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">

--- a/spreadsheet/macrofree/wafsg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/wafsg_checklist.es.xlsx
@@ -890,7 +890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:P700"/>
+  <dimension ref="A2:P672"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -2836,11 +2836,7 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="n"/>
       <c r="B65" s="21" t="n"/>
-      <c r="C65" s="21" t="inlineStr">
-        <is>
-          <t>Habilite la opción AlwaysOn cuando las aplicaciones compartan un único plan de App Service. Las aplicaciones de App Service se descargan automáticamente cuando están inactivas para ahorrar recursos. La siguiente solicitud desencadena un inicio en frío, lo que puede provocar tiempos de espera de solicitud.</t>
-        </is>
-      </c>
+      <c r="C65" s="21" t="n"/>
       <c r="D65" s="21" t="inlineStr">
         <is>
           <t>La aplicación nunca se descarga con Always On habilitado.</t>
@@ -2993,11 +2989,7 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="n"/>
       <c r="B70" s="21" t="n"/>
-      <c r="C70" s="21" t="inlineStr">
-        <is>
-          <t>Planear las actualizaciones de las reglas</t>
-        </is>
-      </c>
+      <c r="C70" s="21" t="n"/>
       <c r="D70" s="21" t="inlineStr"/>
       <c r="E70" s="21" t="n"/>
       <c r="F70" t="inlineStr">
@@ -3028,7 +3020,7 @@
           <t>Uso de sondeos de estado para detectar la falta de disponibilidad del back-end</t>
         </is>
       </c>
-      <c r="D71" s="21" t="inlineStr"/>
+      <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="n"/>
       <c r="F71" t="inlineStr">
         <is>
@@ -3088,7 +3080,7 @@
           <t>Comprobación de las dependencias de nivel inferior a través de puntos de conexión de estado</t>
         </is>
       </c>
-      <c r="D73" s="21" t="inlineStr"/>
+      <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="n"/>
       <c r="F73" t="inlineStr">
         <is>
@@ -3220,11 +3212,7 @@
           <t>Comprobación de las dependencias de nivel inferior a través de puntos de conexión de estado</t>
         </is>
       </c>
-      <c r="D77" s="21" t="inlineStr">
-        <is>
-          <t>Supongamos que cada backend tiene sus propias dependencias para garantizar que se aíslen los errores. Por ejemplo, una aplicación hospedada detrás de Application Gateway puede tener varios back-ends, cada uno conectado a una base de datos diferente (réplica). Cuando se produce un error en una dependencia de este tipo, es posible que la aplicación esté funcionando, pero no devolverá resultados válidos. Por ese motivo, lo ideal es que el punto de conexión de mantenimiento valide todas las dependencias. Tenga en cuenta que si cada llamada al punto de conexión de estado tiene una llamada de dependencia directa, esa base de datos recibiría 100 consultas cada 30 segundos en lugar de 1. Para evitar esto, el punto de conexión de mantenimiento debe almacenar en caché el estado de las dependencias durante un breve período de tiempo.</t>
-        </is>
-      </c>
+      <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="n"/>
       <c r="F77" t="inlineStr">
         <is>
@@ -7045,7 +7033,7 @@
       </c>
       <c r="D201" s="21" t="inlineStr">
         <is>
-          <t>Los circuitos dedicados de ExpressRoute garantizan una disponibilidad del "99,95 %" cuando se configura una conectividad activo-activo entre el entorno local y Azure. Este modo proporciona una mayor disponibilidad de la conexión de Expressroute. También se recomienda configurar BFD para una conmutación por error más rápida si hay un error de vínculo en una conexión.</t>
+          <t>Este modo proporciona una mayor disponibilidad de las conexiones de Expressroute. También se recomienda configurar BFD para una conmutación por error más rápida si hay un error de vínculo en una conexión.</t>
         </is>
       </c>
       <c r="E201" s="21" t="n"/>
@@ -7077,7 +7065,7 @@
       </c>
       <c r="D202" s="21" t="inlineStr">
         <is>
-          <t>Cree una puerta de enlace de red virtual compatible con la zona de disponibilidad para una mayor resistencia y planee puertas de enlace de red virtual en diferentes regiones para la recuperación ante desastres y la alta disponibilidad.</t>
+          <t>Cree una puerta de enlace de red virtual compatible con la zona de disponibilidad para una mayor resistencia y planee puertas de enlace de red virtual en diferentes regiones para la resistencia, la recuperación ante desastres y la alta disponibilidad.</t>
         </is>
       </c>
       <c r="E202" s="21" t="n"/>
@@ -10116,7 +10104,7 @@
     <row r="306">
       <c r="C306" t="inlineStr">
         <is>
-          <t>Implemente Azure Firewall en redes virtuales de centro de conectividad o como parte de centros de conectividad de Azure Virtual WAN.</t>
+          <t>Revise la lista de problemas conocidos de Azure Firewall. Los productos de Azure Firewall mantienen una lista actualizada de problemas conocidos. Esta lista contiene información importante sobre el comportamiento por diseño, las correcciones en construcción, las limitaciones de la plataforma y las posibles soluciones alternativas o estrategias de mitigación.</t>
         </is>
       </c>
       <c r="D306" t="inlineStr"/>
@@ -10127,14 +10115,14 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>5820ff87-d98e-490e-93a0-28028bbb05e6</t>
+          <t>20ce14f0-d217-45ca-953e-da6acda1b73c</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="C307" t="inlineStr">
         <is>
-          <t>Aproveche la resiliencia de las zonas de disponibilidad.</t>
+          <t>Implemente Azure Firewall en varias zonas de disponibilidad para obtener un acuerdo de nivel de servicio (SLA) superior. Azure Firewall proporciona diferentes acuerdos de nivel de servicio en función de si implementa el servicio en una sola zona de disponibilidad o en varias zonas. Para obtener más información, consulte SLA para servicios en línea.</t>
         </is>
       </c>
       <c r="D307" t="inlineStr"/>
@@ -10145,14 +10133,14 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>7c605481-a9d5-480f-8738-ac2022ef28ed</t>
+          <t>de630a06-a4a8-4215-bb80-cc89dd3ced08</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="C308" t="inlineStr">
         <is>
-          <t>Cree la estructura de directiva de Azure Firewall.</t>
+          <t>Implemente una instancia de Azure Firewall en cada región en entornos de varias regiones. Para las arquitecturas radiales tradicionales, consulte Consideraciones sobre varias regiones. En el caso de los centros de conectividad de Azure Virtual WAN protegidos, configure la intención de enrutamiento y las directivas para proteger las comunicaciones entre centros y de sucursal a sucursal. En el caso de las cargas de trabajo resistentes a errores y tolerantes a errores, considere la posibilidad de utilizar instancias de Azure Firewall y Azure Virtual Network como recursos regionales.</t>
         </is>
       </c>
       <c r="D308" t="inlineStr"/>
@@ -10163,14 +10151,14 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>2ceafe5f-6511-42a6-9687-cebaf586b293</t>
+          <t>be394cd4-78f2-4737-8d8d-ec8f83193584</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="C309" t="inlineStr">
         <is>
-          <t>Revise la lista de problemas conocidos.</t>
+          <t>Supervise las métricas de Azure Firewall y el estado de mantenimiento de los recursos. Azure Firewall se integra con Azure Resource Health. Use la comprobación de estado de los recursos para ver el estado de mantenimiento de Azure Firewall y solucionar los problemas de servicio que puedan afectar al recurso de Azure Firewall.</t>
         </is>
       </c>
       <c r="D309" t="inlineStr"/>
@@ -10181,14 +10169,14 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>85a53628-bd7b-43bb-a817-b6f0c11c34c9</t>
+          <t>5f5c6480-7d26-4d6a-b375-e5786b200448</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="C310" t="inlineStr">
         <is>
-          <t>Supervise el estado de mantenimiento de Azure Firewall.</t>
+          <t>Implemente Azure Firewall en redes virtuales de centro de conectividad o como parte de centros de conectividad de Virtual WAN.</t>
         </is>
       </c>
       <c r="D310" t="inlineStr"/>
@@ -10199,19 +10187,19 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>74a2596f-1cc9-4715-8de2-5afdde7b9f9a</t>
+          <t>e1c47da5-f5ed-4300-911e-7fc916e4c488</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="C311" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Manager con topologías de red tradicionales de Hub &amp; Spokes o Azure Virtual WAN para implementar y administrar instancias de Azure Firewall.</t>
+          <t>Implemente Azure Firewall en varias zonas de disponibilidad.</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Cree fácilmente arquitecturas transitivas y radiales con servicios de seguridad nativos para la gobernanza y la protección del tráfico.  Para obtener más información sobre las topologías de red, consulte la documentación de Azure Cloud Adoption Framework.</t>
+          <t>Implemente Azure Firewall en varias zonas de disponibilidad para mantener un nivel específico de resistencia. Si una zona experimenta una interrupción, otra zona continúa atendiendo el tráfico.</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -10221,19 +10209,19 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>21f4d348-c086-4e96-b5bc-91f8a3c25841</t>
+          <t>13571efe-01ca-4dd1-8cc8-fe95125e3bf2</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="C312" t="inlineStr">
         <is>
-          <t>Cree directivas de Azure Firewall para controlar la posición de seguridad en los entornos de red globales. Asigne directivas a todas las instancias de Azure Firewall.</t>
+          <t>Supervise las métricas de Azure Firewall en un área de trabajo de Log Analytics. Supervise de cerca las métricas que indican el estado de mantenimiento de Azure Firewall, como el rendimiento, el estado de mantenimiento del firewall, el uso del puerto SNAT y las métricas de sondeo de latencia de AZFW.  Use Azure Service Health para supervisar el estado de Azure Firewall.</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Las directivas de Azure Firewall se pueden organizar en una estructura jerárquica para superponer una directiva base central. Permitir políticas granulares para cumplir con los requisitos de regiones específicas. Delegue políticas de firewall incrementales a los equipos de seguridad locales a través del control de acceso basado en roles (RBAC). Algunas opciones de configuración son específicas por instancia, por ejemplo, las reglas de DNAT y la configuración de DNS, por lo que es posible que se requieran varias políticas especializadas.</t>
+          <t>Supervise las métricas de recursos y el estado del servicio para poder detectar cuándo se degrada un estado del servicio y tomar medidas proactivas para evitar errores.</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -10243,19 +10231,19 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>1e604a31-46f0-4fcc-9f0e-1ca46cc3f677</t>
+          <t>09d6362f-d7a1-4c56-822c-065064bbcad7</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="C313" t="inlineStr">
         <is>
-          <t>Migre las reglas de Azure Firewall clásico a las directivas de Azure Firewall Manager para las implementaciones existentes.</t>
+          <t>Configure Azure Firewall en modo de tunelización forzada si necesita enrutar todo el tráfico enlazado a Internet a un próximo salto designado en lugar de directamente a Internet. Esta recomendación no se aplica a Virtual WAN. &lt;BR&gt;&lt;BR&gt; Azure Firewall debe tener conexión directa a Internet. Si AzureFirewallSubnet aprende una ruta predeterminada a la red local a través del protocolo de puerta de enlace fronteriza, debe configurar Azure Firewall en modo de tunelización forzada. Puede usar la característica de tunelización forzada para agregar otro espacio de direcciones /26 para la subred de administración de Azure Firewall. Asigne a la subred el nombre AzureFirewallManagementSubnet. Si tiene una instancia de Azure Firewall existente que no puede volver a configurar en el modo de tunelización forzada, cree una UDR con una ruta 0.0.0.0/0. Establezca el valor de NextHopType como Internet. Para mantener la conectividad a Internet, asocie la UDR con AzureFirewallSubnet.  Establezca la dirección IP pública en None para implementar un plano de datos totalmente privado al configurar Azure Firewall en modo de tunelización forzada. Sin embargo, el plano de administración sigue requiriendo una dirección IP pública solo con fines de administración. El tráfico interno de las redes virtuales y locales no usa esa dirección IP pública.</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>En el caso de las implementaciones existentes, migre las reglas de Azure Firewall a las directivas de Azure Firewall Manager. Use Azure Firewall Manager para administrar de forma centralizada los firewalls y las directivas.  Para más información, consulte Migración a Azure Firewall Premium.</t>
+          <t>Use la tunelización forzada para no exponer los recursos de Azure directamente a Internet. Este enfoque reduce la superficie de ataque y minimiza el riesgo de amenazas externas. Para aplicar las directivas corporativas y los requisitos de cumplimiento de forma más eficaz, enrute todo el tráfico enlazado a Internet a través de un firewall local o una NVA.</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -10265,19 +10253,19 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>d17fbf01-c796-45dd-9ca4-99af38b2ae9b</t>
+          <t>7abca50a-05ca-41fc-8485-cd536ba9ec86</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="C314" t="inlineStr">
         <is>
-          <t>Revise la lista de problemas conocidos de Azure Firewall.</t>
+          <t>Cree reglas para políticas de firewall en una estructura jerárquica para superponer una política base central. Para más información, consulte Uso de directivas de Azure Firewall para procesar reglas. &lt;BR&gt;&lt;BR&gt; Cree sus reglas basadas en el principio de confianza cero de acceso con privilegios mínimos</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>El grupo de productos de Azure Firewall mantiene una lista actualizada de problemas conocidos en esta ubicación. Esta lista contiene información importante relacionada con el comportamiento por diseño, las correcciones en construcción, las limitaciones de la plataforma, junto con posibles soluciones alternativas o mitigaciones.</t>
+          <t>Organice las reglas en una estructura jerárquica para que las políticas granulares puedan cumplir con los requisitos de regiones específicas. Cada política puede contener diferentes conjuntos de reglas de traducción de direcciones de red de destino (DNAT), redes y aplicaciones que tienen prioridades, acciones y órdenes de procesamiento específicos.</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -10287,19 +10275,19 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>b7623c43-bb6b-4629-a655-551c92e2dffa</t>
+          <t>0d9c6369-6b1b-49db-8198-68f2344273d8</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="C315" t="inlineStr">
         <is>
-          <t>Asegúrese de que la directiva de Azure Firewall se adhiere a los límites y recomendaciones de Azure Firewall.</t>
+          <t>Configure los proveedores de socios de seguridad compatibles dentro de Firewall Manager para proteger las conexiones salientes. &lt;BR&gt;&lt;BR&gt; Este escenario requiere Virtual WAN con una puerta de enlace de VPN S2S en el centro de conectividad, ya que usa un túnel IPsec para conectarse a la infraestructura del proveedor. Los proveedores de servicios de seguridad administrados pueden cobrar tarifas de licencia adicionales y limitar el rendimiento de las conexiones IPsec. También puede utilizar soluciones alternativas, como Zscaler Cloud Connector.</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Hay límites en la estructura de la política, incluido el número de reglas y grupos de recopilación de reglas, el tamaño total de la política y los destinos de origen y destino. Asegúrese de redactar su póliza y mantenerse por debajo de los umbrales documentados.</t>
+          <t>Permita que los proveedores de asociados de seguridad de Azure Firewall aprovechen las mejores ofertas de seguridad en la nube, que proporcionan protección avanzada para su tráfico de Internet. Estos proveedores ofrecen un filtrado especializado y consciente del usuario y capacidades integrales de detección de amenazas que mejoran su postura de seguridad general.</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -10309,19 +10297,19 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>9230da4d-4e27-4106-9552-294b1a93d780</t>
+          <t>7bfae9e9-d97d-4d04-97a6-7eb31a73ed10</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="C316" t="inlineStr">
         <is>
-          <t>Implemente Azure Firewall en varias zonas de disponibilidad para obtener un acuerdo de nivel de servicio (SLA) superior.</t>
+          <t>Habilite la configuración de proxy DNS de Azure Firewall. &lt;BR&gt;&lt;BR&gt; Configure también Azure Firewall para usar DNS personalizado para reenviar consultas DNS.</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Azure Firewall proporciona diferentes acuerdos de nivel de servicio cuando se implementa en una sola zona de disponibilidad y cuando se implementa en varias zonas. Para más información, consulte Acuerdo de Nivel de Servicio para Azure Firewall. Para obtener información sobre todos los acuerdos de nivel de servicio de Azure, consulte Resumen de acuerdos de nivel de servicio para los servicios de Azure.</t>
+          <t>Habilite esta característica para apuntar a los clientes de las redes virtuales a Azure Firewall como servidor DNS. Esta característica protege la infraestructura DNS interna a la que no se accede ni se expone directamente.</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -10331,19 +10319,19 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>6a88967d-b182-437d-ac3b-1cb45ddfaa86</t>
+          <t>68949fe5-365d-4c55-b909-d52c39d24b6d</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="C317" t="inlineStr">
         <is>
-          <t>En entornos de varias regiones, implemente una instancia de Azure Firewall por región.</t>
+          <t>Configure las UDR para forzar el tráfico a través de Azure Firewall en una arquitectura tradicional de concentrador y radio para la conectividad de radio a radio, de radio a Internet y de radio a híbrido. &lt;BR&gt;&lt;BR&gt; En Virtual WAN, configure la intención de enrutamiento y las directivas para redirigir el tráfico privado o el tráfico de Internet a través de la instancia de Azure Firewall integrada en el centro. &lt;BR&gt;&lt;BR&gt; Si no puede aplicar una UDR y solo necesita el redireccionamiento del tráfico web, use Azure Firewall como proxy explícito en la ruta de acceso de salida. Puede configurar una opción de proxy en la aplicación de envío, como un explorador web, al configurar Azure Firewall como proxy.</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>En el caso de las arquitecturas tradicionales de Hub &amp; Spokes, en este artículo se explican los detalles de varias regiones. En el caso de los centros de conectividad virtual protegidos (Azure Virtual WAN), la intención y las directivas de enrutamiento deben configurarse para proteger las comunicaciones entre centros y de sucursal a sucursal. En el caso de las cargas de trabajo diseñadas para ser resistentes a errores y tolerantes a errores, recuerde tener en cuenta que las instancias de Azure Firewall y Azure Virtual Network son recursos regionales.</t>
+          <t>Envíe tráfico a través del firewall para inspeccionar el tráfico y ayudar a identificar y bloquear el tráfico malicioso. &lt;BR&gt;&lt;BR&gt; Use Azure Firewall como proxy explícito para el tráfico saliente, de modo que el tráfico web llegue a la dirección IP privada del firewall y, por lo tanto, salga directamente del firewall sin usar una UDR. Esta característica también facilita el uso de múltiples firewalls sin modificar las rutas de red existentes.</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -10353,19 +10341,19 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>a4b78865-a047-4afc-b7e6-b2f54cee83cb</t>
+          <t>7269ebdb-4f21-41f7-846b-b0f90145a8ca</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="C318" t="inlineStr">
         <is>
-          <t>Supervise las métricas de Azure Firewall y el estado de mantenimiento de los recursos.</t>
+          <t>Use el filtrado de FQDN en las reglas de red. Debe habilitar la configuración del proxy DNS de Azure Firewall para usar FQDN en las reglas de red.</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Supervise de cerca el indicador de métricas clave del estado de mantenimiento de Azure Firewall, como el rendimiento, el estado de mantenimiento del firewall, la utilización del puerto SNAT y las métricas de sondeo de latencia de AZFW. Además, Azure Firewall ahora se integra con Azure Resource Health. Con la comprobación del estado de los recursos de Azure Firewall, ahora puede ver el estado de mantenimiento de Azure Firewall y solucionar los problemas de servicio que podrían afectar al recurso de Azure Firewall.</t>
+          <t>Use FQDN en las reglas de red de Azure Firewall para que los administradores puedan administrar nombres de dominio en lugar de varias direcciones IP, lo que simplifica la administración. Esta resolución dinámica garantiza que las reglas de firewall se actualicen automáticamente cuando cambien las direcciones IP de los dominios.</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -10375,17 +10363,21 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>9621bb59-3034-4e42-8344-5ce24b47425b</t>
+          <t>dbcfaeb4-af8a-4536-aea5-b0941fe8cb1c</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="C319" t="inlineStr">
         <is>
-          <t>Determine si necesita tunelización forzada.</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr"/>
+          <t>Use etiquetas de servicio de Azure Firewall en lugar de direcciones IP específicas para proporcionar acceso selectivo a servicios específicos en Azure, Microsoft Dynamics 365 y Microsoft 365.</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Utilice etiquetas de servicio en las reglas de red para poder definir controles de acceso basados en nombres de servicio en lugar de direcciones IP específicas, lo que simplifica la administración de la seguridad. Microsoft administra y actualiza estas etiquetas automáticamente cuando cambian las direcciones IP. Este método garantiza que las reglas de firewall sigan siendo precisas y efectivas sin intervención manual.</t>
+        </is>
+      </c>
       <c r="F319" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10393,17 +10385,21 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>b0b563a2-ec75-4a12-981a-6c6138175122</t>
+          <t>a24f4843-209c-4f51-88e6-1908be48e722</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="C320" t="inlineStr">
         <is>
-          <t>Cree reglas para las políticas en función de los criterios de acceso con privilegios mínimos.</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr"/>
+          <t>Use etiquetas FQDN en las reglas de la aplicación para proporcionar acceso selectivo a servicios específicos de Microsoft. &lt;BR&gt;&lt;BR&gt; Puede usar una etiqueta FQDN en las reglas de la aplicación para permitir el tráfico de red de salida necesario a través del firewall para servicios específicos de Azure, como Microsoft 365, Windows 365 y Microsoft Intune.</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Use etiquetas FQDN en las reglas de aplicación de Azure Firewall para representar un grupo de FQDN asociados a servicios conocidos de Microsoft. Este método simplifica la administración de las reglas de seguridad de la red.</t>
+        </is>
+      </c>
       <c r="F320" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10411,17 +10407,21 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>c39df35c-43a4-4bc2-ae65-3201a1b274a4</t>
+          <t>4063f792-86cc-469b-9b6d-3c3d5e7f5d74</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="C321" t="inlineStr">
         <is>
-          <t>Aproveche la inteligencia de amenazas.</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr"/>
+          <t>Habilite la inteligencia sobre amenazas en Azure Firewall en modo de alerta y denegación.</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Utilice la inteligencia de amenazas para proporcionar protección en tiempo real contra las amenazas emergentes, lo que reduce el riesgo de ciberataques. Esta característica usa la fuente de inteligencia sobre amenazas de Microsoft para alertar y bloquear automáticamente el tráfico de direcciones IP, dominios y direcciones URL malintencionadas conocidas.</t>
+        </is>
+      </c>
       <c r="F321" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10429,17 +10429,21 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>08bebd22-0d6a-469c-ae5b-fed8774452de</t>
+          <t>e8dcc3ab-b391-475c-8d78-cee55c784f06</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="C322" t="inlineStr">
         <is>
-          <t>Habilite el proxy DNS de Azure Firewall.</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr"/>
+          <t>Habilite el IDPS en modo Alerta o Alerta y denegación. Tenga en cuenta el impacto en el rendimiento de esta característica.</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Habilitar el filtrado de IDPS en Azure Firewall proporciona supervisión y análisis en tiempo real del tráfico de red para detectar y prevenir actividades malintencionadas. Esta función utiliza la detección basada en firmas para identificar rápidamente las amenazas conocidas y bloquearlas antes de que causen daño.  Para obtener más información, consulte Detección de abusos.</t>
+        </is>
+      </c>
       <c r="F322" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10447,17 +10451,21 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>89484b0c-7b36-4fa2-9064-ae6db7dc411a</t>
+          <t>053202f4-db7d-4b08-ad61-c5d0037b713a</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="C323" t="inlineStr">
         <is>
-          <t>Tráfico de red directo a través de Azure Firewall.</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr"/>
+          <t>Use una entidad de certificación (CA) empresarial interna para generar certificados cuando use la inspección TLS con Azure Firewall Premium. Utilice certificados autofirmados solo con fines de prueba y prueba de concepto (PoC).</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Habilite la inspección de TLS para que Azure Firewall Premium finalice e inspeccione las conexiones TLS para detectar, alertar y mitigar la actividad malintencionada en HTTPS.</t>
+        </is>
+      </c>
       <c r="F323" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10465,17 +10473,21 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>a875d2e4-5476-450f-8206-aa79ecdcb2e3</t>
+          <t>ab822518-b2ff-4048-8e9f-5a86d431d063</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="C324" t="inlineStr">
         <is>
-          <t>Determine si desea utilizar proveedores de seguridad como servicio (SECaaS) de terceros.</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr"/>
+          <t>Use Firewall Manager para crear y asociar un plan de Azure DDoS Protection con la red virtual del centro. Este enfoque no se aplica a Virtual WAN.</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Configure un plan de protección contra DDoS de Azure para que pueda administrar de forma centralizada la protección contra DDoS junto con las directivas de firewall. Este enfoque agiliza la forma en que administra la seguridad de su red y simplifica la forma en que implementa y supervisa los procesos.</t>
+        </is>
+      </c>
       <c r="F324" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10483,14 +10495,14 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>50dc96a3-9dca-4aab-97f5-9f8654d4f49c</t>
+          <t>05a6fac9-edc2-49bc-8bf8-17950c0cd710</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="C325" t="inlineStr">
         <is>
-          <t>Proteja sus direcciones IP públicas de Azure Firewall con DDoS.</t>
+          <t>Seleccione una SKU de Azure Firewall para implementarla. Elija entre tres SKU de Azure Firewall: Básico, Estándar y Premium. Use Azure Firewall Premium para proteger aplicaciones muy confidenciales, como el procesamiento de pagos. Use Azure Firewall Standard si la carga de trabajo necesita un firewall de nivel 3 a nivel 7 y necesita escalado automático para controlar los períodos de tráfico máximo de hasta 30 Gbps. Use Azure Firewall Basic si usa SMB y requiere hasta 250 Mbps de rendimiento. Puedes cambiar a una versión anterior o superior a una versión superior de la SKU. Para más información, consulte Elección de la SKU de Azure Firewall correcta.</t>
         </is>
       </c>
       <c r="D325" t="inlineStr"/>
@@ -10501,21 +10513,17 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>98318578-48f2-4870-adc0-a6a2cf9ce25e</t>
+          <t>9220cde5-ecbc-4eb1-a5ac-65e56e2aa925</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="C326" t="inlineStr">
         <is>
-          <t>Si es necesario enrutar todo el tráfico enlazado a Internet a un próximo salto designado en lugar de ir directamente a Internet, configure Azure Firewall en modo de tunelización forzada (no se aplica a Azure Virtual WAN).</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>Azure Firewall debe tener conexión directa a Internet. Si AzureFirewallSubnet aprende una ruta predeterminada a la red local a través del protocolo de puerta de enlace fronteriza, debe configurar Azure Firewall en el modo de tunelización forzada. Con la característica de tunelización forzada, necesitará otro espacio de direcciones /26 para la subred de administración de Azure Firewall. Si se trata de una instancia de Azure Firewall existente que no se puede volver a configurar en el modo de tunelización forzada, cree una UDR con una ruta 0.0.0.0/0. Establezca el valor de NextHopType como Internet. Asócielo con AzureFirewallSubnet para mantener la conectividad a Internet.</t>
-        </is>
-      </c>
+          <t>Elimine las implementaciones de firewall no utilizadas y optimice las implementaciones infrautilizadas. Detenga las implementaciones de Azure Firewall que no necesitan ejecutarse de forma continua. Identifique y elimine las implementaciones de Azure Firewall no utilizadas. Para reducir los costos operativos, supervise y optimice el uso de instancias de firewall, la configuración de directivas de Azure Firewall Manager y el número de direcciones IP públicas y directivas que usa.</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr"/>
       <c r="F326" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10523,21 +10531,17 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>a845b563-f080-4a92-83b0-400feb87ee4e</t>
+          <t>54c37b38-2e3d-4cf9-b174-bee69a2a5b5d</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="C327" t="inlineStr">
         <is>
-          <t>Establezca la dirección IP pública en None para implementar un plano de datos totalmente privado al configurar Azure Firewall en el modo de tunelización forzada (no se aplica a Azure Virtual WAN).</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>Al implementar una nueva instancia de Azure Firewall, si habilita el modo de tunelización forzada, puede establecer la dirección IP pública en None para implementar un plano de datos totalmente privado. Sin embargo, el plano de administración sigue requiriendo una dirección IP pública solo con fines de administración. El tráfico interno de las redes virtuales y locales no usará esa dirección IP pública. Para más información sobre la tunelización forzada, consulte Tunelización forzada de Azure Firewall.</t>
-        </is>
-      </c>
+          <t>Comparta la misma instancia de Azure Firewall. Puede usar una instancia central de Azure Firewall en la red virtual del centro de conectividad o en el centro de conectividad segura de Virtual WAN y compartir la misma instancia de Azure Firewall entre redes virtuales radiales que se conecten al mismo centro desde la misma región. Asegúrese de que no tiene tráfico inesperado entre regiones en una topología radial.</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10545,21 +10549,17 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>176ae9e3-7a07-4885-ab4e-72a9ea2ee7fc</t>
+          <t>a522ab1e-0659-43b3-9fad-906116bb1432</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="C328" t="inlineStr">
         <is>
-          <t>Cree reglas para las políticas de firewall en función de los criterios de acceso con privilegios mínimos.</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>Las directivas de Azure Firewall se pueden organizar en una estructura jerárquica para superponer una directiva base central. Permitir políticas granulares para cumplir con los requisitos de regiones específicas. Cada política puede contener diferentes conjuntos de reglas de DNAT, red y aplicación con prioridad, acción y orden de procesamiento específicos. Cree sus reglas basadas en el principio de confianza cero de acceso con privilegios mínimos. En este artículo se explica cómo se procesan las reglas.</t>
-        </is>
-      </c>
+          <t>Optimice el tráfico a través del firewall. Revise periódicamente el tráfico que procesa Azure Firewall. Encuentre oportunidades para reducir la cantidad de tráfico que atraviesa el firewall.</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10567,21 +10567,17 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>f1c5e5d4-9e41-4b27-b53f-fb36ddce75b7</t>
+          <t>0976c680-8f44-46f9-ae4d-2349eaafd800</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="C329" t="inlineStr">
         <is>
-          <t>Habilite IDPS en modo Alerta o Alerta y denegación.</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>IDPS es una de las características de seguridad más eficaces de Azure Firewall (Premium) y debe estar habilitada. En función de los requisitos de seguridad y de la aplicación, y teniendo en cuenta el impacto en el rendimiento (consulte la sección Costo a continuación), se pueden seleccionar los modos Alerta o Alerta y denegación.</t>
-        </is>
-      </c>
+          <t>Disminuya la cantidad de datos de registro que almacena. Azure Firewall puede usar Azure Event Hubs para registrar de forma exhaustiva los metadatos del tráfico y enviarlos a áreas de trabajo de Log Analytics, Azure Storage o soluciones que no sean de Microsoft. Todas las soluciones de registro incurren en costos para procesar datos y proporcionar almacenamiento. Grandes cantidades de datos pueden incurrir en costos significativos. Considere un enfoque rentable y una alternativa a Log Analytics, y calcule el costo. Considere si necesita registrar metadatos de tráfico para todas las categorías de registro.</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10589,19 +10585,19 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>0722a8f4-bea5-4309-93de-d93fb93e0733</t>
+          <t>debc5298-dba5-4c67-a03a-1ca626025139</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="C330" t="inlineStr">
         <is>
-          <t>Habilite la configuración de proxy de Azure Firewall (DNS).</t>
+          <t>Detenga las implementaciones de Azure Firewall que no necesitan ejecutarse de forma continua. Es posible que tenga entornos de desarrollo o prueba que solo use durante el horario comercial. Para más información, consulte Desasignación y asignación de Azure Firewall.</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Al habilitar esta característica, los clientes de las redes virtuales apuntan a Azure Firewall como servidor DNS. Protegerá la infraestructura interna del DNS a la que no se accederá ni expondrá directamente. Azure Firewall también debe configurarse para usar DNS personalizado que se usará para reenviar consultas DNS.</t>
+          <t>Apague estas implementaciones durante las horas de menor actividad o cuando estén inactivas para reducir los gastos innecesarios, pero mantenga la seguridad y el rendimiento durante los momentos críticos.</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -10611,19 +10607,19 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>8afc40b9-179e-4b5d-ba89-897925ad6d09</t>
+          <t>c12bc13f-aeea-4f9c-a7c0-476028848d3c</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="C331" t="inlineStr">
         <is>
-          <t>Configure rutas definidas por el usuario (UDR) para forzar el tráfico a través de Azure Firewall.</t>
+          <t>Revise periódicamente el tráfico que Azure Firewall procesa y busque optimizaciones de carga de trabajo de origen. El registro de flujos superiores, también conocido como registro de flujos pesados, muestra las conexiones principales que contribuyen al rendimiento más alto a través del firewall.</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>En una arquitectura tradicional de Hub &amp; Spokes, configure las UDR para forzar el tráfico a través de Azure Firewall para la conectividad "Spoke-to-Spoke", "Spoke-to-Internet" y "Spoke-to-Hybrid". En Azure Virtual WAN, en su lugar, configure la intención y las directivas de enrutamiento para redirigir el tráfico privado o de Internet a través de la instancia de Azure Firewall integrada en el centro.</t>
+          <t>Optimice las cargas de trabajo que generan la mayor cantidad de tráfico a través del firewall para reducir el volumen de tráfico, lo que disminuye la carga en el firewall y minimiza los costos de procesamiento de datos y ancho de banda.</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -10633,19 +10629,19 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>54cc495b-54f8-4dc9-9ed9-e20c15a8beb9</t>
+          <t>fcd6975c-5cb6-4716-9bab-fe8e7cd50e00</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="C332" t="inlineStr">
         <is>
-          <t>Si no es posible aplicar la UDR y solo se requiere el redireccionamiento del tráfico web, considere la posibilidad de usar Azure Firewall como proxy explícito</t>
+          <t>Identifique y elimine las implementaciones de Azure Firewall no utilizadas. Analice las métricas de supervisión y las UDR asociadas a las subredes que apuntan a la IP privada del firewall. Tenga en cuenta también otras validaciones y documentación interna sobre el entorno y las implementaciones. Por ejemplo, analice las reglas clásicas de NAT, red y aplicación para Azure Firewall. Y ten en cuenta tu configuración. Por ejemplo, puede configurar la configuración del proxy DNS en Deshabilitado.  Para más información, consulte Supervisión de Azure Firewall.</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Con la característica de proxy explícito habilitada en la ruta de acceso de salida, puede configurar una configuración de proxy en la aplicación web de envío (como un explorador web) con Azure Firewall configurado como proxy. Como resultado, el tráfico web llegará a la dirección IP privada del firewall y, por lo tanto, sale directamente del firewall sin usar una UDR. Esta característica también facilita el uso de múltiples firewalls sin modificar las rutas de red existentes.</t>
+          <t>Utilice este enfoque para detectar implementaciones rentables a lo largo del tiempo y eliminar los recursos no utilizados, lo que evita costos innecesarios.</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -10655,19 +10651,19 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>18462426-38d0-444b-aaec-99aa97aefc57</t>
+          <t>06d0aca0-59c3-4474-aea8-314ebc1d4367</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="C333" t="inlineStr">
         <is>
-          <t>Configure los proveedores de seguridad de software como servicio (SaaS) de terceros compatibles dentro de Firewall Manager si desea utilizar estas soluciones para proteger las conexiones salientes.</t>
+          <t>Revise detenidamente las políticas, las asociaciones y la herencia de Firewall Manager para optimizar los costos. Las políticas se facturan en función de las asociaciones de firewall. Una política con cero o una asociación de firewall es gratuita. Una política con varias asociaciones de firewall se factura a una tarifa fija. Para obtener más información, consulte Precios de Firewall Manager.</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Puede utilizar sus ofertas de SECaaS de terceros, las mejores de su clase, para proteger el acceso a Internet de sus usuarios. Este escenario requiere Azure Virtual WAN con una puerta de enlace de VPN S2S en el centro, ya que usa un túnel IPSec para conectarse a la infraestructura del proveedor. Los proveedores de SECaaS pueden cobrar tarifas de licencia adicionales y limitar el rendimiento de las conexiones IPSec. Existen soluciones alternativas como ZScaler Cloud Connector y podrían ser más adecuadas.</t>
+          <t>Utilice correctamente Firewall Manager y sus políticas para reducir los costos operativos, aumentar la eficiencia y reducir la sobrecarga de administración.</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -10677,19 +10673,19 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>cfcce0d3-c52d-4405-9316-d503ffcf5349</t>
+          <t>0afd66fd-36c6-44ad-8e71-cd3b247c6816</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="C334" t="inlineStr">
         <is>
-          <t>Utilice el filtrado de nombres de dominio completos (FQDN) en las reglas de red.</t>
+          <t>Revise todas las direcciones IP públicas de su configuración y desvincule y elimine las que no utilice. Evalúe el uso del puerto de traducción de direcciones de red de origen (SNAT) antes de eliminar cualquier dirección IP.  Para más información, consulte Supervisión de los registros y métricas de Azure Firewall y el uso de puertos SNAT.</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Puede usar FQDN en función de la resolución de DNS en Azure Firewall y las directivas de firewall. Esta capacidad le permite filtrar el tráfico saliente con cualquier protocolo TCP/UDP (incluidos NTP, SSH, RDP y más). Debe habilitar la configuración del proxy DNS de Azure Firewall para usar FQDN en las reglas de red. Para obtener información sobre cómo funciona, consulte Filtrado de FQDN de Azure Firewall en reglas de red.</t>
+          <t>Elimine las direcciones IP no utilizadas para reducir costos.</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -10699,21 +10695,17 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>ce2815a6-eee5-4c54-91e7-9ee1e95a191a</t>
+          <t>2cbff8d4-4f59-42dc-b186-58f7c4965dbe</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="C335" t="inlineStr">
         <is>
-          <t>Use etiquetas de servicio en reglas de red para habilitar el acceso selectivo a servicios específicos de Microsoft.</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>Una etiqueta de servicio representa un grupo de prefijos de dirección IP para ayudar a minimizar la complejidad de la creación de reglas de seguridad. Con las etiquetas de servicio en las reglas de red, es posible habilitar el acceso saliente a servicios específicos en Azure, Dynamics y Office 365 sin abrir amplios rangos de direcciones IP. Azure mantendrá automáticamente la asignación entre estas etiquetas y las direcciones IP subyacentes usadas por cada servicio. La lista de etiquetas de servicio disponibles para Azure Firewall se muestra aquí: Az Firewall Service Tags.</t>
-        </is>
-      </c>
+          <t>Use Firewall Manager con topologías radiales tradicionales o topologías de red de Virtual WAN para implementar y administrar instancias de Azure Firewall. Utilice los servicios de seguridad nativos para la gobernanza y la protección del tráfico a fin de crear arquitecturas transitivas y radiales. Para obtener más información, consulte Topología de red y conectividad.</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr"/>
       <c r="F335" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10721,21 +10713,17 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>55fe92cd-c2a0-4b0b-bd8b-691291c73651</t>
+          <t>733bab93-bd9d-43c1-a780-e977d8f4fd3d</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="C336" t="inlineStr">
         <is>
-          <t>Use etiquetas FQDN en las reglas de aplicación para habilitar el acceso selectivo a servicios específicos de Microsoft.</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>Una etiqueta FQDN representa un grupo de nombres de dominio completos (FQDN) asociados a servicios conocidos de Microsoft. Puede usar una etiqueta FQDN en las reglas de la aplicación para permitir el tráfico de red saliente necesario a través del firewall para algunos servicios específicos de Azure, Office 365, Windows 365 e Intune.</t>
-        </is>
-      </c>
+          <t>Mantenga copias de seguridad periódicas de los artefactos de Azure Policy. Si usa un enfoque de infraestructura como código para mantener Azure Firewall y todas las dependencias, debe contar con una copia de seguridad y un control de versiones de las directivas de Azure Firewall. Si no lo hace, puede implementar un mecanismo complementario basado en una aplicación lógica externa para proporcionar una solución automatizada eficaz.</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr"/>
       <c r="F336" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10743,21 +10731,17 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>c9cac1b2-3969-4de0-b36f-6f9992d9ebc6</t>
+          <t>8271c7ff-1472-4a86-ab05-0538a869631c</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="C337" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Manager para crear y asociar un plan de protección contra DDoS con la red virtual del centro (no se aplica a Azure Virtual WAN).</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>Un plan de protección contra DDoS proporciona funciones de mitigación mejoradas para defender su firewall de los ataques DDoS. Azure Firewall Manager es una herramienta integrada para crear la infraestructura de firewall y los planes de protección contra DDoS. Para más información, consulte Configuración de un plan de protección contra DDoS de Azure mediante Azure Firewall Manager.</t>
-        </is>
-      </c>
+          <t>Supervise los registros y las métricas de Azure Firewall. Aproveche los registros de diagnóstico para la supervisión y solución de problemas del firewall, así como los registros de actividad para las operaciones de auditoría.</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10765,21 +10749,17 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>e7925fd9-7502-4cb4-9b51-cbf8f546a5b2</t>
+          <t>09e15d81-89b9-458e-85a1-98ea29c9c72f</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="C338" t="inlineStr">
         <is>
-          <t>Utilice una PKI empresarial para generar certificados para la inspección TLS.</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>Con Azure Firewall Premium, si se usa la característica de inspección TLS, se recomienda aprovechar una entidad de certificación (CA) empresarial interna para el entorno de producción. Los certificados autofirmados solo deben usarse con fines de prueba o PoC.</t>
-        </is>
-      </c>
+          <t>Analice los datos de supervisión para evaluar el estado general del sistema. Use el libro de supervisión de Azure Firewall integrado, familiarícese con las consultas del lenguaje de consulta Kusto (KQL) y use el panel de análisis de directivas para identificar posibles problemas.</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10787,21 +10767,17 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>2e318870-f258-484d-aef6-ed2972db1f44</t>
+          <t>ab3610c2-56cf-4888-8bb3-fe3816ee0d11</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="C339" t="inlineStr">
         <is>
-          <t>Revisión de la guía de configuración de Confianza cero para Azure Firewall y Application Gateway</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>Si sus requisitos de seguridad requieren la implementación de un enfoque Zero-Trust para las aplicaciones web (inspección y cifrado), se recomienda seguir esta guía. En este documento, se explicará cómo integrar Azure Firewall y Application Gateway, tanto en escenarios tradicionales de Hub &amp; Spoke como de Virtual WAN.</t>
-        </is>
-      </c>
+          <t>Defina alertas para eventos clave para que los operadores puedan responder rápidamente a ellos.</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10809,14 +10785,14 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>34821124-0275-4c49-8f1c-20eb84027df3</t>
+          <t>67eb37ee-d9b8-4aff-8aa3-71011176aa0a</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="C340" t="inlineStr">
         <is>
-          <t>Seleccione la SKU de Azure Firewall que desea implementar.</t>
+          <t>Aproveche los mecanismos de detección proporcionados por la plataforma en Azure para detectar abusos. Integre Azure Firewall con Microsoft Defender for Cloud y Microsoft Sentinel si es posible. Integre con Defender for Cloud para que pueda visualizar el estado de la infraestructura de red y la seguridad de la red en un solo lugar, incluida la seguridad de red de Azure en todas las redes virtuales y centros virtuales en diferentes regiones de Azure. Integración con Microsoft Sentinel para proporcionar capacidades de detección y prevención de amenazas.</t>
         </is>
       </c>
       <c r="D340" t="inlineStr"/>
@@ -10827,17 +10803,21 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>ffdfd2b7-e799-4c09-9c76-1471fe5f8db9</t>
+          <t>5a8645c5-e586-4562-9f0a-7893542586fd</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="C341" t="inlineStr">
         <is>
-          <t>Determine si algunas instancias no necesitan una asignación permanente las 24 horas del día, los 7 días de la semana.</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr"/>
+          <t>Habilite los registros de diagnóstico para Azure Firewall. Use registros o libros de firewall para supervisar Azure Firewall. También puede usar los registros de actividad para auditar las operaciones en los recursos de Azure Firewall.  Utilice el formato de registros de firewall estructurado. Utilice únicamente el formato de registros de diagnóstico anterior si tiene una herramienta existente que lo requiera. No habilite ambos formatos de registro al mismo tiempo.</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Habilite los registros de diagnóstico para optimizar las herramientas y estrategias de supervisión de Azure Firewall.  Utilice registros de firewall estructurados para estructurar los datos de registro de modo que sean fáciles de buscar, filtrar y analizar. Las últimas herramientas de supervisión se basan en este tipo de registro, por lo que suele ser un requisito previo.</t>
+        </is>
+      </c>
       <c r="F341" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10845,17 +10825,21 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>cca81cf9-4d7f-4e04-99e9-8ecfb533d814</t>
+          <t>1069db41-1f8c-43b3-a25f-9981cc78e397</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="C342" t="inlineStr">
         <is>
-          <t>Determine dónde puede optimizar el uso del firewall en todas las cargas de trabajo.</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr"/>
+          <t>Use el libro integrado de Azure Firewall.</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Use el libro de Azure Firewall para extraer información valiosa de los eventos de Azure Firewall, analizar las reglas de red y aplicaciones, y examinar las estadísticas sobre las actividades del firewall en direcciones URL, puertos y direcciones.</t>
+        </is>
+      </c>
       <c r="F342" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10863,17 +10847,21 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>50c204ab-2e28-456c-a731-3ecf2e38d6d7</t>
+          <t>3e10f8ea-c20e-4374-9e58-52969a407dc5</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="C343" t="inlineStr">
         <is>
-          <t>Supervise y optimice el uso de instancias de firewall para determinar la rentabilidad.</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr"/>
+          <t>Supervise los registros y las métricas de Azure Firewall y cree alertas para la capacidad de Azure Firewall. Cree alertas para supervisar el rendimiento, el estado de mantenimiento del firewall, la utilización del puerto SNAT y las métricas de sondeo de latencia de AZFW.</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Configure alertas para eventos clave para notificar a los operadores antes de que surjan posibles problemas, ayudar a prevenir interrupciones e iniciar ajustes rápidos de capacidad.</t>
+        </is>
+      </c>
       <c r="F343" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10881,17 +10869,21 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>365207d2-1008-4a6e-ad87-f4191a31a004</t>
+          <t>7f972e0f-0259-4783-b9e6-82c278711b0f</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="C344" t="inlineStr">
         <is>
-          <t>Revise y optimice el número de direcciones IP públicas necesarias y las políticas utilizadas.</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr"/>
+          <t>Revise periódicamente el panel de análisis de políticas para identificar posibles problemas.</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Use el análisis de directivas para analizar el impacto de las directivas de Azure Firewall. Identifique los posibles problemas en sus políticas, como el cumplimiento de los límites de las políticas, las reglas incorrectas y el uso incorrecto de grupos IP. Obtenga recomendaciones para mejorar su posición de seguridad y el rendimiento del procesamiento de reglas.</t>
+        </is>
+      </c>
       <c r="F344" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10899,17 +10891,21 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>39b1fd82-3efb-459b-b789-a9dc631f9f90</t>
+          <t>90c06dd6-c01a-4f49-9054-7073f5c774ae</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="C345" t="inlineStr">
         <is>
-          <t>Revise los requisitos de registro, estime el costo y controle el tiempo.</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr"/>
+          <t>Comprenda las consultas de KQL para que pueda usar los registros de Azure Firewall para analizar y solucionar problemas rápidamente. Azure Firewall proporciona consultas de ejemplo.</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Use las consultas de KQL para identificar rápidamente los eventos dentro del firewall y comprobar qué regla se desencadena o qué regla permite o bloquea una solicitud.</t>
+        </is>
+      </c>
       <c r="F345" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10917,21 +10913,17 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>46753a55-3740-4a6d-808b-fbe485bc66e5</t>
+          <t>a3aa7729-46bd-4de6-82e6-28ac9d631b7a</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="C346" t="inlineStr">
         <is>
-          <t>Implemente la SKU de Azure Firewall adecuada.</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>Azure Firewall se puede implementar en tres SKU diferentes: Básico, Estándar y Premium. Se recomienda Azure Firewall Premium para proteger aplicaciones muy confidenciales (como el procesamiento de pagos). Azure Firewall Standard se recomienda para los clientes que buscan un firewall de capa 3 a capa 7 y necesita escalado automático para controlar los períodos de tráfico máximo de hasta 30 Gbps. Azure Firewall Basic se recomienda para los clientes de pymes con necesidades de rendimiento de 250 Mbps. Si es necesario, es posible cambiar a una versión anterior o actualizarla entre Estándar y Premium, como se documenta aquí.   Para más información, consulte Elección de la SKU de Azure Firewall adecuada para satisfacer sus necesidades.</t>
-        </is>
-      </c>
+          <t>Optimice la configuración de Azure Firewall de acuerdo con las recomendaciones de Well-Architected Framework para optimizar el código y la infraestructura y garantizar el máximo funcionamiento. Para mantener una red eficiente y segura, revise y optimice periódicamente las reglas del firewall. Esta práctica ayuda a garantizar que las configuraciones de firewall permanezcan efectivas y actualizadas con las amenazas de seguridad más recientes.</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10939,21 +10931,17 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>ba45f704-2456-4d6a-999d-57db4dbf3ff5</t>
+          <t>9e42071b-fe43-455d-afa9-5ed2c33c7d20</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="C347" t="inlineStr">
         <is>
-          <t>Detenga las implementaciones de Azure Firewall que no necesitan ejecutarse las 24 horas del día, los 7 días de la semana.</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>Es posible que tenga entornos de desarrollo o pruebas que solo se usen durante el horario comercial. Para más información, consulte Desasignación y asignación de Azure Firewall.</t>
-        </is>
-      </c>
+          <t>No use Azure Firewall para el control del tráfico dentro de la red virtual. Use Azure Firewall para controlar los siguientes tipos de tráfico:</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr"/>
       <c r="F347" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10961,21 +10949,17 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>2ef42b67-50cc-4d54-bd3d-324ad2044fc7</t>
+          <t>1655f213-e590-45ee-8819-9a5e40f83430</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="C348" t="inlineStr">
         <is>
-          <t>Comparta la misma instancia de Azure Firewall en varias cargas de trabajo y redes virtuales de Azure.</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>Puede usar una instancia central de Azure Firewall en la red virtual del centro de conectividad o en el centro de conectividad segura de Virtual WAN y compartir el mismo firewall entre muchas redes virtuales de radio que estén conectadas al mismo centro de conectividad desde la misma región. Asegúrese de que no haya tráfico inesperado entre regiones como parte de la topología en estrella tipo hub-andher.</t>
-        </is>
-      </c>
+          <t>Prepare Azure Firewall correctamente antes de las pruebas de rendimiento. Cree tráfico inicial que no forme parte de las pruebas de carga 20 minutos antes de las pruebas. Utilice la configuración de diagnóstico para capturar eventos de escalado vertical y reducido. Puede usar el servicio Azure Load Testing para generar el tráfico inicial, de modo que pueda escalar verticalmente Azure Firewall al número máximo de instancias.</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr"/>
       <c r="F348" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -10983,21 +10967,17 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>ae5816a1-1766-425a-a117-2873865a9f10</t>
+          <t>c3ae17a3-eff4-4f6e-98b9-df3a59bacfd9</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="C349" t="inlineStr">
         <is>
-          <t>Revise periódicamente el tráfico procesado por Azure Firewall y busque optimizaciones de carga de trabajo de origen</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>El registro de Top Flows (conocido en el sector como Fat Flows) muestra las principales conexiones que contribuyen al mayor rendimiento a través del firewall. Se recomienda revisar periódicamente el tráfico procesado por Azure Firewall y buscar posibles optimizaciones para reducir la cantidad de tráfico que atraviesa el firewall.</t>
-        </is>
-      </c>
+          <t>Configure una subred de Azure Firewall con un espacio de direcciones /26. Necesita una subred dedicada para Azure Firewall. Azure Firewall aprovisiona más capacidad a medida que se escala.</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr"/>
       <c r="F349" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11005,21 +10985,17 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>791f974e-8c73-46ee-9b9e-26dd3a6c6845</t>
+          <t>df91da5c-22c8-4c7c-bfe5-9a1ede0028d9</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="C350" t="inlineStr">
         <is>
-          <t>Revise las instancias de Azure Firewall infrautilizadas. Identifique y elimine las implementaciones de Azure Firewall no utilizadas.</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>Para identificar las implementaciones de Azure Firewall sin usar, empiece por analizar las métricas de supervisión y las unidades definidas al usuario asociadas a las subredes que apuntan a la dirección IP privada del firewall. Combine esa información con otras validaciones, por ejemplo, si la instancia de Azure Firewall tiene reglas (clásicas) para NAT, red y aplicación, o incluso si la configuración de Proxy DNS está configurada en Deshabilitado, y con documentación interna sobre el entorno y las implementaciones. Puede detectar implementaciones que sean rentables a lo largo del tiempo.  Para obtener más información sobre la supervisión de registros y métricas, consulte Supervisión de registros y métricas de Azure Firewall y uso de puertos SNAT.</t>
-        </is>
-      </c>
+          <t>No habilite el registro avanzado si no lo necesita. Azure Firewall proporciona algunas funcionalidades de registro avanzadas que pueden incurrir en costos significativos para mantenerse activo. En su lugar, puede usar estas capacidades solo con fines de solución de problemas y durante períodos de tiempo limitados. Deshabilite las capacidades cuando no las necesite. Por ejemplo, los flujos principales y los registros de seguimiento de flujo son costosos y pueden provocar un uso excesivo de CPU y almacenamiento en la infraestructura de Azure Firewall.</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr"/>
       <c r="F350" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11027,19 +11003,19 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>6590ab7b-01d8-487c-ad40-c325eada375c</t>
+          <t>ddf79c25-05f6-4085-94c4-9534ec1a05fa</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="C351" t="inlineStr">
         <is>
-          <t>Use Azure Firewall Manager y sus directivas para reducir los costos operativos, aumentar la eficiencia y reducir la sobrecarga de administración.</t>
+          <t>Use el panel de análisis de directivas para identificar formas de optimizar las directivas de Azure Firewall.</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Revise detenidamente las políticas, las asociaciones y la herencia de Firewall Manager. Las políticas se facturan en función de las asociaciones de firewall. Una póliza con cero o una asociación de firewall es gratuita. Una política con varias asociaciones de firewall se factura a una tarifa fija. Para más información, consulte Precios: Azure Firewall Manager.</t>
+          <t>Utilice el análisis de políticas para identificar posibles problemas en sus políticas, como el cumplimiento de los límites de las políticas, las reglas incorrectas y el uso incorrecto de grupos de IP. Obtenga recomendaciones para mejorar su posición de seguridad y el rendimiento del procesamiento de reglas.</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -11049,19 +11025,19 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>c82f1a0b-3dd1-4da7-9006-5b870e0ea843</t>
+          <t>9a20f369-25cd-45ba-bda7-e56f1e379e15</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="C352" t="inlineStr">
         <is>
-          <t>Elimine las direcciones IP públicas no utilizadas.</t>
+          <t>Coloque las reglas de uso frecuente al principio de un grupo para optimizar la latencia de las directivas de Azure Firewall que tienen grandes conjuntos de reglas.  Para más información, consulte Uso de directivas de Azure Firewall para procesar reglas.</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Valida si todas las direcciones IP públicas asociadas están en uso. Si no están en uso, desconsocie y elimínelos. Evalúe la utilización del puerto SNAT antes de eliminar cualquier dirección IP. Solo usarás el número de direcciones IP públicas que necesite tu firewall. Para más información, consulte Supervisión de los registros y métricas de Azure Firewall y el uso de puertos SNAT.</t>
+          <t>Coloque las reglas de uso frecuente en un lugar destacado de un conjunto de reglas para optimizar la latencia de procesamiento. Azure Firewall procesa las reglas en función del tipo de regla, la herencia, la prioridad del grupo de recopilación de reglas y la prioridad de la recopilación de reglas. Azure Firewall procesa primero los grupos de recopilación de reglas de alta prioridad. Dentro de un grupo de recopilación de reglas, Azure Firewall procesa primero las colecciones de reglas que tienen la prioridad más alta.</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -11071,19 +11047,19 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>58401f6a-8858-4d03-bf00-7f6d8747297a</t>
+          <t>ce0fa221-61f9-41ab-a9ed-233f5546d732</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="C353" t="inlineStr">
         <is>
-          <t>Revise los requisitos de registro.</t>
+          <t>Utilice grupos de direcciones IP para resumir los intervalos de direcciones IP y evitar superar el límite de reglas de red de origen o destino único. Azure Firewall trata el grupo de direcciones IP como una única dirección al crear reglas de red.</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Azure Firewall tiene la capacidad de registrar de forma exhaustiva los metadatos de todo el tráfico que ve, en áreas de trabajo de Log Analytics, almacenamiento o soluciones de terceros a través de Event Hubs. Sin embargo, todas las soluciones de registro incurren en costos de procesamiento y almacenamiento de datos. En volúmenes muy grandes, estos costos pueden ser significativos, se debe considerar un enfoque rentable y una alternativa a Log Analytics y estimar los costos. Considere si es necesario registrar los metadatos de tráfico para todas las categorías de registro y modificarlos en Configuración de diagnóstico si es necesario.</t>
+          <t>Este enfoque aumenta efectivamente el número de direcciones IP que puede cubrir sin exceder el límite. Para cada regla, Azure multiplica los puertos por direcciones IP. Por lo tanto, si una regla tiene cuatro intervalos de direcciones IP y cinco puertos, consume 20 reglas de red.</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -11093,17 +11069,21 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>a9f71813-ccf8-427a-9ce3-676b4123eff4</t>
+          <t>1d2f023e-7dcf-4f55-b07f-1a93c9c0ab4e</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="C354" t="inlineStr">
         <is>
-          <t>Mantener el inventario y la copia de seguridad de la configuración y las directivas de Azure Firewall.</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr"/>
+          <t>Use las categorías web de Azure Firewall para permitir o denegar el acceso saliente de forma masiva, en lugar de crear y mantener explícitamente una larga lista de sitios públicos de Internet.</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Esta función categoriza dinámicamente el contenido web y permite la creación de reglas de aplicación compactas, lo que reduce la sobrecarga operativa.</t>
+        </is>
+      </c>
       <c r="F354" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11111,17 +11091,21 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>c8e11b57-bc16-4a60-9c0d-aeae7239fe91</t>
+          <t>2007a892-6911-4310-b6eb-5eb3660dc8c9</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="C355" t="inlineStr">
         <is>
-          <t>Aproveche los registros de diagnóstico para la supervisión y la solución de problemas del firewall.</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr"/>
+          <t>Evalúe el impacto en el rendimiento de IDPS en modo de alerta y denegación. Para más información, consulte Rendimiento de Azure Firewall.</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Habilite IDPS en modo de alerta y denegación para detectar y prevenir actividades maliciosas en la red. Esta característica podría introducir una penalización del rendimiento. Comprenda el efecto en su carga de trabajo para que pueda planificar en consecuencia.</t>
+        </is>
+      </c>
       <c r="F355" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11129,17 +11113,21 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>be3e8ab7-db2a-40f7-a76a-fba15b34b88d</t>
+          <t>984c7d68-82f6-48e9-a894-a8e7717d49e2</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="C356" t="inlineStr">
         <is>
-          <t>Aproveche el libro de supervisión de Azure Firewall.</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr"/>
+          <t>Configure implementaciones de Azure Firewall con un mínimo de cinco direcciones IP públicas para las implementaciones que son susceptibles al agotamiento del puerto SNAT.</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Azure Firewall admite 2.496 puertos para cada dirección IP pública que usa cada instancia de Azure Virtual Machine Scale Sets de back-end. Esta configuración aumenta cinco veces los puertos SNAT disponibles.  De forma predeterminada, Azure Firewall implementa dos instancias de Virtual Machine Scale Sets que admiten 4.992 puertos para cada IP de destino de flujo, puerto de destino y protocolo TCP o UDP. El firewall se escala hasta un máximo de 20 instancias.</t>
+        </is>
+      </c>
       <c r="F356" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11147,14 +11135,14 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>af454d15-f640-47db-9864-7c31cbdcdffc</t>
+          <t>899877c6-618a-4814-953a-7c7ce430e407</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="C357" t="inlineStr">
         <is>
-          <t>Revise periódicamente la información y los análisis de su póliza.</t>
+          <t>Estimar el patrón y el volumen de tráfico. El número de solicitudes del cliente al perímetro de Azure Front Door puede influir en la elección del nivel. Si necesita admitir un gran volumen de solicitudes, considere la posibilidad de utilizar el nivel Premium de Azure Front Door, ya que el rendimiento afecta en última instancia a la disponibilidad. Sin embargo, hay una compensación de costos. Estos niveles se describen en Eficiencia del rendimiento.</t>
         </is>
       </c>
       <c r="D357" t="inlineStr"/>
@@ -11165,14 +11153,14 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>010e0c46-9d19-46fb-9a85-4bb79828db8a</t>
+          <t>59ed40bd-06a0-4125-ab99-afc88a248aa5</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="C358" t="inlineStr">
         <is>
-          <t>Integre Azure Firewall con Microsoft Defender for Cloud y Microsoft Sentinel.</t>
+          <t>Elija su estrategia de implementación. Los enfoques de implementación fundamentales son activo-activo y activo-pasivo. La implementación activo-activo significa que varios entornos o marcas que ejecutan la carga de trabajo atienden el tráfico. La implementación activa-pasiva significa que solo la región primaria controla todo el tráfico, pero conmuta por error a la región secundaria cuando es necesario. En una implementación multirregional, las marcas se ejecutan en diferentes regiones para una mayor disponibilidad con un equilibrador de carga global, como Azure Front Door, que distribuye el tráfico. Por lo tanto, es importante configurar el equilibrador de carga para el enfoque de implementación adecuado.</t>
         </is>
       </c>
       <c r="D358" t="inlineStr"/>
@@ -11183,21 +11171,17 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>e455cf35-374c-4e02-9432-e0dc531b829b</t>
+          <t>51f023f3-53b4-4878-8548-2b08a6b095ab</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="C359" t="inlineStr">
         <is>
-          <t>No use Azure Firewall para el control del tráfico dentro de la red virtual.</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>Azure Firewall se debe usar para controlar el tráfico entre redes virtuales, entre redes virtuales y redes locales, el tráfico saliente a Internet y el tráfico entrante que no es HTTP/s. Para el control del tráfico dentro de la red virtual, se recomienda usar grupos de seguridad de red.</t>
-        </is>
-      </c>
+          <t>Use el mismo nombre de host en Azure Front Door y en los servidores de origen. Para asegurarse de que las cookies o las URL de redireccionamiento funcionen correctamente, conserve el nombre de host HTTP original cuando utilice un proxy inverso, como un equilibrador de carga, delante de una aplicación web.</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11205,21 +11189,17 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>337df674-237d-4b82-ac92-ae45f34a6e3d</t>
+          <t>486f318a-8747-45e5-a5f4-97642d4fada6</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="C360" t="inlineStr">
         <is>
-          <t>Mantenga copias de seguridad periódicas de los artefactos de Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>Si se usa el enfoque de infraestructura como código (IaC) para mantener Azure Firewall y todas las dependencias, la copia de seguridad y el control de versiones de las directivas de Azure Firewall ya deben estar en su lugar. De lo contrario, se puede implementar un mecanismo complementario basado en una aplicación lógica externa para automatizar y proporcionar una solución eficaz.</t>
-        </is>
-      </c>
+          <t>Implemente el patrón de supervisión de puntos de conexión de estado. La aplicación debe exponer puntos de conexión de estado, que agregan el estado de los servicios y dependencias críticos que la aplicación necesita para atender las solicitudes. Los sondeos de estado de Azure Front Door usan el punto de conexión para detectar el estado de los servidores de origen. Para obtener más información, consulte Patrón de supervisión de puntos de conexión de estado.</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
       <c r="F360" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11227,21 +11207,17 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>174e4ca6-77d4-4b83-8f05-0c54c43792ec</t>
+          <t>9bc96e35-d25f-4521-86f8-8cadefb23576</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="C361" t="inlineStr">
         <is>
-          <t>Habilite los registros de diagnóstico para Azure Firewall.</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>Los registros de diagnóstico son un componente clave para muchas herramientas y estrategias de supervisión de Azure Firewall y deben estar habilitados. Puede supervisar Azure Firewall mediante registros de firewall o libros. También puede usar registros de actividad para auditar operaciones en los recursos de Azure Firewall.</t>
-        </is>
-      </c>
+          <t>Aproveche la funcionalidad de red de entrega de contenido integrada en Azure Front Door. La característica de red de entrega de contenido de Azure Front Door tiene cientos de ubicaciones perimetrales y puede ayudar a resistir ataques de denegación de servicio distribuido (DDoS). Estas capacidades ayudan a mejorar la confiabilidad.</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr"/>
       <c r="F361" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11249,21 +11225,17 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>7e27b44b-e8c0-4f25-9fce-78a85810d715</t>
+          <t>96c8dc89-cafe-411e-9080-35c13fffb8b3</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="C362" t="inlineStr">
         <is>
-          <t>Utilice el formato de registros de firewall estructurados.</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>Los registros de firewall estructurados son un tipo de datos de registro que se organizan en un nuevo formato específico. Utilizan un esquema predefinido para estructurar los datos de registro de una manera que facilite la búsqueda, el filtrado y el análisis. Las últimas herramientas de monitoreo se basan en este tipo de registros, por lo que a menudo es un requisito previo. Utilice el formato de registros de diagnóstico anterior solo si hay una herramienta existente con un requisito previo para ello. No habilite ambos formatos de registro al mismo tiempo.</t>
-        </is>
-      </c>
+          <t>Considere una opción de administración de tráfico redundante. Azure Front Door es un servicio distribuido globalmente que se ejecuta como un singleton en un entorno. Azure Front Door es un posible punto único de error en el sistema. Si se produce un error en el servicio, los clientes no podrán acceder a la aplicación durante el tiempo de inactividad.</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr"/>
       <c r="F362" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11271,19 +11243,19 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>078ab6f4-2ef5-4f91-856c-be9e3c2748a1</t>
+          <t>750bc3ba-30aa-44fc-88aa-bc93cdf29cdf</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="C363" t="inlineStr">
         <is>
-          <t>Use el libro de supervisión de Azure Firewall integrado.</t>
+          <t>Elija un método de enrutamiento que admita su estrategia de implementación.  El método ponderado, que distribuye el tráfico en función del coeficiente de ponderación configurado, admite modelos activo-activo.  Un valor basado en prioridades que configura la región primaria para recibir todo el tráfico y enviar tráfico a la región secundaria como copia de seguridad admite modelos activo-pasivo.  Combine los métodos anteriores con la latencia para que el origen con la latencia más baja reciba tráfico.</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>La experiencia del portal de Azure Firewall ahora incluye un nuevo libro en la interfaz de usuario de la sección Supervisión, por lo que ya no es necesaria una instalación independiente. Con el libro de Azure Firewall, puede extraer información valiosa de los eventos de Azure Firewall, profundizar en las reglas de red y aplicaciones y examinar estadísticas sobre las actividades del firewall en direcciones URL, puertos y direcciones.</t>
+          <t>Puede seleccionar el mejor recurso de origen mediante una serie de pasos de decisión y su diseño. El origen seleccionado atiende el tráfico dentro del rango de latencia permitido en la proporción de ponderaciones especificada.</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -11293,19 +11265,19 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>a246ca16-d2da-4ebc-ad28-0bcbb0813be0</t>
+          <t>1a6fba56-5098-4506-9be0-940fe556996c</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="C364" t="inlineStr">
         <is>
-          <t>Supervise las métricas clave y cree alertas para los indicadores de la utilización de la capacidad de Azure Firewall.</t>
+          <t>Compatibilidad con la redundancia al tener varios orígenes en uno o varios grupos de back-end. Tenga siempre instancias redundantes de su aplicación y asegúrese de que cada instancia exponga un punto de conexión u origen. Puede colocar esos orígenes en uno o varios grupos de back-end.</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Las alertas deben crearse para supervisar al menos el rendimiento, el estado de mantenimiento del firewall, la utilización del puerto SNAT y las métricas del sondeo de latencia de AZFW. Para obtener información sobre la supervisión de registros y métricas, consulte Supervisión de registros y métricas de Azure Firewall.</t>
+          <t>Varios orígenes admiten redundancia mediante la distribución del tráfico entre varias instancias de la aplicación. Si una instancia no está disponible, otros orígenes de back-end aún pueden recibir tráfico.</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -11315,19 +11287,19 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>0c405dff-403a-4ead-94d9-5539ba1eaea6</t>
+          <t>00f51ce2-46a9-4051-ab0e-762743d0837d</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="C365" t="inlineStr">
         <is>
-          <t>Configure la integración de Azure Firewall con Microsoft Defender for Cloud y Microsoft Sentinel.</t>
+          <t>Configure sondeos de estado en el origen. Configure Azure Front Door para realizar comprobaciones de estado a fin de determinar si la instancia de back-end está disponible y lista para seguir recibiendo solicitudes.</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Si estas herramientas están disponibles en el entorno, se recomienda aprovechar la integración con las soluciones de Microsoft Defender for Cloud y Microsoft Sentinel. Con la integración de Microsoft Defender for Cloud, puede visualizar el estado general de la infraestructura de red y la seguridad de la red en un solo lugar, incluida la seguridad de red de Azure en todas las redes virtuales y centros virtuales repartidos en diferentes regiones de Azure. La integración con Microsoft Sentinel proporciona capacidades de detección y prevención de amenazas.</t>
+          <t>Los sondeos de estado habilitados forman parte de la implementación del patrón de supervisión de estado. Los sondeos de estado se aseguran de que Azure Front Door solo enruta el tráfico a las instancias que están en buen estado para controlar las solicitudes.  Para obtener más información, consulte Procedimientos recomendados sobre sondeos de estado.</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -11337,19 +11309,19 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>6643f4d1-ee99-4466-9175-164787d00fc3</t>
+          <t>17fbec2c-ddb4-4490-946c-a151ae0fadd4</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="C366" t="inlineStr">
         <is>
-          <t>Revise periódicamente el panel de análisis de políticas para identificar posibles problemas.</t>
+          <t>Establezca un tiempo de espera para reenviar solicitudes al back-end.  Ajuste la configuración de tiempo de espera según las necesidades de sus terminales. Si no lo hace, Azure Front Door podría cerrar la conexión antes de que el origen envíe la respuesta.  También puede reducir el tiempo de espera predeterminado para Azure Front Door si todos los orígenes tienen un tiempo de espera más corto.  Para obtener más información, consulte Solución de problemas de solicitudes que no responden.</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Policy Analytics es una nueva característica que proporciona información sobre el impacto de las directivas de Azure Firewall. Le ayuda a identificar posibles problemas (alcanzar los límites de las directivas, reglas de baja utilización, reglas redundantes, reglas demasiado genéricas, recomendación de uso de grupos IP) en las directivas y proporciona recomendaciones para mejorar la posición de seguridad y el rendimiento del procesamiento de reglas.</t>
+          <t>Los tiempos de espera ayudan a evitar problemas de rendimiento y disponibilidad al finalizar las solicitudes que tardan más de lo esperado en completarse.</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -11359,19 +11331,19 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>43d91873-4442-40ae-b2a3-263bc7fdcaab</t>
+          <t>1a308f11-1d93-4d57-bd84-cbd8f6198dd2</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="C367" t="inlineStr">
         <is>
-          <t>Familiarícese con las consultas KQL (lenguaje de consulta Kusto) para permitir un análisis rápido y la solución de problemas mediante los registros de Azure Firewall.</t>
+          <t>Use el mismo nombre de host en Azure Front Door y en el origen. Azure Front Door puede reescribir el encabezado de host de las solicitudes entrantes, lo que resulta útil cuando hay varios nombres de dominio personalizados que se enrutan a un origen. Sin embargo, reescribir el encabezado del host puede causar problemas con las cookies de solicitud y el redireccionamiento de URL.</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Se proporcionan consultas de ejemplo para Azure Firewall. Estos le permitirán identificar rápidamente lo que está sucediendo dentro de su firewall y verificar qué regla se activó o qué regla permite/bloquea una solicitud.</t>
+          <t>Establezca el mismo nombre de host para evitar un mal funcionamiento con la afinidad de sesión, la autenticación y la autorización. Para obtener más información, consulte Conservar el nombre de host HTTP original entre un proxy inverso y su aplicación web back-end.</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -11381,17 +11353,21 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>8bc24ea6-da9e-48b8-a05c-4fce251d2046</t>
+          <t>7af90aa7-b21f-432f-858b-2d872c752d7f</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="C368" t="inlineStr">
         <is>
-          <t>Revise y optimice periódicamente las reglas del firewall.</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr"/>
+          <t>Decida si la aplicación requiere afinidad de sesión. Si tiene requisitos de alta confiabilidad, le recomendamos que deshabilite la afinidad de sesión.</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Con la afinidad de sesión, las conexiones de usuario permanecen en el mismo origen durante la sesión de usuario. Si ese origen deja de estar disponible, es posible que la experiencia del usuario se vea interrumpida.</t>
+        </is>
+      </c>
       <c r="F368" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11399,17 +11375,21 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>9469b3e2-6be2-470b-a10b-9fb0150c5733</t>
+          <t>f66a8d49-8d0a-4952-9db2-ac2e526f08ad</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="C369" t="inlineStr">
         <is>
-          <t>Revise los requisitos de la directiva y las oportunidades para resumir los intervalos de IP y la lista de direcciones URL.</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr"/>
+          <t>Aproveche las reglas de limitación de velocidad que se incluyen con un firewall de aplicaciones web (WAF).</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Limite las solicitudes para evitar que los clientes envíen demasiado tráfico a la aplicación. La limitación de velocidad puede ayudarte a evitar problemas como una tormenta de reintentos.</t>
+        </is>
+      </c>
       <c r="F369" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11417,14 +11397,14 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>9efe3606-1aa2-4e06-bf6a-2e5214cf080f</t>
+          <t>63faaf18-da4b-4274-ac3c-d955f2a2e01b</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="C370" t="inlineStr">
         <is>
-          <t>Evalúe los requisitos de los puertos SNAT.</t>
+          <t>Revise la línea base de seguridad de Azure Front Door.</t>
         </is>
       </c>
       <c r="D370" t="inlineStr"/>
@@ -11435,14 +11415,14 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>93db9b9d-c43d-47e2-a1cf-e81841274059</t>
+          <t>ad186a96-5de2-4bf7-acd4-5b534cdb3e97</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="C371" t="inlineStr">
         <is>
-          <t>Planifique pruebas de carga para probar el rendimiento del escalado automático en su entorno.</t>
+          <t>Proteja los servidores back-end. El front-end actúa como el único punto de entrada a la aplicación.</t>
         </is>
       </c>
       <c r="D371" t="inlineStr"/>
@@ -11453,14 +11433,14 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>fbe59997-e12b-497b-bdbd-d2a5e3f728e7</t>
+          <t>b31346d7-4fde-42c2-82fe-2e4d54aa8f1b</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="C372" t="inlineStr">
         <is>
-          <t>No habilite las herramientas de diagnóstico y el registro si no es necesario.</t>
+          <t>Permitir solo el acceso autorizado al plano de control. Use el control de acceso basado en roles (RBAC) de Azure Front Door para restringir el acceso solo a las identidades que lo necesiten.</t>
         </is>
       </c>
       <c r="D372" t="inlineStr"/>
@@ -11471,21 +11451,17 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>c68f8c08-fe1e-4515-a877-67daaa008ab0</t>
+          <t>903b1844-994a-49e8-8e08-6ef445aec4f7</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="C373" t="inlineStr">
         <is>
-          <t>Utilice el panel de análisis de políticas para identificar posibles optimizaciones para las políticas de firewall.</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>Policy Analytics es una nueva característica que proporciona información sobre el impacto de las directivas de Azure Firewall. Le ayuda a identificar posibles problemas (alcanzar los límites de las directivas, reglas de baja utilización, reglas redundantes, reglas demasiado genéricas, recomendación de uso de grupos IP) en las directivas y proporciona recomendaciones para mejorar la posición de seguridad y el rendimiento del procesamiento de reglas.</t>
-        </is>
-      </c>
+          <t>Bloquee las amenazas comunes en el perímetro. WAF está integrado con Azure Front Door. Habilite las reglas de WAF en los front-end para proteger las aplicaciones de vulnerabilidades y exploits comunes en el perímetro de la red, más cerca de la fuente de ataque.</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr"/>
       <c r="F373" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11493,21 +11469,17 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>cbbaf175-2b8e-4a1f-af5a-a9cbfb798ffb</t>
+          <t>329c0516-9a14-45ea-ad04-fe75453c8d88</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="C374" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de utilizar categorías web para permitir o denegar el acceso saliente de forma masiva.</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>En lugar de crear y mantener explícitamente una larga lista de sitios públicos de Internet, considere el uso de las categorías web de Azure Firewall. Esta función categorizará dinámicamente el contenido web y permitirá la creación de reglas de aplicación compactas.</t>
-        </is>
-      </c>
+          <t>Proteja Azure Front Door frente al tráfico inesperado. Azure Front Door usa el plan básico de protección contra DDoS de Azure para proteger los puntos de conexión de las aplicaciones frente a ataques DDoS. Si necesita exponer otras direcciones IP públicas de su aplicación, considere la posibilidad de agregar el plan estándar DDoS Protection para esas direcciones para capacidades avanzadas de protección y detección.</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr"/>
       <c r="F374" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11515,21 +11487,17 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>b8bc28b7-69d4-49d3-8a1e-8dd7ba71ebbe</t>
+          <t>d323ca3c-f7df-4f7e-b7c9-698d2bdad3e2</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="C375" t="inlineStr">
         <is>
-          <t>Evalúe el impacto en el rendimiento de IDPS en modo de alerta y denegación.</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>Si es necesario que Azure Firewall funcione en modo IDPS Alerta y denegación, considere detenidamente el impacto en el rendimiento tal y como se documenta en Rendimiento del firewall.</t>
-        </is>
-      </c>
+          <t>Proteja los datos en tránsito. Habilite la seguridad de la capa de transporte (TLS) de extremo a extremo, el redireccionamiento de HTTP a HTTPS y los certificados TLS administrados cuando corresponda. Para más información, consulte Procedimientos recomendados de TLS para Azure Front Door.</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr"/>
       <c r="F375" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11537,21 +11505,17 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>b91be607-0c6b-4c0d-bdd2-367879f7632d</t>
+          <t>fcb4a654-3e3b-408c-9538-a1dfefdef774</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="C376" t="inlineStr">
         <is>
-          <t>Evalúe el posible problema de agotamiento del puerto SNAT.</t>
-        </is>
-      </c>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>Actualmente, Azure Firewall admite 2496 puertos por dirección IP pública por instancia de conjunto de escalado de máquinas virtuales de back-end. De forma predeterminada, hay dos instancias de Virtual Machine Scale Set. Por lo tanto, hay 4992 puertos por IP de destino de flujo, puerto de destino y protocolo (TCP o UDP). El firewall se escala hasta un máximo de 20 instancias. Puede evitar los límites configurando implementaciones de Azure Firewall con un mínimo de cinco direcciones IP públicas para las implementaciones susceptibles al agotamiento de SNAT.</t>
-        </is>
-      </c>
+          <t>Supervisar la actividad anómala. Revise periódicamente los registros para comprobar si hay ataques y falsos positivos. Envíe registros de WAF desde Azure Front Door a la administración centralizada de eventos e información de seguridad (SIEM) de su organización, como Microsoft Sentinel, para detectar patrones de amenazas e incorporar medidas preventivas en el diseño de la carga de trabajo.</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr"/>
       <c r="F376" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11559,19 +11523,19 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>a5847147-e7ef-48d1-ba16-d896fdce1b9f</t>
+          <t>451f9871-3ca1-40b9-a1f6-c5eb0a37213b</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="C377" t="inlineStr">
         <is>
-          <t>Prepare correctamente Azure Firewall antes de cualquier prueba de rendimiento.</t>
+          <t>Habilite los conjuntos de reglas de WAF que detectan y bloquean el tráfico potencialmente malintencionado. Esta función está disponible en el nivel Premium. Recomendamos estos conjuntos de reglas: - Predeterminado- Protección contra bots- Restricción de IP- Filtrado geográfico- Limitación de velocidad</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Cree tráfico inicial que no forme parte de las pruebas de carga 20 minutos antes de la prueba. Utilice la configuración de diagnóstico para capturar eventos de escalado vertical y reducido. Puede usar el servicio Azure Load Testing para generar el tráfico inicial. Permite que la instancia de Azure Firewall escale verticalmente sus instancias al máximo.</t>
+          <t>Los conjuntos de reglas predeterminados se actualizan con frecuencia en función de los 10 tipos de ataque principales de OWASP y de la información de Microsoft Threat Intelligence.  Los conjuntos de reglas especializadas detectan ciertos casos de uso. Por ejemplo, las reglas de bots clasifican los bots como buenos, malos o desconocidos en función de las direcciones IP del cliente. También bloquean los bots maliciosos y las direcciones IP conocidas y restringen el tráfico en función de la ubicación geográfica de las personas que llaman.  Mediante el uso de una combinación de conjuntos de reglas, puede detectar y bloquear ataques con varias intenciones.</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -11581,19 +11545,19 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>908a8bfa-9e9f-4199-8b5a-f2a031ab22e0</t>
+          <t>711c450c-ac42-4570-b2fd-22319b4a7913</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="C378" t="inlineStr">
         <is>
-          <t>Configure una subred de Azure Firewall (AzureFirewallSubnet) con un espacio de direcciones /26.</t>
+          <t>Cree exclusiones para conjuntos de reglas administrados.  Pruebe una política de WAF en modo de detección durante unas semanas y ajuste los falsos positivos antes de implementarla.</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Azure Firewall es una implementación dedicada en la red virtual. Dentro de la red virtual, se requiere una subred dedicada para la instancia de Azure Firewall. Azure Firewall aprovisiona más capacidad a medida que se escala. Un espacio de direcciones /26 para sus subredes garantiza que el firewall tenga suficientes direcciones IP disponibles para acomodar el escalado. Azure Firewall no necesita una subred mayor que /26. El nombre de la subred de Azure Firewall debe ser AzureFirewallSubnet.</t>
+          <t>Reduzca los falsos positivos y permita solicitudes legítimas para su aplicación.</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -11603,19 +11567,19 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>d0e66443-59f1-48cb-995f-eaa6688c4f3b</t>
+          <t>a6fe49f4-0b1f-4677-af1f-b766f073ac6c</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="C379" t="inlineStr">
         <is>
-          <t>No habilite el registro avanzado si no es necesario</t>
+          <t>Habilite TLS de extremo a extremo, redireccionamiento de HTTP a HTTPS y certificados TLS administrados cuando corresponda.  Revise los procedimientos recomendados de TLS para Azure Front Door.  Utilice la versión 1.2 de TLS como la versión mínima permitida con cifrados que sean relevantes para su aplicación.  Los certificados administrados de Azure Front Door deben ser la opción predeterminada para facilitar las operaciones. Sin embargo, si desea administrar el ciclo de vida de los certificados, use sus propios certificados en los puntos de conexión de dominio personalizado de Azure Front Door y almacénelos en Key Vault.</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Azure Firewall proporciona algunas funcionalidades de registro avanzadas que pueden resultar costosas de mantener siempre activas. En su lugar, deben usarse solo con fines de solución de problemas y tener una duración limitada, y luego deshabilitarse cuando ya no sean necesarios. Por ejemplo, los flujos principales y los registros de seguimiento de flujo son costosos, lo que puede provocar un uso excesivo de CPU y almacenamiento en la infraestructura de Azure Firewall.</t>
+          <t>TLS garantiza que los intercambios de datos entre el explorador, Azure Front Door y los orígenes de back-end estén cifrados para evitar la manipulación.  Key Vault ofrece compatibilidad con certificados administrados y renovación y rotación sencillas de certificados.</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -11625,14 +11589,14 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>2c51e141-6e45-42cd-8c22-c55b219ffe83</t>
+          <t>450b511f-9e82-45ce-986b-769ea00dbeaa</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="C380" t="inlineStr">
         <is>
-          <t>Estimar el patrón y el volumen de tráfico. El número de solicitudes del cliente al perímetro de Azure Front Door puede influir en la elección del nivel. Si necesita admitir un gran volumen de solicitudes, considere la posibilidad de utilizar el nivel Premium de Azure Front Door, ya que el rendimiento afecta en última instancia a la disponibilidad. Sin embargo, hay una compensación de costos. Estos niveles se describen en Eficiencia del rendimiento.</t>
+          <t>Revise los niveles y precios de Azure Front Door. Utilice la calculadora de precios para estimar los costos realistas de cada nivel. Compare las características y la idoneidad de cada nivel para su escenario. Por ejemplo, solo el nivel Premium admite la conexión a su origen a través de Private Link.</t>
         </is>
       </c>
       <c r="D380" t="inlineStr"/>
@@ -11643,14 +11607,14 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>59ed40bd-06a0-4125-ab99-afc88a248aa5</t>
+          <t>baeb625f-93ac-4181-be7b-07f474584985</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="C381" t="inlineStr">
         <is>
-          <t>Elija su estrategia de implementación. Los enfoques de implementación fundamentales son activo-activo y activo-pasivo. La implementación activo-activo significa que varios entornos o marcas que ejecutan la carga de trabajo atienden el tráfico. La implementación activa-pasiva significa que solo la región primaria controla todo el tráfico, pero conmuta por error a la región secundaria cuando es necesario. En una implementación multirregional, las marcas se ejecutan en diferentes regiones para una mayor disponibilidad con un equilibrador de carga global, como Azure Front Door, que distribuye el tráfico. Por lo tanto, es importante configurar el equilibrador de carga para el enfoque de implementación adecuado.</t>
+          <t>Tenga en cuenta los costos de ancho de banda. Los costos de ancho de banda de Azure Front Door dependen del nivel que elija y del tipo de transferencia de datos. Azure Front Door proporciona informes integrados para métricas facturables. Para evaluar los costos relacionados con el ancho de banda y dónde puede centrar sus esfuerzos de optimización, consulte Informes de Azure Front Door.</t>
         </is>
       </c>
       <c r="D381" t="inlineStr"/>
@@ -11661,14 +11625,14 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>51f023f3-53b4-4878-8548-2b08a6b095ab</t>
+          <t>ed02627c-4a6d-4d6e-982f-a1fbee4a7259</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="C382" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de host en Azure Front Door y en los servidores de origen. Para asegurarse de que las cookies o las URL de redireccionamiento funcionen correctamente, conserve el nombre de host HTTP original cuando utilice un proxy inverso, como un equilibrador de carga, delante de una aplicación web.</t>
+          <t>Optimice las solicitudes entrantes. Azure Front Door factura las solicitudes entrantes. Puede establecer restricciones en la configuración del diseño.</t>
         </is>
       </c>
       <c r="D382" t="inlineStr"/>
@@ -11679,14 +11643,14 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>486f318a-8747-45e5-a5f4-97642d4fada6</t>
+          <t>e2e0bb7e-521d-4729-9579-5c9539a68867</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="C383" t="inlineStr">
         <is>
-          <t>Implemente el patrón de supervisión de puntos de conexión de estado. La aplicación debe exponer puntos de conexión de estado, que agregan el estado de los servicios y dependencias críticos que la aplicación necesita para atender las solicitudes. Los sondeos de estado de Azure Front Door usan el punto de conexión para detectar el estado de los servidores de origen. Para obtener más información, consulte Patrón de supervisión de puntos de conexión de estado.</t>
+          <t>Utilice los recursos de manera eficiente. Azure Front Door usa un método de enrutamiento que ayuda con la optimización de recursos. A menos que la carga de trabajo sea extremadamente sensible a la latencia, distribuya el tráfico de manera uniforme en todos los entornos para usar eficazmente los recursos implementados.</t>
         </is>
       </c>
       <c r="D383" t="inlineStr"/>
@@ -11697,14 +11661,14 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>9bc96e35-d25f-4521-86f8-8cadefb23576</t>
+          <t>337e7030-494e-4be5-8920-9144cb02c399</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="C384" t="inlineStr">
         <is>
-          <t>Aproveche la funcionalidad de red de entrega de contenido integrada en Azure Front Door. La característica de red de entrega de contenido de Azure Front Door tiene cientos de ubicaciones perimetrales y puede ayudar a resistir ataques de denegación de servicio distribuido (DDoS). Estas capacidades ayudan a mejorar la confiabilidad.</t>
+          <t>Considere la posibilidad de usar una instancia compartida proporcionada por la organización. Los costos incurridos por los servicios centralizados se comparten entre las cargas de trabajo. Sin embargo, considere la compensación con la confiabilidad. Para las aplicaciones críticas que tienen requisitos de alta disponibilidad, recomendamos una instancia autónoma.</t>
         </is>
       </c>
       <c r="D384" t="inlineStr"/>
@@ -11715,14 +11679,14 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>96c8dc89-cafe-411e-9080-35c13fffb8b3</t>
+          <t>add1a775-b13c-477b-acc7-38dbcccd51fe</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="C385" t="inlineStr">
         <is>
-          <t>Considere una opción de administración de tráfico redundante. Azure Front Door es un servicio distribuido globalmente que se ejecuta como un singleton en un entorno. Azure Front Door es un posible punto único de error en el sistema. Si se produce un error en el servicio, los clientes no podrán acceder a la aplicación durante el tiempo de inactividad.</t>
+          <t>Preste atención a la cantidad de datos registrados. Los costos relacionados con el ancho de banda y el almacenamiento pueden acumularse si ciertas solicitudes no son necesarias o si los datos de registro se conservan durante un largo período de tiempo.</t>
         </is>
       </c>
       <c r="D385" t="inlineStr"/>
@@ -11733,19 +11697,19 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>750bc3ba-30aa-44fc-88aa-bc93cdf29cdf</t>
+          <t>48f2f718-1ae7-476f-a0a1-d6b83e47bbaa</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="C386" t="inlineStr">
         <is>
-          <t>Elija un método de enrutamiento que admita su estrategia de implementación.  El método ponderado, que distribuye el tráfico en función del coeficiente de ponderación configurado, admite modelos activo-activo.  Un valor basado en prioridades que configura la región primaria para recibir todo el tráfico y enviar tráfico a la región secundaria como copia de seguridad admite modelos activo-pasivo.  Combine los métodos anteriores con la latencia para que el origen con la latencia más baja reciba tráfico.</t>
+          <t>Use el almacenamiento en caché para los puntos de conexión que lo admitan.</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Puede seleccionar el mejor recurso de origen mediante una serie de pasos de decisión y su diseño. El origen seleccionado atiende el tráfico dentro del rango de latencia permitido en la proporción de ponderaciones especificada.</t>
+          <t>El almacenamiento en caché optimiza los costos de transferencia de datos, ya que reduce el número de llamadas desde la instancia de Azure Front Door hasta el origen.</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -11755,19 +11719,19 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>1a6fba56-5098-4506-9be0-940fe556996c</t>
+          <t>5a9023b8-c181-41d5-aeb5-9c09a85b0792</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="C387" t="inlineStr">
         <is>
-          <t>Compatibilidad con la redundancia al tener varios orígenes en uno o varios grupos de back-end. Tenga siempre instancias redundantes de su aplicación y asegúrese de que cada instancia exponga un punto de conexión u origen. Puede colocar esos orígenes en uno o varios grupos de back-end.</t>
+          <t>Considere la posibilidad de habilitar la compresión de archivos. Para esta configuración, la aplicación debe admitir la compresión y el almacenamiento en caché debe estar habilitado.</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Varios orígenes admiten redundancia mediante la distribución del tráfico entre varias instancias de la aplicación. Si una instancia no está disponible, otros orígenes de back-end aún pueden recibir tráfico.</t>
+          <t>La compresión reduce el consumo de ancho de banda y mejora el rendimiento.</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -11777,19 +11741,19 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>00f51ce2-46a9-4051-ab0e-762743d0837d</t>
+          <t>84da68ee-7bb0-4a7d-ad70-d53c186ffd3e</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="C388" t="inlineStr">
         <is>
-          <t>Configure sondeos de estado en el origen. Configure Azure Front Door para realizar comprobaciones de estado a fin de determinar si la instancia de back-end está disponible y lista para seguir recibiendo solicitudes.</t>
+          <t>Deshabilite las comprobaciones de estado en grupos de back-end únicos. Si solo tiene un origen configurado en el grupo de origen de Azure Front Door, estas llamadas son innecesarias.</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Los sondeos de estado habilitados forman parte de la implementación del patrón de supervisión de estado. Los sondeos de estado se aseguran de que Azure Front Door solo enruta el tráfico a las instancias que están en buen estado para controlar las solicitudes.  Para obtener más información, consulte Procedimientos recomendados sobre sondeos de estado.</t>
+          <t>Puede ahorrar en costos de ancho de banda deshabilitando las solicitudes que no son necesarias para tomar decisiones de enrutamiento.</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -11799,21 +11763,17 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>17fbec2c-ddb4-4490-946c-a151ae0fadd4</t>
+          <t>5d3ad5cb-d897-4ae7-8d1c-ae8398c79ed6</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="C389" t="inlineStr">
         <is>
-          <t>Establezca un tiempo de espera para reenviar solicitudes al back-end.  Ajuste la configuración de tiempo de espera según las necesidades de sus terminales. Si no lo hace, Azure Front Door podría cerrar la conexión antes de que el origen envíe la respuesta.  También puede reducir el tiempo de espera predeterminado para Azure Front Door si todos los orígenes tienen un tiempo de espera más corto.  Para obtener más información, consulte Solución de problemas de solicitudes que no responden.</t>
-        </is>
-      </c>
-      <c r="D389" t="inlineStr">
-        <is>
-          <t>Los tiempos de espera ayudan a evitar problemas de rendimiento y disponibilidad al finalizar las solicitudes que tardan más de lo esperado en completarse.</t>
-        </is>
-      </c>
+          <t>Utilice tecnologías de infraestructura como código (IaC). Use tecnologías de IaC como Bicep y plantillas de Azure Resource Manager para aprovisionar la instancia de Azure Front Door. Estos enfoques declarativos proporcionan coherencia y un mantenimiento sencillo. Por ejemplo, mediante el uso de tecnologías IaC, puede adoptar fácilmente nuevas versiones de conjuntos de reglas.</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr"/>
       <c r="F389" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11821,21 +11781,17 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>1a308f11-1d93-4d57-bd84-cbd8f6198dd2</t>
+          <t>5e8bfd0e-20d9-441f-814d-c2b49e7033ea</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="C390" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de host en Azure Front Door y en el origen. Azure Front Door puede reescribir el encabezado de host de las solicitudes entrantes, lo que resulta útil cuando hay varios nombres de dominio personalizados que se enrutan a un origen. Sin embargo, reescribir el encabezado del host puede causar problemas con las cookies de solicitud y el redireccionamiento de URL.</t>
-        </is>
-      </c>
-      <c r="D390" t="inlineStr">
-        <is>
-          <t>Establezca el mismo nombre de host para evitar un mal funcionamiento con la afinidad de sesión, la autenticación y la autorización. Para obtener más información, consulte Conservar el nombre de host HTTP original entre un proxy inverso y su aplicación web back-end.</t>
-        </is>
-      </c>
+          <t>Simplifique las configuraciones. Use Azure Front Door para administrar fácilmente las configuraciones. Por ejemplo, supongamos que la arquitectura admite microservicios. Azure Front Door admite funcionalidades de redireccionamiento, por lo que puede usar el redireccionamiento basado en rutas de acceso para dirigirse a servicios individuales.</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr"/>
       <c r="F390" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11843,21 +11799,17 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>7af90aa7-b21f-432f-858b-2d872c752d7f</t>
+          <t>e9bd20e3-6e61-4907-9b84-4bd50b867875</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="C391" t="inlineStr">
         <is>
-          <t>Decida si la aplicación requiere afinidad de sesión. Si tiene requisitos de alta confiabilidad, le recomendamos que deshabilite la afinidad de sesión.</t>
-        </is>
-      </c>
-      <c r="D391" t="inlineStr">
-        <is>
-          <t>Con la afinidad de sesión, las conexiones de usuario permanecen en el mismo origen durante la sesión de usuario. Si ese origen deja de estar disponible, es posible que la experiencia del usuario se vea interrumpida.</t>
-        </is>
-      </c>
+          <t>Controle la exposición progresiva mediante métodos de enrutamiento de Azure Front Door. Para un enfoque de equilibrio de carga ponderado, puede usar una implementación de valor controlado para enviar un porcentaje específico de tráfico a un back-end. Este enfoque le ayuda a probar nuevas características y versiones en un entorno controlado antes de implementarlas.</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr"/>
       <c r="F391" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11865,21 +11817,17 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>f66a8d49-8d0a-4952-9db2-ac2e526f08ad</t>
+          <t>bb3943fb-6d97-458d-be6a-d9b71e8898d7</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="C392" t="inlineStr">
         <is>
-          <t>Aproveche las reglas de limitación de velocidad que se incluyen con un firewall de aplicaciones web (WAF).</t>
-        </is>
-      </c>
-      <c r="D392" t="inlineStr">
-        <is>
-          <t>Limite las solicitudes para evitar que los clientes envíen demasiado tráfico a la aplicación. La limitación de velocidad puede ayudarte a evitar problemas como una tormenta de reintentos.</t>
-        </is>
-      </c>
+          <t>Recopile y analice datos operativos de Azure Front Door como parte de la supervisión de la carga de trabajo. Capture las métricas y los registros relevantes de Azure Front Door con los registros de Azure Monitor. Estos datos le ayudan a solucionar problemas, comprender los comportamientos de los usuarios y optimizar las operaciones.</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr"/>
       <c r="F392" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11887,14 +11835,14 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>63faaf18-da4b-4274-ac3c-d955f2a2e01b</t>
+          <t>5e1264a9-c6cc-4d4e-8e73-7ca4b3f05c17</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="C393" t="inlineStr">
         <is>
-          <t>Revise la línea base de seguridad de Azure Front Door.</t>
+          <t>Descargue la administración de certificados en Azure. Alivie la carga operativa asociada con la rotación y las renovaciones de certificaciones.</t>
         </is>
       </c>
       <c r="D393" t="inlineStr"/>
@@ -11905,17 +11853,21 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>ad186a96-5de2-4bf7-acd4-5b534cdb3e97</t>
+          <t>8bdff2ab-0800-45ef-acab-ff7d320856aa</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="C394" t="inlineStr">
         <is>
-          <t>Proteja los servidores back-end. El front-end actúa como el único punto de entrada a la aplicación.</t>
-        </is>
-      </c>
-      <c r="D394" t="inlineStr"/>
+          <t>Utilice el redireccionamiento de HTTP a HTTPS para admitir la compatibilidad con versiones posteriores.</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Cuando se habilita el redireccionamiento, Azure Front Door redirige automáticamente a los clientes que usan un protocolo anterior para usar HTTPS para una experiencia segura.</t>
+        </is>
+      </c>
       <c r="F394" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11923,17 +11875,21 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>b31346d7-4fde-42c2-82fe-2e4d54aa8f1b</t>
+          <t>829f4fea-1653-4093-aaf7-93b6a30aae1f</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="C395" t="inlineStr">
         <is>
-          <t>Permitir solo el acceso autorizado al plano de control. Use el control de acceso basado en roles (RBAC) de Azure Front Door para restringir el acceso solo a las identidades que lo necesiten.</t>
-        </is>
-      </c>
-      <c r="D395" t="inlineStr"/>
+          <t>Capture registros y métricas.  Incluya registros de actividad de recursos, registros de acceso, registros de sondeo de estado y registros de WAF. Configura alertas.</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>La supervisión del flujo de entrada es una parte crucial de la supervisión de una aplicación. Desea realizar un seguimiento de las solicitudes y realizar mejoras de rendimiento y seguridad. Necesita datos para depurar la configuración de Azure Front Door.  Con las alertas, puede recibir notificaciones instantáneas de cualquier problema operativo crítico.</t>
+        </is>
+      </c>
       <c r="F395" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11941,17 +11897,21 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>903b1844-994a-49e8-8e08-6ef445aec4f7</t>
+          <t>8ad83783-d01c-4772-a76b-39f7c9d61cc7</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="C396" t="inlineStr">
         <is>
-          <t>Bloquee las amenazas comunes en el perímetro. WAF está integrado con Azure Front Door. Habilite las reglas de WAF en los front-end para proteger las aplicaciones de vulnerabilidades y exploits comunes en el perímetro de la red, más cerca de la fuente de ataque.</t>
-        </is>
-      </c>
-      <c r="D396" t="inlineStr"/>
+          <t>Revise los informes de análisis integrados.</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Una vista holística del perfil de Azure Front Door ayuda a impulsar mejoras basadas en informes de tráfico y seguridad a través de métricas de WAF.</t>
+        </is>
+      </c>
       <c r="F396" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11959,17 +11919,21 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>329c0516-9a14-45ea-ad04-fe75453c8d88</t>
+          <t>e5e56ee9-79e4-4fa8-9fdb-600748d7df10</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="C397" t="inlineStr">
         <is>
-          <t>Proteja Azure Front Door frente al tráfico inesperado. Azure Front Door usa el plan básico de protección contra DDoS de Azure para proteger los puntos de conexión de las aplicaciones frente a ataques DDoS. Si necesita exponer otras direcciones IP públicas de su aplicación, considere la posibilidad de agregar el plan estándar DDoS Protection para esas direcciones para capacidades avanzadas de protección y detección.</t>
-        </is>
-      </c>
-      <c r="D397" t="inlineStr"/>
+          <t>Utilice certificados TLS administrados cuando sea posible.</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Azure Front Door puede emitir y administrar certificados por usted. Esta función elimina la necesidad de renovar certificados y minimiza el riesgo de una interrupción debido a un certificado TLS no válido o caducado.</t>
+        </is>
+      </c>
       <c r="F397" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11977,17 +11941,21 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>d323ca3c-f7df-4f7e-b7c9-698d2bdad3e2</t>
+          <t>c2fcfdfb-fedb-4b47-93ac-1988250f76cd</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="C398" t="inlineStr">
         <is>
-          <t>Proteja los datos en tránsito. Habilite la seguridad de la capa de transporte (TLS) de extremo a extremo, el redireccionamiento de HTTP a HTTPS y los certificados TLS administrados cuando corresponda. Para más información, consulte Procedimientos recomendados de TLS para Azure Front Door.</t>
-        </is>
-      </c>
-      <c r="D398" t="inlineStr"/>
+          <t>Utilice certificados TLS comodín.</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>No es necesario modificar la configuración para agregar o especificar cada subdominio por separado.</t>
+        </is>
+      </c>
       <c r="F398" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -11995,14 +11963,14 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>fcb4a654-3e3b-408c-9538-a1dfefdef774</t>
+          <t>0d7deaf4-ec0e-4e32-8b6b-64f3190d10f6</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="C399" t="inlineStr">
         <is>
-          <t>Supervisar la actividad anómala. Revise periódicamente los registros para comprobar si hay ataques y falsos positivos. Envíe registros de WAF desde Azure Front Door a la administración centralizada de eventos e información de seguridad (SIEM) de su organización, como Microsoft Sentinel, para detectar patrones de amenazas e incorporar medidas preventivas en el diseño de la carga de trabajo.</t>
+          <t>Planifique la capacidad mediante el análisis de los patrones de tráfico esperados. Realice pruebas exhaustivas para comprender el rendimiento de su aplicación bajo diferentes cargas. Tenga en cuenta factores como las transacciones simultáneas, las tasas de solicitudes y la transferencia de datos.</t>
         </is>
       </c>
       <c r="D399" t="inlineStr"/>
@@ -12013,21 +11981,17 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>451f9871-3ca1-40b9-a1f6-c5eb0a37213b</t>
+          <t>d18003c9-2d90-4e52-b503-5fcdb4ffcd96</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="C400" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas de WAF que detectan y bloquean el tráfico potencialmente malintencionado. Esta función está disponible en el nivel Premium. Recomendamos estos conjuntos de reglas: - Predeterminado- Protección contra bots- Restricción de IP- Filtrado geográfico- Limitación de velocidad</t>
-        </is>
-      </c>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>Los conjuntos de reglas predeterminados se actualizan con frecuencia en función de los 10 tipos de ataque principales de OWASP y de la información de Microsoft Threat Intelligence.  Los conjuntos de reglas especializadas detectan ciertos casos de uso. Por ejemplo, las reglas de bots clasifican los bots como buenos, malos o desconocidos en función de las direcciones IP del cliente. También bloquean los bots maliciosos y las direcciones IP conocidas y restringen el tráfico en función de la ubicación geográfica de las personas que llaman.  Mediante el uso de una combinación de conjuntos de reglas, puede detectar y bloquear ataques con varias intenciones.</t>
-        </is>
-      </c>
+          <t>Analice los datos de rendimiento mediante la revisión periódica de los informes de Azure Front Door. Estos informes proporcionan información sobre varias métricas que sirven como indicadores de rendimiento a nivel tecnológico.</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr"/>
       <c r="F400" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12035,21 +11999,17 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>711c450c-ac42-4570-b2fd-22319b4a7913</t>
+          <t>87c450a0-6a4a-453c-ae38-b8f21952ab79</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="C401" t="inlineStr">
         <is>
-          <t>Cree exclusiones para conjuntos de reglas administrados.  Pruebe una política de WAF en modo de detección durante unas semanas y ajuste los falsos positivos antes de implementarla.</t>
-        </is>
-      </c>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>Reduzca los falsos positivos y permita solicitudes legítimas para su aplicación.</t>
-        </is>
-      </c>
+          <t>Optimice las transferencias de datos.</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr"/>
       <c r="F401" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12057,21 +12017,17 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>a6fe49f4-0b1f-4677-af1f-b766f073ac6c</t>
+          <t>a9d9ffe4-3fa7-48c8-bc1d-d0685e495dbe</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="C402" t="inlineStr">
         <is>
-          <t>Habilite TLS de extremo a extremo, redireccionamiento de HTTP a HTTPS y certificados TLS administrados cuando corresponda.  Revise los procedimientos recomendados de TLS para Azure Front Door.  Utilice la versión 1.2 de TLS como la versión mínima permitida con cifrados que sean relevantes para su aplicación.  Los certificados administrados de Azure Front Door deben ser la opción predeterminada para facilitar las operaciones. Sin embargo, si desea administrar el ciclo de vida de los certificados, use sus propios certificados en los puntos de conexión de dominio personalizado de Azure Front Door y almacénelos en Key Vault.</t>
-        </is>
-      </c>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>TLS garantiza que los intercambios de datos entre el explorador, Azure Front Door y los orígenes de back-end estén cifrados para evitar la manipulación.  Key Vault ofrece compatibilidad con certificados administrados y renovación y rotación sencillas de certificados.</t>
-        </is>
-      </c>
+          <t>Optimice el uso de los sondeos de estado. Obtenga información de estado de los sondeos de estado solo cuando cambie el estado de los orígenes. Logre un equilibrio entre la precisión de la supervisión y la minimización del tráfico innecesario.</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr"/>
       <c r="F402" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12079,14 +12035,14 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>450b511f-9e82-45ce-986b-769ea00dbeaa</t>
+          <t>161bc803-0586-4d21-b2ea-018d78209565</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="C403" t="inlineStr">
         <is>
-          <t>Revise los niveles y precios de Azure Front Door. Utilice la calculadora de precios para estimar los costos realistas de cada nivel. Compare las características y la idoneidad de cada nivel para su escenario. Por ejemplo, solo el nivel Premium admite la conexión a su origen a través de Private Link.</t>
+          <t>Revise el método de enrutamiento de origen. Azure Front Door proporciona varios métodos de enrutamiento, incluido el enrutamiento basado en latencia, basado en prioridades, ponderado y basado en afinidad de sesión, hasta el origen. Estos métodos afectan significativamente al rendimiento de la aplicación. Para obtener más información sobre la mejor opción de enrutamiento de tráfico para su escenario, consulte Métodos de enrutamiento de tráfico hasta el origen.</t>
         </is>
       </c>
       <c r="D403" t="inlineStr"/>
@@ -12097,14 +12053,14 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>baeb625f-93ac-4181-be7b-07f474584985</t>
+          <t>8596ddcf-3f3c-4b1c-baa1-a7eb844b2fb6</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="C404" t="inlineStr">
         <is>
-          <t>Tenga en cuenta los costos de ancho de banda. Los costos de ancho de banda de Azure Front Door dependen del nivel que elija y del tipo de transferencia de datos. Azure Front Door proporciona informes integrados para métricas facturables. Para evaluar los costos relacionados con el ancho de banda y dónde puede centrar sus esfuerzos de optimización, consulte Informes de Azure Front Door.</t>
+          <t>Revise la ubicación de los servidores de origen. La ubicación de los servidores de origen afecta a la capacidad de respuesta de la aplicación. Los servidores de origen deben estar más cerca de los usuarios. Azure Front Door garantiza que los usuarios de una ubicación específica accedan al punto de entrada de Azure Front Door más cercano. Las ventajas de rendimiento incluyen una experiencia de usuario más rápida, un mejor uso del enrutamiento basado en latencia por parte de Azure Front Door y un tiempo de transferencia de datos minimizado mediante el almacenamiento en caché, que almacena el contenido más cerca de los usuarios.</t>
         </is>
       </c>
       <c r="D404" t="inlineStr"/>
@@ -12115,17 +12071,21 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>ed02627c-4a6d-4d6e-982f-a1fbee4a7259</t>
+          <t>205d3288-088c-4f24-af39-f9cb610c54a1</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="C405" t="inlineStr">
         <is>
-          <t>Optimice las solicitudes entrantes. Azure Front Door factura las solicitudes entrantes. Puede establecer restricciones en la configuración del diseño.</t>
-        </is>
-      </c>
-      <c r="D405" t="inlineStr"/>
+          <t>Habilite el almacenamiento en caché.  Puede optimizar las cadenas de consulta para el almacenamiento en caché. En el caso de contenido puramente estático, omita las cadenas de consulta para maximizar el uso de la memoria caché.  Si la aplicación usa cadenas de consulta, considere la posibilidad de incluirlas en la clave de caché. La inclusión de las cadenas de consulta en la clave de caché permite a Azure Front Door servir respuestas almacenadas en caché u otras respuestas, en función de la configuración.</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>Azure Front Door ofrece una solución de red de entrega de contenido sólida que almacena en caché el contenido en el perímetro de la red. El almacenamiento en caché reduce la carga en los servidores back-end y reduce el movimiento de datos a través de la red, lo que ayuda a descargar el uso del ancho de banda.</t>
+        </is>
+      </c>
       <c r="F405" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12133,17 +12093,21 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>e2e0bb7e-521d-4729-9579-5c9539a68867</t>
+          <t>2f6a39a1-884a-4661-accd-f534bf795a96</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="C406" t="inlineStr">
         <is>
-          <t>Utilice los recursos de manera eficiente. Azure Front Door usa un método de enrutamiento que ayuda con la optimización de recursos. A menos que la carga de trabajo sea extremadamente sensible a la latencia, distribuya el tráfico de manera uniforme en todos los entornos para usar eficazmente los recursos implementados.</t>
-        </is>
-      </c>
-      <c r="D406" t="inlineStr"/>
+          <t>Usa la compresión de archivos cuando accedas a contenido descargable.</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>La compresión en Azure Front Door ayuda a entregar contenido en el formato óptimo, tiene una carga más pequeña y entrega contenido a los usuarios más rápido.</t>
+        </is>
+      </c>
       <c r="F406" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12151,17 +12115,21 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>337e7030-494e-4be5-8920-9144cb02c399</t>
+          <t>09c90ce3-ade6-413a-9c1b-45d33d6d9069</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="C407" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de usar una instancia compartida proporcionada por la organización. Los costos incurridos por los servicios centralizados se comparten entre las cargas de trabajo. Sin embargo, considere la compensación con la confiabilidad. Para las aplicaciones críticas que tienen requisitos de alta disponibilidad, recomendamos una instancia autónoma.</t>
-        </is>
-      </c>
-      <c r="D407" t="inlineStr"/>
+          <t>Al configurar sondeos de estado en Azure Front Door, considere la posibilidad de usar solicitudes "HEAD" en lugar de solicitudes "GET".  El sondeo de estado solo lee el código de estado, no el contenido.</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>Las solicitudes 'HEAD' le permiten consultar un cambio de estado sin obtener todo su contenido.</t>
+        </is>
+      </c>
       <c r="F407" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12169,17 +12137,21 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>add1a775-b13c-477b-acc7-38dbcccd51fe</t>
+          <t>15daeecf-bcbf-4c46-b196-030839fd4864</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="C408" t="inlineStr">
         <is>
-          <t>Preste atención a la cantidad de datos registrados. Los costos relacionados con el ancho de banda y el almacenamiento pueden acumularse si ciertas solicitudes no son necesarias o si los datos de registro se conservan durante un largo período de tiempo.</t>
-        </is>
-      </c>
-      <c r="D408" t="inlineStr"/>
+          <t>Evalúe si debe habilitar la afinidad de sesión cuando las solicitudes del mismo usuario deben dirigirse al mismo servidor back-end.  Desde el punto de vista de la confiabilidad, no recomendamos este enfoque. Si usa esta opción, la aplicación debería recuperarse correctamente sin interrumpir las sesiones de usuario.  También hay una compensación en el equilibrio de carga, ya que restringe la flexibilidad de distribuir el tráfico entre varios back-ends de manera uniforme.</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>Optimice el rendimiento y mantenga la continuidad de las sesiones de usuario, especialmente cuando las aplicaciones dependen del mantenimiento de la información de estado localmente.</t>
+        </is>
+      </c>
       <c r="F408" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12187,21 +12159,17 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>48f2f718-1ae7-476f-a0a1-d6b83e47bbaa</t>
+          <t>2a92f55e-a422-49f4-9a26-8ba819a17323</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="C409" t="inlineStr">
         <is>
-          <t>Use el almacenamiento en caché para los puntos de conexión que lo admitan.</t>
-        </is>
-      </c>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>El almacenamiento en caché optimiza los costos de transferencia de datos, ya que reduce el número de llamadas desde la instancia de Azure Front Door hasta el origen.</t>
-        </is>
-      </c>
+          <t>Arquitectura de clúster: para cargas de trabajo críticas, use zonas de disponibilidad para los clústeres de AKS.</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr"/>
       <c r="F409" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12209,21 +12177,17 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>5a9023b8-c181-41d5-aeb5-9c09a85b0792</t>
+          <t>ad7540f5-4cb1-4fc5-b168-e1cd97a0aef6</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="C410" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de habilitar la compresión de archivos. Para esta configuración, la aplicación debe admitir la compresión y el almacenamiento en caché debe estar habilitado.</t>
-        </is>
-      </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>La compresión reduce el consumo de ancho de banda y mejora el rendimiento.</t>
-        </is>
-      </c>
+          <t>Arquitectura de clúster: planifique el espacio de direcciones IP para asegurarse de que el clúster pueda escalar de forma fiable, incluida la gestión del tráfico de conmutación por error en topologías de varios clústeres.</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr"/>
       <c r="F410" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12231,21 +12195,17 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>84da68ee-7bb0-4a7d-ad70-d53c186ffd3e</t>
+          <t>904fdfa5-af9a-4195-b683-e3bb7627b394</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="C411" t="inlineStr">
         <is>
-          <t>Deshabilite las comprobaciones de estado en grupos de back-end únicos. Si solo tiene un origen configurado en el grupo de origen de Azure Front Door, estas llamadas son innecesarias.</t>
-        </is>
-      </c>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>Puede ahorrar en costos de ancho de banda deshabilitando las solicitudes que no son necesarias para tomar decisiones de enrutamiento.</t>
-        </is>
-      </c>
+          <t>Arquitectura de clúster: revise los procedimientos recomendados para supervisar Kubernetes con Azure Monitor a fin de determinar la mejor estrategia de supervisión para las cargas de trabajo.</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr"/>
       <c r="F411" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12253,14 +12213,14 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>5d3ad5cb-d897-4ae7-8d1c-ae8398c79ed6</t>
+          <t>00c83f06-95ab-41c2-aef0-c770e177066f</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="C412" t="inlineStr">
         <is>
-          <t>Utilice tecnologías de infraestructura como código (IaC). Use tecnologías de IaC como Bicep y plantillas de Azure Resource Manager para aprovisionar la instancia de Azure Front Door. Estos enfoques declarativos proporcionan coherencia y un mantenimiento sencillo. Por ejemplo, mediante el uso de tecnologías IaC, puede adoptar fácilmente nuevas versiones de conjuntos de reglas.</t>
+          <t>Arquitectura de cargas de trabajo: asegúrese de que las cargas de trabajo estén diseñadas para admitir el escalado horizontal e informar sobre la preparación y el estado de las aplicaciones.</t>
         </is>
       </c>
       <c r="D412" t="inlineStr"/>
@@ -12271,14 +12231,14 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>5e8bfd0e-20d9-441f-814d-c2b49e7033ea</t>
+          <t>fa12c27b-df70-41fd-a93a-680e3cacf7ac</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="C413" t="inlineStr">
         <is>
-          <t>Simplifique las configuraciones. Use Azure Front Door para administrar fácilmente las configuraciones. Por ejemplo, supongamos que la arquitectura admite microservicios. Azure Front Door admite funcionalidades de redireccionamiento, por lo que puede usar el redireccionamiento basado en rutas de acceso para dirigirse a servicios individuales.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: asegúrese de que su carga de trabajo se ejecute en grupos de nodos de usuario y elija la SKU del tamaño correcto. Como mínimo, incluya dos nodos para los grupos de nodos de usuario y tres nodos para el grupo de nodos del sistema.</t>
         </is>
       </c>
       <c r="D413" t="inlineStr"/>
@@ -12289,14 +12249,14 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>e9bd20e3-6e61-4907-9b84-4bd50b867875</t>
+          <t>f2297ffc-fec7-43c6-9187-9739264c9d66</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="C414" t="inlineStr">
         <is>
-          <t>Controle la exposición progresiva mediante métodos de enrutamiento de Azure Front Door. Para un enfoque de equilibrio de carga ponderado, puede usar una implementación de valor controlado para enviar un porcentaje específico de tráfico a un back-end. Este enfoque le ayuda a probar nuevas características y versiones en un entorno controlado antes de implementarlas.</t>
+          <t>Arquitectura de clúster: use el Acuerdo de Nivel de Servicio de tiempo de actividad de AKS para cumplir los objetivos de disponibilidad de las cargas de trabajo de producción.</t>
         </is>
       </c>
       <c r="D414" t="inlineStr"/>
@@ -12307,17 +12267,21 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>bb3943fb-6d97-458d-be6a-d9b71e8898d7</t>
+          <t>0b542d27-1846-4d1b-9c5e-bd7c0d079cb3</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="C415" t="inlineStr">
         <is>
-          <t>Recopile y analice datos operativos de Azure Front Door como parte de la supervisión de la carga de trabajo. Capture las métricas y los registros relevantes de Azure Front Door con los registros de Azure Monitor. Estos datos le ayudan a solucionar problemas, comprender los comportamientos de los usuarios y optimizar las operaciones.</t>
-        </is>
-      </c>
-      <c r="D415" t="inlineStr"/>
+          <t>Arquitecturas de clústeres y cargas de trabajo: controle la programación de pods mediante selectores de nodos y afinidad.</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>Permite que el programador de Kubernetes aísle lógicamente las cargas de trabajo por hardware en el nodo. A diferencia de las tolerancias, los pods sin un selector de nodos coincidentes se pueden programar en nodos etiquetados, lo que permite que se consuman los recursos no utilizados en los nodos, pero da prioridad a los pods que definen el selector de nodos coincidentes. Utilice la afinidad de nodo para obtener más flexibilidad, lo que le permite definir qué sucede si el pod no puede coincidir con un nodo.</t>
+        </is>
+      </c>
       <c r="F415" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12325,17 +12289,21 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>5e1264a9-c6cc-4d4e-8e73-7ca4b3f05c17</t>
+          <t>b11892cd-f678-4399-bac8-b98095e250c6</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="C416" t="inlineStr">
         <is>
-          <t>Descargue la administración de certificados en Azure. Alivie la carga operativa asociada con la rotación y las renovaciones de certificaciones.</t>
-        </is>
-      </c>
-      <c r="D416" t="inlineStr"/>
+          <t>Arquitectura del clúster: garantice la selección adecuada del complemento de red en función de los requisitos de la red y el tamaño del clúster.</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>Azure CNI es necesario para escenarios específicos, por ejemplo, grupos de nodos basados en Windows, requisitos de red específicos y directivas de red de Kubernetes. Consulte Kubenet frente a Azure CNI para obtener más información.</t>
+        </is>
+      </c>
       <c r="F416" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12343,19 +12311,19 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>8bdff2ab-0800-45ef-acab-ff7d320856aa</t>
+          <t>9e3e8182-95e7-4953-9a2b-9cc2f77bf717</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="C417" t="inlineStr">
         <is>
-          <t>Utilice el redireccionamiento de HTTP a HTTPS para admitir la compatibilidad con versiones posteriores.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: use el Acuerdo de Nivel de Servicio de tiempo de actividad de AKS para clústeres de nivel de producción.</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Cuando se habilita el redireccionamiento, Azure Front Door redirige automáticamente a los clientes que usan un protocolo anterior para usar HTTPS para una experiencia segura.</t>
+          <t>El Acuerdo de Nivel de Servicio de Tiempo de Actividad de AKS garantiza: - Disponibilidad del 99,95 % del punto de conexión del servidor de la API de Kubernetes para los clústeres de AKS que usan Zonas de disponibilidad de Azure, o - Disponibilidad del 99,9 % para los clústeres de AKS que no usan Zonas de disponibilidad de Azure.</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -12365,19 +12333,19 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>829f4fea-1653-4093-aaf7-93b6a30aae1f</t>
+          <t>4bfaa73e-a949-404a-a93b-a2b0a7feeff5</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="C418" t="inlineStr">
         <is>
-          <t>Capture registros y métricas.  Incluya registros de actividad de recursos, registros de acceso, registros de sondeo de estado y registros de WAF. Configura alertas.</t>
+          <t>Arquitectura de clúster: use zonas de disponibilidad para maximizar la resistencia dentro de una región de Azure mediante la distribución de nodos de agente de AKS en centros de datos físicamente independientes.</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>La supervisión del flujo de entrada es una parte crucial de la supervisión de una aplicación. Desea realizar un seguimiento de las solicitudes y realizar mejoras de rendimiento y seguridad. Necesita datos para depurar la configuración de Azure Front Door.  Con las alertas, puede recibir notificaciones instantáneas de cualquier problema operativo crítico.</t>
+          <t>Al distribuir los grupos de nodos en varias zonas, los nodos de un grupo de nodos seguirán ejecutándose incluso si otra zona ha dejado de funcionar. Si existen requisitos de colocalidad, se puede usar una implementación de AKS normal basada en VMSS en una sola zona o grupos de ubicación por proximidad para minimizar la latencia de los entrenudos.</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -12387,19 +12355,19 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>8ad83783-d01c-4772-a76b-39f7c9d61cc7</t>
+          <t>74ff8612-55b7-4029-81bc-da363b133f16</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="C419" t="inlineStr">
         <is>
-          <t>Revise los informes de análisis integrados.</t>
+          <t>Arquitectura de clúster: adopte una estrategia de varias regiones mediante la implementación de clústeres de AKS implementados en diferentes regiones de Azure para maximizar la disponibilidad y proporcionar continuidad empresarial.</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Una vista holística del perfil de Azure Front Door ayuda a impulsar mejoras basadas en informes de tráfico y seguridad a través de métricas de WAF.</t>
+          <t>Las cargas de trabajo orientadas a Internet deben aprovechar Azure Front Door o Azure Traffic Manager para enrutar el tráfico globalmente a través de clústeres de AKS.</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -12409,19 +12377,19 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>e5e56ee9-79e4-4fa8-9fdb-600748d7df10</t>
+          <t>844d923f-cfe0-4a3a-97ff-67c072c4220c</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="C420" t="inlineStr">
         <is>
-          <t>Utilice certificados TLS administrados cuando sea posible.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: defina las solicitudes y los límites de recursos de pods en los manifiestos de implementación de aplicaciones y aplíquelos con Azure Policy.</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Azure Front Door puede emitir y administrar certificados por usted. Esta función elimina la necesidad de renovar certificados y minimiza el riesgo de una interrupción debido a un certificado TLS no válido o caducado.</t>
+          <t>Los límites de recursos de memoria y CPU del contenedor son necesarios para evitar el agotamiento de recursos en el clúster de Kubernetes.</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -12431,19 +12399,19 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>c2fcfdfb-fedb-4b47-93ac-1988250f76cd</t>
+          <t>f1a92d3f-eab5-4dc2-b0e8-75865842f205</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="C421" t="inlineStr">
         <is>
-          <t>Utilice certificados TLS comodín.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: mantenga el grupo de nodos del sistema aislado de las cargas de trabajo de las aplicaciones.</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>No es necesario modificar la configuración para agregar o especificar cada subdominio por separado.</t>
+          <t>Los grupos de nodos del sistema requieren una SKU de máquina virtual de al menos 2 vCPU y 4 GB de memoria, pero se recomiendan 4 vCPU o más. Sistema de referencia y grupos de nodos de usuario para conocer los requisitos detallados.</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -12453,17 +12421,21 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>0d7deaf4-ec0e-4e32-8b6b-64f3190d10f6</t>
+          <t>55429203-5f2a-4ed1-9107-22d2c47b8ef1</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="C422" t="inlineStr">
         <is>
-          <t>Planifique la capacidad mediante el análisis de los patrones de tráfico esperados. Realice pruebas exhaustivas para comprender el rendimiento de su aplicación bajo diferentes cargas. Tenga en cuenta factores como las transacciones simultáneas, las tasas de solicitudes y la transferencia de datos.</t>
-        </is>
-      </c>
-      <c r="D422" t="inlineStr"/>
+          <t>Arquitecturas de clústeres y cargas de trabajo: separe las aplicaciones de los grupos de nodos dedicados en función de requisitos específicos.</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>Es posible que las aplicaciones compartan la misma configuración y necesiten máquinas virtuales habilitadas para GPU, máquinas virtuales optimizadas para CPU o memoria, o la capacidad de escalar a cero. Evite un gran número de grupos de nodos para reducir la sobrecarga de administración adicional.</t>
+        </is>
+      </c>
       <c r="F422" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12471,17 +12443,21 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>d18003c9-2d90-4e52-b503-5fcdb4ffcd96</t>
+          <t>3603ec74-ada6-4050-baa3-fb25386fb7df</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="C423" t="inlineStr">
         <is>
-          <t>Analice los datos de rendimiento mediante la revisión periódica de los informes de Azure Front Door. Estos informes proporcionan información sobre varias métricas que sirven como indicadores de rendimiento a nivel tecnológico.</t>
-        </is>
-      </c>
-      <c r="D423" t="inlineStr"/>
+          <t>Arquitectura de clúster: utilice una puerta de enlace NAT para clústeres que ejecutan cargas de trabajo que realizan muchas conexiones salientes simultáneas.</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>Para evitar problemas de confiabilidad con las limitaciones de Azure Load Balancer con un alto tráfico de salida simultáneo, utilice una puerta de enlace NAT en su lugar para admitir tráfico de salida confiable a escala.</t>
+        </is>
+      </c>
       <c r="F423" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12489,14 +12465,14 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>87c450a0-6a4a-453c-ae38-b8f21952ab79</t>
+          <t>d441f009-ca99-4caf-9544-c71de5949d10</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="C424" t="inlineStr">
         <is>
-          <t>Optimice las transferencias de datos.</t>
+          <t>Arquitectura de clúster: use identidades administradas para evitar la administración y rotación de principios de servicio.</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
@@ -12507,14 +12483,14 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>a9d9ffe4-3fa7-48c8-bc1d-d0685e495dbe</t>
+          <t>ff274266-a326-4c2c-9b85-7ce50c679b36</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="C425" t="inlineStr">
         <is>
-          <t>Optimice el uso de los sondeos de estado. Obtenga información de estado de los sondeos de estado solo cuando cambie el estado de los orígenes. Logre un equilibrio entre la precisión de la supervisión y la minimización del tráfico innecesario.</t>
+          <t>Arquitectura de clúster: use el control de acceso basado en roles (RBAC) de Kubernetes con el identificador de Microsoft Entra para el acceso con privilegios mínimos y minimice la concesión de privilegios de administrador para proteger la configuración y el acceso a los secretos.</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
@@ -12525,14 +12501,14 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>161bc803-0586-4d21-b2ea-018d78209565</t>
+          <t>d44b3684-99d7-4946-ab75-fb58d9d8626e</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="C426" t="inlineStr">
         <is>
-          <t>Revise el método de enrutamiento de origen. Azure Front Door proporciona varios métodos de enrutamiento, incluido el enrutamiento basado en latencia, basado en prioridades, ponderado y basado en afinidad de sesión, hasta el origen. Estos métodos afectan significativamente al rendimiento de la aplicación. Para obtener más información sobre la mejor opción de enrutamiento de tráfico para su escenario, consulte Métodos de enrutamiento de tráfico hasta el origen.</t>
+          <t>Arquitectura de clúster: use Microsoft Defender para contenedores con Azure Sentinel para detectar y responder rápidamente a las amenazas en el clúster y las cargas de trabajo que se ejecutan en ellos.</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
@@ -12543,14 +12519,14 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>8596ddcf-3f3c-4b1c-baa1-a7eb844b2fb6</t>
+          <t>12e0cc02-b585-4d6f-97be-1b073e57522c</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="C427" t="inlineStr">
         <is>
-          <t>Revise la ubicación de los servidores de origen. La ubicación de los servidores de origen afecta a la capacidad de respuesta de la aplicación. Los servidores de origen deben estar más cerca de los usuarios. Azure Front Door garantiza que los usuarios de una ubicación específica accedan al punto de entrada de Azure Front Door más cercano. Las ventajas de rendimiento incluyen una experiencia de usuario más rápida, un mejor uso del enrutamiento basado en latencia por parte de Azure Front Door y un tiempo de transferencia de datos minimizado mediante el almacenamiento en caché, que almacena el contenido más cerca de los usuarios.</t>
+          <t>Arquitectura de clúster: implemente un clúster de AKS privado para asegurarse de que el tráfico de administración de clústeres al servidor de API permanece en la red privada. O bien, utilice la lista de permitidos del servidor de API para clústeres no privados.</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
@@ -12561,21 +12537,17 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>205d3288-088c-4f24-af39-f9cb610c54a1</t>
+          <t>8e9c196f-b93a-46c5-9507-1e5cad83dd21</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="C428" t="inlineStr">
         <is>
-          <t>Habilite el almacenamiento en caché.  Puede optimizar las cadenas de consulta para el almacenamiento en caché. En el caso de contenido puramente estático, omita las cadenas de consulta para maximizar el uso de la memoria caché.  Si la aplicación usa cadenas de consulta, considere la posibilidad de incluirlas en la clave de caché. La inclusión de las cadenas de consulta en la clave de caché permite a Azure Front Door servir respuestas almacenadas en caché u otras respuestas, en función de la configuración.</t>
-        </is>
-      </c>
-      <c r="D428" t="inlineStr">
-        <is>
-          <t>Azure Front Door ofrece una solución de red de entrega de contenido sólida que almacena en caché el contenido en el perímetro de la red. El almacenamiento en caché reduce la carga en los servidores back-end y reduce el movimiento de datos a través de la red, lo que ayuda a descargar el uso del ancho de banda.</t>
-        </is>
-      </c>
+          <t>Arquitectura de carga de trabajo: utilice un firewall de aplicaciones web para proteger el tráfico HTTP(S).</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr"/>
       <c r="F428" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12583,21 +12555,17 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>2f6a39a1-884a-4661-accd-f534bf795a96</t>
+          <t>4658f193-0b5d-41c9-b2c9-0a5f500799ea</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="C429" t="inlineStr">
         <is>
-          <t>Usa la compresión de archivos cuando accedas a contenido descargable.</t>
-        </is>
-      </c>
-      <c r="D429" t="inlineStr">
-        <is>
-          <t>La compresión en Azure Front Door ayuda a entregar contenido en el formato óptimo, tiene una carga más pequeña y entrega contenido a los usuarios más rápido.</t>
-        </is>
-      </c>
+          <t>Arquitectura de carga de trabajo: asegúrese de que su canalización de CI/CID esté reforzada con el análisis compatible con contenedores.</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr"/>
       <c r="F429" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12605,19 +12573,19 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>09c90ce3-ade6-413a-9c1b-45d33d6d9069</t>
+          <t>feba8909-0760-4a87-833a-b36fabbe722e</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="C430" t="inlineStr">
         <is>
-          <t>Al configurar sondeos de estado en Azure Front Door, considere la posibilidad de usar solicitudes "HEAD" en lugar de solicitudes "GET".  El sondeo de estado solo lee el código de estado, no el contenido.</t>
+          <t>Arquitectura de clúster: use la integración de Microsoft Entra.</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Las solicitudes 'HEAD' le permiten consultar un cambio de estado sin obtener todo su contenido.</t>
+          <t>El uso de Microsoft Entra ID centraliza el componente de administración de identidades. Cualquier cambio en el estado de la cuenta de usuario o del grupo se actualiza automáticamente en el acceso al clúster de AKS. Los desarrolladores y propietarios de aplicaciones de su clúster de Kubernetes necesitan acceso a diferentes recursos.</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -12627,19 +12595,14 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>15daeecf-bcbf-4c46-b196-030839fd4864</t>
+          <t>463da713-377d-46e1-a9cf-a384a0657537</t>
         </is>
       </c>
     </row>
     <row r="431">
-      <c r="C431" t="inlineStr">
-        <is>
-          <t>Evalúe si debe habilitar la afinidad de sesión cuando las solicitudes del mismo usuario deben dirigirse al mismo servidor back-end.  Desde el punto de vista de la confiabilidad, no recomendamos este enfoque. Si usa esta opción, la aplicación debería recuperarse correctamente sin interrumpir las sesiones de usuario.  También hay una compensación en el equilibrio de carga, ya que restringe la flexibilidad de distribuir el tráfico entre varios back-ends de manera uniforme.</t>
-        </is>
-      </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Optimice el rendimiento y mantenga la continuidad de las sesiones de usuario, especialmente cuando las aplicaciones dependen del mantenimiento de la información de estado localmente.</t>
+          <t>AKS y Microsoft Entra ID habilitan la autenticación con Azure Container Registry sin el uso de secretos 'imagePullSecrets'. Para obtener más información, consulte Autenticación con Azure Container Registry de Azure Kubernetes Service.</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -12649,17 +12612,21 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>2a92f55e-a422-49f4-9a26-8ba819a17323</t>
+          <t>f9f7946f-b9b6-40d1-9f30-0bfb38be5c74</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="C432" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: para cargas de trabajo críticas, use zonas de disponibilidad para los clústeres de AKS.</t>
-        </is>
-      </c>
-      <c r="D432" t="inlineStr"/>
+          <t>Arquitectura de clúster: proteja el tráfico de red al servidor de API con un clúster de AKS privado.</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>De forma predeterminada, el tráfico de red entre los grupos de nodos y el servidor de API viaja por la red troncal de Microsoft; mediante el uso de un clúster privado, puede asegurarse de que el tráfico de red al servidor de API permanezca solo en la red privada.</t>
+        </is>
+      </c>
       <c r="F432" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12667,17 +12634,21 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>ad7540f5-4cb1-4fc5-b168-e1cd97a0aef6</t>
+          <t>10d61300-19e4-403c-bf22-a554c56b4afc</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="C433" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: planifique el espacio de direcciones IP para asegurarse de que el clúster pueda escalar de forma fiable, incluida la gestión del tráfico de conmutación por error en topologías de varios clústeres.</t>
-        </is>
-      </c>
-      <c r="D433" t="inlineStr"/>
+          <t>Arquitectura de clúster: en el caso de los clústeres de AKS no privados, use intervalos de direcciones IP autorizados por el servidor de API.</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>Al utilizar clústeres públicos, aún puede limitar el tráfico que puede llegar al servidor de API de clústeres mediante la característica de rango de IP autorizado. Incluya orígenes como las direcciones IP públicas de los agentes de compilación de implementación, la administración de operaciones y el punto de salida de los grupos de nodos (como Azure Firewall).</t>
+        </is>
+      </c>
       <c r="F433" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12685,17 +12656,21 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>904fdfa5-af9a-4195-b683-e3bb7627b394</t>
+          <t>b845e9a6-c5f3-4cf7-a956-6f1ffde88569</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="C434" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: habilite Container Insights para supervisar el clúster y configurar alertas para eventos que afecten a la confiabilidad.</t>
-        </is>
-      </c>
-      <c r="D434" t="inlineStr"/>
+          <t>Arquitectura de clúster: proteja el servidor de API con RBAC de Microsoft Entra.</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Proteger el acceso al servidor de API de Kubernetes es una de las cosas más importantes que puede hacer para proteger su clúster. Integre el control de acceso basado en roles (RBAC) de Kubernetes con el ID de Microsoft Entra para controlar el acceso al servidor de API. Deshabilite las cuentas locales para aplicar todo el acceso al clúster mediante identidades basadas en el identificador de Microsoft Entra.</t>
+        </is>
+      </c>
       <c r="F434" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12703,17 +12678,21 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>2c1ab1ce-ee84-4737-b426-d236a98d3ae5</t>
+          <t>0b3a4624-de6e-4cfe-af5b-19ad4708087d</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="C435" t="inlineStr">
         <is>
-          <t>Arquitectura de cargas de trabajo: asegúrese de que las cargas de trabajo estén diseñadas para admitir el escalado horizontal e informar sobre la preparación y el estado de las aplicaciones.</t>
-        </is>
-      </c>
-      <c r="D435" t="inlineStr"/>
+          <t>Arquitectura de clúster: use directivas de red de Azure o Calico.</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>Proteja y controle el tráfico de red entre los pods de un clúster.</t>
+        </is>
+      </c>
       <c r="F435" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12721,17 +12700,21 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>fa12c27b-df70-41fd-a93a-680e3cacf7ac</t>
+          <t>caabd1f2-e6a9-4c55-9115-349d1d6716bb</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="C436" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: asegúrese de que su carga de trabajo se ejecute en grupos de nodos de usuario y elija la SKU del tamaño correcto. Como mínimo, incluya dos nodos para los grupos de nodos de usuario y tres nodos para el grupo de nodos del sistema.</t>
-        </is>
-      </c>
-      <c r="D436" t="inlineStr"/>
+          <t>Arquitectura de clústeres: proteja clústeres y pods con Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Azure Policy puede ayudar a aplicar la aplicación y las protecciones a gran escala en los clústeres de forma centralizada y coherente. También puede controlar qué funciones se otorgan a los pods y si algo va en contra de la política de la empresa.</t>
+        </is>
+      </c>
       <c r="F436" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12739,17 +12722,21 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>f2297ffc-fec7-43c6-9187-9739264c9d66</t>
+          <t>d65686d0-3988-49b5-8a98-59818ba81c50</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="C437" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: use el Acuerdo de Nivel de Servicio de tiempo de actividad de AKS para cumplir los objetivos de disponibilidad de las cargas de trabajo de producción.</t>
-        </is>
-      </c>
-      <c r="D437" t="inlineStr"/>
+          <t>Arquitectura de clúster: acceso seguro de contenedores a los recursos.</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Limite el acceso a las acciones que pueden realizar los contenedores. Proporcione el menor número de permisos y evite el uso de la raíz o la escalada con privilegios.</t>
+        </is>
+      </c>
       <c r="F437" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12757,19 +12744,19 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>0b542d27-1846-4d1b-9c5e-bd7c0d079cb3</t>
+          <t>f1e41c15-87e4-4135-ab6c-fb6803194f12</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="C438" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: controle la programación de pods mediante selectores de nodos y afinidad.</t>
+          <t>Arquitectura de carga de trabajo: utilice un firewall de aplicaciones web para proteger el tráfico HTTP(S).</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Permite que el programador de Kubernetes aísle lógicamente las cargas de trabajo por hardware en el nodo. A diferencia de las tolerancias, los pods sin un selector de nodos coincidentes se pueden programar en nodos etiquetados, lo que permite que se consuman los recursos no utilizados en los nodos, pero da prioridad a los pods que definen el selector de nodos coincidentes. Utilice la afinidad de nodo para obtener más flexibilidad, lo que le permite definir qué sucede si el pod no puede coincidir con un nodo.</t>
+          <t>Para examinar el tráfico entrante en busca de posibles ataques, use un firewall de aplicaciones web como Azure Web Application Firewall (WAF) en Azure Application Gateway o Azure Front Door.</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -12779,19 +12766,19 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>b11892cd-f678-4399-bac8-b98095e250c6</t>
+          <t>4658f193-0b5d-41c9-b2c9-0a5f500799ea</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="C439" t="inlineStr">
         <is>
-          <t>Arquitectura del clúster: garantice la selección adecuada del complemento de red en función de los requisitos de la red y el tamaño del clúster.</t>
+          <t>Arquitectura de clúster: controle el tráfico de salida del clúster.</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Azure CNI es necesario para escenarios específicos, por ejemplo, grupos de nodos basados en Windows, requisitos de red específicos y directivas de red de Kubernetes. Consulte Kubenet frente a Azure CNI para obtener más información.</t>
+          <t>Asegúrese de que el tráfico de salida del clúster pasa a través de un punto de seguridad de red, como Azure Firewall o un proxy HTTP.</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
@@ -12801,19 +12788,19 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>9e3e8182-95e7-4953-9a2b-9cc2f77bf717</t>
+          <t>fa580200-65eb-4cc8-9c23-a5e68f1d86a7</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="C440" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: use el Acuerdo de Nivel de Servicio de tiempo de actividad de AKS para clústeres de nivel de producción.</t>
+          <t>Arquitectura de clúster: use el identificador de carga de trabajo de Microsoft Entra de código abierto y el controlador CSI del almacén de secretos con Azure Key Vault.</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>El Acuerdo de Nivel de Servicio de Tiempo de Actividad de AKS garantiza: - Disponibilidad del 99,95 % del punto de conexión del servidor de la API de Kubernetes para los clústeres de AKS que usan Zonas de disponibilidad de Azure, o - Disponibilidad del 99,9 % para los clústeres de AKS que no usan Zonas de disponibilidad de Azure.</t>
+          <t>Proteja y rote secretos, certificados y cadenas de conexión en Azure Key Vault con un cifrado seguro. Proporciona un registro de auditoría de acceso y mantiene los secretos principales fuera de la canalización de implementación.</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -12823,19 +12810,19 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>4bfaa73e-a949-404a-a93b-a2b0a7feeff5</t>
+          <t>0f5b5089-02fc-4f46-839c-7ff86610366a</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="C441" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: configure la supervisión del clúster con Container Insights.</t>
+          <t>Arquitectura de clúster: use Microsoft Defender para contenedores.</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Container Insights ayuda a supervisar el estado y el rendimiento de los controladores, nodos y contenedores que están disponibles en Kubernetes a través de la API de métricas. La integración con Prometheus permite la recopilación de métricas de aplicaciones y cargas de trabajo.</t>
+          <t>Supervise y mantenga la seguridad de sus clústeres, contenedores y sus aplicaciones.</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -12845,21 +12832,17 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>6661db46-26b0-4cc9-9002-f52bce55ca03</t>
+          <t>d2895e72-e9c1-4af7-9e5a-53edc92423e7</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="C442" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: use zonas de disponibilidad para maximizar la resistencia dentro de una región de Azure mediante la distribución de nodos de agente de AKS en centros de datos físicamente independientes.</t>
-        </is>
-      </c>
-      <c r="D442" t="inlineStr">
-        <is>
-          <t>Al distribuir los grupos de nodos en varias zonas, los nodos de un grupo de nodos seguirán ejecutándose incluso si otra zona ha dejado de funcionar. Si existen requisitos de colocalidad, se puede usar una implementación de AKS normal basada en VMSS en una sola zona o grupos de ubicación por proximidad para minimizar la latencia de los entrenudos.</t>
-        </is>
-      </c>
+          <t>Arquitectura de clúster: use la SKU de máquina virtual adecuada por grupo de nodos y las instancias reservadas en las que se espera capacidad a largo plazo.</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr"/>
       <c r="F442" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12867,21 +12850,17 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>74ff8612-55b7-4029-81bc-da363b133f16</t>
+          <t>c5148caa-6478-4ba8-993b-1a8640716d66</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="C443" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: adopte una estrategia de varias regiones mediante la implementación de clústeres de AKS implementados en diferentes regiones de Azure para maximizar la disponibilidad y proporcionar continuidad empresarial.</t>
-        </is>
-      </c>
-      <c r="D443" t="inlineStr">
-        <is>
-          <t>Las cargas de trabajo orientadas a Internet deben aprovechar Azure Front Door o Azure Traffic Manager para enrutar el tráfico globalmente a través de clústeres de AKS.</t>
-        </is>
-      </c>
+          <t>Arquitecturas de clústeres y cargas de trabajo: use el nivel y el tamaño de disco administrado adecuados.</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr"/>
       <c r="F443" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12889,21 +12868,12 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>844d923f-cfe0-4a3a-97ff-67c072c4220c</t>
+          <t>90ac2d0c-790e-4b2b-be35-60a55a19397a</t>
         </is>
       </c>
     </row>
     <row r="444">
-      <c r="C444" t="inlineStr">
-        <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: defina las solicitudes y los límites de recursos de pods en los manifiestos de implementación de aplicaciones y aplíquelos con Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D444" t="inlineStr">
-        <is>
-          <t>Los límites de recursos de memoria y CPU del contenedor son necesarios para evitar el agotamiento de recursos en el clúster de Kubernetes.</t>
-        </is>
-      </c>
+      <c r="D444" t="inlineStr"/>
       <c r="F444" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12911,21 +12881,17 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>f1a92d3f-eab5-4dc2-b0e8-75865842f205</t>
+          <t>df9bb42d-c34f-488f-a50c-0624ca247647</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="C445" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: mantenga el grupo de nodos del sistema aislado de las cargas de trabajo de las aplicaciones.</t>
-        </is>
-      </c>
-      <c r="D445" t="inlineStr">
-        <is>
-          <t>Los grupos de nodos del sistema requieren una SKU de máquina virtual de al menos 2 vCPU y 4 GB de memoria, pero se recomiendan 4 vCPU o más. Sistema de referencia y grupos de nodos de usuario para conocer los requisitos detallados.</t>
-        </is>
-      </c>
+          <t>Arquitectura de clústeres y cargas de trabajo: use escaladores automáticos para reducir horizontalmente cuando las cargas de trabajo estén menos activas.</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr"/>
       <c r="F445" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12933,19 +12899,19 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>55429203-5f2a-4ed1-9107-22d2c47b8ef1</t>
+          <t>43ffe0b7-7bc4-42b0-a370-af4a943b19c0</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="C446" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: separe las aplicaciones de los grupos de nodos dedicados en función de requisitos específicos.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: alinee la selección de SKU y el tamaño del disco administrado con los requisitos de la carga de trabajo.</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Es posible que las aplicaciones compartan la misma configuración y necesiten máquinas virtuales habilitadas para GPU, máquinas virtuales optimizadas para CPU o memoria, o la capacidad de escalar a cero. Evite un gran número de grupos de nodos para reducir la sobrecarga de administración adicional.</t>
+          <t>Hacer coincidir su selección con las demandas de su carga de trabajo garantiza que no pague por recursos innecesarios.</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -12955,19 +12921,19 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>3603ec74-ada6-4050-baa3-fb25386fb7df</t>
+          <t>c4ce3529-2891-41f1-aa3f-e87a791b01a3</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="C447" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: utilice una puerta de enlace NAT para clústeres que ejecutan cargas de trabajo que realizan muchas conexiones salientes simultáneas.</t>
+          <t>Arquitectura de clúster: seleccione el tipo de instancia de máquina virtual adecuado.</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Para evitar problemas de confiabilidad con las limitaciones de Azure Load Balancer con un alto tráfico de salida simultáneo, utilice una puerta de enlace NAT en su lugar para admitir tráfico de salida confiable a escala.</t>
+          <t>La selección del tipo de instancia de máquina virtual correcto es fundamental, ya que afecta directamente al costo de ejecutar aplicaciones en AKS. La elección de una instancia de alto rendimiento sin una utilización adecuada puede generar gastos innecesarios, mientras que la elección de una instancia menos potente puede provocar problemas de rendimiento y un mayor tiempo de inactividad. Para determinar el tipo de instancia de máquina virtual adecuado, tenga en cuenta las características de la carga de trabajo, los requisitos de recursos y las necesidades de disponibilidad.</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -12977,17 +12943,21 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>d441f009-ca99-4caf-9544-c71de5949d10</t>
+          <t>1088060f-7467-48db-950d-5890503e2974</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="C448" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: use identidades administradas para evitar la administración y rotación de principios de servicio.</t>
-        </is>
-      </c>
-      <c r="D448" t="inlineStr"/>
+          <t>Arquitectura de clúster: seleccione máquinas virtuales en función de la arquitectura de Arm.</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>AKS admite la creación de nodos de agente ARM64 de Ubuntu, así como una combinación de nodos de arquitectura Intel y ARM dentro de un clúster que puede ofrecer un mejor rendimiento a un costo menor.</t>
+        </is>
+      </c>
       <c r="F448" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -12995,17 +12965,21 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>ff274266-a326-4c2c-9b85-7ce50c679b36</t>
+          <t>ce50c713-ad3e-4781-9193-63485491aa48</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="C449" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: use el control de acceso basado en roles (RBAC) de Kubernetes con el identificador de Microsoft Entra para el acceso con privilegios mínimos y minimice la concesión de privilegios de administrador para proteger la configuración y el acceso a los secretos.</t>
-        </is>
-      </c>
-      <c r="D449" t="inlineStr"/>
+          <t>Arquitectura de clúster: seleccione Azure Spot Virtual Machines.</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>Las máquinas virtuales de acceso puntual le permiten aprovechar la capacidad de Azure no utilizada con importantes descuentos (hasta un 90 % en comparación con los precios de pago por uso). Si Azure necesita recuperar capacidad, la infraestructura de Azure expulsa los nodos de acceso puntual.</t>
+        </is>
+      </c>
       <c r="F449" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13013,17 +12987,21 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>d44b3684-99d7-4946-ab75-fb58d9d8626e</t>
+          <t>7a281f48-217a-4668-aa30-c9d2c84d0d72</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="C450" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: use Microsoft Defender para contenedores con Azure Sentinel para detectar y responder rápidamente a las amenazas en el clúster y las cargas de trabajo que se ejecutan en ellos.</t>
-        </is>
-      </c>
-      <c r="D450" t="inlineStr"/>
+          <t>Arquitectura de clúster: seleccione la región adecuada.</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>Debido a muchos factores, el costo de los recursos varía según la región de Azure. Evalúe el costo, la latencia y los requisitos de cumplimiento para asegurarse de que está ejecutando su carga de trabajo de manera rentable y que no afecta a sus usuarios finales ni genera cargos de red adicionales.</t>
+        </is>
+      </c>
       <c r="F450" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13031,17 +13009,21 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>12e0cc02-b585-4d6f-97be-1b073e57522c</t>
+          <t>433efe5b-3776-459c-8560-058f87773838</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="C451" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: implemente un clúster de AKS privado para asegurarse de que el tráfico de administración de clústeres al servidor de API permanece en la red privada. O bien, utilice la lista de permitidos del servidor de API para clústeres no privados.</t>
-        </is>
-      </c>
-      <c r="D451" t="inlineStr"/>
+          <t>Arquitectura de carga de trabajo: Mantenga imágenes pequeñas y optimizadas.</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>La optimización de las imágenes ayuda a reducir los costos, ya que los nuevos nodos necesitan descargar estas imágenes. Cree imágenes de forma que permita que el contenedor se inicie lo antes posible para ayudar a evitar errores de solicitud de usuario o tiempos de espera mientras se inicia la aplicación, lo que podría provocar un sobreaprovisionamiento.</t>
+        </is>
+      </c>
       <c r="F451" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13049,17 +13031,21 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>8e9c196f-b93a-46c5-9507-1e5cad83dd21</t>
+          <t>65d3f70e-457a-4d62-8140-de2b0c4f7f99</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="C452" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: utilice un firewall de aplicaciones web para proteger el tráfico HTTP(S).</t>
-        </is>
-      </c>
-      <c r="D452" t="inlineStr"/>
+          <t>Arquitectura de clúster: habilite el escalador automático de clústeres para reducir automáticamente el número de nodos de agente en respuesta al exceso de capacidad de recursos.</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>Reducir automáticamente el número de nodos del clúster de AKS permite ejecutar un clúster eficaz cuando la demanda es baja y escalar verticalmente cuando vuelve la demanda.</t>
+        </is>
+      </c>
       <c r="F452" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13067,17 +13053,21 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>4658f193-0b5d-41c9-b2c9-0a5f500799ea</t>
+          <t>b4d583e3-7268-41d9-9e93-0394bed77298</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="C453" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: asegúrese de que su canalización de CI/CID esté reforzada con el análisis compatible con contenedores.</t>
-        </is>
-      </c>
-      <c r="D453" t="inlineStr"/>
+          <t>Arquitectura de clúster: habilite el aprovisionamiento automático de nodos para automatizar la selección de SKU de máquina virtual.</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>El aprovisionamiento automático de nodos simplifica el proceso de selección de SKU y decide, en función de los requisitos de recursos de pod pendientes, la configuración óptima de la máquina virtual para ejecutar cargas de trabajo de la manera más eficiente y rentable.</t>
+        </is>
+      </c>
       <c r="F453" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13085,19 +13075,19 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>feba8909-0760-4a87-833a-b36fabbe722e</t>
+          <t>48ae7de4-26f7-457c-b1a4-a18467b7401d</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="C454" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: use la integración de Microsoft Entra.</t>
+          <t>Arquitectura de cargas de trabajo: usa el escalador automático horizontal de pods.</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>El uso de Microsoft Entra ID centraliza el componente de administración de identidades. Cualquier cambio en el estado de la cuenta de usuario o del grupo se actualiza automáticamente en el acceso al clúster de AKS. Los desarrolladores y propietarios de aplicaciones de su clúster de Kubernetes necesitan acceso a diferentes recursos.</t>
+          <t>Ajuste el número de pods de una implementación en función del uso de la CPU u otras métricas seleccionadas, que admitan operaciones de reducción horizontal de clústeres.</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -13107,19 +13097,19 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>463da713-377d-46e1-a9cf-a384a0657537</t>
+          <t>d3194174-d037-4a35-9cd5-244d377cfabb</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="C455" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: autentique con el identificador de Microsoft Entra en Azure Container Registry.</t>
+          <t>Arquitectura de carga de trabajo: use el escalador automático de pods verticales (versión preliminar).</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>AKS y Microsoft Entra ID habilitan la autenticación con Azure Container Registry sin el uso de secretos 'imagePullSecrets'. Para obtener más información, consulte Autenticación con Azure Container Registry de Azure Kubernetes Service.</t>
+          <t>Ajusta el tamaño de tus pods y establece dinámicamente solicitudes y límites en función del uso histórico.</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -13129,19 +13119,19 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>f9f7946f-b9b6-40d1-9f30-0bfb38be5c74</t>
+          <t>091dc052-7bf8-4dd1-aca1-d514ddcb2aa8</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="C456" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: proteja el tráfico de red al servidor de API con un clúster de AKS privado.</t>
+          <t>Arquitectura de carga de trabajo: use el escalado automático basado en eventos (KEDA) de Kubernetes.</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>De forma predeterminada, el tráfico de red entre los grupos de nodos y el servidor de API viaja por la red troncal de Microsoft; mediante el uso de un clúster privado, puede asegurarse de que el tráfico de red al servidor de API permanezca solo en la red privada.</t>
+          <t>Escala en función del número de eventos que se están procesando. Elija entre un amplio catálogo de 50+ escaladores KEDA.</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -13151,19 +13141,19 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>10d61300-19e4-403c-bf22-a554c56b4afc</t>
+          <t>fe3d7c5f-f5a9-4b5e-a4f9-81bf76930967</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="C457" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: en el caso de los clústeres de AKS no privados, use intervalos de direcciones IP autorizados por el servidor de API.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: adopte una disciplina financiera y una práctica cultural en la nube para impulsar la propiedad del uso de la nube.</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Al utilizar clústeres públicos, aún puede limitar el tráfico que puede llegar al servidor de API de clústeres mediante la característica de rango de IP autorizado. Incluya orígenes como las direcciones IP públicas de los agentes de compilación de implementación, la administración de operaciones y el punto de salida de los grupos de nodos (como Azure Firewall).</t>
+          <t>La base para permitir la optimización de costos es la difusión de un clúster de ahorro de costos. Un enfoque de operaciones financieras (FinOps) se utiliza a menudo para ayudar a las organizaciones a reducir los costos de la nube. Se trata de una práctica que implica la colaboración entre los equipos de finanzas, operaciones e ingeniería para impulsar la alineación de los objetivos de ahorro de costes y aportar transparencia a los costes de la nube.</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -13173,19 +13163,19 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>b845e9a6-c5f3-4cf7-a956-6f1ffde88569</t>
+          <t>3a7d1aa1-37a0-40aa-acbf-ff1852c15c93</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="C458" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: proteja el servidor de API con RBAC de Microsoft Entra.</t>
+          <t>Arquitectura de clúster: regístrese en Azure Reservations o Azure Savings Plan.</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Proteger el acceso al servidor de API de Kubernetes es una de las cosas más importantes que puede hacer para proteger su clúster. Integre el control de acceso basado en roles (RBAC) de Kubernetes con el ID de Microsoft Entra para controlar el acceso al servidor de API. Deshabilite las cuentas locales para aplicar todo el acceso al clúster mediante identidades basadas en el identificador de Microsoft Entra.</t>
+          <t>Si planeó correctamente la capacidad, la carga de trabajo es predecible y existe durante un período de tiempo prolongado, regístrese en una reserva de Azure o en un plan de ahorro para reducir aún más los costos de recursos.</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -13195,19 +13185,19 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>0b3a4624-de6e-4cfe-af5b-19ad4708087d</t>
+          <t>ed669535-43d7-4988-9ec5-3b70762e54eb</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="C459" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: use directivas de red de Azure o Calico.</t>
+          <t>Arquitectura de clúster: configure el complemento Análisis de costos de AKS.</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Proteja y controle el tráfico de red entre los pods de un clúster.</t>
+          <t>La extensión de clúster de análisis de costos le permite obtener información detallada sobre los costos asociados con varios recursos de Kubernetes en sus clústeres o espacios de nombres.</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -13217,21 +13207,17 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>caabd1f2-e6a9-4c55-9115-349d1d6716bb</t>
+          <t>6588bddb-d7b6-41a6-8b87-628a758df2fe</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="C460" t="inlineStr">
         <is>
-          <t>Arquitectura de clústeres: proteja clústeres y pods con Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D460" t="inlineStr">
-        <is>
-          <t>Azure Policy puede ayudar a aplicar la aplicación y las protecciones a gran escala en los clústeres de forma centralizada y coherente. También puede controlar qué funciones se otorgan a los pods y si algo va en contra de la política de la empresa.</t>
-        </is>
-      </c>
+          <t>Arquitectura de clúster: use una implementación basada en plantillas con Bicep, Terraform u otros. Asegúrese de que todas las implementaciones sean repetibles, rastreables y almacenadas en un repositorio de código fuente.</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr"/>
       <c r="F460" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13239,21 +13225,17 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>d65686d0-3988-49b5-8a98-59818ba81c50</t>
+          <t>38e28f4f-7465-4e3a-bf05-4d6072d4bae6</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="C461" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: acceso seguro de contenedores a los recursos.</t>
-        </is>
-      </c>
-      <c r="D461" t="inlineStr">
-        <is>
-          <t>Limite el acceso a las acciones que pueden realizar los contenedores. Proporcione el menor número de permisos y evite el uso de la raíz o la escalada con privilegios.</t>
-        </is>
-      </c>
+          <t>Arquitectura de clúster: cree un proceso automatizado para garantizar que sus clústeres se inicien con las configuraciones e implementaciones necesarias en todo el clúster. Esto se realiza a menudo mediante GitOps.</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr"/>
       <c r="F461" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13261,21 +13243,17 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>f1e41c15-87e4-4135-ab6c-fb6803194f12</t>
+          <t>1255b75f-0f3b-4fd7-96c5-17e4e30bbe11</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="C462" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: utilice un firewall de aplicaciones web para proteger el tráfico HTTP(S).</t>
-        </is>
-      </c>
-      <c r="D462" t="inlineStr">
-        <is>
-          <t>Para examinar el tráfico entrante en busca de posibles ataques, use un firewall de aplicaciones web como Azure Web Application Firewall (WAF) en Azure Application Gateway o Azure Front Door.</t>
-        </is>
-      </c>
+          <t>Arquitectura de carga de trabajo: utilice procesos de implementación repetibles y automatizados para su carga de trabajo dentro de su ciclo de vida de desarrollo de software.</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr"/>
       <c r="F462" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13283,21 +13261,17 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>4658f193-0b5d-41c9-b2c9-0a5f500799ea</t>
+          <t>07b2d10f-e373-484e-9ece-f182a1b714b2</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="C463" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: controle el tráfico de salida del clúster.</t>
-        </is>
-      </c>
-      <c r="D463" t="inlineStr">
-        <is>
-          <t>Asegúrese de que el tráfico de salida del clúster pasa a través de un punto de seguridad de red, como Azure Firewall o un proxy HTTP.</t>
-        </is>
-      </c>
+          <t>Arquitectura de clúster: habilite la configuración de diagnóstico para garantizar que se registren las interacciones del plano de control o del servidor de API principal.</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr"/>
       <c r="F463" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13305,21 +13279,17 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>fa580200-65eb-4cc8-9c23-a5e68f1d86a7</t>
+          <t>6ec1af22-6132-43a6-9286-20333ee6e244</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="C464" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: use el identificador de carga de trabajo de Microsoft Entra de código abierto y el controlador CSI del almacén de secretos con Azure Key Vault.</t>
-        </is>
-      </c>
-      <c r="D464" t="inlineStr">
-        <is>
-          <t>Proteja y rote secretos, certificados y cadenas de conexión en Azure Key Vault con un cifrado seguro. Proporciona un registro de auditoría de acceso y mantiene los secretos principales fuera de la canalización de implementación.</t>
-        </is>
-      </c>
+          <t>Arquitecturas de clústeres y cargas de trabajo: revise los procedimientos recomendados para supervisar Kubernetes con Azure Monitor a fin de determinar la mejor estrategia de supervisión para las cargas de trabajo.</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr"/>
       <c r="F464" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13327,21 +13297,17 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>0f5b5089-02fc-4f46-839c-7ff86610366a</t>
+          <t>98844a97-9372-4cd2-ad68-aae36a43de4c</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="C465" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: use Microsoft Defender para contenedores.</t>
-        </is>
-      </c>
-      <c r="D465" t="inlineStr">
-        <is>
-          <t>Supervise y mantenga la seguridad de sus clústeres, contenedores y sus aplicaciones.</t>
-        </is>
-      </c>
+          <t>Arquitectura de la carga de trabajo: la carga de trabajo debe diseñarse para emitir datos de telemetría que se puedan recopilar, que también deben incluir estados de vitalidad y preparación.</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr"/>
       <c r="F465" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13349,14 +13315,14 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>d2895e72-e9c1-4af7-9e5a-53edc92423e7</t>
+          <t>20301c55-a815-4a3a-83ec-fe6d1789e697</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="C466" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: use la SKU de máquina virtual adecuada por grupo de nodos y las instancias reservadas en las que se espera capacidad a largo plazo.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: utilice prácticas de ingeniería del caos dirigidas a Kubernetes para identificar problemas de fiabilidad de aplicaciones o plataformas.</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
@@ -13367,14 +13333,14 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>c5148caa-6478-4ba8-993b-1a8640716d66</t>
+          <t>13d37985-5266-4064-97f0-7c7aa7491941</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="C467" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: use el nivel y el tamaño de disco administrado adecuados.</t>
+          <t>Arquitectura de carga de trabajo: optimice su carga de trabajo para que funcione e implemente de manera eficiente en un contenedor.</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
@@ -13385,14 +13351,14 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>90ac2d0c-790e-4b2b-be35-60a55a19397a</t>
+          <t>d96fea7e-598f-4f59-95c6-d75fc8db1c7a</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="C468" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: revise las métricas de rendimiento, empezando por la CPU, la memoria, el almacenamiento y la red, para identificar las oportunidades de optimización de costos por clúster, nodos y espacio de nombres.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: aplique la gobernanza de clústeres y cargas de trabajo mediante Azure Policy.</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
@@ -13403,17 +13369,21 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>df9bb42d-c34f-488f-a50c-0624ca247647</t>
+          <t>8e8fbde0-f037-4eec-bac2-634ab73d7b0a</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="C469" t="inlineStr">
         <is>
-          <t>Arquitectura de clústeres y cargas de trabajo: use escaladores automáticos para reducir horizontalmente cuando las cargas de trabajo estén menos activas.</t>
-        </is>
-      </c>
-      <c r="D469" t="inlineStr"/>
+          <t>Arquitecturas de clústeres y cargas de trabajo: consulte la documentación de procedimientos recomendados de AKS.</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>Para compilar y ejecutar aplicaciones correctamente en AKS, hay que comprender e implementar consideraciones clave. Estas áreas incluyen funciones de multiusuario y programador, seguridad de clústeres y pods, o continuidad del negocio y recuperación ante desastres.</t>
+        </is>
+      </c>
       <c r="F469" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13421,19 +13391,19 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>43ffe0b7-7bc4-42b0-a370-af4a943b19c0</t>
+          <t>95ee25c6-37fc-47c0-a3e1-eea5c1324edb</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="C470" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: alinee la selección de SKU y el tamaño del disco administrado con los requisitos de la carga de trabajo.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: Revisión de Azure Chaos Studio.</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Hacer coincidir su selección con las demandas de su carga de trabajo garantiza que no pague por recursos innecesarios.</t>
+          <t>Azure Chaos Studio puede ayudar a simular errores y desencadenar situaciones de recuperación ante desastres.</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
@@ -13443,19 +13413,19 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>c4ce3529-2891-41f1-aa3f-e87a791b01a3</t>
+          <t>2695b4b9-e125-4644-a27c-977eefdbce73</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="C471" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: seleccione el tipo de instancia de máquina virtual adecuado.</t>
+          <t>Arquitectura de clúster: adopte una estrategia de varias regiones mediante la implementación de clústeres de AKS implementados en diferentes regiones de Azure para maximizar la disponibilidad y proporcionar continuidad empresarial.</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>La selección del tipo de instancia de máquina virtual correcto es fundamental, ya que afecta directamente al costo de ejecutar aplicaciones en AKS. La elección de una instancia de alto rendimiento sin una utilización adecuada puede generar gastos innecesarios, mientras que la elección de una instancia menos potente puede provocar problemas de rendimiento y un mayor tiempo de inactividad. Para determinar el tipo de instancia de máquina virtual adecuado, tenga en cuenta las características de la carga de trabajo, los requisitos de recursos y las necesidades de disponibilidad.</t>
+          <t>Las cargas de trabajo orientadas a Internet deben aprovechar Azure Front Door o Azure Traffic Manager para enrutar el tráfico globalmente a través de clústeres de AKS.</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -13465,19 +13435,19 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>1088060f-7467-48db-950d-5890503e2974</t>
+          <t>844d923f-cfe0-4a3a-97ff-67c072c4220c</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="C472" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: seleccione máquinas virtuales en función de la arquitectura de Arm.</t>
+          <t>Arquitectura de clústeres: ponga en funcionamiento los estándares de configuración de clústeres y pods con Azure Policy.</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>AKS admite la creación de nodos de agente ARM64 de Ubuntu, así como una combinación de nodos de arquitectura Intel y ARM dentro de un clúster que puede ofrecer un mejor rendimiento a un costo menor.</t>
+          <t>Azure Policy puede ayudar a aplicar la aplicación y las protecciones a gran escala en los clústeres de forma centralizada y coherente. También puede controlar qué funciones se otorgan a los pods y si algo va en contra de la política de la empresa.</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -13487,19 +13457,19 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>ce50c713-ad3e-4781-9193-63485491aa48</t>
+          <t>02f47a84-6d0c-4243-a5ab-743c85dcce67</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="C473" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: seleccione Azure Spot Virtual Machines.</t>
+          <t>Arquitectura de carga de trabajo: utilice las capacidades de la plataforma en el proceso de ingeniería de versiones.</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Las máquinas virtuales de acceso puntual le permiten aprovechar la capacidad de Azure no utilizada con importantes descuentos (hasta un 90 % en comparación con los precios de pago por uso). Si Azure necesita recuperar capacidad, la infraestructura de Azure expulsa los nodos de acceso puntual.</t>
+          <t>Los controladores de entrada y Kubernetes admiten muchos patrones de implementación avanzados para su inclusión en el proceso de ingeniería de versiones. Tenga en cuenta patrones como las implementaciones azul-verde o las versiones controladas.</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -13509,19 +13479,19 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>7a281f48-217a-4668-aa30-c9d2c84d0d72</t>
+          <t>ecbf4266-e97a-4b02-8d02-ca2fd42cea5b</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="C474" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: seleccione la región adecuada.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: para cargas de trabajo críticas, utilice implementaciones azul/verde a nivel de sello.</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Debido a muchos factores, el costo de los recursos varía según la región de Azure. Evalúe el costo, la latencia y los requisitos de cumplimiento para asegurarse de que está ejecutando su carga de trabajo de manera rentable y que no afecta a sus usuarios finales ni genera cargos de red adicionales.</t>
+          <t>Automatice sus áreas de diseño de misión crítica, incluidas la implementación y las pruebas.</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -13531,21 +13501,17 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>433efe5b-3776-459c-8560-058f87773838</t>
+          <t>4646ab36-8c28-4740-afac-c9819f0f6ac9</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="C475" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: Mantenga imágenes pequeñas y optimizadas.</t>
-        </is>
-      </c>
-      <c r="D475" t="inlineStr">
-        <is>
-          <t>La optimización de las imágenes ayuda a reducir los costos, ya que los nuevos nodos necesitan descargar estas imágenes. Cree imágenes de forma que permita que el contenedor se inicie lo antes posible para ayudar a evitar errores de solicitud de usuario o tiempos de espera mientras se inicia la aplicación, lo que podría provocar un sobreaprovisionamiento.</t>
-        </is>
-      </c>
+          <t>Arquitecturas de clústeres y cargas de trabajo: realice e itere en un ejercicio de plan de capacidad detallado que incluya SKU, configuración de escalado automático, direccionamiento IP y consideraciones de conmutación por error.</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr"/>
       <c r="F475" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13553,21 +13519,17 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>65d3f70e-457a-4d62-8140-de2b0c4f7f99</t>
+          <t>de0e6d8d-65a5-46b0-891b-2ad2aa09de11</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="C476" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: habilite el escalador automático de clústeres para reducir automáticamente el número de nodos de agente en respuesta al exceso de capacidad de recursos.</t>
-        </is>
-      </c>
-      <c r="D476" t="inlineStr">
-        <is>
-          <t>Reducir automáticamente el número de nodos del clúster de AKS permite ejecutar un clúster eficaz cuando la demanda es baja y escalar verticalmente cuando vuelve la demanda.</t>
-        </is>
-      </c>
+          <t>Arquitectura de clúster: habilite el escalador automático de clústeres para ajustar automáticamente el número de nodos de agente en las demandas de carga de trabajo de respuesta.</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr"/>
       <c r="F476" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13575,21 +13537,17 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>b4d583e3-7268-41d9-9e93-0394bed77298</t>
+          <t>b78aea0e-3fd2-4dcc-b617-34a26892aa76</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="C477" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: habilite el aprovisionamiento automático de nodos para automatizar la selección de SKU de máquina virtual.</t>
-        </is>
-      </c>
-      <c r="D477" t="inlineStr">
-        <is>
-          <t>El aprovisionamiento automático de nodos simplifica el proceso de selección de SKU y decide, en función de los requisitos de recursos de pod pendientes, la configuración óptima de la máquina virtual para ejecutar cargas de trabajo de la manera más eficiente y rentable.</t>
-        </is>
-      </c>
+          <t>Arquitectura de clúster: use el escalador automático de pods horizontal para ajustar el número de pods de una implementación en función del uso de la CPU u otras métricas seleccionadas.</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr"/>
       <c r="F477" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13597,21 +13555,17 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>48ae7de4-26f7-457c-b1a4-a18467b7401d</t>
+          <t>9b168db7-a88b-4e2c-b555-bc525c7e48da</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="C478" t="inlineStr">
         <is>
-          <t>Arquitectura de cargas de trabajo: usa el escalador automático horizontal de pods.</t>
-        </is>
-      </c>
-      <c r="D478" t="inlineStr">
-        <is>
-          <t>Ajuste el número de pods de una implementación en función del uso de la CPU u otras métricas seleccionadas, que admitan operaciones de reducción horizontal de clústeres.</t>
-        </is>
-      </c>
+          <t>Arquitecturas de clústeres y cargas de trabajo: realice actividades de pruebas de carga continuas que ejerzan tanto el escalador automático de pods como el clúster.</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr"/>
       <c r="F478" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13619,21 +13573,17 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>d3194174-d037-4a35-9cd5-244d377cfabb</t>
+          <t>deadeedd-dab6-4774-84df-f5223ed6ede1</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="C479" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: use el escalador automático de pods verticales (versión preliminar).</t>
-        </is>
-      </c>
-      <c r="D479" t="inlineStr">
-        <is>
-          <t>Ajusta el tamaño de tus pods y establece dinámicamente solicitudes y límites en función del uso histórico.</t>
-        </is>
-      </c>
+          <t>Arquitecturas de clústeres y cargas de trabajo: separe las cargas de trabajo en diferentes grupos de nodos, lo que permite llamadas independientes.</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr"/>
       <c r="F479" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13641,19 +13591,19 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>091dc052-7bf8-4dd1-aca1-d514ddcb2aa8</t>
+          <t>7b1e9a65-2d5d-4eeb-a349-136895131b06</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="C480" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: use el escalado automático basado en eventos (KEDA) de Kubernetes.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: desarrolle un plan de capacidad detallado y revíselo y reviselo continuamente.</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Escala en función del número de eventos que se están procesando. Elija entre un amplio catálogo de 50+ escaladores KEDA.</t>
+          <t>Después de formalizar el plan de capacidad, debe actualizarse con frecuencia mediante la observación continua de la utilización de recursos del clúster.</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
@@ -13663,19 +13613,19 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>fe3d7c5f-f5a9-4b5e-a4f9-81bf76930967</t>
+          <t>7b4e5e8b-6e55-4db7-a330-19990bd1e0d2</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="C481" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: adopte una disciplina financiera y una práctica cultural en la nube para impulsar la propiedad del uso de la nube.</t>
+          <t>Arquitectura de clúster: habilite el escalador automático de clústeres para ajustar automáticamente el número de nodos de agente en respuesta a las restricciones de recursos.</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>La base para permitir la optimización de costos es la difusión de un clúster de ahorro de costos. Un enfoque de operaciones financieras (FinOps) se utiliza a menudo para ayudar a las organizaciones a reducir los costos de la nube. Se trata de una práctica que implica la colaboración entre los equipos de finanzas, operaciones e ingeniería para impulsar la alineación de los objetivos de ahorro de costes y aportar transparencia a los costes de la nube.</t>
+          <t>La capacidad de escalar o reducir verticalmente automáticamente el número de nodos del clúster de AKS le permite ejecutar un clúster eficaz y rentable.</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
@@ -13685,19 +13635,19 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>3a7d1aa1-37a0-40aa-acbf-ff1852c15c93</t>
+          <t>631272b4-9ca7-4e6f-ae9b-3c55946b3924</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="C482" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: regístrese en Azure Reservations o Azure Savings Plan.</t>
+          <t>Arquitecturas de clústeres y cargas de trabajo: separe las cargas de trabajo en diferentes grupos de nodos y considere la posibilidad de escalar los grupos de nodos de usuario.</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Si planeó correctamente la capacidad, la carga de trabajo es predecible y existe durante un período de tiempo prolongado, regístrese en una reserva de Azure o en un plan de ahorro para reducir aún más los costos de recursos.</t>
+          <t>A diferencia de los grupos de nodos del sistema que siempre requieren nodos en ejecución, los grupos de nodos de usuario permiten escalar o reducir verticalmente.</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -13707,19 +13657,19 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>ed669535-43d7-4988-9ec5-3b70762e54eb</t>
+          <t>85ffe644-7c4b-4f2d-b2fa-ed8e7c8d2e84</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="C483" t="inlineStr">
         <is>
-          <t>Arquitectura del clúster: configure la supervisión del clúster con Container Insights.</t>
+          <t>Arquitectura de carga de trabajo: use las características avanzadas del programador de AKS.</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>La ayuda de Container Insights proporciona información procesable sobre los recursos inactivos y no asignados de los clústeres. Container Insights también admite la recopilación de métricas de Prometheus y se integra con Azure Managed Grafana para obtener una vista holística de la aplicación y la infraestructura.</t>
+          <t>Ayuda a controlar el equilibrio de los recursos para las cargas de trabajo que los requieren.</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -13729,19 +13679,19 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>5742c5ca-120a-4b6e-a5cf-51f13b04966c</t>
+          <t>bb7f1396-6a84-4e6d-b6d8-5fc48b4c2b5f</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="C484" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: configure el complemento Análisis de costos de AKS.</t>
+          <t>Arquitectura de carga de trabajo: utilice métricas significativas de escalado de carga de trabajo.</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>La extensión de clúster de análisis de costos le permite obtener información detallada sobre los costos asociados con varios recursos de Kubernetes en sus clústeres o espacios de nombres.</t>
+          <t>No todas las decisiones de escala se pueden derivar de las métricas de CPU o memoria. A menudo, las consideraciones de escala provendrán de puntos de datos más complejos o incluso externos. Utilice KEDA para crear un conjunto de reglas de escalado automático significativo basado en señales específicas de su carga de trabajo.</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
@@ -13751,14 +13701,14 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>6588bddb-d7b6-41a6-8b87-628a758df2fe</t>
+          <t>bc908693-9e21-478c-9fde-e92ba949c89e</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="C485" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: use una implementación basada en plantillas con Bicep, Terraform u otros. Asegúrese de que todas las implementaciones sean repetibles, rastreables y almacenadas en un repositorio de código fuente.</t>
+          <t>Resistencia: implemente modelos en entornos que admitan zonas de disponibilidad, como AKS. Al asegurarse de que las implementaciones se distribuyen entre las zonas de disponibilidad, se asegura de que una implementación esté disponible incluso en caso de que se produzca un error en el centro de datos. Para mejorar la confiabilidad y la disponibilidad, considere la posibilidad de una topología de implementación de varias regiones.</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
@@ -13769,14 +13719,14 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>38e28f4f-7465-4e3a-bf05-4d6072d4bae6</t>
+          <t>f4804af8-4f42-450d-916c-5593c145ccf9</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="C486" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: cree un proceso automatizado para garantizar que sus clústeres se inicien con las configuraciones e implementaciones necesarias en todo el clúster. Esto se realiza a menudo mediante GitOps.</t>
+          <t>Resistencia: asegúrese de que tiene suficiente proceso tanto para el entrenamiento como para la inferencia. A través de la planeación de recursos, asegúrese de que la SKU de proceso y la configuración de escalado cumplan los requisitos de la carga de trabajo.</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
@@ -13787,14 +13737,14 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>1255b75f-0f3b-4fd7-96c5-17e4e30bbe11</t>
+          <t>995d097a-0de2-4431-947f-561b49a60f21</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="C487" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: utilice procesos de implementación repetibles y automatizados para su carga de trabajo dentro de su ciclo de vida de desarrollo de software.</t>
+          <t>Resistencia: Separe los espacios de trabajo de Machine Learning utilizados para el trabajo exploratorio de los utilizados para la producción.</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
@@ -13805,14 +13755,14 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>07b2d10f-e373-484e-9ece-f182a1b714b2</t>
+          <t>d494b7f5-ad32-471f-9fc7-18945ca454ab</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="C488" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: habilite la configuración de diagnóstico para garantizar que se registren las interacciones del plano de control o del servidor de API principal.</t>
+          <t>Resistencia: al usar puntos de conexión en línea administrados para la inferencia, use una estrategia de versión, como implementaciones azul-verde, para minimizar el tiempo de inactividad y reducir el riesgo asociado con la implementación de nuevas versiones.</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
@@ -13823,14 +13773,14 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>6ec1af22-6132-43a6-9286-20333ee6e244</t>
+          <t>6f1dd2cc-e0af-4203-ab0b-b7c65b7b18ae</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="C489" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: habilite Container Insights para recopilar métricas, registros y diagnósticos con el fin de supervisar la disponibilidad y el rendimiento del clúster y las cargas de trabajo que se ejecutan en él.</t>
+          <t>Requisitos empresariales: seleccione el uso de clústeres de proceso, instancias de proceso y hosts de inferencia externalizados en función de las necesidades de confiabilidad, teniendo en cuenta los acuerdos de nivel de servicio (SLA) como un factor.</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
@@ -13841,14 +13791,14 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>4811307d-53ce-4cf9-b022-2c2ab1be5596</t>
+          <t>558fcdcf-33e7-4385-82fd-424bc8ae64bc</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="C490" t="inlineStr">
         <is>
-          <t>Arquitectura de la carga de trabajo: la carga de trabajo debe diseñarse para emitir datos de telemetría que se puedan recopilar, que también deben incluir estados de vitalidad y preparación.</t>
+          <t>Recuperación: asegúrese de tener capacidades de recuperación automática, como las características de puntos de control compatibles con Machine Learning, al entrenar modelos grandes.</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
@@ -13859,14 +13809,14 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>20301c55-a815-4a3a-83ec-fe6d1789e697</t>
+          <t>de5be058-1d22-4f38-96aa-3fbca5071a8f</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="C491" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: utilice prácticas de ingeniería del caos dirigidas a Kubernetes para identificar problemas de fiabilidad de aplicaciones o plataformas.</t>
+          <t>Recuperación: asegúrese de tener definida una estrategia de recuperación. Machine Learning no tiene conmutación automática por error. Por lo tanto, debe diseñar una estrategia que abarque el área de trabajo y todas sus dependencias, como Key Vault, Azure Storage y Azure Container Registry.</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
@@ -13877,17 +13827,21 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>13d37985-5266-4064-97f0-7c7aa7491941</t>
+          <t>20104165-9764-4920-98dd-63fddc5f58d3</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="C492" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: optimice su carga de trabajo para que funcione e implemente de manera eficiente en un contenedor.</t>
-        </is>
-      </c>
-      <c r="D492" t="inlineStr"/>
+          <t>Implementación de modelos en varias regiones: para mejorar la confiabilidad y la disponibilidad, considere la posibilidad de utilizar un entorno de implementación en varias regiones cuando sea posible.</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>Una implementación en varias regiones garantiza que las cargas de trabajo de Machine Learning continúen ejecutándose incluso si una región experimenta una interrupción. La implementación en varias regiones mejora la distribución de la carga entre regiones, lo que podría mejorar el rendimiento para los usuarios ubicados en diferentes áreas geográficas. Para obtener más información, consulte Conmutación por error para la continuidad empresarial y la recuperación ante desastres.</t>
+        </is>
+      </c>
       <c r="F492" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13895,17 +13849,21 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>d96fea7e-598f-4f59-95c6-d75fc8db1c7a</t>
+          <t>046ff188-7d68-492f-850c-c65ee0c9a962</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="C493" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: aplique la gobernanza de clústeres y cargas de trabajo mediante Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D493" t="inlineStr"/>
+          <t>Resistencia de entrenamiento de modelos: use las características de puntos de control compatibles con Machine Learning, como Azure Container for PyTorch, la clase TensorFlow Estimator o el objeto Run y la clase FileDataset que admiten puntos de control de modelos.</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>Los puntos de control del modelo guardan periódicamente el estado del modelo de aprendizaje automático durante el entrenamiento, de modo que se pueda restaurar en caso de interrupción, error o finalización. Para obtener más información, consulte Aumentar la velocidad de los puntos de control y reducir el costo con Nebula.</t>
+        </is>
+      </c>
       <c r="F493" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13913,19 +13871,19 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>8e8fbde0-f037-4eec-bac2-634ab73d7b0a</t>
+          <t>8eaf992c-ccd9-495f-b625-d4f544d38d38</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="C494" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: consulte la documentación de procedimientos recomendados de AKS.</t>
+          <t>Use el nivel de máquina virtual dedicada para clústeres de proceso: use el nivel de máquina virtual dedicada para clústeres de proceso para la inferencia por lotes para asegurarse de que el trabajo por lotes no se adelante.</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Para compilar y ejecutar aplicaciones correctamente en AKS, hay que comprender e implementar consideraciones clave. Estas áreas incluyen funciones de multiusuario y programador, seguridad de clústeres y pods, o continuidad del negocio y recuperación ante desastres.</t>
+          <t>Las máquinas virtuales de prioridad baja tienen un precio reducido, pero son interrumpibles. Los clústeres que usan el nivel de máquina virtual dedicada no se adelantan.</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
@@ -13935,21 +13893,17 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>95ee25c6-37fc-47c0-a3e1-eea5c1324edb</t>
+          <t>19720202-b456-44c4-8ff1-28eaa20e1a7d</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="C495" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: Revisión de Azure Chaos Studio.</t>
-        </is>
-      </c>
-      <c r="D495" t="inlineStr">
-        <is>
-          <t>Azure Chaos Studio puede ayudar a simular errores y desencadenar situaciones de recuperación ante desastres.</t>
-        </is>
-      </c>
+          <t>Disponibilidad: reduzca la superficie expuesta a ataques del área de trabajo de Machine Learning restringiendo el acceso al área de trabajo a los recursos de la red virtual.</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr"/>
       <c r="F495" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13957,21 +13911,17 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>2695b4b9-e125-4644-a27c-977eefdbce73</t>
+          <t>303116b4-65cb-43e5-8ceb-7bebaf16b568</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="C496" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: configure la supervisión del clúster con Container Insights.</t>
-        </is>
-      </c>
-      <c r="D496" t="inlineStr">
-        <is>
-          <t>Container Insights ayuda a supervisar el rendimiento de los contenedores mediante la recopilación de métricas de memoria y procesador de controladores, nodos y contenedores que están disponibles en Kubernetes a través de la API de métricas y los registros de contenedores.</t>
-        </is>
-      </c>
+          <t>Confidencialidad: protéjase contra la filtración de datos del área de trabajo de Machine Learning mediante la implementación del aislamiento de red. Asegúrese de que el acceso a todos los recursos externos esté aprobado explícitamente y que no se permita el acceso a todos los demás recursos externos.</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr"/>
       <c r="F496" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -13979,21 +13929,17 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>6661db46-26b0-4cc9-9002-f52bce55ca03</t>
+          <t>eb9cc8b2-c9a3-4fe7-9578-8918ab53eae6</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="C497" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: supervise el rendimiento de las aplicaciones con Azure Monitor.</t>
-        </is>
-      </c>
-      <c r="D497" t="inlineStr">
-        <is>
-          <t>Configure Application Insights para la supervisión basada en código de las aplicaciones que se ejecutan en un clúster de AKS.</t>
-        </is>
-      </c>
+          <t>Integridad: implemente controles de acceso que autentiquen y autoricen el área de trabajo de Machine Learning para recursos externos en función del principio de privilegios mínimos.</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr"/>
       <c r="F497" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14001,21 +13947,17 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>405f6de4-e769-4066-8e8c-f7887a66d42a</t>
+          <t>1cb53633-f0c7-45f4-a98b-76b0314a94ba</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="C498" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: configure el raspado de métricas de Prometheus con Container Insights.</t>
-        </is>
-      </c>
-      <c r="D498" t="inlineStr">
-        <is>
-          <t>Container Insights, que forman parte de Azure Monitor, proporciona una experiencia de incorporación fluida para recopilar métricas de Prometheus. Consulte Configurar el raspado de métricas de Prometheus para obtener más información.</t>
-        </is>
-      </c>
+          <t>Integridad: implemente la segregación de casos de uso para los espacios de trabajo de Machine Learning mediante la configuración de espacios de trabajo basados en casos de uso o proyectos específicos. Este enfoque se adhiere al principio de privilegios mínimos al garantizar que los espacios de trabajo solo sean accesibles para las personas que requieren acceso a datos y activos de experimentación para el caso de uso o proyecto.</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr"/>
       <c r="F498" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14023,21 +13965,17 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>3c42907d-254e-4b0f-b579-7362e0f37eaa</t>
+          <t>30341513-1f91-480e-bc19-8031f1851087</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="C499" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: adopte una estrategia de varias regiones mediante la implementación de clústeres de AKS implementados en diferentes regiones de Azure para maximizar la disponibilidad y proporcionar continuidad empresarial.</t>
-        </is>
-      </c>
-      <c r="D499" t="inlineStr">
-        <is>
-          <t>Las cargas de trabajo orientadas a Internet deben aprovechar Azure Front Door o Azure Traffic Manager para enrutar el tráfico globalmente a través de clústeres de AKS.</t>
-        </is>
-      </c>
+          <t>Integridad: Regular el acceso a los modelos fundacionales. Asegúrese de que solo los registros aprobados tengan acceso a los modelos del registro de modelos.</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr"/>
       <c r="F499" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14045,21 +13983,17 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>844d923f-cfe0-4a3a-97ff-67c072c4220c</t>
+          <t>1274dc7a-a81c-409d-8cd6-e3bda0ee8687</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="C500" t="inlineStr">
         <is>
-          <t>Arquitectura de clústeres: ponga en funcionamiento los estándares de configuración de clústeres y pods con Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D500" t="inlineStr">
-        <is>
-          <t>Azure Policy puede ayudar a aplicar la aplicación y las protecciones a gran escala en los clústeres de forma centralizada y coherente. También puede controlar qué funciones se otorgan a los pods y si algo va en contra de la política de la empresa.</t>
-        </is>
-      </c>
+          <t>Integridad: Regular el acceso a los registros de contenedores aprobados. Asegúrese de que el proceso de Machine Learning solo pueda acceder a los registros aprobados.</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr"/>
       <c r="F500" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14067,21 +14001,17 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>02f47a84-6d0c-4243-a5ab-743c85dcce67</t>
+          <t>ca17ad83-954c-4eba-a30f-9e7c3c2079f6</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="C501" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: utilice las capacidades de la plataforma en el proceso de ingeniería de versiones.</t>
-        </is>
-      </c>
-      <c r="D501" t="inlineStr">
-        <is>
-          <t>Los controladores de entrada y Kubernetes admiten muchos patrones de implementación avanzados para su inclusión en el proceso de ingeniería de versiones. Tenga en cuenta patrones como las implementaciones azul-verde o las versiones controladas.</t>
-        </is>
-      </c>
+          <t>Integridad: regule los paquetes de Python que se pueden ejecutar en el proceso de Machine Learning. La regulación de los paquetes de Python garantiza que solo se ejecuten paquetes de confianza.</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr"/>
       <c r="F501" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14089,21 +14019,17 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>ecbf4266-e97a-4b02-8d02-ca2fd42cea5b</t>
+          <t>1ffe0cf7-a26a-4018-bef8-4d7fdf3291e2</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="C502" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: para cargas de trabajo críticas, utilice implementaciones azul/verde a nivel de sello.</t>
-        </is>
-      </c>
-      <c r="D502" t="inlineStr">
-        <is>
-          <t>Automatice sus áreas de diseño de misión crítica, incluidas la implementación y las pruebas.</t>
-        </is>
-      </c>
+          <t>Integridad: requiere que se firme el código usado para el entrenamiento en entornos informáticos de Machine Learning. Requerir la firma de código garantiza que el código que se ejecuta proviene de una fuente de confianza y no ha sido manipulado.</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr"/>
       <c r="F502" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14111,14 +14037,14 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>4646ab36-8c28-4740-afac-c9819f0f6ac9</t>
+          <t>8d9aea78-3ebe-4ec6-968d-3daa07abc239</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="C503" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: realice e itere en un ejercicio de plan de capacidad detallado que incluya SKU, configuración de escalado automático, direccionamiento IP y consideraciones de conmutación por error.</t>
+          <t>Confidencialidad: adhiérase al principio de privilegios mínimos para el control de acceso basado en roles (RBAC) para el área de trabajo de Machine Learning y los recursos relacionados, como la cuenta de almacenamiento del área de trabajo, para garantizar que las personas solo tengan los permisos necesarios para su rol, minimizando así los posibles riesgos de seguridad.</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
@@ -14129,14 +14055,14 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>de0e6d8d-65a5-46b0-891b-2ad2aa09de11</t>
+          <t>a6664b76-0292-4bd4-841e-859b65a569c0</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="C504" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: habilite el escalador automático de clústeres para ajustar automáticamente el número de nodos de agente en las demandas de carga de trabajo de respuesta.</t>
+          <t>Integridad: Establezca la confianza y el acceso verificado mediante la implementación del cifrado para los datos en reposo y los datos en tránsito.</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
@@ -14147,17 +14073,21 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>b78aea0e-3fd2-4dcc-b617-34a26892aa76</t>
+          <t>2a509fe2-ce1d-410c-a5cb-780eb8dfaf15</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="C505" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: use el escalador automático de pods horizontal para ajustar el número de pods de una implementación en función del uso de la CPU u otras métricas seleccionadas.</t>
-        </is>
-      </c>
-      <c r="D505" t="inlineStr"/>
+          <t>Línea base de seguridad: para mejorar la seguridad y el cumplimiento de su servicio de Machine Learning, aplique la línea base de seguridad de Azure para Machine Learning.</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>La línea de base de seguridad proporciona orientación personalizada sobre aspectos de seguridad cruciales, como la seguridad de la red, la gestión de identidades, la protección de datos y el acceso con privilegios. Para una seguridad óptima, use Microsoft Defender for Cloud para supervisar estos aspectos.</t>
+        </is>
+      </c>
       <c r="F505" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14165,17 +14095,21 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>9b168db7-a88b-4e2c-b555-bc525c7e48da</t>
+          <t>0e30e670-0c69-4c8a-82f5-b88494e56879</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="C506" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: realice actividades de pruebas de carga continuas que ejerzan tanto el escalador automático de pods como el clúster.</t>
-        </is>
-      </c>
-      <c r="D506" t="inlineStr"/>
+          <t>Aislamiento de red virtual administrada: configure el aislamiento de red virtual administrada para Machine Learning. Al habilitar el aislamiento de red virtual administrada, se crea una red virtual administrada para el área de trabajo. Los recursos de proceso administrados que cree para el área de trabajo usan automáticamente esta red virtual administrada. Si no puede implementar el aislamiento de red virtual administrado, debe seguir las recomendaciones de topología de red para separar el proceso en una subred dedicada lejos del resto de los recursos de la solución, incluidos los puntos de conexión privados para los recursos del área de trabajo.</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>El aislamiento de red virtual administrado mejora la seguridad al aislar el área de trabajo de otras redes, lo que reduce el riesgo de acceso no autorizado. En un escenario en el que se produce una infracción en otra red dentro de la organización, la red aislada del área de trabajo de Machine Learning no se ve afectada, lo que protege las cargas de trabajo de machine learning.</t>
+        </is>
+      </c>
       <c r="F506" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14183,17 +14117,21 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>deadeedd-dab6-4774-84df-f5223ed6ede1</t>
+          <t>aeb66f5c-45bc-45d8-a7bf-a6bd5c6e5f9a</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="C507" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: separe las cargas de trabajo en diferentes grupos de nodos, lo que permite llamadas independientes.</t>
-        </is>
-      </c>
-      <c r="D507" t="inlineStr"/>
+          <t>Aislamiento de red de Machine Learning: configure un punto de conexión privado para el área de trabajo de Machine Learning y conéctese al área de trabajo a través de ese punto de conexión privado.</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>El aislamiento de red de Machine Learning mejora la seguridad al garantizar que el acceso a su espacio de trabajo sea seguro y controlado. Con un punto de conexión privado configurado para el área de trabajo, puede limitar el acceso al área de trabajo para que solo se produzca a través de las direcciones IP privadas.</t>
+        </is>
+      </c>
       <c r="F507" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14201,19 +14139,19 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>7b1e9a65-2d5d-4eeb-a349-136895131b06</t>
+          <t>af44fe21-713a-435f-97bd-34ec8221f729</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="C508" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: desarrolle un plan de capacidad detallado y revíselo y reviselo continuamente.</t>
+          <t>Permitir solo el acceso saliente aprobado: configure el modo de salida en el acceso saliente administrado del área de trabajo de Machine Learning en "Permitir solo el acceso saliente aprobado" para minimizar el riesgo de filtración de datos. Configure puntos de conexión privados, etiquetas de servicio o nombres de dominio completos (FQDN) para los recursos a los que necesita acceder.</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>Después de formalizar el plan de capacidad, debe actualizarse con frecuencia mediante la observación continua de la utilización de recursos del clúster.</t>
+          <t>Esta configuración minimiza el riesgo de exfiltración de datos, mejorando la seguridad de los datos. Con esta configuración habilitada, un actor malintencionado que obtenga acceso a su sistema no puede enviar sus datos a un destino externo no aprobado.</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
@@ -14223,19 +14161,19 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>7b4e5e8b-6e55-4db7-a330-19990bd1e0d2</t>
+          <t>d1cdc5a5-eb9a-43d7-ad74-6169482b28d0</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="C509" t="inlineStr">
         <is>
-          <t>Arquitectura de clúster: habilite el escalador automático de clústeres para ajustar automáticamente el número de nodos de agente en respuesta a las restricciones de recursos.</t>
+          <t>Aislamiento de red virtual para servicios dependientes: configure servicios dependientes, como Storage, Key Vault y Container Registry con puntos de conexión privados y deshabilite el acceso público.</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>La capacidad de escalar o reducir verticalmente automáticamente el número de nodos del clúster de AKS le permite ejecutar un clúster eficaz y rentable.</t>
+          <t>El aislamiento de red refuerza la seguridad al restringir el acceso a las soluciones de plataforma como servicio (PaaS) de Azure solo a direcciones IP privadas.</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
@@ -14245,19 +14183,19 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>631272b4-9ca7-4e6f-ae9b-3c55946b3924</t>
+          <t>0d8346f9-f2fe-4a4e-b153-662c5c6e4510</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="C510" t="inlineStr">
         <is>
-          <t>Arquitecturas de clústeres y cargas de trabajo: separe las cargas de trabajo en diferentes grupos de nodos y considere la posibilidad de escalar los grupos de nodos de usuario.</t>
+          <t>Identidad administrada: use identidades administradas para la autenticación entre Machine Learning y otros servicios.</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>A diferencia de los grupos de nodos del sistema que siempre requieren nodos en ejecución, los grupos de nodos de usuario permiten escalar o reducir verticalmente.</t>
+          <t>Las identidades administradas mejoran la seguridad al eliminar la necesidad de almacenar credenciales y administrar y rotar manualmente las entidades de servicio.</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
@@ -14267,19 +14205,19 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>85ffe644-7c4b-4f2d-b2fa-ed8e7c8d2e84</t>
+          <t>bf2a8ddf-263e-46fb-b73a-ca8b9ba168e7</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="C511" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: use las características avanzadas del programador de AKS.</t>
+          <t>Deshabilitar la autenticación local: deshabilite la autenticación local para clústeres e instancias de proceso de Machine Learning.</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>Ayuda a controlar el equilibrio de los recursos para las cargas de trabajo que los requieren.</t>
+          <t>La deshabilitación de la autenticación local aumenta la seguridad del proceso de Machine Learning y proporciona un control y una administración centralizados de las identidades y las credenciales de recursos.</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
@@ -14289,19 +14227,19 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>bb7f1396-6a84-4e6d-b6d8-5fc48b4c2b5f</t>
+          <t>70477454-0ddb-4ad6-9342-1ad6290bbb06</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="C512" t="inlineStr">
         <is>
-          <t>Arquitectura de carga de trabajo: utilice métricas significativas de escalado de carga de trabajo.</t>
+          <t>Deshabilite el puerto SSH público: asegúrese de que el puerto público de Secure Shell (SSH) esté cerrado en el clúster de proceso de Machine Learning estableciendo "remoteLoginPortPublicAccess" en "Disabled". Aplique una configuración similar si utiliza un proceso diferente.</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>No todas las decisiones de escala se pueden derivar de las métricas de CPU o memoria. A menudo, las consideraciones de escala provendrán de puntos de datos más complejos o incluso externos. Utilice KEDA para crear un conjunto de reglas de escalado automático significativo basado en señales específicas de su carga de trabajo.</t>
+          <t>Deshabilitar el acceso SSH ayuda a evitar que personas no autorizadas obtengan acceso y puedan causar daños a su sistema, y lo protege contra ataques de fuerza bruta.</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
@@ -14311,17 +14249,21 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>bc908693-9e21-478c-9fde-e92ba949c89e</t>
+          <t>cbd359bc-8057-4a9c-9183-c4fc1e70a69b</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="C513" t="inlineStr">
         <is>
-          <t>Resistencia: implemente modelos en entornos que admitan zonas de disponibilidad, como AKS. Al asegurarse de que las implementaciones se distribuyen entre las zonas de disponibilidad, se asegura de que una implementación esté disponible incluso en caso de que se produzca un error en el centro de datos. Para mejorar la confiabilidad y la disponibilidad, considere la posibilidad de una topología de implementación de varias regiones.</t>
-        </is>
-      </c>
-      <c r="D513" t="inlineStr"/>
+          <t>No aprovisione direcciones IP públicas para el proceso de Machine Learning: establezca enableNodePublicIp en "false" al aprovisionar clústeres de proceso o instancias de proceso de Machine Learning. Aplique una configuración similar si utiliza un proceso diferente.</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>Absténgase de aprovisionar direcciones IP públicas para mejorar la seguridad limitando la posibilidad de acceso no autorizado a la instancia informática o a los clústeres.</t>
+        </is>
+      </c>
       <c r="F513" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14329,17 +14271,21 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>f4804af8-4f42-450d-916c-5593c145ccf9</t>
+          <t>cc532133-2bba-484f-b316-035b93b3ee6a</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="C514" t="inlineStr">
         <is>
-          <t>Resistencia: asegúrese de que tiene suficiente proceso tanto para el entrenamiento como para la inferencia. A través de la planeación de recursos, asegúrese de que la SKU de proceso y la configuración de escalado cumplan los requisitos de la carga de trabajo.</t>
-        </is>
-      </c>
-      <c r="D514" t="inlineStr"/>
+          <t>Obtener la imagen más reciente del sistema operativo: vuelva a crear instancias informáticas para obtener la imagen más reciente del sistema operativo.</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>El uso de las imágenes más recientes garantiza que se mantenga un entorno coherente, estable y seguro, lo que incluye asegurarse de tener los parches de seguridad más recientes.</t>
+        </is>
+      </c>
       <c r="F514" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14347,17 +14293,21 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>995d097a-0de2-4431-947f-561b49a60f21</t>
+          <t>cb49b636-1011-43a0-a12b-25378f677153</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="C515" t="inlineStr">
         <is>
-          <t>Resistencia: Separe los espacios de trabajo de Machine Learning utilizados para el trabajo exploratorio de los utilizados para la producción.</t>
-        </is>
-      </c>
-      <c r="D515" t="inlineStr"/>
+          <t>Controles estrictos de acceso al área de trabajo de Machine Learning: use grupos de identificadores de Microsoft Entra para administrar el acceso al área de trabajo y cumplir con el principio de privilegios mínimos para RBAC.</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>Los estrictos controles de acceso al espacio de trabajo mejoran la seguridad al garantizar que las personas solo tengan los permisos necesarios para su función. Un científico de datos, por ejemplo, podría tener acceso para ejecutar experimentos, pero no para modificar la configuración de seguridad, lo que minimiza los posibles riesgos de seguridad.</t>
+        </is>
+      </c>
       <c r="F515" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14365,17 +14315,21 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>d494b7f5-ad32-471f-9fc7-18945ca454ab</t>
+          <t>17cac647-8c6f-4a6f-a66d-c436e17c91c8</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="C516" t="inlineStr">
         <is>
-          <t>Resistencia: al usar puntos de conexión en línea administrados para la inferencia, use una estrategia de versión, como implementaciones azul-verde, para minimizar el tiempo de inactividad y reducir el riesgo asociado con la implementación de nuevas versiones.</t>
-        </is>
-      </c>
-      <c r="D516" t="inlineStr"/>
+          <t>Restringir implementaciones de catálogos de modelos: restrinja las implementaciones de modelos a registros específicos.</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>La restricción de las implementaciones del catálogo de modelos a registros específicos garantiza que solo se implementen modelos en registros aprobados. Este enfoque ayuda a regular el acceso a los modelos fundacionales de código abierto.</t>
+        </is>
+      </c>
       <c r="F516" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14383,17 +14337,21 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>6f1dd2cc-e0af-4203-ab0b-b7c65b7b18ae</t>
+          <t>18a61ee3-34d2-484a-a740-3c90d23c64b9</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="C517" t="inlineStr">
         <is>
-          <t>Requisitos empresariales: seleccione el uso de clústeres de proceso, instancias de proceso y hosts de inferencia externalizados en función de las necesidades de confiabilidad, teniendo en cuenta los acuerdos de nivel de servicio (SLA) como un factor.</t>
-        </is>
-      </c>
-      <c r="D517" t="inlineStr"/>
+          <t>Cifrar datos en reposo: considere la posibilidad de usar claves administradas por el cliente con Machine Learning.</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>El cifrado de datos en reposo mejora la seguridad de los datos al garantizar que los datos confidenciales se cifren mediante el uso de claves administradas directamente por usted. Si tiene un requisito normativo para administrar sus propias claves de cifrado, utilice esta función para cumplir con ese requisito.</t>
+        </is>
+      </c>
       <c r="F517" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14401,17 +14359,21 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>558fcdcf-33e7-4385-82fd-424bc8ae64bc</t>
+          <t>5e14c11e-83fb-40f1-a8dc-d96767d73a13</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="C518" t="inlineStr">
         <is>
-          <t>Recuperación: asegúrese de tener capacidades de recuperación automática, como las características de puntos de control compatibles con Machine Learning, al entrenar modelos grandes.</t>
-        </is>
-      </c>
-      <c r="D518" t="inlineStr"/>
+          <t>Minimice el riesgo de exfiltración de datos: implemente la prevención de exfiltración de datos. Por ejemplo, cree una directiva de punto de conexión de servicio para filtrar el tráfico de red virtual de salida y permitir la filtración de datos solo a cuentas específicas de Azure Storage.</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>Minimice el riesgo de exfiltración de datos limitando los requisitos de entrada y salida.</t>
+        </is>
+      </c>
       <c r="F518" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14419,14 +14381,14 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>de5be058-1d22-4f38-96aa-3fbca5071a8f</t>
+          <t>6782cd14-a63d-466c-a7c9-8a92afe3b396</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="C519" t="inlineStr">
         <is>
-          <t>Recuperación: asegúrese de tener definida una estrategia de recuperación. Machine Learning no tiene conmutación automática por error. Por lo tanto, debe diseñar una estrategia que abarque el área de trabajo y todas sus dependencias, como Key Vault, Azure Storage y Azure Container Registry.</t>
+          <t>Optimización del uso: elija los recursos adecuados para asegurarse de que se alinean con los requisitos de su carga de trabajo. Por ejemplo, elija entre CPU o GPU, varias SKU o máquinas virtuales de prioridad baja frente a regular.</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
@@ -14437,21 +14399,17 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>20104165-9764-4920-98dd-63fddc5f58d3</t>
+          <t>cac38d1e-d21e-4af5-834d-d607469c6439</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="C520" t="inlineStr">
         <is>
-          <t>Implementación de modelos en varias regiones: para mejorar la confiabilidad y la disponibilidad, considere la posibilidad de utilizar un entorno de implementación en varias regiones cuando sea posible.</t>
-        </is>
-      </c>
-      <c r="D520" t="inlineStr">
-        <is>
-          <t>Una implementación en varias regiones garantiza que las cargas de trabajo de Machine Learning continúen ejecutándose incluso si una región experimenta una interrupción. La implementación en varias regiones mejora la distribución de la carga entre regiones, lo que podría mejorar el rendimiento para los usuarios ubicados en diferentes áreas geográficas. Para obtener más información, consulte Conmutación por error para la continuidad empresarial y la recuperación ante desastres.</t>
-        </is>
-      </c>
+          <t>Optimización del uso: asegúrese de que los recursos informáticos que no se utilizan se reduzcan o se apaguen cuando estén inactivos para reducir el desperdicio.</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr"/>
       <c r="F520" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14459,21 +14417,17 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>046ff188-7d68-492f-850c-c65ee0c9a962</t>
+          <t>8e98fc4b-2fa4-44b9-9aa7-1c01f67aecb7</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="C521" t="inlineStr">
         <is>
-          <t>Resistencia de entrenamiento de modelos: use las características de puntos de control compatibles con Machine Learning, como Azure Container for PyTorch, la clase TensorFlow Estimator o el objeto Run y la clase FileDataset que admiten puntos de control de modelos.</t>
-        </is>
-      </c>
-      <c r="D521" t="inlineStr">
-        <is>
-          <t>Los puntos de control del modelo guardan periódicamente el estado del modelo de aprendizaje automático durante el entrenamiento, de modo que se pueda restaurar en caso de interrupción, error o finalización. Para obtener más información, consulte Aumentar la velocidad de los puntos de control y reducir el costo con Nebula.</t>
-        </is>
-      </c>
+          <t>Optimización del uso: aplique políticas y configure cuotas para cumplir con los límites superior e inferior del diseño.</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr"/>
       <c r="F521" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14481,21 +14435,17 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>8eaf992c-ccd9-495f-b625-d4f544d38d38</t>
+          <t>dfafcc35-c8fb-429b-92c0-53f045884794</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="C522" t="inlineStr">
         <is>
-          <t>Use el nivel de máquina virtual dedicada para clústeres de proceso: use el nivel de máquina virtual dedicada para clústeres de proceso para la inferencia por lotes para asegurarse de que el trabajo por lotes no se adelante.</t>
-        </is>
-      </c>
-      <c r="D522" t="inlineStr">
-        <is>
-          <t>Las máquinas virtuales de prioridad baja tienen un precio reducido, pero son interrumpibles. Los clústeres que usan el nivel de máquina virtual dedicada no se adelantan.</t>
-        </is>
-      </c>
+          <t>Optimización del uso: pruebe la paralelización de cargas de trabajo de entrenamiento para determinar si los requisitos de entrenamiento se pueden cumplir en SKU de menor costo.</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr"/>
       <c r="F522" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14503,14 +14453,14 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>19720202-b456-44c4-8ff1-28eaa20e1a7d</t>
+          <t>14149f48-97d8-4614-9236-681f5fd42b34</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="C523" t="inlineStr">
         <is>
-          <t>Disponibilidad: reduzca la superficie expuesta a ataques del área de trabajo de Machine Learning restringiendo el acceso al área de trabajo a los recursos de la red virtual.</t>
+          <t>Optimización de tarifas: compre Azure Reserved Virtual Machine Instances si tiene una buena estimación del uso para los próximos uno a tres años.</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
@@ -14521,14 +14471,14 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>303116b4-65cb-43e5-8ceb-7bebaf16b568</t>
+          <t>945e262b-3a0f-4ac9-ac51-69b5500f9ee6</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="C524" t="inlineStr">
         <is>
-          <t>Confidencialidad: protéjase contra la filtración de datos del área de trabajo de Machine Learning mediante la implementación del aislamiento de red. Asegúrese de que el acceso a todos los recursos externos esté aprobado explícitamente y que no se permita el acceso a todos los demás recursos externos.</t>
+          <t>Supervisión y optimización: supervise el uso de recursos, como el uso de CPU y GPU, al entrenar modelos. Si los recursos no se usan por completo, modifique el código para usar mejor los recursos o reduzca verticalmente a tamaños de máquina virtual más pequeños o más baratos.</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
@@ -14539,17 +14489,21 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>eb9cc8b2-c9a3-4fe7-9578-8918ab53eae6</t>
+          <t>563a3c8d-4168-4f18-a056-efb624734ecf</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="C525" t="inlineStr">
         <is>
-          <t>Integridad: implemente controles de acceso que autentiquen y autoricen el área de trabajo de Machine Learning para recursos externos en función del principio de privilegios mínimos.</t>
-        </is>
-      </c>
-      <c r="D525" t="inlineStr"/>
+          <t>Optimice los recursos informáticos: optimice los recursos informáticos en función de los requisitos de la carga de trabajo. Elija la SKU que mejor se adapte a su carga de trabajo:&lt;ul&gt;&lt;li&gt;Propósito general: relación equilibrada entre CPU y memoria, buena para todos los propósitos.&lt;/li&gt;&lt;li&gt;Optimizado para cómputo: alta relación entre CPU y memoria, buena para cálculos matemáticos pesados.&lt;/li&gt;&lt;li&gt;Optimizado para memoria: alta memoria para CPU, buena para cálculos en memoria o aplicaciones de bases de datos.&lt;/li&gt;&lt;li&gt;Serie M: máquinas muy grandes que tienen grandes cantidades de memoria y CPU. &lt;/li&gt;&lt;li&gt; GPU: mejor para modelos con un gran número de variables que pueden beneficiarse de un mayor paralelismo e instrucciones de núcleo especializadas. Las aplicaciones típicas son el aprendizaje profundo, el procesamiento de imágenes o vídeos, las simulaciones científicas, la minería de datos y el aprovechamiento de los marcos de desarrollo de GPU. Pruebe con varias familias y documente los resultados como referencia. A medida que el modelo y los datos evolucionan, es posible que cambie el recurso informático más adecuado. Supervise los tiempos de ejecución y reevalúe según sea necesario.</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>La selección del proceso adecuado es fundamental, ya que afecta directamente al costo de ejecución de la carga de trabajo. Elegir una GPU o una SKU de alto rendimiento sin un uso adecuado puede generar gastos innecesarios, mientras que elegir un proceso de tamaño insuficiente puede provocar tiempos de entrenamiento prohibitivamente largos y problemas de rendimiento.</t>
+        </is>
+      </c>
       <c r="F525" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14557,17 +14511,21 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>1cb53633-f0c7-45f4-a98b-76b0314a94ba</t>
+          <t>3d87f935-99a6-4aee-aac2-069994de09ff</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="C526" t="inlineStr">
         <is>
-          <t>Integridad: implemente la segregación de casos de uso para los espacios de trabajo de Machine Learning mediante la configuración de espacios de trabajo basados en casos de uso o proyectos específicos. Este enfoque se adhiere al principio de privilegios mínimos al garantizar que los espacios de trabajo solo sean accesibles para las personas que requieren acceso a datos y activos de experimentación para el caso de uso o proyecto.</t>
-        </is>
-      </c>
-      <c r="D526" t="inlineStr"/>
+          <t>Optimice el escalado de proceso: configure los clústeres de proceso para el escalado automático a fin de asegurarse de que solo usa lo que necesita. Para los clústeres de entrenamiento, establezca el número mínimo de nodos en 0 y configure la cantidad de tiempo que el nodo está inactivo en un tiempo adecuado. Para una experimentación menos iterativa, reduzca el tiempo para ahorrar costos. Para una experimentación más iterativa, use un tiempo más alto para evitar pagar por escalar hacia arriba o hacia abajo después de cada cambio.</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Configure el escalado automático para que los clústeres de proceso reduzcan verticalmente cuando su uso sea bajo.  Establezca el número mínimo de nodos en 0 para que los clústeres de entrenamiento se reduzcan verticalmente a 0 cuando no estén en uso.</t>
+        </is>
+      </c>
       <c r="F526" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14575,17 +14533,21 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>30341513-1f91-480e-bc19-8031f1851087</t>
+          <t>d30cfeeb-6c61-4a9d-9a56-c8296cec72cb</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="C527" t="inlineStr">
         <is>
-          <t>Integridad: Regular el acceso a los modelos fundacionales. Asegúrese de que solo los registros aprobados tengan acceso a los modelos del registro de modelos.</t>
-        </is>
-      </c>
-      <c r="D527" t="inlineStr"/>
+          <t>Establecer políticas de finalización del entrenamiento: establezca políticas de finalización anticipada para limitar la duración de las ejecuciones de entrenamiento o finalizarlas antes de tiempo.</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>La configuración de directivas de terminación puede ayudarle a ahorrar costos al detener las ejecuciones que no funcionan antes de tiempo.</t>
+        </is>
+      </c>
       <c r="F527" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14593,17 +14555,21 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>1274dc7a-a81c-409d-8cd6-e3bda0ee8687</t>
+          <t>098a7bee-444c-4351-aeb1-8bd97036299c</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="C528" t="inlineStr">
         <is>
-          <t>Integridad: Regular el acceso a los registros de contenedores aprobados. Asegúrese de que el proceso de Machine Learning solo pueda acceder a los registros aprobados.</t>
-        </is>
-      </c>
-      <c r="D528" t="inlineStr"/>
+          <t>Usar máquinas virtuales de prioridad baja para cargas de trabajo por lotes: considere la posibilidad de usar máquinas virtuales de prioridad baja para cargas de trabajo por lotes que no sean urgentes y en las que las interrupciones sean recuperables.</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>Las máquinas virtuales de baja prioridad permiten utilizar una gran cantidad de potencia de proceso a bajo costo. Aprovechan el excedente de capacidad de Azure.</t>
+        </is>
+      </c>
       <c r="F528" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14611,17 +14577,21 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>ca17ad83-954c-4eba-a30f-9e7c3c2079f6</t>
+          <t>41f2dd91-5765-4dfb-9db0-9b3e976b4afb</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="C529" t="inlineStr">
         <is>
-          <t>Integridad: regule los paquetes de Python que se pueden ejecutar en el proceso de Machine Learning. La regulación de los paquetes de Python garantiza que solo se ejecuten paquetes de confianza.</t>
-        </is>
-      </c>
-      <c r="D529" t="inlineStr"/>
+          <t>Habilitar el apagado inactivo para instancias informáticas: habilite el apagado inactivo para instancias informáticas o programe una hora de inicio y finalización si se conoce el tiempo de uso.</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>De forma predeterminada, las instancias de proceso están disponibles para usted, acumulando costos. Configurar instancias de proceso para que se apaguen cuando estén inactivas o configurar una programación para ellas ahorra costos cuando no están en uso.</t>
+        </is>
+      </c>
       <c r="F529" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14629,17 +14599,21 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>1ffe0cf7-a26a-4018-bef8-4d7fdf3291e2</t>
+          <t>e3150ddd-f553-425f-bb91-249a9598e25e</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="C530" t="inlineStr">
         <is>
-          <t>Integridad: requiere que se firme el código usado para el entrenamiento en entornos informáticos de Machine Learning. Requerir la firma de código garantiza que el código que se ejecuta proviene de una fuente de confianza y no ha sido manipulado.</t>
-        </is>
-      </c>
-      <c r="D530" t="inlineStr"/>
+          <t>Paralelizar cargas de trabajo de entrenamiento: considere la posibilidad de paralelizar cargas de trabajo de entrenamiento. Pruebe a ejecutarlos con la ayuda de los componentes paralelos de Machine Learning.</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>Las cargas de trabajo paralelas se pueden ejecutar en varias instancias más pequeñas, lo que puede generar ahorros de costos.</t>
+        </is>
+      </c>
       <c r="F530" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14647,17 +14621,21 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>8d9aea78-3ebe-4ec6-968d-3daa07abc239</t>
+          <t>8b47ec85-0e9e-428b-9290-c590a7f4ab1a</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="C531" t="inlineStr">
         <is>
-          <t>Confidencialidad: adhiérase al principio de privilegios mínimos para el control de acceso basado en roles (RBAC) para el área de trabajo de Machine Learning y los recursos relacionados, como la cuenta de almacenamiento del área de trabajo, para garantizar que las personas solo tengan los permisos necesarios para su rol, minimizando así los posibles riesgos de seguridad.</t>
-        </is>
-      </c>
-      <c r="D531" t="inlineStr"/>
+          <t>Azure Reserved VM Instances: compre Azure Reserved VM Instances si tiene una buena estimación del uso durante los próximos uno a tres años. Aproveche las opciones de capacidad reservada para los servicios cuando tenga buenas estimaciones de uso.</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Compre Azure Reserved VM Instances para pagar por adelantado el uso de máquinas virtuales y ofrecer descuentos con precios de pago por uso. El descuento se aplica automáticamente por el uso de la máquina virtual que coincida con la reserva.</t>
+        </is>
+      </c>
       <c r="F531" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14665,14 +14643,14 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>a6664b76-0292-4bd4-841e-859b65a569c0</t>
+          <t>b4470844-d54d-4a1c-980c-37d09e17940d</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="C532" t="inlineStr">
         <is>
-          <t>Integridad: Establezca la confianza y el acceso verificado mediante la implementación del cifrado para los datos en reposo y los datos en tránsito.</t>
+          <t>Estándares de desarrollo: aproveche los catálogos y registros de modelos de Machine Learning para almacenar, versionar y compartir activos de Machine Learning.</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
@@ -14683,21 +14661,17 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>2a509fe2-ce1d-410c-a5cb-780eb8dfaf15</t>
+          <t>4dace40c-2627-4eb1-9d18-4a6c03901283</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="C533" t="inlineStr">
         <is>
-          <t>Línea base de seguridad: para mejorar la seguridad y el cumplimiento de su servicio de Machine Learning, aplique la línea base de seguridad de Azure para Machine Learning.</t>
-        </is>
-      </c>
-      <c r="D533" t="inlineStr">
-        <is>
-          <t>La línea de base de seguridad proporciona orientación personalizada sobre aspectos de seguridad cruciales, como la seguridad de la red, la gestión de identidades, la protección de datos y el acceso con privilegios. Para una seguridad óptima, use Microsoft Defender for Cloud para supervisar estos aspectos.</t>
-        </is>
-      </c>
+          <t>Automatice para lograr la eficiencia: siga las buenas prácticas de operaciones de aprendizaje automático (MLOps). Cuando sea posible, cree canalizaciones automatizadas de extremo a extremo para los procesos de preparación, capacitación y puntuación de datos. En el desarrollo, use scripts en lugar de cuadernos para entrenar modelos, ya que los scripts son más fáciles de integrar en canalizaciones automatizadas.</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr"/>
       <c r="F533" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14705,21 +14679,17 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>0e30e670-0c69-4c8a-82f5-b88494e56879</t>
+          <t>2fe1daf9-b388-4d25-8ff8-39908ada7f27</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="C534" t="inlineStr">
         <is>
-          <t>Aislamiento de red virtual administrada: configure el aislamiento de red virtual administrada para Machine Learning. Al habilitar el aislamiento de red virtual administrada, se crea una red virtual administrada para el área de trabajo. Los recursos de proceso administrados que cree para el área de trabajo usan automáticamente esta red virtual administrada. Si no puede implementar el aislamiento de red virtual administrado, debe seguir las recomendaciones de topología de red para separar el proceso en una subred dedicada lejos del resto de los recursos de la solución, incluidos los puntos de conexión privados para los recursos del área de trabajo.</t>
-        </is>
-      </c>
-      <c r="D534" t="inlineStr">
-        <is>
-          <t>El aislamiento de red virtual administrado mejora la seguridad al aislar el área de trabajo de otras redes, lo que reduce el riesgo de acceso no autorizado. En un escenario en el que se produce una infracción en otra red dentro de la organización, la red aislada del área de trabajo de Machine Learning no se ve afectada, lo que protege las cargas de trabajo de machine learning.</t>
-        </is>
-      </c>
+          <t>Implemente con confianza: implemente infraestructura como código (IaC) para áreas de trabajo de Machine Learning, clústeres de proceso, instancias de proceso y otros entornos de implementación.</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr"/>
       <c r="F534" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14727,21 +14697,17 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>aeb66f5c-45bc-45d8-a7bf-a6bd5c6e5f9a</t>
+          <t>7b5de736-4956-4313-82be-0a0ff07d7ab6</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="C535" t="inlineStr">
         <is>
-          <t>Aislamiento de red de Machine Learning: configure un punto de conexión privado para el área de trabajo de Machine Learning y conéctese al área de trabajo a través de ese punto de conexión privado.</t>
-        </is>
-      </c>
-      <c r="D535" t="inlineStr">
-        <is>
-          <t>El aislamiento de red de Machine Learning mejora la seguridad al garantizar que el acceso a su espacio de trabajo sea seguro y controlado. Con un punto de conexión privado configurado para el área de trabajo, puede limitar el acceso al área de trabajo para que solo se produzca a través de las direcciones IP privadas.</t>
-        </is>
-      </c>
+          <t>Observabilidad: Supervise el rendimiento de sus modelos implementados, incluido el desfase de datos.</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr"/>
       <c r="F535" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14749,21 +14715,17 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>af44fe21-713a-435f-97bd-34ec8221f729</t>
+          <t>f8196404-8f76-4e65-9b32-46d8d777d1d3</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="C536" t="inlineStr">
         <is>
-          <t>Permitir solo el acceso saliente aprobado: configure el modo de salida en el acceso saliente administrado del área de trabajo de Machine Learning en "Permitir solo el acceso saliente aprobado" para minimizar el riesgo de filtración de datos. Configure puntos de conexión privados, etiquetas de servicio o nombres de dominio completos (FQDN) para los recursos a los que necesita acceder.</t>
-        </is>
-      </c>
-      <c r="D536" t="inlineStr">
-        <is>
-          <t>Esta configuración minimiza el riesgo de exfiltración de datos, mejorando la seguridad de los datos. Con esta configuración habilitada, un actor malintencionado que obtenga acceso a su sistema no puede enviar sus datos a un destino externo no aprobado.</t>
-        </is>
-      </c>
+          <t>Observabilidad: si los modelos se implementan en puntos de conexión en línea, habilite Application Insights para supervisar los puntos de conexión y las implementaciones en línea. Supervise la infraestructura de formación para asegurarse de que cumple con los requisitos básicos.</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr"/>
       <c r="F536" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14771,21 +14733,17 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>d1cdc5a5-eb9a-43d7-ad74-6169482b28d0</t>
+          <t>d212d648-752b-480f-bda5-0d45d0185312</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="C537" t="inlineStr">
         <is>
-          <t>Aislamiento de red virtual para servicios dependientes: configure servicios dependientes, como Storage, Key Vault y Container Registry con puntos de conexión privados y deshabilite el acceso público.</t>
-        </is>
-      </c>
-      <c r="D537" t="inlineStr">
-        <is>
-          <t>El aislamiento de red refuerza la seguridad al restringir el acceso a las soluciones de plataforma como servicio (PaaS) de Azure solo a direcciones IP privadas.</t>
-        </is>
-      </c>
+          <t>Simplicidad: use entornos seleccionados optimizados para el aprendizaje automático, cuando estén disponibles.</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr"/>
       <c r="F537" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14793,19 +14751,19 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>0d8346f9-f2fe-4a4e-b153-662c5c6e4510</t>
+          <t>afd5b803-c151-4b8d-ae08-63cc8961a378</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="C538" t="inlineStr">
         <is>
-          <t>Identidad administrada: use identidades administradas para la autenticación entre Machine Learning y otros servicios.</t>
+          <t>Minimice las instancias de áreas de trabajo de Machine Learning: minimice el número de áreas de trabajo, cuando sea posible, para reducir el mantenimiento.</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>Las identidades administradas mejoran la seguridad al eliminar la necesidad de almacenar credenciales y administrar y rotar manualmente las entidades de servicio.</t>
+          <t>Limitar el número de espacios de trabajo reduce el esfuerzo de mantenimiento y el costo de operación. Para los requisitos, como la seguridad, es posible que necesite varias áreas de trabajo independientes. Minimice el número de espacios de trabajo cuando sea posible.</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
@@ -14815,19 +14773,19 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>bf2a8ddf-263e-46fb-b73a-ca8b9ba168e7</t>
+          <t>bb6c4c2f-65f4-4fab-ada7-ebe079bde9cb</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="C539" t="inlineStr">
         <is>
-          <t>Deshabilitar la autenticación local: deshabilite la autenticación local para clústeres e instancias de proceso de Machine Learning.</t>
+          <t>Aproveche los catálogos y registros de modelos: aproveche los catálogos y registros de modelos de Machine Learning para almacenar, versionar y compartir activos de Machine Learning. Utilice los catálogos de modelos de Machine Learning para ayudarle a implementar las pruebas A/B y la implementación de modelos.</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>La deshabilitación de la autenticación local aumenta la seguridad del proceso de Machine Learning y proporciona un control y una administración centralizados de las identidades y las credenciales de recursos.</t>
+          <t>Use los registros de modelos de Machine Learning para almacenar y versionar los modelos de Machine Learning para realizar un seguimiento de los cambios y mantener el linaje con el trabajo y los conjuntos de datos utilizados para el entrenamiento. Con los catálogos de modelos de Machine Learning, los equipos de ciencia de datos pueden descubrir, evaluar y ajustar modelos fundamentales de aprendizaje automático preentrenados. El almacenamiento de modelos con versiones en registros de modelos de Machine Learning admite estrategias de implementación como versiones A/B, versiones Canary y reversiones.</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
@@ -14837,19 +14795,19 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>70477454-0ddb-4ad6-9342-1ad6290bbb06</t>
+          <t>31841d05-3372-4bd4-b8bc-efcaaee1bd88</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="C540" t="inlineStr">
         <is>
-          <t>Deshabilite el puerto SSH público: asegúrese de que el puerto público de Secure Shell (SSH) esté cerrado en el clúster de proceso de Machine Learning estableciendo "remoteLoginPortPublicAccess" en "Disabled". Aplique una configuración similar si utiliza un proceso diferente.</t>
+          <t>Supervise el rendimiento del modelo: supervise el rendimiento de los modelos implementados y detecte el desfase de datos en los conjuntos de datos.</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>Deshabilitar el acceso SSH ayuda a evitar que personas no autorizadas obtengan acceso y puedan causar daños a su sistema, y lo protege contra ataques de fuerza bruta.</t>
+          <t>La supervisión de los modelos implementados garantiza que los modelos cumplan los requisitos de rendimiento. La supervisión del desfase de datos le ayuda a detectar cambios en los datos de entrada que pueden provocar una disminución en el rendimiento del modelo. La administración del desfase de datos le ayuda a garantizar que el modelo proporcione resultados precisos a lo largo del tiempo.</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
@@ -14859,19 +14817,19 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>cbd359bc-8057-4a9c-9183-c4fc1e70a69b</t>
+          <t>90a72a7e-6fb5-4e02-a159-7a4d907eb098</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="C541" t="inlineStr">
         <is>
-          <t>No aprovisione direcciones IP públicas para el proceso de Machine Learning: establezca enableNodePublicIp en "false" al aprovisionar clústeres de proceso o instancias de proceso de Machine Learning. Aplique una configuración similar si utiliza un proceso diferente.</t>
+          <t>Supervisar la infraestructura: si los modelos se implementan en puntos de conexión en línea, habilite Application Insights para supervisar los puntos de conexión y las implementaciones en línea. Supervise la infraestructura de formación para asegurarse de que cumple con los requisitos básicos. Asegúrese de recopilar registros de recursos para Machine Learning.</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>Absténgase de aprovisionar direcciones IP públicas para mejorar la seguridad limitando la posibilidad de acceso no autorizado a la instancia informática o a los clústeres.</t>
+          <t>La supervisión de los puntos de conexión le proporciona visibilidad de métricas como la latencia de las solicitudes y las solicitudes por minuto. Puede comparar el rendimiento con la línea base y usar esta información para realizar cambios en los recursos de proceso en consecuencia. Las métricas de supervisión, como los bytes de red, pueden alertarte si te estás acercando a los límites de cuota y evitar la limitación. Del mismo modo, la supervisión de su entorno de entrenamiento le proporciona la información necesaria para realizar cambios en su entorno de entrenamiento. Use esa información para decidir si escalar o reducir horizontalmente, escalar o reducir verticalmente con diferentes SKU de alto rendimiento, o elegir entre CPU o GPU.</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
@@ -14881,19 +14839,19 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>cc532133-2bba-484f-b316-035b93b3ee6a</t>
+          <t>b1d87076-b253-47ae-8727-97f804e49a3c</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="C542" t="inlineStr">
         <is>
-          <t>Obtener la imagen más reciente del sistema operativo: vuelva a crear instancias informáticas para obtener la imagen más reciente del sistema operativo.</t>
+          <t>Seleccionar entornos de entrenamiento de modelos: use entornos seleccionados optimizados para Machine Learning, cuando estén disponibles.</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>El uso de las imágenes más recientes garantiza que se mantenga un entorno coherente, estable y seguro, lo que incluye asegurarse de tener los parches de seguridad más recientes.</t>
+          <t>Los entornos seleccionados son entornos creados previamente proporcionados por Machine Learning que aceleran el tiempo de implementación y reducen la latencia de implementación y entrenamiento. El uso de entornos seleccionados mejora las tasas de éxito del entrenamiento y la implementación, y evita compilaciones de imágenes innecesarias. Los entornos seleccionados, como Azure Container for PyTorch, también se pueden optimizar para entrenar modelos grandes en Machine Learning.</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
@@ -14903,21 +14861,17 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>cb49b636-1011-43a0-a12b-25378f677153</t>
+          <t>4c6895ce-abd9-4c90-a386-c31bc0681869</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="C543" t="inlineStr">
         <is>
-          <t>Controles estrictos de acceso al área de trabajo de Machine Learning: use grupos de identificadores de Microsoft Entra para administrar el acceso al área de trabajo y cumplir con el principio de privilegios mínimos para RBAC.</t>
-        </is>
-      </c>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>Los estrictos controles de acceso al espacio de trabajo mejoran la seguridad al garantizar que las personas solo tengan los permisos necesarios para su función. Un científico de datos, por ejemplo, podría tener acceso para ejecutar experimentos, pero no para modificar la configuración de seguridad, lo que minimiza los posibles riesgos de seguridad.</t>
-        </is>
-      </c>
+          <t>Objetivos de rendimiento: determine el tiempo de entrenamiento aceptable y la frecuencia de reentrenamiento para su modelo. Establecer un objetivo claro para el tiempo de entrenamiento, junto con las pruebas, le ayuda a determinar los recursos de proceso, la CPU frente a la GPU y las SKU de CPU necesarias para cumplir el objetivo de tiempo de entrenamiento.</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr"/>
       <c r="F543" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14925,21 +14879,17 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>17cac647-8c6f-4a6f-a66d-c436e17c91c8</t>
+          <t>82ffebb1-2e91-46a4-b796-3fa55c4c20e3</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="C544" t="inlineStr">
         <is>
-          <t>Restringir implementaciones de catálogos de modelos: restrinja las implementaciones de modelos a registros específicos.</t>
-        </is>
-      </c>
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>La restricción de las implementaciones del catálogo de modelos a registros específicos garantiza que solo se implementen modelos en registros aprobados. Este enfoque ayuda a regular el acceso a los modelos fundacionales de código abierto.</t>
-        </is>
-      </c>
+          <t>Objetivos de rendimiento: defina los objetivos de rendimiento aceptables para los modelos implementados, incluido el tiempo de respuesta, las solicitudes por segundo, la tasa de errores y el tiempo de actividad. Los objetivos de rendimiento actúan como punto de referencia para la eficiencia del modelo implementado. Los destinos pueden ayudarle a determinar la CPU frente a la GPU, las opciones de SKU de CPU y los requisitos de escalado.</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr"/>
       <c r="F544" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14947,21 +14897,17 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>18a61ee3-34d2-484a-a740-3c90d23c64b9</t>
+          <t>5e526216-1b94-4cfe-86ef-bbce971f7f3a</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="C545" t="inlineStr">
         <is>
-          <t>Cifrar datos en reposo: considere la posibilidad de usar claves administradas por el cliente con Machine Learning.</t>
-        </is>
-      </c>
-      <c r="D545" t="inlineStr">
-        <is>
-          <t>El cifrado de datos en reposo mejora la seguridad de los datos al garantizar que los datos confidenciales se cifren mediante el uso de claves administradas directamente por usted. Si tiene un requisito normativo para administrar sus propias claves de cifrado, utilice esta función para cumplir con ese requisito.</t>
-        </is>
-      </c>
+          <t>Cumplir con los requisitos de capacidad: elija los recursos informáticos adecuados para el entrenamiento de modelos.</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr"/>
       <c r="F545" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14969,21 +14915,17 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>5e14c11e-83fb-40f1-a8dc-d96767d73a13</t>
+          <t>2d6ddbe2-2bcc-4629-a316-5d56d74ef68a</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="C546" t="inlineStr">
         <is>
-          <t>Minimice el riesgo de exfiltración de datos: implemente la prevención de exfiltración de datos. Por ejemplo, cree una directiva de punto de conexión de servicio para filtrar el tráfico de red virtual de salida y permitir la filtración de datos solo a cuentas específicas de Azure Storage.</t>
-        </is>
-      </c>
-      <c r="D546" t="inlineStr">
-        <is>
-          <t>Minimice el riesgo de exfiltración de datos limitando los requisitos de entrada y salida.</t>
-        </is>
-      </c>
+          <t>Cumplir con los requisitos de capacidad: elija los recursos informáticos adecuados para las implementaciones de modelos.</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr"/>
       <c r="F546" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -14991,14 +14933,14 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>6782cd14-a63d-466c-a7c9-8a92afe3b396</t>
+          <t>0ab74767-80ac-454e-aab6-b546e38411f8</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="C547" t="inlineStr">
         <is>
-          <t>Optimización del uso: elija los recursos adecuados para asegurarse de que se alinean con los requisitos de su carga de trabajo. Por ejemplo, elija entre CPU o GPU, varias SKU o máquinas virtuales de prioridad baja frente a regular.</t>
+          <t>Cumpla con los requisitos de capacidad: elija entornos de implementación con capacidades de escalado automático para agregar y eliminar capacidad a medida que fluctúa la demanda.</t>
         </is>
       </c>
       <c r="D547" t="inlineStr"/>
@@ -15009,14 +14951,14 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>cac38d1e-d21e-4af5-834d-d607469c6439</t>
+          <t>d47bd862-5302-4ecb-a551-37cb0d15e802</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="C548" t="inlineStr">
         <is>
-          <t>Optimización del uso: asegúrese de que los recursos informáticos que no se utilizan se reduzcan o se apaguen cuando estén inactivos para reducir el desperdicio.</t>
+          <t>Logre y mantenga el rendimiento: supervise continuamente el rendimiento de sus modelos implementados, revise los resultados y tome las medidas adecuadas.</t>
         </is>
       </c>
       <c r="D548" t="inlineStr"/>
@@ -15027,14 +14969,14 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>8e98fc4b-2fa4-44b9-9aa7-1c01f67aecb7</t>
+          <t>e10dead3-58c0-40b2-aa9b-39c64a68c555</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="C549" t="inlineStr">
         <is>
-          <t>Optimización del uso: aplique políticas y configure cuotas para cumplir con los límites superior e inferior del diseño.</t>
+          <t>Logre y mantenga el rendimiento: supervise continuamente el rendimiento de su infraestructura de modelos implementados, revise los resultados y tome las medidas adecuadas. Supervise la infraestructura de formación para asegurarse de que cumple con sus requisitos de tiempo de formación.</t>
         </is>
       </c>
       <c r="D549" t="inlineStr"/>
@@ -15045,17 +14987,21 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>dfafcc35-c8fb-429b-92c0-53f045884794</t>
+          <t>e257de8e-a8ef-4b91-81a3-3d832682b1eb</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="C550" t="inlineStr">
         <is>
-          <t>Optimización del uso: pruebe la paralelización de cargas de trabajo de entrenamiento para determinar si los requisitos de entrenamiento se pueden cumplir en SKU de menor costo.</t>
-        </is>
-      </c>
-      <c r="D550" t="inlineStr"/>
+          <t>Seleccione los servicios de proceso adecuados para el entrenamiento de modelos: considere la posibilidad de utilizar clústeres de proceso de Machine Learning en lugar de instancias de proceso para el entrenamiento de modelos si necesita escalado automático. Optimice sus recursos informáticos en función de los requisitos de formación. En primer lugar, elija entre CPU y GPU. De forma predeterminada, utilice CPU, pero considere las GPU para cargas de trabajo como el aprendizaje profundo, el procesamiento de imágenes o vídeos, o grandes cantidades de datos. A continuación, elija la SKU de imagen que mejor se adapte a su carga de trabajo. Use las pruebas para elegir la opción de proceso que optimiza el costo en función del tiempo de entrenamiento al determinar la línea base.</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>La selección del proceso adecuado es fundamental, ya que afecta directamente al tiempo de entrenamiento. La elección de la SKU y la CPU correctas en comparación con la GPU garantiza que el entrenamiento de su modelo pueda cumplir con sus requisitos y objetivos de rendimiento. Elegir una SKU de bajo rendimiento que se use en exceso puede provocar tiempos de entrenamiento prohibitivamente largos y problemas de rendimiento. Los clústeres de proceso proporcionan la capacidad de mejorar el rendimiento mediante el escalado horizontal de las cargas de trabajo que admiten el escalado horizontal. Este método proporciona flexibilidad para manejar cargas de trabajo con diferentes demandas y le permite agregar o quitar máquinas según sea necesario.</t>
+        </is>
+      </c>
       <c r="F550" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15063,17 +15009,21 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>14149f48-97d8-4614-9236-681f5fd42b34</t>
+          <t>352a223c-dabd-46da-8752-56a87c6f18b7</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="C551" t="inlineStr">
         <is>
-          <t>Optimización de tarifas: compre Azure Reserved Virtual Machine Instances si tiene una buena estimación del uso para los próximos uno a tres años.</t>
-        </is>
-      </c>
-      <c r="D551" t="inlineStr"/>
+          <t>Escalado del entorno de implementación de modelos: use las capacidades de escalado automático del entorno de implementación. En el caso de los entornos de implementación de AKS, use el escalador automático de clústeres para escalar y satisfacer la demanda. En el caso de los puntos de conexión en línea, escale automáticamente a través de la integración con la característica de escalado automático de Azure Monitor.</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>El escalado automático ajusta el número de instancias del modelo implementado para que coincida con la demanda.</t>
+        </is>
+      </c>
       <c r="F551" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15081,17 +15031,21 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>945e262b-3a0f-4ac9-ac51-69b5500f9ee6</t>
+          <t>683ae603-156f-4186-8a82-aa2907fbb9bd</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="C552" t="inlineStr">
         <is>
-          <t>Supervisión y optimización: supervise el uso de recursos, como el uso de CPU y GPU, al entrenar modelos. Si los recursos no se usan por completo, modifique el código para usar mejor los recursos o reduzca verticalmente a tamaños de máquina virtual más pequeños o más baratos.</t>
-        </is>
-      </c>
-      <c r="D552" t="inlineStr"/>
+          <t>Supervise el rendimiento del modelo: supervise el rendimiento de los modelos implementados.</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>El seguimiento del rendimiento de los modelos en producción le alerta de posibles problemas, como el desfase de datos, el desfase de predicción, la calidad de los datos y el desfase de atribución de características. La supervisión del desfase de datos le ayuda a detectar cambios en los datos de entrada que pueden provocar una disminución en el rendimiento del modelo. La administración del desfase de datos le ayuda a garantizar que el modelo proporcione resultados precisos a lo largo del tiempo.</t>
+        </is>
+      </c>
       <c r="F552" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15099,19 +15053,19 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>563a3c8d-4168-4f18-a056-efb624734ecf</t>
+          <t>eccdaab6-7458-4967-9cd4-da6a89e3ce8c</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="C553" t="inlineStr">
         <is>
-          <t>Optimice los recursos informáticos: optimice los recursos informáticos en función de los requisitos de la carga de trabajo. Elija la SKU que mejor se adapte a su carga de trabajo:&lt;ul&gt;&lt;li&gt;Propósito general: relación equilibrada entre CPU y memoria, buena para todos los propósitos.&lt;/li&gt;&lt;li&gt;Optimizado para cómputo: alta relación entre CPU y memoria, buena para cálculos matemáticos pesados.&lt;/li&gt;&lt;li&gt;Optimizado para memoria: alta memoria para CPU, buena para cálculos en memoria o aplicaciones de bases de datos.&lt;/li&gt;&lt;li&gt;Serie M: máquinas muy grandes que tienen grandes cantidades de memoria y CPU. &lt;/li&gt;&lt;li&gt; GPU: mejor para modelos con un gran número de variables que pueden beneficiarse de un mayor paralelismo e instrucciones de núcleo especializadas. Las aplicaciones típicas son el aprendizaje profundo, el procesamiento de imágenes o vídeos, las simulaciones científicas, la minería de datos y el aprovechamiento de los marcos de desarrollo de GPU. Pruebe con varias familias y documente los resultados como referencia. A medida que el modelo y los datos evolucionan, es posible que cambie el recurso informático más adecuado. Supervise los tiempos de ejecución y reevalúe según sea necesario.</t>
+          <t>Supervise la infraestructura: supervise los puntos finales en línea e intégrelos con Monitor para realizar un seguimiento y supervisar las métricas y los registros adecuados. Habilite Application Insights al crear implementaciones en línea. Supervise la infraestructura de entrenamiento y revise el uso de recursos, como la memoria y el uso de CPU o GPU, al entrenar modelos para asegurarse de que cumple con los requisitos básicos.</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>La selección del proceso adecuado es fundamental, ya que afecta directamente al costo de ejecución de la carga de trabajo. Elegir una GPU o una SKU de alto rendimiento sin un uso adecuado puede generar gastos innecesarios, mientras que elegir un proceso de tamaño insuficiente puede provocar tiempos de entrenamiento prohibitivamente largos y problemas de rendimiento.</t>
+          <t>La supervisión de los puntos de conexión le proporciona visibilidad de métricas como la latencia de las solicitudes y las solicitudes por minuto. Puede comparar el rendimiento con la línea base y usar esta información para realizar cambios en los recursos de proceso en consecuencia. Las métricas de supervisión, como los bytes de red, pueden alertarte si te estás acercando a los límites de cuota y evitar la limitación. Del mismo modo, la supervisión de su entorno de entrenamiento le proporciona la información necesaria para realizar cambios en su entorno de entrenamiento. Use esa información para decidir si escalar o reducir horizontalmente, escalar o reducir verticalmente con diferentes SKU de alto rendimiento, o elegir entre CPU o GPU.</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
@@ -15121,21 +15075,17 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>3d87f935-99a6-4aee-aac2-069994de09ff</t>
+          <t>76b80c26-8252-416e-aae1-ace03a9403dd</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="C554" t="inlineStr">
         <is>
-          <t>Optimice el escalado de proceso: configure los clústeres de proceso para el escalado automático a fin de asegurarse de que solo usa lo que necesita. Para los clústeres de entrenamiento, establezca el número mínimo de nodos en 0 y configure la cantidad de tiempo que el nodo está inactivo en un tiempo adecuado. Para una experimentación menos iterativa, reduzca el tiempo para ahorrar costos. Para una experimentación más iterativa, use un tiempo más alto para evitar pagar por escalar hacia arriba o hacia abajo después de cada cambio.</t>
-        </is>
-      </c>
-      <c r="D554" t="inlineStr">
-        <is>
-          <t>Configure el escalado automático para que los clústeres de proceso reduzcan verticalmente cuando su uso sea bajo.  Establezca el número mínimo de nodos en 0 para que los clústeres de entrenamiento se reduzcan verticalmente a 0 cuando no estén en uso.</t>
-        </is>
-      </c>
+          <t>Resistencia: elija la opción de implementación adecuada de rendimiento de pago por uso o aprovisionado en función de su caso de uso. Dado que la capacidad reservada aumenta la resistencia, elija el rendimiento aprovisionado para las soluciones de producción. El enfoque de pago por uso es ideal para entornos de desarrollo y pruebas.</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr"/>
       <c r="F554" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15143,21 +15093,17 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>d30cfeeb-6c61-4a9d-9a56-c8296cec72cb</t>
+          <t>154d9075-f8f8-4dc8-b8f4-651d875d5dfe</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="C555" t="inlineStr">
         <is>
-          <t>Establecer políticas de finalización del entrenamiento: establezca políticas de finalización anticipada para limitar la duración de las ejecuciones de entrenamiento o finalizarlas antes de tiempo.</t>
-        </is>
-      </c>
-      <c r="D555" t="inlineStr">
-        <is>
-          <t>La configuración de directivas de terminación puede ayudarle a ahorrar costos al detener las ejecuciones que no funcionan antes de tiempo.</t>
-        </is>
-      </c>
+          <t>Redundancia: agregue las puertas de enlace adecuadas delante de las implementaciones de Azure OpenAI. La puerta de enlace debe tener la capacidad de soportar errores transitorios, como la limitación, y también de enrutar a varias instancias de Azure OpenAI. Considere la posibilidad de enrutar a instancias en diferentes regiones para crear redundancia regional.</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr"/>
       <c r="F555" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15165,21 +15111,17 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>098a7bee-444c-4351-aeb1-8bd97036299c</t>
+          <t>571ddd3c-601e-46a7-bf80-c52f04a301fb</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="C556" t="inlineStr">
         <is>
-          <t>Usar máquinas virtuales de prioridad baja para cargas de trabajo por lotes: considere la posibilidad de usar máquinas virtuales de prioridad baja para cargas de trabajo por lotes que no sean urgentes y en las que las interrupciones sean recuperables.</t>
-        </is>
-      </c>
-      <c r="D556" t="inlineStr">
-        <is>
-          <t>Las máquinas virtuales de baja prioridad permiten utilizar una gran cantidad de potencia de proceso a bajo costo. Aprovechan el excedente de capacidad de Azure.</t>
-        </is>
-      </c>
+          <t>Resistencia: si usa el rendimiento aprovisionado, considere también la posibilidad de implementar una instancia de pago por uso para controlar el desbordamiento. Puede enrutar llamadas a la instancia de pago por uso a través de la puerta de enlace cuando el modelo de rendimiento aprovisionado está limitado.</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr"/>
       <c r="F556" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15187,21 +15129,17 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>41f2dd91-5765-4dfb-9db0-9b3e976b4afb</t>
+          <t>3861cb87-64b1-4958-b439-5575b8d1fc67</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="C557" t="inlineStr">
         <is>
-          <t>Habilitar el apagado inactivo para instancias informáticas: habilite el apagado inactivo para instancias informáticas o programe una hora de inicio y finalización si se conoce el tiempo de uso.</t>
-        </is>
-      </c>
-      <c r="D557" t="inlineStr">
-        <is>
-          <t>De forma predeterminada, las instancias de proceso están disponibles para usted, acumulando costos. Configurar instancias de proceso para que se apaguen cuando estén inactivas o configurar una programación para ellas ahorra costos cuando no están en uso.</t>
-        </is>
-      </c>
+          <t>Resistencia: supervise el uso de la capacidad para asegurarse de que no supera los límites de rendimiento. Revise periódicamente el uso de la capacidad para lograr una previsión más precisa y ayudar a prevenir interrupciones del servicio debido a limitaciones de capacidad.</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr"/>
       <c r="F557" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15209,21 +15147,17 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>e3150ddd-f553-425f-bb91-249a9598e25e</t>
+          <t>7fd57f22-417b-47d5-88c9-ab7a2ceb5599</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="C558" t="inlineStr">
         <is>
-          <t>Paralelizar cargas de trabajo de entrenamiento: considere la posibilidad de paralelizar cargas de trabajo de entrenamiento. Pruebe a ejecutarlos con la ayuda de los componentes paralelos de Machine Learning.</t>
-        </is>
-      </c>
-      <c r="D558" t="inlineStr">
-        <is>
-          <t>Las cargas de trabajo paralelas se pueden ejecutar en varias instancias más pequeñas, lo que puede generar ahorros de costos.</t>
-        </is>
-      </c>
+          <t>Resistencia: siga las instrucciones para ajustar con archivos de datos de gran tamaño e importe los datos de un almacén de blobs de Azure. Los archivos grandes, de 100 MB o más, pueden volverse inestables cuando se cargan a través de formularios de varias partes porque las solicitudes son atómicas y no se pueden volver a intentar ni reanudar.</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr"/>
       <c r="F558" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15231,21 +15165,17 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>8b47ec85-0e9e-428b-9290-c590a7f4ab1a</t>
+          <t>950e6010-4345-43e6-a8e9-d8c95e45f818</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="C559" t="inlineStr">
         <is>
-          <t>Azure Reserved VM Instances: compre Azure Reserved VM Instances si tiene una buena estimación del uso durante los próximos uno a tres años. Aproveche las opciones de capacidad reservada para los servicios cuando tenga buenas estimaciones de uso.</t>
-        </is>
-      </c>
-      <c r="D559" t="inlineStr">
-        <is>
-          <t>Compre Azure Reserved VM Instances para pagar por adelantado el uso de máquinas virtuales y ofrecer descuentos con precios de pago por uso. El descuento se aplica automáticamente por el uso de la máquina virtual que coincida con la reserva.</t>
-        </is>
-      </c>
+          <t>Recuperación: defina una estrategia de recuperación que incluya un plan de recuperación para los modelos optimizados y para los datos de entrenamiento cargados en Azure OpenAI. Dado que Azure OpenAI no tiene conmutación automática por error, debe diseñar una estrategia que abarque todo el servicio y todas las dependencias, como el almacenamiento que contiene datos de entrenamiento.</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr"/>
       <c r="F559" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15253,17 +15183,21 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>b4470844-d54d-4a1c-980c-37d09e17940d</t>
+          <t>088c617d-fce0-4fab-b4cd-9f9eb6a96cff</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="C560" t="inlineStr">
         <is>
-          <t>Estándares de desarrollo: aproveche los catálogos y registros de modelos de Machine Learning para almacenar, versionar y compartir activos de Machine Learning.</t>
-        </is>
-      </c>
-      <c r="D560" t="inlineStr"/>
+          <t>Supervise los límites de frecuencia para el pago por uso: si usa el enfoque de pago por uso, administre los límites de velocidad para las implementaciones del modelo y supervise el uso de tokens por minuto (TPM) y solicitudes por minuto (RPM).</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>Esta importante información de rendimiento proporciona la información necesaria para asegurarse de que asigna suficiente TPM de la cuota para satisfacer la demanda de las implementaciones. La asignación de una cuota suficiente evita la limitación de las llamadas a los modelos implementados.</t>
+        </is>
+      </c>
       <c r="F560" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15271,17 +15205,21 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>4dace40c-2627-4eb1-9d18-4a6c03901283</t>
+          <t>f109deb2-54f9-4405-a9f0-f90fd0f76adf</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="C561" t="inlineStr">
         <is>
-          <t>Automatice para lograr la eficiencia: siga las buenas prácticas de operaciones de aprendizaje automático (MLOps). Cuando sea posible, cree canalizaciones automatizadas de extremo a extremo para los procesos de preparación, capacitación y puntuación de datos. En el desarrollo, use scripts en lugar de cuadernos para entrenar modelos, ya que los scripts son más fáciles de integrar en canalizaciones automatizadas.</t>
-        </is>
-      </c>
-      <c r="D561" t="inlineStr"/>
+          <t>Supervisión del uso administrado por aprovisionamiento para el rendimiento aprovisionado: si usa el modelo de pago por rendimiento aprovisionado, supervise el uso administrado por aprovisionamiento.</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>Es importante supervisar el uso administrado por el aprovisionamiento para asegurarse de que no supera el 100 % para evitar la limitación de las llamadas a los modelos implementados.</t>
+        </is>
+      </c>
       <c r="F561" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15289,17 +15227,21 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>2fe1daf9-b388-4d25-8ff8-39908ada7f27</t>
+          <t>ef12f5c3-dbe2-4040-be82-724eebc6f87e</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="C562" t="inlineStr">
         <is>
-          <t>Implemente con confianza: implemente infraestructura como código (IaC) para áreas de trabajo de Machine Learning, clústeres de proceso, instancias de proceso y otros entornos de implementación.</t>
-        </is>
-      </c>
-      <c r="D562" t="inlineStr"/>
+          <t>Ajustar los filtros de contenido: Ajuste los filtros de contenido para minimizar los falsos positivos de filtros demasiado agresivos.</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>Los filtros de contenido bloquean las solicitudes o finalizaciones en función de un análisis de riesgos opaco. Asegúrese de que los filtros de contenido estén ajustados para permitir el uso esperado de su carga de trabajo.</t>
+        </is>
+      </c>
       <c r="F562" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15307,14 +15249,14 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>7b5de736-4956-4313-82be-0a0ff07d7ab6</t>
+          <t>efcf5f6a-02bb-4cc8-8018-055ebf2e57e0</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="C563" t="inlineStr">
         <is>
-          <t>Observabilidad: Supervise el rendimiento de sus modelos implementados, incluido el desfase de datos.</t>
+          <t>Proteja la confidencialidad: si carga datos de entrenamiento en Azure OpenAI, use claves administradas por el cliente para el cifrado de datos, implemente una estrategia de rotación de claves y elimine los datos de entrenamiento, validación y resultados de entrenamiento. Si usa un almacén de datos externo para los datos de entrenamiento, siga las prácticas recomendadas de seguridad para ese almacén. Por ejemplo, para Azure Blob Storage, use claves administradas por el cliente para el cifrado e implemente una estrategia de rotación de claves. Utilice el acceso administrado basado en identidades, implemente un perímetro de red mediante puntos de conexión privados y habilite los registros de acceso.</t>
         </is>
       </c>
       <c r="D563" t="inlineStr"/>
@@ -15325,14 +15267,14 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>f8196404-8f76-4e65-9b32-46d8d777d1d3</t>
+          <t>a61b826b-9f3b-4f51-8e0e-a32a92865386</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="C564" t="inlineStr">
         <is>
-          <t>Observabilidad: si los modelos se implementan en puntos de conexión en línea, habilite Application Insights para supervisar los puntos de conexión y las implementaciones en línea. Supervise la infraestructura de formación para asegurarse de que cumple con los requisitos básicos.</t>
+          <t>Proteja la confidencialidad: protéjase contra la filtración de datos limitando las direcciones URL de salida a las que pueden acceder los recursos de Azure OpenAI.</t>
         </is>
       </c>
       <c r="D564" t="inlineStr"/>
@@ -15343,14 +15285,14 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>d212d648-752b-480f-bda5-0d45d0185312</t>
+          <t>9f4bdfff-2c6c-4662-9139-1de51d2dbd20</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="C565" t="inlineStr">
         <is>
-          <t>Simplicidad: use entornos seleccionados optimizados para el aprendizaje automático, cuando estén disponibles.</t>
+          <t>Proteger la integridad: implemente controles de acceso para autenticar y autorizar el acceso de los usuarios al sistema mediante el principio de privilegios mínimos y mediante el uso de identidades individuales en lugar de claves.</t>
         </is>
       </c>
       <c r="D565" t="inlineStr"/>
@@ -15361,21 +15303,17 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>afd5b803-c151-4b8d-ae08-63cc8961a378</t>
+          <t>b8463e8d-daaa-4209-9944-0fb0587219a8</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="C566" t="inlineStr">
         <is>
-          <t>Minimice las instancias de áreas de trabajo de Machine Learning: minimice el número de áreas de trabajo, cuando sea posible, para reducir el mantenimiento.</t>
-        </is>
-      </c>
-      <c r="D566" t="inlineStr">
-        <is>
-          <t>Limitar el número de espacios de trabajo reduce el esfuerzo de mantenimiento y el costo de operación. Para los requisitos, como la seguridad, es posible que necesite varias áreas de trabajo independientes. Minimice el número de espacios de trabajo cuando sea posible.</t>
-        </is>
-      </c>
+          <t>Proteja la integridad: implemente la detección de riesgos de jailbreak para proteger las implementaciones de sus modelos de lenguaje contra ataques de inyección rápida.</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr"/>
       <c r="F566" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15383,21 +15321,17 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>bb6c4c2f-65f4-4fab-ada7-ebe079bde9cb</t>
+          <t>714249d8-2b60-4920-89a2-eab4a338ac02</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="C567" t="inlineStr">
         <is>
-          <t>Aproveche los catálogos y registros de modelos: aproveche los catálogos y registros de modelos de Machine Learning para almacenar, versionar y compartir activos de Machine Learning. Utilice los catálogos de modelos de Machine Learning para ayudarle a implementar las pruebas A/B y la implementación de modelos.</t>
-        </is>
-      </c>
-      <c r="D567" t="inlineStr">
-        <is>
-          <t>Use los registros de modelos de Machine Learning para almacenar y versionar los modelos de Machine Learning para realizar un seguimiento de los cambios y mantener el linaje con el trabajo y los conjuntos de datos utilizados para el entrenamiento. Con los catálogos de modelos de Machine Learning, los equipos de ciencia de datos pueden descubrir, evaluar y ajustar modelos fundamentales de aprendizaje automático preentrenados. El almacenamiento de modelos con versiones en registros de modelos de Machine Learning admite estrategias de implementación como versiones A/B, versiones Canary y reversiones.</t>
-        </is>
-      </c>
+          <t>Proteja la disponibilidad: use controles de seguridad para evitar ataques que puedan agotar las cuotas de uso del modelo. Puede configurar controles para aislar el servicio en una red. Si el servicio debe ser accesible desde Internet, considere la posibilidad de usar una puerta de enlace para bloquear los posibles abusos mediante el enrutamiento o la limitación.</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr"/>
       <c r="F567" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15405,19 +15339,19 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>31841d05-3372-4bd4-b8bc-efcaaee1bd88</t>
+          <t>e0383d3b-71f1-4fda-9759-24cfd293abff</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="C568" t="inlineStr">
         <is>
-          <t>Supervise el rendimiento del modelo: supervise el rendimiento de los modelos implementados y detecte el desfase de datos en los conjuntos de datos.</t>
+          <t>Claves seguras: si su arquitectura requiere autenticación basada en claves de Azure OpenAI, almacene esas claves en Azure Key Vault, no en el código de la aplicación.</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>La supervisión de los modelos implementados garantiza que los modelos cumplan los requisitos de rendimiento. La supervisión del desfase de datos le ayuda a detectar cambios en los datos de entrada que pueden provocar una disminución en el rendimiento del modelo. La administración del desfase de datos le ayuda a garantizar que el modelo proporcione resultados precisos a lo largo del tiempo.</t>
+          <t>Separar los secretos del código almacenándolos en Key Vault reduce la posibilidad de que se filtren secretos. La separación también facilita la gestión centralizada de secretos, lo que facilita responsabilidades como la rotación de claves.</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -15427,19 +15361,19 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>90a72a7e-6fb5-4e02-a159-7a4d907eb098</t>
+          <t>c4310e87-1366-4523-b2e1-244e1074fbb0</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="C569" t="inlineStr">
         <is>
-          <t>Supervisar la infraestructura: si los modelos se implementan en puntos de conexión en línea, habilite Application Insights para supervisar los puntos de conexión y las implementaciones en línea. Supervise la infraestructura de formación para asegurarse de que cumple con los requisitos básicos. Asegúrese de recopilar registros de recursos para Machine Learning.</t>
+          <t>Restringir el acceso: deshabilite el acceso público a Azure OpenAI a menos que la carga de trabajo lo requiera. Cree puntos de conexión privados si se conecta desde consumidores en una red virtual de Azure.</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>La supervisión de los puntos de conexión le proporciona visibilidad de métricas como la latencia de las solicitudes y las solicitudes por minuto. Puede comparar el rendimiento con la línea base y usar esta información para realizar cambios en los recursos de proceso en consecuencia. Las métricas de supervisión, como los bytes de red, pueden alertarte si te estás acercando a los límites de cuota y evitar la limitación. Del mismo modo, la supervisión de su entorno de entrenamiento le proporciona la información necesaria para realizar cambios en su entorno de entrenamiento. Use esa información para decidir si escalar o reducir horizontalmente, escalar o reducir verticalmente con diferentes SKU de alto rendimiento, o elegir entre CPU o GPU.</t>
+          <t>Controlar el acceso a Azure OpenAI ayuda a evitar ataques de usuarios no autorizados. El uso de puntos de conexión privados garantiza que el tráfico de red permanezca privado entre la aplicación y la plataforma.</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
@@ -15449,19 +15383,19 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>b1d87076-b253-47ae-8727-97f804e49a3c</t>
+          <t>4a7a9a07-0229-4175-b784-9a99eded4d54</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="C570" t="inlineStr">
         <is>
-          <t>Seleccionar entornos de entrenamiento de modelos: use entornos seleccionados optimizados para Machine Learning, cuando estén disponibles.</t>
+          <t>Id. de Microsoft Entra: use el id. de Microsoft Entra para la autenticación y para autorizar el acceso a Azure OpenAI mediante el control de acceso basado en roles (RBAC). Deshabilite la autenticación local en Azure AI Services y establezca 'disableLocalAuth' en 'true'. Otorgue a las identidades que realicen finalizaciones o generación de imágenes el rol de usuario de OpenAI de Cognitive Services. Otorgue a las canalizaciones de automatización de modelos y al acceso ad-hoc a la ciencia de datos un rol como el de Colaborador de OpenAI de Cognitive Services.</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>Los entornos seleccionados son entornos creados previamente proporcionados por Machine Learning que aceleran el tiempo de implementación y reducen la latencia de implementación y entrenamiento. El uso de entornos seleccionados mejora las tasas de éxito del entrenamiento y la implementación, y evita compilaciones de imágenes innecesarias. Los entornos seleccionados, como Azure Container for PyTorch, también se pueden optimizar para entrenar modelos grandes en Machine Learning.</t>
+          <t>El uso de Microsoft Entra ID centraliza el componente de administración de identidades y elimina el uso de claves de API. El uso de RBAC con Microsoft Entra ID garantiza que los usuarios o grupos tengan exactamente los permisos que necesitan para realizar su trabajo. Este tipo de control de acceso detallado no es posible con las claves de API de Azure OpenAI.</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -15471,17 +15405,21 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>4c6895ce-abd9-4c90-a386-c31bc0681869</t>
+          <t>d5892190-2da9-43f4-b1e1-76b38b369643</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="C571" t="inlineStr">
         <is>
-          <t>Objetivos de rendimiento: determine el tiempo de entrenamiento aceptable y la frecuencia de reentrenamiento para su modelo. Establecer un objetivo claro para el tiempo de entrenamiento, junto con las pruebas, le ayuda a determinar los recursos de proceso, la CPU frente a la GPU y las SKU de CPU necesarias para cumplir el objetivo de tiempo de entrenamiento.</t>
-        </is>
-      </c>
-      <c r="D571" t="inlineStr"/>
+          <t>Use claves administradas por el cliente: use claves administradas por el cliente para los modelos optimizados y los datos de entrenamiento que se cargan en Azure OpenAI.</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>El uso de claves administradas por el cliente le proporciona una mayor flexibilidad para crear, rotar, deshabilitar y revocar controles de acceso.</t>
+        </is>
+      </c>
       <c r="F571" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15489,17 +15427,21 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>82ffebb1-2e91-46a4-b796-3fa55c4c20e3</t>
+          <t>60a4703c-1086-45e1-9384-ebb32ab50696</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="C572" t="inlineStr">
         <is>
-          <t>Objetivos de rendimiento: defina los objetivos de rendimiento aceptables para los modelos implementados, incluido el tiempo de respuesta, las solicitudes por segundo, la tasa de errores y el tiempo de actividad. Los objetivos de rendimiento actúan como punto de referencia para la eficiencia del modelo implementado. Los destinos pueden ayudarle a determinar la CPU frente a la GPU, las opciones de SKU de CPU y los requisitos de escalado.</t>
-        </is>
-      </c>
-      <c r="D572" t="inlineStr"/>
+          <t>Protéjase contra ataques de jailbreak: use Azure AI Content Safety Studio para detectar riesgos de jailbreak.</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>Detecte los intentos de jailbreak para identificar y bloquear los mensajes que intentan eludir los mecanismos de seguridad de las implementaciones de Azure OpenAI.</t>
+        </is>
+      </c>
       <c r="F572" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15507,14 +15449,14 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>5e526216-1b94-4cfe-86ef-bbce971f7f3a</t>
+          <t>ce66eba7-5972-4cb5-8db0-b75c3720b220</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="C573" t="inlineStr">
         <is>
-          <t>Cumplir con los requisitos de capacidad: elija los recursos informáticos adecuados para el entrenamiento de modelos.</t>
+          <t>Gestión de costos: Desarrolle su modelo de costos, teniendo en cuenta los tamaños de las solicitudes. Comprender los tamaños de entrada y respuesta de las solicitudes, y cómo el texto se traduce en tokens, lo ayuda a crear un modelo de costos viable.</t>
         </is>
       </c>
       <c r="D573" t="inlineStr"/>
@@ -15525,14 +15467,14 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>2d6ddbe2-2bcc-4629-a316-5d56d74ef68a</t>
+          <t>08f7b66c-7679-479b-8e2f-41b3305613dc</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="C574" t="inlineStr">
         <is>
-          <t>Cumplir con los requisitos de capacidad: elija los recursos informáticos adecuados para las implementaciones de modelos.</t>
+          <t>Optimización del uso: comience con los precios de pago por uso para Azure OpenAI hasta que el uso del token sea predecible.</t>
         </is>
       </c>
       <c r="D574" t="inlineStr"/>
@@ -15543,14 +15485,14 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>0ab74767-80ac-454e-aab6-b546e38411f8</t>
+          <t>3f66f351-a073-40bb-94d2-326e1ea1a696</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="C575" t="inlineStr">
         <is>
-          <t>Cumpla con los requisitos de capacidad: elija entornos de implementación con capacidades de escalado automático para agregar y eliminar capacidad a medida que fluctúa la demanda.</t>
+          <t>Optimización de tasas: cuando el uso de tokens sea lo suficientemente alto y predecible durante un período de tiempo, use el modelo de precios de rendimiento aprovisionado para una mejor optimización de costos.</t>
         </is>
       </c>
       <c r="D575" t="inlineStr"/>
@@ -15561,14 +15503,14 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>d47bd862-5302-4ecb-a551-37cb0d15e802</t>
+          <t>3802ce2d-2a46-445d-92e2-2a23b2e40705</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="C576" t="inlineStr">
         <is>
-          <t>Logre y mantenga el rendimiento: supervise continuamente el rendimiento de sus modelos implementados, revise los resultados y tome las medidas adecuadas.</t>
+          <t>Optimización del uso: tenga en cuenta los precios y las capacidades del modelo al elegir los modelos. Comience con modelos menos costosos para tareas menos complejas, como la generación de texto o las tareas de finalización. Para tareas más complejas, como la traducción de idiomas o la comprensión de contenidos, considere la posibilidad de utilizar modelos más avanzados. Tenga en cuenta las diferentes capacidades del modelo y los límites máximos de uso de tokens cuando elija un modelo que sea adecuado para casos de uso como escenarios de incrustación de texto, generación de imágenes o transcripción. Al seleccionar cuidadosamente el modelo que mejor se adapte a sus necesidades, puede optimizar los costos y, al mismo tiempo, lograr el rendimiento deseado de la aplicación.</t>
         </is>
       </c>
       <c r="D576" t="inlineStr"/>
@@ -15579,14 +15521,14 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>e10dead3-58c0-40b2-aa9b-39c64a68c555</t>
+          <t>2b2303c0-e057-431d-9a02-20a1a0b2b5b9</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="C577" t="inlineStr">
         <is>
-          <t>Logre y mantenga el rendimiento: supervise continuamente el rendimiento de su infraestructura de modelos implementados, revise los resultados y tome las medidas adecuadas. Supervise la infraestructura de formación para asegurarse de que cumple con sus requisitos de tiempo de formación.</t>
+          <t>Optimización de uso: utilice las restricciones de limitación de tokens que ofrecen las llamadas a la API, como 'max_tokens' y 'n', que indican el número de finalizaciones que se van a generar.</t>
         </is>
       </c>
       <c r="D577" t="inlineStr"/>
@@ -15597,21 +15539,17 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>e257de8e-a8ef-4b91-81a3-3d832682b1eb</t>
+          <t>c4104d7c-4a4f-4b8a-9928-558a7c5c61d8</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="C578" t="inlineStr">
         <is>
-          <t>Seleccione los servicios de proceso adecuados para el entrenamiento de modelos: considere la posibilidad de utilizar clústeres de proceso de Machine Learning en lugar de instancias de proceso para el entrenamiento de modelos si necesita escalado automático. Optimice sus recursos informáticos en función de los requisitos de formación. En primer lugar, elija entre CPU y GPU. De forma predeterminada, utilice CPU, pero considere las GPU para cargas de trabajo como el aprendizaje profundo, el procesamiento de imágenes o vídeos, o grandes cantidades de datos. A continuación, elija la SKU de imagen que mejor se adapte a su carga de trabajo. Use las pruebas para elegir la opción de proceso que optimiza el costo en función del tiempo de entrenamiento al determinar la línea base.</t>
-        </is>
-      </c>
-      <c r="D578" t="inlineStr">
-        <is>
-          <t>La selección del proceso adecuado es fundamental, ya que afecta directamente al tiempo de entrenamiento. La elección de la SKU y la CPU correctas en comparación con la GPU garantiza que el entrenamiento de su modelo pueda cumplir con sus requisitos y objetivos de rendimiento. Elegir una SKU de bajo rendimiento que se use en exceso puede provocar tiempos de entrenamiento prohibitivamente largos y problemas de rendimiento. Los clústeres de proceso proporcionan la capacidad de mejorar el rendimiento mediante el escalado horizontal de las cargas de trabajo que admiten el escalado horizontal. Este método proporciona flexibilidad para manejar cargas de trabajo con diferentes demandas y le permite agregar o quitar máquinas según sea necesario.</t>
-        </is>
-      </c>
+          <t>Optimización de uso: maximice los puntos de interrupción de precios de Azure OpenAI, por ejemplo, el ajuste preciso y los puntos de interrupción del modelo, como la generación de imágenes. Debido a que el ajuste fino se cobra por hora, use todo el tiempo que tenga disponible por hora para mejorar los resultados del ajuste fino y evitar pasar al siguiente período de facturación. Del mismo modo, el costo de generar 100 imágenes es el mismo que el costo de 1 imagen. Maximice los puntos de ruptura de precios a su favor.</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr"/>
       <c r="F578" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15619,21 +15557,17 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>352a223c-dabd-46da-8752-56a87c6f18b7</t>
+          <t>fb44ea80-44a3-465f-9d50-98b800a90fd6</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="C579" t="inlineStr">
         <is>
-          <t>Escalado del entorno de implementación de modelos: use las capacidades de escalado automático del entorno de implementación. En el caso de los entornos de implementación de AKS, use el escalador automático de clústeres para escalar y satisfacer la demanda. En el caso de los puntos de conexión en línea, escale automáticamente a través de la integración con la característica de escalado automático de Azure Monitor.</t>
-        </is>
-      </c>
-      <c r="D579" t="inlineStr">
-        <is>
-          <t>El escalado automático ajusta el número de instancias del modelo implementado para que coincida con la demanda.</t>
-        </is>
-      </c>
+          <t>Optimización del uso: elimine los modelos ajustados no utilizados cuando ya no se consuman para evitar incurrir en una tarifa de alojamiento continua.</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr"/>
       <c r="F579" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15641,21 +15575,17 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>683ae603-156f-4186-8a82-aa2907fbb9bd</t>
+          <t>5f027af8-e168-4b86-8255-4ea6f74cfd87</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="C580" t="inlineStr">
         <is>
-          <t>Supervise el rendimiento del modelo: supervise el rendimiento de los modelos implementados.</t>
-        </is>
-      </c>
-      <c r="D580" t="inlineStr">
-        <is>
-          <t>El seguimiento del rendimiento de los modelos en producción le alerta de posibles problemas, como el desfase de datos, el desfase de predicción, la calidad de los datos y el desfase de atribución de características. La supervisión del desfase de datos le ayuda a detectar cambios en los datos de entrada que pueden provocar una disminución en el rendimiento del modelo. La administración del desfase de datos le ayuda a garantizar que el modelo proporcione resultados precisos a lo largo del tiempo.</t>
-        </is>
-      </c>
+          <t>Ajustar el uso: Optimice la entrada de solicitudes y la duración de las respuestas. Los avisos más largos aumentan los costos al consumir más tokens. Sin embargo, las solicitudes a las que les falta suficiente contexto no ayudan a que los modelos produzcan buenos resultados. Cree mensajes concisos que proporcionen suficiente contexto para que el modelo genere una respuesta útil. Asegúrese también de optimizar el límite de la longitud de la respuesta.</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr"/>
       <c r="F580" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15663,21 +15593,17 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>eccdaab6-7458-4967-9cd4-da6a89e3ce8c</t>
+          <t>23756c91-3a66-4733-98b7-448bc8441f56</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="C581" t="inlineStr">
         <is>
-          <t>Supervise la infraestructura: supervise los puntos finales en línea e intégrelos con Monitor para realizar un seguimiento y supervisar las métricas y los registros adecuados. Habilite Application Insights al crear implementaciones en línea. Supervise la infraestructura de entrenamiento y revise el uso de recursos, como la memoria y el uso de CPU o GPU, al entrenar modelos para asegurarse de que cumple con los requisitos básicos.</t>
-        </is>
-      </c>
-      <c r="D581" t="inlineStr">
-        <is>
-          <t>La supervisión de los puntos de conexión le proporciona visibilidad de métricas como la latencia de las solicitudes y las solicitudes por minuto. Puede comparar el rendimiento con la línea base y usar esta información para realizar cambios en los recursos de proceso en consecuencia. Las métricas de supervisión, como los bytes de red, pueden alertarte si te estás acercando a los límites de cuota y evitar la limitación. Del mismo modo, la supervisión de su entorno de entrenamiento le proporciona la información necesaria para realizar cambios en su entorno de entrenamiento. Use esa información para decidir si escalar o reducir horizontalmente, escalar o reducir verticalmente con diferentes SKU de alto rendimiento, o elegir entre CPU o GPU.</t>
-        </is>
-      </c>
+          <t>Rentabilidad: Solicitudes por lotes siempre que sea posible para minimizar la sobrecarga por llamada, lo que puede reducir los costos generales. Asegúrese de optimizar el tamaño del lote.</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr"/>
       <c r="F581" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15685,14 +15611,14 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>76b80c26-8252-416e-aae1-ace03a9403dd</t>
+          <t>160154da-ea9e-4a84-ac35-8a731658c0fd</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="C582" t="inlineStr">
         <is>
-          <t>Resistencia: elija la opción de implementación adecuada de rendimiento de pago por uso o aprovisionado en función de su caso de uso. Dado que la capacidad reservada aumenta la resistencia, elija el rendimiento aprovisionado para las soluciones de producción. El enfoque de pago por uso es ideal para entornos de desarrollo y pruebas.</t>
+          <t>Rentabilidad: dado que los modelos tienen diferentes costos de ajuste, tenga en cuenta estos costos si su solución requiere un ajuste preciso.</t>
         </is>
       </c>
       <c r="D582" t="inlineStr"/>
@@ -15703,14 +15629,14 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>154d9075-f8f8-4dc8-b8f4-651d875d5dfe</t>
+          <t>739c80f6-0570-435b-ab82-2c8ce9d2deb8</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="C583" t="inlineStr">
         <is>
-          <t>Redundancia: agregue las puertas de enlace adecuadas delante de las implementaciones de Azure OpenAI. La puerta de enlace debe tener la capacidad de soportar errores transitorios, como la limitación, y también de enrutar a varias instancias de Azure OpenAI. Considere la posibilidad de enrutar a instancias en diferentes regiones para crear redundancia regional.</t>
+          <t>Supervise y optimice: configure un sistema de seguimiento de costos que supervise el uso del modelo. Utilice esa información para ayudar a informar las opciones de modelos y los tamaños indicados.</t>
         </is>
       </c>
       <c r="D583" t="inlineStr"/>
@@ -15721,17 +15647,21 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>571ddd3c-601e-46a7-bf80-c52f04a301fb</t>
+          <t>518fd651-b13e-427e-a0de-f634a014f5b2</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="C584" t="inlineStr">
         <is>
-          <t>Resistencia: si usa el rendimiento aprovisionado, considere también la posibilidad de implementar una instancia de pago por uso para controlar el desbordamiento. Puede enrutar llamadas a la instancia de pago por uso a través de la puerta de enlace cuando el modelo de rendimiento aprovisionado está limitado.</t>
-        </is>
-      </c>
-      <c r="D584" t="inlineStr"/>
+          <t>Diseño del código de cliente para establecer límites: los clientes personalizados deben usar las características de límite de la API de finalizaciones de Azure OpenAI, como el límite máximo en el número de tokens por modelo ('max_tokens') o el número de finalizaciones hasta la generación ('n'). Establecer límites garantiza que el servidor no produzca más de lo que el cliente necesita.</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>El uso de las funciones de la API para restringir el uso alinea el consumo de servicios con las necesidades del cliente. Esto ahorra dinero al garantizar que el modelo no genere una respuesta demasiado larga que consuma más tokens de los necesarios.</t>
+        </is>
+      </c>
       <c r="F584" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15739,17 +15669,21 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>3861cb87-64b1-4958-b439-5575b8d1fc67</t>
+          <t>afb53b41-825a-4310-b445-bf391792c568</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="C585" t="inlineStr">
         <is>
-          <t>Resistencia: supervise el uso de la capacidad para asegurarse de que no supera los límites de rendimiento. Revise periódicamente el uso de la capacidad para lograr una previsión más precisa y ayudar a prevenir interrupciones del servicio debido a limitaciones de capacidad.</t>
-        </is>
-      </c>
-      <c r="D585" t="inlineStr"/>
+          <t>Supervise el uso de pago por uso: si usa el enfoque de pago por uso, supervise el uso de TPM y RPM. Utilice esa información para tomar decisiones informadas sobre el diseño arquitectónico, como los modelos que se van a utilizar, y para optimizar los tamaños de las solicitudes.</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>La supervisión continua de TPM y RPM proporciona métricas relevantes para optimizar el costo de los modelos de Azure OpenAI. Puede combinar esta supervisión con las características del modelo y los precios del modelo para optimizar el uso del modelo. También puede utilizar esta supervisión para optimizar el tamaño de las solicitudes.</t>
+        </is>
+      </c>
       <c r="F585" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15757,17 +15691,21 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>7fd57f22-417b-47d5-88c9-ab7a2ceb5599</t>
+          <t>e91029f2-ddf4-41f3-8358-f31b5afbe8ba</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="C586" t="inlineStr">
         <is>
-          <t>Resistencia: siga las instrucciones para ajustar con archivos de datos de gran tamaño e importe los datos de un almacén de blobs de Azure. Los archivos grandes, de 100 MB o más, pueden volverse inestables cuando se cargan a través de formularios de varias partes porque las solicitudes son atómicas y no se pueden volver a intentar ni reanudar.</t>
-        </is>
-      </c>
-      <c r="D586" t="inlineStr"/>
+          <t>Supervise el uso del rendimiento aprovisionado: si usa el rendimiento aprovisionado, supervise el uso administrado por el aprovisionamiento para asegurarse de que no está infrautilizando el rendimiento aprovisionado que adquirió.</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>La supervisión continua del uso administrado por el aprovisionamiento le proporciona la información que necesita para comprender si está infrautilizando el rendimiento aprovisionado.</t>
+        </is>
+      </c>
       <c r="F586" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15775,17 +15713,21 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>950e6010-4345-43e6-a8e9-d8c95e45f818</t>
+          <t>06a0b95c-b014-4205-8d0c-f074ec393239</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="C587" t="inlineStr">
         <is>
-          <t>Recuperación: defina una estrategia de recuperación que incluya un plan de recuperación para los modelos optimizados y para los datos de entrenamiento cargados en Azure OpenAI. Dado que Azure OpenAI no tiene conmutación automática por error, debe diseñar una estrategia que abarque todo el servicio y todas las dependencias, como el almacenamiento que contiene datos de entrenamiento.</t>
-        </is>
-      </c>
-      <c r="D587" t="inlineStr"/>
+          <t>Gestión de costes: Utilice las funciones de gestión de costes con OpenAI para supervisar los costes, establecer presupuestos para gestionarlos y crear alertas para notificar a las partes interesadas sobre riesgos o anomalías.</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>La supervisión de costos, el establecimiento de presupuestos y la configuración de alertas proporcionan a la gobernanza los procesos de responsabilidad adecuados.</t>
+        </is>
+      </c>
       <c r="F587" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15793,21 +15735,17 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>088c617d-fce0-4fab-b4cd-9f9eb6a96cff</t>
+          <t>f18aba52-5587-43e6-b994-8cab7022167f</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="C588" t="inlineStr">
         <is>
-          <t>Supervise los límites de frecuencia para el pago por uso: si usa el enfoque de pago por uso, administre los límites de velocidad para las implementaciones del modelo y supervise el uso de tokens por minuto (TPM) y solicitudes por minuto (RPM).</t>
-        </is>
-      </c>
-      <c r="D588" t="inlineStr">
-        <is>
-          <t>Esta importante información de rendimiento proporciona la información necesaria para asegurarse de que asigna suficiente TPM de la cuota para satisfacer la demanda de las implementaciones. La asignación de una cuota suficiente evita la limitación de las llamadas a los modelos implementados.</t>
-        </is>
-      </c>
+          <t>Cultura de Azure DevOps: garantice la implementación de instancias de Azure OpenAI en sus distintos entornos, como desarrollo, pruebas y producción. Asegúrese de tener entornos que admitan el aprendizaje y la experimentación continuos a lo largo del ciclo de desarrollo.</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr"/>
       <c r="F588" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15815,21 +15753,17 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>f109deb2-54f9-4405-a9f0-f90fd0f76adf</t>
+          <t>3c5f9e8e-c1a9-4c18-ac05-72877f24ff22</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="C589" t="inlineStr">
         <is>
-          <t>Supervisión del uso administrado por aprovisionamiento para el rendimiento aprovisionado: si usa el modelo de pago por rendimiento aprovisionado, supervise el uso administrado por aprovisionamiento.</t>
-        </is>
-      </c>
-      <c r="D589" t="inlineStr">
-        <is>
-          <t>Es importante supervisar el uso administrado por el aprovisionamiento para asegurarse de que no supera el 100 % para evitar la limitación de las llamadas a los modelos implementados.</t>
-        </is>
-      </c>
+          <t>Observabilidad: Monitoree, agregue y visualice las métricas adecuadas.</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr"/>
       <c r="F589" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15837,21 +15771,17 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>ef12f5c3-dbe2-4040-be82-724eebc6f87e</t>
+          <t>56e72e7c-32bb-414b-bf04-d2883871aacb</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="C590" t="inlineStr">
         <is>
-          <t>Ajustar los filtros de contenido: Ajuste los filtros de contenido para minimizar los falsos positivos de filtros demasiado agresivos.</t>
-        </is>
-      </c>
-      <c r="D590" t="inlineStr">
-        <is>
-          <t>Los filtros de contenido bloquean las solicitudes o finalizaciones en función de un análisis de riesgos opaco. Asegúrese de que los filtros de contenido estén ajustados para permitir el uso esperado de su carga de trabajo.</t>
-        </is>
-      </c>
+          <t>Observabilidad: si los diagnósticos de Azure OpenAI son insuficientes para sus necesidades, considere la posibilidad de usar una puerta de enlace como Azure API Management delante de Azure OpenAI para registrar tanto las solicitudes entrantes como las respuestas salientes cuando esté permitido. Esta información puede ayudarle a comprender la eficacia del modelo para las solicitudes entrantes.</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr"/>
       <c r="F590" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15859,14 +15789,14 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>efcf5f6a-02bb-4cc8-8018-055ebf2e57e0</t>
+          <t>63aedcb9-e01e-4df3-b9a6-13c13d6971d4</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="C591" t="inlineStr">
         <is>
-          <t>Proteja la confidencialidad: si carga datos de entrenamiento en Azure OpenAI, use claves administradas por el cliente para el cifrado de datos, implemente una estrategia de rotación de claves y elimine los datos de entrenamiento, validación y resultados de entrenamiento. Si usa un almacén de datos externo para los datos de entrenamiento, siga las prácticas recomendadas de seguridad para ese almacén. Por ejemplo, para Azure Blob Storage, use claves administradas por el cliente para el cifrado e implemente una estrategia de rotación de claves. Utilice el acceso administrado basado en identidades, implemente un perímetro de red mediante puntos de conexión privados y habilite los registros de acceso.</t>
+          <t>Implemente con confianza: use la infraestructura como código (IaC) para implementar Azure OpenAI, implementaciones de modelos y otra infraestructura necesaria para ajustar modelos.</t>
         </is>
       </c>
       <c r="D591" t="inlineStr"/>
@@ -15877,14 +15807,14 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>a61b826b-9f3b-4f51-8e0e-a32a92865386</t>
+          <t>fe7a8e0a-b53a-48f0-a204-4e1e7e20ea4b</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="C592" t="inlineStr">
         <is>
-          <t>Proteja la confidencialidad: protéjase contra la filtración de datos limitando las direcciones URL de salida a las que pueden acceder los recursos de Azure OpenAI.</t>
+          <t>Implemente con confianza: siga las prácticas de operaciones de modelos de lenguaje grandes (LLMOps) para poner en funcionamiento la administración de sus LLM de Azure OpenAI, incluida la implementación, el ajuste y la ingeniería de solicitudes.</t>
         </is>
       </c>
       <c r="D592" t="inlineStr"/>
@@ -15895,14 +15825,14 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>9f4bdfff-2c6c-4662-9139-1de51d2dbd20</t>
+          <t>3dffb456-4675-4acb-b797-a5bf591e003a</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="C593" t="inlineStr">
         <is>
-          <t>Proteger la integridad: implemente controles de acceso para autenticar y autorizar el acceso de los usuarios al sistema mediante el principio de privilegios mínimos y mediante el uso de identidades individuales en lugar de claves.</t>
+          <t>Automatice para aumentar la eficiencia: si utiliza la autenticación basada en claves, implemente una estrategia de rotación de claves automatizada.</t>
         </is>
       </c>
       <c r="D593" t="inlineStr"/>
@@ -15913,17 +15843,21 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>b8463e8d-daaa-4209-9944-0fb0587219a8</t>
+          <t>4c82d2b3-c083-4a0e-9cd2-92d2b00b4c96</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="C594" t="inlineStr">
         <is>
-          <t>Proteja la integridad: implemente la detección de riesgos de jailbreak para proteger las implementaciones de sus modelos de lenguaje contra ataques de inyección rápida.</t>
-        </is>
-      </c>
-      <c r="D594" t="inlineStr"/>
+          <t>Habilitación y configuración de Azure Diagnostics: habilite y configure Diagnostics para el servicio Azure OpenAI.</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>Diagnostics recopila y analiza métricas y registros, lo que le ayuda a supervisar la disponibilidad, el rendimiento y el funcionamiento de Azure OpenAI.</t>
+        </is>
+      </c>
       <c r="F594" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15931,14 +15865,14 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>714249d8-2b60-4920-89a2-eab4a338ac02</t>
+          <t>ff3d2610-e8e8-4a78-aba5-556758a2798c</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="C595" t="inlineStr">
         <is>
-          <t>Proteja la disponibilidad: use controles de seguridad para evitar ataques que puedan agotar las cuotas de uso del modelo. Puede configurar controles para aislar el servicio en una red. Si el servicio debe ser accesible desde Internet, considere la posibilidad de usar una puerta de enlace para bloquear los posibles abusos mediante el enrutamiento o la limitación.</t>
+          <t>Capacidad: Estimar las demandas de elasticidad de los consumidores. Identifique el tráfico de alta prioridad que requiere respuestas sincrónicas y el tráfico de baja prioridad que puede ser asíncrono y por lotes.</t>
         </is>
       </c>
       <c r="D595" t="inlineStr"/>
@@ -15949,21 +15883,17 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>e0383d3b-71f1-4fda-9759-24cfd293abff</t>
+          <t>63dbbc6a-f840-4893-979c-2afcea82bf5f</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="C596" t="inlineStr">
         <is>
-          <t>Claves seguras: si su arquitectura requiere autenticación basada en claves de Azure OpenAI, almacene esas claves en Azure Key Vault, no en el código de la aplicación.</t>
-        </is>
-      </c>
-      <c r="D596" t="inlineStr">
-        <is>
-          <t>Separar los secretos del código almacenándolos en Key Vault reduce la posibilidad de que se filtren secretos. La separación también facilita la gestión centralizada de secretos, lo que facilita responsabilidades como la rotación de claves.</t>
-        </is>
-      </c>
+          <t>Capacidad: Compare los requisitos de consumo de tokens en función de las demandas estimadas de los consumidores. Considere la posibilidad de usar la herramienta de evaluación comparativa de Azure OpenAI para ayudarle a validar el rendimiento si usa implementaciones de unidades de rendimiento aprovisionadas (PTU).</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr"/>
       <c r="F596" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15971,21 +15901,17 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>c4310e87-1366-4523-b2e1-244e1074fbb0</t>
+          <t>14677a1d-0b65-455a-997b-1490c397fbc8</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="C597" t="inlineStr">
         <is>
-          <t>Restringir el acceso: deshabilite el acceso público a Azure OpenAI a menos que la carga de trabajo lo requiera. Cree puntos de conexión privados si se conecta desde consumidores en una red virtual de Azure.</t>
-        </is>
-      </c>
-      <c r="D597" t="inlineStr">
-        <is>
-          <t>Controlar el acceso a Azure OpenAI ayuda a evitar ataques de usuarios no autorizados. El uso de puntos de conexión privados garantiza que el tráfico de red permanezca privado entre la aplicación y la plataforma.</t>
-        </is>
-      </c>
+          <t>Capacidad: use el rendimiento aprovisionado para las cargas de trabajo de producción. El rendimiento aprovisionado ofrece memoria y proceso dedicados, capacidad reservada y latencia máxima constante para la versión del modelo especificada. La oferta de pago por uso puede sufrir problemas de vecinos ruidosos, como una mayor latencia y limitación en regiones con un uso intensivo. Además, el enfoque de pago por uso no ofrece capacidad garantizada.</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr"/>
       <c r="F597" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -15993,21 +15919,17 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>4a7a9a07-0229-4175-b784-9a99eded4d54</t>
+          <t>59c8767d-1b78-4016-92d5-ebd83032fafa</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="C598" t="inlineStr">
         <is>
-          <t>Id. de Microsoft Entra: use el id. de Microsoft Entra para la autenticación y para autorizar el acceso a Azure OpenAI mediante el control de acceso basado en roles (RBAC). Deshabilite la autenticación local en Azure AI Services y establezca 'disableLocalAuth' en 'true'. Otorgue a las identidades que realicen finalizaciones o generación de imágenes el rol de usuario de OpenAI de Cognitive Services. Otorgue a las canalizaciones de automatización de modelos y al acceso ad-hoc a la ciencia de datos un rol como el de Colaborador de OpenAI de Cognitive Services.</t>
-        </is>
-      </c>
-      <c r="D598" t="inlineStr">
-        <is>
-          <t>El uso de Microsoft Entra ID centraliza el componente de administración de identidades y elimina el uso de claves de API. El uso de RBAC con Microsoft Entra ID garantiza que los usuarios o grupos tengan exactamente los permisos que necesitan para realizar su trabajo. Este tipo de control de acceso detallado no es posible con las claves de API de Azure OpenAI.</t>
-        </is>
-      </c>
+          <t>Capacidad: agregue las puertas de enlace adecuadas delante de las implementaciones de Azure OpenAI. Asegúrese de que la puerta de enlace pueda enrutar a varias instancias en la misma región o en regiones diferentes.</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr"/>
       <c r="F598" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16015,21 +15937,17 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>d5892190-2da9-43f4-b1e1-76b38b369643</t>
+          <t>a318b299-9d54-4dfc-8f20-b00ceed43ed0</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="C599" t="inlineStr">
         <is>
-          <t>Use claves administradas por el cliente: use claves administradas por el cliente para los modelos optimizados y los datos de entrenamiento que se cargan en Azure OpenAI.</t>
-        </is>
-      </c>
-      <c r="D599" t="inlineStr">
-        <is>
-          <t>El uso de claves administradas por el cliente le proporciona una mayor flexibilidad para crear, rotar, deshabilitar y revocar controles de acceso.</t>
-        </is>
-      </c>
+          <t>Capacidad: asigne PTU para cubrir el uso previsto y complemente estas PTU con una implementación de TPM para controlar la elasticidad por encima de ese límite. Este enfoque combina el rendimiento base con el rendimiento elástico para mayor eficiencia. Al igual que otras consideraciones, este enfoque requiere una implementación de puerta de enlace personalizada para enrutar las solicitudes a la implementación de TPM cuando se alcanzan los límites de PTU.</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr"/>
       <c r="F599" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16037,21 +15955,17 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>60a4703c-1086-45e1-9384-ebb32ab50696</t>
+          <t>ceb21879-94da-485e-a24b-b30180fb566c</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="C600" t="inlineStr">
         <is>
-          <t>Protéjase contra ataques de jailbreak: use Azure AI Content Safety Studio para detectar riesgos de jailbreak.</t>
-        </is>
-      </c>
-      <c r="D600" t="inlineStr">
-        <is>
-          <t>Detecte los intentos de jailbreak para identificar y bloquear los mensajes que intentan eludir los mecanismos de seguridad de las implementaciones de Azure OpenAI.</t>
-        </is>
-      </c>
+          <t>Capacidad: envíe solicitudes de alta prioridad de forma sincrónica. Ponga en cola las solicitudes de baja prioridad y envíelas en lotes cuando la demanda sea baja.</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr"/>
       <c r="F600" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16059,14 +15973,14 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>ce66eba7-5972-4cb5-8db0-b75c3720b220</t>
+          <t>dd313c03-7429-4cb1-84e9-d982664c2dfc</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="C601" t="inlineStr">
         <is>
-          <t>Gestión de costos: Desarrolle su modelo de costos, teniendo en cuenta los tamaños de las solicitudes. Comprender los tamaños de entrada y respuesta de las solicitudes, y cómo el texto se traduce en tokens, lo ayuda a crear un modelo de costos viable.</t>
+          <t>Capacidad: seleccione un modelo que se adapte a sus requisitos de rendimiento, teniendo en cuenta el equilibrio entre la velocidad y la complejidad de la salida. El rendimiento del modelo puede variar significativamente en función del tipo de modelo elegido. Los modelos diseñados para la velocidad ofrecen tiempos de respuesta más rápidos, lo que puede ser beneficioso para aplicaciones que requieren interacciones rápidas. Por el contrario, los modelos más sofisticados podrían ofrecer resultados de mayor calidad a expensas de un mayor tiempo de respuesta.</t>
         </is>
       </c>
       <c r="D601" t="inlineStr"/>
@@ -16077,14 +15991,14 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>08f7b66c-7679-479b-8e2f-41b3305613dc</t>
+          <t>cdf82e76-ee07-47e6-9985-6b1c0a39dd42</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="C602" t="inlineStr">
         <is>
-          <t>Optimización del uso: comience con los precios de pago por uso para Azure OpenAI hasta que el uso del token sea predecible.</t>
+          <t>Logre el rendimiento: para aplicaciones como chatbots o interfaces conversacionales, considere implementar la transmisión. El streaming puede mejorar el rendimiento percibido de las aplicaciones de Azure OpenAI al ofrecer respuestas a los usuarios de forma incremental, lo que mejora la experiencia del usuario.</t>
         </is>
       </c>
       <c r="D602" t="inlineStr"/>
@@ -16095,14 +16009,14 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>3f66f351-a073-40bb-94d2-326e1ea1a696</t>
+          <t>9aa6da24-6a00-4381-9da6-66c9d5cbf41f</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="C603" t="inlineStr">
         <is>
-          <t>Optimización de tasas: cuando el uso de tokens sea lo suficientemente alto y predecible durante un período de tiempo, use el modelo de precios de rendimiento aprovisionado para una mejor optimización de costos.</t>
+          <t>Logre el rendimiento: determine cuándo usar el ajuste fino antes de comprometerse con el ajuste. Aunque hay buenos casos de uso para el ajuste, como cuando la información necesaria para dirigir el modelo es demasiado larga o compleja para caber en la solicitud, asegúrese de que los enfoques de ingeniería de solicitud y generación aumentada de recuperación (RAG) no funcionen o sean demostrablemente más costosos.</t>
         </is>
       </c>
       <c r="D603" t="inlineStr"/>
@@ -16113,14 +16027,14 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>3802ce2d-2a46-445d-92e2-2a23b2e40705</t>
+          <t>456cbf54-9c2f-4c6e-9739-eca408fa6baf</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="C604" t="inlineStr">
         <is>
-          <t>Optimización del uso: tenga en cuenta los precios y las capacidades del modelo al elegir los modelos. Comience con modelos menos costosos para tareas menos complejas, como la generación de texto o las tareas de finalización. Para tareas más complejas, como la traducción de idiomas o la comprensión de contenidos, considere la posibilidad de utilizar modelos más avanzados. Tenga en cuenta las diferentes capacidades del modelo y los límites máximos de uso de tokens cuando elija un modelo que sea adecuado para casos de uso como escenarios de incrustación de texto, generación de imágenes o transcripción. Al seleccionar cuidadosamente el modelo que mejor se adapte a sus necesidades, puede optimizar los costos y, al mismo tiempo, lograr el rendimiento deseado de la aplicación.</t>
+          <t>Logre el rendimiento: considere la posibilidad de usar implementaciones de modelos dedicados por grupo de consumidores para proporcionar aislamiento de uso por modelo que pueda ayudar a evitar vecinos ruidosos entre los grupos de consumidores.</t>
         </is>
       </c>
       <c r="D604" t="inlineStr"/>
@@ -16131,14 +16045,14 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>2b2303c0-e057-431d-9a02-20a1a0b2b5b9</t>
+          <t>2dc38e31-8e03-40f4-842d-58ac317c5106</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="C605" t="inlineStr">
         <is>
-          <t>Optimización de uso: utilice las restricciones de limitación de tokens que ofrecen las llamadas a la API, como 'max_tokens' y 'n', que indican el número de finalizaciones que se van a generar.</t>
+          <t>Revise las cuotas y los límites de las máquinas virtuales que pueden plantear restricciones de diseño. Las máquinas virtuales tienen límites y cuotas específicos, que varían según el tipo de máquina virtual o la región. Puede haber restricciones de suscripción, como el número de máquinas virtuales por suscripción o el número de núcleos por máquina virtual. Si otras cargas de trabajo comparten su suscripción, es posible que se reduzca su capacidad para consumir datos.</t>
         </is>
       </c>
       <c r="D605" t="inlineStr"/>
@@ -16149,14 +16063,14 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>c4104d7c-4a4f-4b8a-9928-558a7c5c61d8</t>
+          <t>999ecfef-c272-4cd8-8bd0-9cd5335fb695</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="C606" t="inlineStr">
         <is>
-          <t>Optimización de uso: maximice los puntos de interrupción de precios de Azure OpenAI, por ejemplo, el ajuste preciso y los puntos de interrupción del modelo, como la generación de imágenes. Debido a que el ajuste fino se cobra por hora, use todo el tiempo que tenga disponible por hora para mejorar los resultados del ajuste fino y evitar pasar al siguiente período de facturación. Del mismo modo, el costo de generar 100 imágenes es el mismo que el costo de 1 imagen. Maximice los puntos de ruptura de precios a su favor.</t>
+          <t>Realice un análisis del modo de error para minimizar los puntos de error mediante el análisis de las interacciones de la máquina virtual con los componentes de red y almacenamiento. Elija configuraciones como discos efímeros del sistema operativo (SO) para localizar el acceso al disco y evitar saltos de red. Agregue un equilibrador de carga para mejorar la autoconservación mediante la distribución del tráfico de red entre varias máquinas virtuales, lo que mejora la disponibilidad y la confiabilidad.</t>
         </is>
       </c>
       <c r="D606" t="inlineStr"/>
@@ -16167,14 +16081,14 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>fb44ea80-44a3-465f-9d50-98b800a90fd6</t>
+          <t>bf605fe8-6171-4c01-8290-d6c79a21cf10</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="C607" t="inlineStr">
         <is>
-          <t>Optimización del uso: elimine los modelos ajustados no utilizados cuando ya no se consuman para evitar incurrir en una tarifa de alojamiento continua.</t>
+          <t>Calcule los objetivos de nivel de servicio (SLO) compuestos en función de los contratos de nivel de servicio (SLA) de Azure. Asegúrese de que el SLO no sea superior a los SLA de Azure para evitar expectativas poco realistas y posibles problemas.</t>
         </is>
       </c>
       <c r="D607" t="inlineStr"/>
@@ -16185,14 +16099,14 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>5f027af8-e168-4b86-8255-4ea6f74cfd87</t>
+          <t>4cd18dd0-57e4-4fc9-a8ad-74c3333b6d8b</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="C608" t="inlineStr">
         <is>
-          <t>Ajustar el uso: Optimice la entrada de solicitudes y la duración de las respuestas. Los avisos más largos aumentan los costos al consumir más tokens. Sin embargo, las solicitudes a las que les falta suficiente contexto no ayudan a que los modelos produzcan buenos resultados. Cree mensajes concisos que proporcionen suficiente contexto para que el modelo genere una respuesta útil. Asegúrese también de optimizar el límite de la longitud de la respuesta.</t>
+          <t>Cree aislamiento de estado. Los datos de la carga de trabajo deben estar en un disco de datos independiente para evitar interferencias con el disco del sistema operativo. Si se produce un error en una máquina virtual, puede crear un nuevo disco del sistema operativo con el mismo disco de datos, lo que garantiza la resistencia y el aislamiento de errores. Para obtener más información, consulte Discos de sistema operativo efímeros.</t>
         </is>
       </c>
       <c r="D608" t="inlineStr"/>
@@ -16203,14 +16117,14 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>23756c91-3a66-4733-98b7-448bc8441f56</t>
+          <t>90e0bce0-bc44-42ba-be28-2f3dde2f4b37</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="C609" t="inlineStr">
         <is>
-          <t>Rentabilidad: Solicitudes por lotes siempre que sea posible para minimizar la sobrecarga por llamada, lo que puede reducir los costos generales. Asegúrese de optimizar el tamaño del lote.</t>
+          <t>Haga que las máquinas virtuales y sus dependencias sean redundantes en todas las zonas. Si se produce un error en una máquina virtual, la carga de trabajo debe seguir funcionando debido a la redundancia. Incluya dependencias en sus opciones de redundancia. Por ejemplo, use las opciones de redundancia integradas que están disponibles con los discos. Utilice direcciones IP con redundancia de zona para garantizar la disponibilidad de los datos y un alto tiempo de actividad.</t>
         </is>
       </c>
       <c r="D609" t="inlineStr"/>
@@ -16221,14 +16135,14 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>160154da-ea9e-4a84-ac35-8a731658c0fd</t>
+          <t>6d76e7b9-52d3-4878-83ab-2a08df23c8f6</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="C610" t="inlineStr">
         <is>
-          <t>Rentabilidad: dado que los modelos tienen diferentes costos de ajuste, tenga en cuenta estos costos si su solución requiere un ajuste preciso.</t>
+          <t>Esté preparado para escalar vertical y horizontalmente para evitar la degradación del nivel de servicio y evitar errores. Los conjuntos de escalado de máquinas virtuales tienen funcionalidades de escalado automático que crean nuevas instancias según sea necesario y distribuyen la carga entre varias máquinas virtuales y zonas de disponibilidad.</t>
         </is>
       </c>
       <c r="D610" t="inlineStr"/>
@@ -16239,14 +16153,14 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>739c80f6-0570-435b-ab82-2c8ce9d2deb8</t>
+          <t>56d104f5-469e-4ead-bf17-7c81c746dabe</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="C611" t="inlineStr">
         <is>
-          <t>Supervise y optimice: configure un sistema de seguimiento de costos que supervise el uso del modelo. Utilice esa información para ayudar a informar las opciones de modelos y los tamaños indicados.</t>
+          <t>Explora las opciones de recuperación automática. Azure admite la supervisión de la degradación del estado y las características de recuperación automática para las máquinas virtuales. Por ejemplo, los conjuntos de escalado proporcionan reparaciones automáticas de instancias. En escenarios más avanzados, la recuperación automática implica el uso de Azure Site Recovery, tener un modo de espera pasivo para conmutar por error o volver a implementar desde la infraestructura como código (IaC). El método que elija debe alinearse con los requisitos empresariales y las operaciones de la organización. Para obtener más información, consulte Interrupciones del servicio de máquina virtual.</t>
         </is>
       </c>
       <c r="D611" t="inlineStr"/>
@@ -16257,21 +16171,17 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>518fd651-b13e-427e-a0de-f634a014f5b2</t>
+          <t>3395416e-27c6-4ded-941a-de4e562c5c00</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="C612" t="inlineStr">
         <is>
-          <t>Diseño del código de cliente para establecer límites: los clientes personalizados deben usar las características de límite de la API de finalizaciones de Azure OpenAI, como el límite máximo en el número de tokens por modelo ('max_tokens') o el número de finalizaciones hasta la generación ('n'). Establecer límites garantiza que el servidor no produzca más de lo que el cliente necesita.</t>
-        </is>
-      </c>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>El uso de las funciones de la API para restringir el uso alinea el consumo de servicios con las necesidades del cliente. Esto ahorra dinero al garantizar que el modelo no genere una respuesta demasiado larga que consuma más tokens de los necesarios.</t>
-        </is>
-      </c>
+          <t>Ajuste el tamaño de las máquinas virtuales y sus dependencias. Comprenda el trabajo esperado de su máquina virtual para asegurarse de que no sea de tamaño insuficiente y pueda manejar la carga máxima. Tener capacidad extra para mitigar fallos.</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr"/>
       <c r="F612" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16279,21 +16189,17 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>afb53b41-825a-4310-b445-bf391792c568</t>
+          <t>3d633098-6fc7-4752-907c-5a02d53ffba2</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="C613" t="inlineStr">
         <is>
-          <t>Supervise el uso de pago por uso: si usa el enfoque de pago por uso, supervise el uso de TPM y RPM. Utilice esa información para tomar decisiones informadas sobre el diseño arquitectónico, como los modelos que se van a utilizar, y para optimizar los tamaños de las solicitudes.</t>
-        </is>
-      </c>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t>La supervisión continua de TPM y RPM proporciona métricas relevantes para optimizar el costo de los modelos de Azure OpenAI. Puede combinar esta supervisión con las características del modelo y los precios del modelo para optimizar el uso del modelo. También puede utilizar esta supervisión para optimizar el tamaño de las solicitudes.</t>
-        </is>
-      </c>
+          <t>Cree un plan integral de recuperación ante desastres. La preparación para desastres implica la creación de un plan integral y la decisión sobre una tecnología para la recuperación.</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr"/>
       <c r="F613" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16301,21 +16207,17 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>e91029f2-ddf4-41f3-8358-f31b5afbe8ba</t>
+          <t>cbe651de-8754-4078-8066-803f94814634</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="C614" t="inlineStr">
         <is>
-          <t>Supervise el uso del rendimiento aprovisionado: si usa el rendimiento aprovisionado, supervise el uso administrado por el aprovisionamiento para asegurarse de que no está infrautilizando el rendimiento aprovisionado que adquirió.</t>
-        </is>
-      </c>
-      <c r="D614" t="inlineStr">
-        <is>
-          <t>La supervisión continua del uso administrado por el aprovisionamiento le proporciona la información que necesita para comprender si está infrautilizando el rendimiento aprovisionado.</t>
-        </is>
-      </c>
+          <t>Ejecute las operaciones con rigor. Las opciones de diseño de confiabilidad deben estar respaldadas por operaciones efectivas basadas en los principios de supervisión, pruebas de resistencia en producción, parches y actualizaciones de máquinas virtuales de aplicaciones automatizadas y coherencia de las implementaciones. Para obtener orientación operativa, consulte Excelencia operativa.</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr"/>
       <c r="F614" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16323,19 +16225,19 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>06a0b95c-b014-4205-8d0c-f074ec393239</t>
+          <t>6bbb44ad-f6ed-4990-b519-a56e4d995170</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="C615" t="inlineStr">
         <is>
-          <t>Gestión de costes: Utilice las funciones de gestión de costes con OpenAI para supervisar los costes, establecer presupuestos para gestionarlos y crear alertas para notificar a las partes interesadas sobre riesgos o anomalías.</t>
+          <t>(Conjunto de escalas) Use conjuntos de escalado de máquinas virtuales en modo de orquestación flexible para implementar máquinas virtuales.</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>La supervisión de costos, el establecimiento de presupuestos y la configuración de alertas proporcionan a la gobernanza los procesos de responsabilidad adecuados.</t>
+          <t>Prepare su aplicación para el futuro para el escalado y aproveche las garantías de alta disponibilidad que distribuyen las máquinas virtuales a través de dominios de error en una región o una zona de disponibilidad.</t>
         </is>
       </c>
       <c r="F615" t="inlineStr">
@@ -16345,17 +16247,21 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>f18aba52-5587-43e6-b994-8cab7022167f</t>
+          <t>bb45d3f7-dae7-4eb6-a823-76737e6d0d88</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="C616" t="inlineStr">
         <is>
-          <t>Cultura de Azure DevOps: garantice la implementación de instancias de Azure OpenAI en sus distintos entornos, como desarrollo, pruebas y producción. Asegúrese de tener entornos que admitan el aprendizaje y la experimentación continuos a lo largo del ciclo de desarrollo.</t>
-        </is>
-      </c>
-      <c r="D616" t="inlineStr"/>
+          <t>(Máquinas virtuales) Implemente puntos de conexión de estado que emitan estados de mantenimiento de instancia en máquinas virtuales.  (Conjunto de escalas) Habilite las reparaciones automáticas en el conjunto de báscula especificando la acción de reparación preferida.  Considere la posibilidad de establecer un período de tiempo durante el cual las reparaciones automáticas se detengan si cambia el estado de la máquina virtual.</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>Mantenga la disponibilidad incluso si una instancia se considera incorrecta. Las reparaciones automáticas inician la recuperación mediante la sustitución de la instancia defectuosa. Establecer una ventana de tiempo puede evitar operaciones de reparación inadvertidas o prematuras.</t>
+        </is>
+      </c>
       <c r="F616" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16363,17 +16269,21 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>3c5f9e8e-c1a9-4c18-ac05-72877f24ff22</t>
+          <t>29912435-4c36-465e-91e2-6c8fcb42b33f</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="C617" t="inlineStr">
         <is>
-          <t>Observabilidad: Monitoree, agregue y visualice las métricas adecuadas.</t>
-        </is>
-      </c>
-      <c r="D617" t="inlineStr"/>
+          <t>(Conjunto de escalas) Habilite el sobreaprovisionamiento en conjuntos de escalado.</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>El sobreaprovisionamiento reduce los tiempos de implementación y tiene una ventaja en cuanto a costos, ya que no se facturan las máquinas virtuales adicionales.</t>
+        </is>
+      </c>
       <c r="F617" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16381,17 +16291,21 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>56e72e7c-32bb-414b-bf04-d2883871aacb</t>
+          <t>71982e91-2b16-4f49-b91e-7c52a6e0042a</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="C618" t="inlineStr">
         <is>
-          <t>Observabilidad: si los diagnósticos de Azure OpenAI son insuficientes para sus necesidades, considere la posibilidad de usar una puerta de enlace como Azure API Management delante de Azure OpenAI para registrar tanto las solicitudes entrantes como las respuestas salientes cuando esté permitido. Esta información puede ayudarle a comprender la eficacia del modelo para las solicitudes entrantes.</t>
-        </is>
-      </c>
-      <c r="D618" t="inlineStr"/>
+          <t>(Conjunto de escalas) Permita que la orquestación flexible distribuya las instancias de VM en tantos dominios de error como sea posible.</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>Esta opción aísla los dominios de error. Durante los períodos de mantenimiento, cuando se actualiza un dominio de error, las instancias de VM están disponibles en los demás dominios de error.</t>
+        </is>
+      </c>
       <c r="F618" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16399,17 +16313,21 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>63aedcb9-e01e-4df3-b9a6-13c13d6971d4</t>
+          <t>07b6117e-18f8-4df2-9816-9bba2f028219</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="C619" t="inlineStr">
         <is>
-          <t>Implemente con confianza: use la infraestructura como código (IaC) para implementar Azure OpenAI, implementaciones de modelos y otra infraestructura necesaria para ajustar modelos.</t>
-        </is>
-      </c>
-      <c r="D619" t="inlineStr"/>
+          <t>(Conjunto de escalas) Implemente en zonas de disponibilidad en conjuntos de escalado. Configure al menos dos instancias en cada zona. El equilibrio de zonas distribuye equitativamente las instancias entre zonas.</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>Las instancias de máquina virtual se aprovisionan en ubicaciones físicamente separadas dentro de cada región de Azure que son tolerantes a errores locales.  Tenga en cuenta que, en función de la disponibilidad de recursos, puede haber un número impar de instancias en todas las zonas. El equilibrio de zonas admite la disponibilidad al asegurarse de que, si una zona está inactiva, las otras zonas tengan suficientes instancias.  Dos instancias en cada zona proporcionan un búfer durante las actualizaciones.</t>
+        </is>
+      </c>
       <c r="F619" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16417,17 +16335,21 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>fe7a8e0a-b53a-48f0-a204-4e1e7e20ea4b</t>
+          <t>056b1e06-a521-4662-9c87-19371260efe6</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="C620" t="inlineStr">
         <is>
-          <t>Implemente con confianza: siga las prácticas de operaciones de modelos de lenguaje grandes (LLMOps) para poner en funcionamiento la administración de sus LLM de Azure OpenAI, incluida la implementación, el ajuste y la ingeniería de solicitudes.</t>
-        </is>
-      </c>
-      <c r="D620" t="inlineStr"/>
+          <t>(Máquinas virtuales) Aproveche la función de reservas de capacidad.</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>La capacidad está reservada para su uso y está disponible dentro del alcance de los SLA aplicables. Puede eliminar reservas de capacidad cuando ya no las necesite, y la facturación se basa en el consumo.</t>
+        </is>
+      </c>
       <c r="F620" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16435,14 +16357,14 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>3dffb456-4675-4acb-b797-a5bf591e003a</t>
+          <t>2554bcd7-c6b8-4461-aaaa-071092d5483f</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="C621" t="inlineStr">
         <is>
-          <t>Automatice para aumentar la eficiencia: si utiliza la autenticación basada en claves, implemente una estrategia de rotación de claves automatizada.</t>
+          <t>Revise las líneas base de seguridad para las máquinas virtuales Linux y Windows y los conjuntos de escalado de máquinas virtuales.</t>
         </is>
       </c>
       <c r="D621" t="inlineStr"/>
@@ -16453,21 +16375,17 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>4c82d2b3-c083-4a0e-9cd2-92d2b00b4c96</t>
+          <t>fa5e017f-a99c-4fcc-883b-e16427f4e05d</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="C622" t="inlineStr">
         <is>
-          <t>Habilitación y configuración de Azure Diagnostics: habilite y configure Diagnostics para el servicio Azure OpenAI.</t>
-        </is>
-      </c>
-      <c r="D622" t="inlineStr">
-        <is>
-          <t>Diagnostics recopila y analiza métricas y registros, lo que le ayuda a supervisar la disponibilidad, el rendimiento y el funcionamiento de Azure OpenAI.</t>
-        </is>
-      </c>
+          <t>Garantice la aplicación oportuna y automatizada de parches y actualizaciones de seguridad. Asegúrese de que las actualizaciones se implementen y validen automáticamente mediante un proceso bien definido. Use una solución como Azure Automation para administrar las actualizaciones del sistema operativo y mantener el cumplimiento de la seguridad mediante la realización de actualizaciones críticas.</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr"/>
       <c r="F622" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16475,14 +16393,14 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>ff3d2610-e8e8-4a78-aba5-556758a2798c</t>
+          <t>63866f61-ef77-4793-9257-dfc53e87a550</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="C623" t="inlineStr">
         <is>
-          <t>Capacidad: Estimar las demandas de elasticidad de los consumidores. Identifique el tráfico de alta prioridad que requiere respuestas sincrónicas y el tráfico de baja prioridad que puede ser asíncrono y por lotes.</t>
+          <t>Identifique las máquinas virtuales que mantienen el estado. Asegúrese de que los datos se clasifican según las etiquetas de confidencialidad proporcionadas por su organización. Proteja los datos mediante el uso de controles de seguridad, como niveles adecuados de cifrado en reposo y en tránsito. Si tiene requisitos de alta confidencialidad, considere la posibilidad de usar controles de alta seguridad, como el cifrado doble y la informática confidencial de Azure, para proteger los datos en uso.</t>
         </is>
       </c>
       <c r="D623" t="inlineStr"/>
@@ -16493,14 +16411,14 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>63dbbc6a-f840-4893-979c-2afcea82bf5f</t>
+          <t>5bc85e31-f7fa-4102-8e43-6fbe7add0d89</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="C624" t="inlineStr">
         <is>
-          <t>Capacidad: Compare los requisitos de consumo de tokens en función de las demandas estimadas de los consumidores. Considere la posibilidad de usar la herramienta de evaluación comparativa de Azure OpenAI para ayudarle a validar el rendimiento si usa implementaciones de unidades de rendimiento aprovisionadas (PTU).</t>
+          <t>Proporcione segmentación a las máquinas virtuales y a los conjuntos de escalado mediante el establecimiento de límites de red y controles de acceso. Coloque las máquinas virtuales en grupos de recursos que compartan el mismo ciclo de vida.</t>
         </is>
       </c>
       <c r="D624" t="inlineStr"/>
@@ -16511,14 +16429,14 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>14677a1d-0b65-455a-997b-1490c397fbc8</t>
+          <t>d5320544-6d25-46c7-ab46-e81e5d85d9b3</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="C625" t="inlineStr">
         <is>
-          <t>Capacidad: use el rendimiento aprovisionado para las cargas de trabajo de producción. El rendimiento aprovisionado ofrece memoria y proceso dedicados, capacidad reservada y latencia máxima constante para la versión del modelo especificada. La oferta de pago por uso puede sufrir problemas de vecinos ruidosos, como una mayor latencia y limitación en regiones con un uso intensivo. Además, el enfoque de pago por uso no ofrece capacidad garantizada.</t>
+          <t>Aplique controles de acceso a las identidades que intentan llegar a las máquinas virtuales y también a las máquinas virtuales que acceden a otros recursos. Use el identificador de Microsoft Entra para las necesidades de autenticación y autorización. Implemente contraseñas seguras, autenticación multifactor y control de acceso basado en roles (RBAC) para las máquinas virtuales y sus dependencias, como los secretos, para permitir que las identidades permitidas realicen solo las operaciones que se esperan de sus roles.</t>
         </is>
       </c>
       <c r="D625" t="inlineStr"/>
@@ -16529,14 +16447,14 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>59c8767d-1b78-4016-92d5-ebd83032fafa</t>
+          <t>becd6031-a256-4186-995e-75817fc7783c</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="C626" t="inlineStr">
         <is>
-          <t>Capacidad: agregue las puertas de enlace adecuadas delante de las implementaciones de Azure OpenAI. Asegúrese de que la puerta de enlace pueda enrutar a varias instancias en la misma región o en regiones diferentes.</t>
+          <t>Utilice los controles de red para restringir el tráfico de entrada y salida. Aísle las máquinas virtuales y los conjuntos de escalado en Azure Virtual Network y defina grupos de seguridad de red para filtrar el tráfico. Protéjase contra ataques de denegación de servicio distribuido (DDoS). Utilice equilibradores de carga y reglas de firewall para protegerse contra el tráfico malicioso y los ataques de exfiltración de datos.</t>
         </is>
       </c>
       <c r="D626" t="inlineStr"/>
@@ -16547,14 +16465,14 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>a318b299-9d54-4dfc-8f20-b00ceed43ed0</t>
+          <t>cc96d188-8a1f-4b48-9525-d6f3f867f322</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="C627" t="inlineStr">
         <is>
-          <t>Capacidad: asigne PTU para cubrir el uso previsto y complemente estas PTU con una implementación de TPM para controlar la elasticidad por encima de ese límite. Este enfoque combina el rendimiento base con el rendimiento elástico para mayor eficiencia. Al igual que otras consideraciones, este enfoque requiere una implementación de puerta de enlace personalizada para enrutar las solicitudes a la implementación de TPM cuando se alcanzan los límites de PTU.</t>
+          <t>Reduzca la superficie expuesta a ataques mediante la protección de las imágenes del sistema operativo y la eliminación de los componentes no utilizados. Use imágenes más pequeñas y quite los archivos binarios que no sean necesarios para ejecutar la carga de trabajo. Ajuste las configuraciones de la máquina virtual eliminando características, como cuentas y puertos predeterminados, que no necesite.</t>
         </is>
       </c>
       <c r="D627" t="inlineStr"/>
@@ -16565,14 +16483,14 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>ceb21879-94da-485e-a24b-b30180fb566c</t>
+          <t>66e5f683-0d57-4ed1-b2bd-68e4549631bc</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="C628" t="inlineStr">
         <is>
-          <t>Capacidad: envíe solicitudes de alta prioridad de forma sincrónica. Ponga en cola las solicitudes de baja prioridad y envíelas en lotes cuando la demanda sea baja.</t>
+          <t>Proteja los secretos, como los certificados, que necesita para proteger los datos en tránsito. Considere la posibilidad de usar la extensión de Azure Key Vault para Windows o Linux que actualiza automáticamente los certificados almacenados en un almacén de claves. Cuando detecta un cambio en los certificados, la extensión recupera e instala los certificados correspondientes.</t>
         </is>
       </c>
       <c r="D628" t="inlineStr"/>
@@ -16583,14 +16501,14 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>dd313c03-7429-4cb1-84e9-d982664c2dfc</t>
+          <t>961b264a-fddf-43d4-b137-a132429c2874</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="C629" t="inlineStr">
         <is>
-          <t>Capacidad: seleccione un modelo que se adapte a sus requisitos de rendimiento, teniendo en cuenta el equilibrio entre la velocidad y la complejidad de la salida. El rendimiento del modelo puede variar significativamente en función del tipo de modelo elegido. Los modelos diseñados para la velocidad ofrecen tiempos de respuesta más rápidos, lo que puede ser beneficioso para aplicaciones que requieren interacciones rápidas. Por el contrario, los modelos más sofisticados podrían ofrecer resultados de mayor calidad a expensas de un mayor tiempo de respuesta.</t>
+          <t>Detección de amenazas. Supervise las máquinas virtuales en busca de amenazas y configuraciones incorrectas. Use Defender para servidores para capturar los cambios en la máquina virtual y el sistema operativo, y mantener un registro de auditoría del acceso, las nuevas cuentas y los cambios en los permisos.</t>
         </is>
       </c>
       <c r="D629" t="inlineStr"/>
@@ -16601,14 +16519,14 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>cdf82e76-ee07-47e6-9985-6b1c0a39dd42</t>
+          <t>39b32108-5423-42aa-beaa-1601df1971f6</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="C630" t="inlineStr">
         <is>
-          <t>Logre el rendimiento: para aplicaciones como chatbots o interfaces conversacionales, considere implementar la transmisión. El streaming puede mejorar el rendimiento percibido de las aplicaciones de Azure OpenAI al ofrecer respuestas a los usuarios de forma incremental, lo que mejora la experiencia del usuario.</t>
+          <t>Prevención de amenazas. Protéjase contra ataques de malware y actores maliciosos mediante la implementación de controles de seguridad como firewalls, software antivirus y sistemas de detección de intrusos. Determine si se requiere un entorno de ejecución de confianza (TEE).</t>
         </is>
       </c>
       <c r="D630" t="inlineStr"/>
@@ -16619,17 +16537,21 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>9aa6da24-6a00-4381-9da6-66c9d5cbf41f</t>
+          <t>fb9921a8-884c-40df-a588-a554143809f2</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="C631" t="inlineStr">
         <is>
-          <t>Logre el rendimiento: determine cuándo usar el ajuste fino antes de comprometerse con el ajuste. Aunque hay buenos casos de uso para el ajuste, como cuando la información necesaria para dirigir el modelo es demasiado larga o compleja para caber en la solicitud, asegúrese de que los enfoques de ingeniería de solicitud y generación aumentada de recuperación (RAG) no funcionen o sean demostrablemente más costosos.</t>
-        </is>
-      </c>
-      <c r="D631" t="inlineStr"/>
+          <t>(Conjunto de escalas) Asigne una identidad administrada a conjuntos de escalado. Todas las máquinas virtuales del conjunto de escalado obtienen la misma identidad a través del perfil de máquina virtual especificado.  (Máquinas virtuales) También puede asignar una identidad administrada a máquinas virtuales individuales al crearlas y, a continuación, agregarla a un conjunto de escalado si es necesario.</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>Cuando las máquinas virtuales se comunican con otros recursos, cruzan un límite de confianza. Los conjuntos de escalado y las máquinas virtuales deben autenticar su identidad antes de permitir la comunicación. Microsoft Entra ID controla esa autenticación mediante identidades administradas.</t>
+        </is>
+      </c>
       <c r="F631" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16637,17 +16559,21 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>456cbf54-9c2f-4c6e-9739-eca408fa6baf</t>
+          <t>21e2209a-6217-464b-9886-1914124b0721</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="C632" t="inlineStr">
         <is>
-          <t>Logre el rendimiento: considere la posibilidad de usar implementaciones de modelos dedicados por grupo de consumidores para proporcionar aislamiento de uso por modelo que pueda ayudar a evitar vecinos ruidosos entre los grupos de consumidores.</t>
-        </is>
-      </c>
-      <c r="D632" t="inlineStr"/>
+          <t>(Conjunto de escalas) Elija SKU de máquina virtual con características de seguridad. Por ejemplo, algunas SKU admiten el cifrado de BitLocker y la informática confidencial proporciona el cifrado de los datos en uso.  Revise las características para comprender las limitaciones.</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>Las características proporcionadas por Azure se basan en señales que se capturan en muchos inquilinos y pueden proteger los recursos mejor que los controles personalizados. También puede usar directivas para aplicar esos controles.</t>
+        </is>
+      </c>
       <c r="F632" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16655,17 +16581,21 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>2dc38e31-8e03-40f4-842d-58ac317c5106</t>
+          <t>f13132ec-ac80-4a27-a14e-b7b357523df1</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="C633" t="inlineStr">
         <is>
-          <t>Revise las cuotas y los límites de las máquinas virtuales que pueden plantear restricciones de diseño. Las máquinas virtuales tienen límites y cuotas específicos, que varían según el tipo de máquina virtual o la región. Puede haber restricciones de suscripción, como el número de máquinas virtuales por suscripción o el número de núcleos por máquina virtual. Si otras cargas de trabajo comparten su suscripción, es posible que se reduzca su capacidad para consumir datos.</t>
-        </is>
-      </c>
-      <c r="D633" t="inlineStr"/>
+          <t>(VM, conjunto de escalado) Aplique etiquetas recomendadas por la organización en los recursos aprovisionados.</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>El etiquetado es una forma común de segmentar y organizar los recursos, y puede ser crucial durante la gestión de incidentes. Para obtener más información, consulte Propósito de la nomenclatura y el etiquetado.</t>
+        </is>
+      </c>
       <c r="F633" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16673,17 +16603,21 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>999ecfef-c272-4cd8-8bd0-9cd5335fb695</t>
+          <t>944802d9-671c-479f-b973-fd6111a18486</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="C634" t="inlineStr">
         <is>
-          <t>Realice un análisis del modo de error para minimizar los puntos de error mediante el análisis de las interacciones de la máquina virtual con los componentes de red y almacenamiento. Elija configuraciones como discos efímeros del sistema operativo (SO) para localizar el acceso al disco y evitar saltos de red. Agregue un equilibrador de carga para mejorar la autoconservación mediante la distribución del tráfico de red entre varias máquinas virtuales, lo que mejora la disponibilidad y la confiabilidad.</t>
-        </is>
-      </c>
-      <c r="D634" t="inlineStr"/>
+          <t>(VM, conjunto de escalado) Establezca un perfil de seguridad con las características de seguridad que desea habilitar en la configuración de la máquina virtual.  Por ejemplo, cuando se especifica el cifrado en el host en el perfil, los datos almacenados en el host de la máquina virtual se cifran en reposo y los flujos se cifran en el servicio de almacenamiento.</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>Las características del perfil de seguridad se habilitan automáticamente cuando se crea la máquina virtual.  Para más información, consulte Línea base de seguridad de Azure para conjuntos de escalado de máquinas virtuales.</t>
+        </is>
+      </c>
       <c r="F634" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16691,17 +16625,21 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>bf605fe8-6171-4c01-8290-d6c79a21cf10</t>
+          <t>a6b12603-c2e3-43fd-9a79-6e6317817278</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="C635" t="inlineStr">
         <is>
-          <t>Calcule los objetivos de nivel de servicio (SLO) compuestos en función de los contratos de nivel de servicio (SLA) de Azure. Asegúrese de que el SLO no sea superior a los SLA de Azure para evitar expectativas poco realistas y posibles problemas.</t>
-        </is>
-      </c>
-      <c r="D635" t="inlineStr"/>
+          <t>(Máquinas virtuales) Elija opciones de red seguras para el perfil de red de la máquina virtual.  No asocie directamente direcciones IP públicas a las máquinas virtuales y no habilite el reenvío de IP.  Asegúrese de que todas las interfaces de red virtual tengan un grupo de seguridad de red asociado.</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>Puede establecer controles de segmentación en el perfil de red.  Los atacantes analizan las direcciones IP públicas, lo que hace que las máquinas virtuales sean vulnerables a las amenazas.</t>
+        </is>
+      </c>
       <c r="F635" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16709,17 +16647,21 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>4cd18dd0-57e4-4fc9-a8ad-74c3333b6d8b</t>
+          <t>3c83a4bb-2b58-4fae-9a65-37490fecaf1c</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="C636" t="inlineStr">
         <is>
-          <t>Cree aislamiento de estado. Los datos de la carga de trabajo deben estar en un disco de datos independiente para evitar interferencias con el disco del sistema operativo. Si se produce un error en una máquina virtual, puede crear un nuevo disco del sistema operativo con el mismo disco de datos, lo que garantiza la resistencia y el aislamiento de errores. Para obtener más información, consulte Discos de sistema operativo efímeros.</t>
-        </is>
-      </c>
-      <c r="D636" t="inlineStr"/>
+          <t>(Máquinas virtuales) Elija opciones de almacenamiento seguro para el perfil de almacenamiento de su máquina virtual.  Habilite el cifrado de disco y el cifrado de datos en reposo de forma predeterminada. Deshabilite el acceso de red pública a los discos de la máquina virtual.</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>Deshabilitar el acceso a la red pública ayuda a evitar el acceso no autorizado a sus datos y recursos.</t>
+        </is>
+      </c>
       <c r="F636" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16727,17 +16669,21 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>90e0bce0-bc44-42ba-be28-2f3dde2f4b37</t>
+          <t>fe1df647-99c3-43ea-b8ed-507b23f120e0</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="C637" t="inlineStr">
         <is>
-          <t>Haga que las máquinas virtuales y sus dependencias sean redundantes en todas las zonas. Si se produce un error en una máquina virtual, la carga de trabajo debe seguir funcionando debido a la redundancia. Incluya dependencias en sus opciones de redundancia. Por ejemplo, use las opciones de redundancia integradas que están disponibles con los discos. Utilice direcciones IP con redundancia de zona para garantizar la disponibilidad de los datos y un alto tiempo de actividad.</t>
-        </is>
-      </c>
-      <c r="D637" t="inlineStr"/>
+          <t>(VM, conjunto de escalado) Incluya extensiones en las máquinas virtuales que protejan contra las amenazas.  Por ejemplo, - Extensión de Key Vault para Windows y Linux - Autenticación de identificador de Microsoft Entra - Microsoft Antimalware para Azure Cloud Services y Virtual Machines - Extensión de Azure Disk Encryption para Windows y Linux.</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>Las extensiones se usan para arrancar las máquinas virtuales con el software adecuado que protege el acceso hacia y desde las máquinas virtuales.  Las extensiones proporcionadas por Microsoft se actualizan con frecuencia para mantenerse al día con la evolución de los estándares de seguridad.</t>
+        </is>
+      </c>
       <c r="F637" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16745,14 +16691,14 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>6d76e7b9-52d3-4878-83ab-2a08df23c8f6</t>
+          <t>06c4068a-2562-4cc4-9269-8bdb6b349c3a</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="C638" t="inlineStr">
         <is>
-          <t>Esté preparado para escalar vertical y horizontalmente para evitar la degradación del nivel de servicio y evitar errores. Los conjuntos de escalado de máquinas virtuales tienen funcionalidades de escalado automático que crean nuevas instancias según sea necesario y distribuyen la carga entre varias máquinas virtuales y zonas de disponibilidad.</t>
+          <t>Calcule costos realistas. Use la calculadora de precios para calcular los costos de sus máquinas virtuales. Identifique la mejor máquina virtual para su carga de trabajo mediante el selector de máquinas virtuales. Para obtener más información, consulte Precios de Linux y Windows.</t>
         </is>
       </c>
       <c r="D638" t="inlineStr"/>
@@ -16763,14 +16709,14 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>56d104f5-469e-4ead-bf17-7c81c746dabe</t>
+          <t>3e760d37-8430-4da5-833d-95bff2d43e4f</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="C639" t="inlineStr">
         <is>
-          <t>Explora las opciones de recuperación automática. Azure admite la supervisión de la degradación del estado y las características de recuperación automática para las máquinas virtuales. Por ejemplo, los conjuntos de escalado proporcionan reparaciones automáticas de instancias. En escenarios más avanzados, la recuperación automática implica el uso de Azure Site Recovery, tener un modo de espera pasivo para conmutar por error o volver a implementar desde la infraestructura como código (IaC). El método que elija debe alinearse con los requisitos empresariales y las operaciones de la organización. Para obtener más información, consulte Interrupciones del servicio de máquina virtual.</t>
+          <t>Implemente barreras de protección de costos. Utilice políticas de gobernanza para restringir los tipos de recursos, las configuraciones y las ubicaciones. Utilice RBAC para bloquear acciones que pueden conducir a un gasto excesivo.</t>
         </is>
       </c>
       <c r="D639" t="inlineStr"/>
@@ -16781,14 +16727,14 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>3395416e-27c6-4ded-941a-de4e562c5c00</t>
+          <t>284bc1f9-59a6-491e-8070-d05e31e29ee7</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="C640" t="inlineStr">
         <is>
-          <t>Ajuste el tamaño de las máquinas virtuales y sus dependencias. Comprenda el trabajo esperado de su máquina virtual para asegurarse de que no sea de tamaño insuficiente y pueda manejar la carga máxima. Tener capacidad extra para mitigar fallos.</t>
+          <t>Elija los recursos adecuados. La selección de los tamaños de plan de VM y SKU afecta directamente al costo total. Elija las máquinas virtuales en función de las características de la carga de trabajo. ¿La carga de trabajo hace un uso intensivo de la CPU o ejecuta procesos interrumpibles? Cada SKU tiene opciones de disco asociadas que afectan al costo total.</t>
         </is>
       </c>
       <c r="D640" t="inlineStr"/>
@@ -16799,14 +16745,14 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>3d633098-6fc7-4752-907c-5a02d53ffba2</t>
+          <t>353f0d7a-b104-43c3-b3e9-926af6458844</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="C641" t="inlineStr">
         <is>
-          <t>Cree un plan integral de recuperación ante desastres. La preparación para desastres implica la creación de un plan integral y la decisión sobre una tecnología para la recuperación.</t>
+          <t>Elija las capacidades adecuadas para los recursos dependientes. Ahorre en costos de almacenamiento de copia de seguridad para el nivel estándar de almacén mediante el almacenamiento de Azure Backup con capacidad reservada. Ofrece un descuento cuando te comprometes a una reserva por un año o tres años.</t>
         </is>
       </c>
       <c r="D641" t="inlineStr"/>
@@ -16817,14 +16763,14 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>cbe651de-8754-4078-8066-803f94814634</t>
+          <t>dff9f383-b459-4359-907e-bd33a92d4bd6</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="C642" t="inlineStr">
         <is>
-          <t>Ejecute las operaciones con rigor. Las opciones de diseño de confiabilidad deben estar respaldadas por operaciones efectivas basadas en los principios de supervisión, pruebas de resistencia en producción, parches y actualizaciones de máquinas virtuales de aplicaciones automatizadas y coherencia de las implementaciones. Para obtener orientación operativa, consulte Excelencia operativa.</t>
+          <t>Elige el modelo de facturación adecuado. Evalúe si los modelos informáticos basados en compromisos optimizan los costos en función de los requisitos empresariales de la carga de trabajo. Tenga en cuenta estas opciones de Azure:</t>
         </is>
       </c>
       <c r="D642" t="inlineStr"/>
@@ -16835,21 +16781,17 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>6bbb44ad-f6ed-4990-b519-a56e4d995170</t>
+          <t>24cfa2c5-9e77-48e8-82ad-c5e98c636a69</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="C643" t="inlineStr">
         <is>
-          <t>(Conjunto de escalas) Use conjuntos de escalado de máquinas virtuales en modo de orquestación flexible para implementar máquinas virtuales.</t>
-        </is>
-      </c>
-      <c r="D643" t="inlineStr">
-        <is>
-          <t>Prepare su aplicación para el futuro para el escalado y aproveche las garantías de alta disponibilidad que distribuyen las máquinas virtuales a través de dominios de error en una región o una zona de disponibilidad.</t>
-        </is>
-      </c>
+          <t>Supervise el uso. Supervise continuamente los patrones de uso y detecte las máquinas virtuales no utilizadas o infrautilizadas. Para esas instancias, apague las instancias de VM cuando no estén en uso. El monitoreo es un enfoque clave de la Excelencia Operativa. Para obtener más información, consulte las recomendaciones de Excelencia operativa.</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr"/>
       <c r="F643" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16857,21 +16799,17 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>bb45d3f7-dae7-4eb6-a823-76737e6d0d88</t>
+          <t>046215f1-13ee-4fbf-893d-eeafa28ab76b</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="C644" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales) Implemente puntos de conexión de estado que emitan estados de mantenimiento de instancia en máquinas virtuales.  (Conjunto de escalas) Habilite las reparaciones automáticas en el conjunto de báscula especificando la acción de reparación preferida.  Considere la posibilidad de establecer un período de tiempo durante el cual las reparaciones automáticas se detengan si cambia el estado de la máquina virtual.</t>
-        </is>
-      </c>
-      <c r="D644" t="inlineStr">
-        <is>
-          <t>Mantenga la disponibilidad incluso si una instancia se considera incorrecta. Las reparaciones automáticas inician la recuperación mediante la sustitución de la instancia defectuosa. Establecer una ventana de tiempo puede evitar operaciones de reparación inadvertidas o prematuras.</t>
-        </is>
-      </c>
+          <t>Busca formas de optimizar. Algunas estrategias incluyen la elección del enfoque más rentable entre aumentar los recursos de un sistema existente, o escalar verticalmente, y agregar más instancias de ese sistema, o escalar horizontalmente. Puede descargar la demanda distribuyéndola a otros recursos, o puede reducir la demanda mediante la implementación de colas de prioridad, descarga de puerta de enlace, almacenamiento en búfer y limitación de velocidad. Para obtener más información, consulte las recomendaciones de Eficiencia del rendimiento.</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr"/>
       <c r="F644" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16879,19 +16817,19 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>29912435-4c36-465e-91e2-6c8fcb42b33f</t>
+          <t>877c04dd-441f-4202-9b87-9eeb3c60b564</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="C645" t="inlineStr">
         <is>
-          <t>(Conjunto de escalas) Habilite el sobreaprovisionamiento en conjuntos de escalado.</t>
+          <t>(VM, conjunto de escalado) Elija el tamaño del plan de máquina virtual y la SKU adecuados. Identifique los mejores tamaños de máquina virtual para su carga de trabajo.  Utilice el selector de máquina virtual para identificar la mejor máquina virtual para su carga de trabajo. Consulta los precios de Windows y Linux.  En el caso de las cargas de trabajo, como los trabajos de procesamiento por lotes muy paralelos que pueden tolerar algunas interrupciones, considere la posibilidad de usar Azure Spot Virtual Machines. Las máquinas virtuales puntuales son buenas para experimentar, desarrollar y probar soluciones a gran escala.</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>El sobreaprovisionamiento reduce los tiempos de implementación y tiene una ventaja en cuanto a costos, ya que no se facturan las máquinas virtuales adicionales.</t>
+          <t>Los SKU tienen un precio según las capacidades que ofrecen. Si no necesitas capacidades avanzadas, no gastes de más en SKU.  Las máquinas virtuales de acceso puntual aprovechan la capacidad excedente de Azure a un costo menor.</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
@@ -16901,19 +16839,19 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>71982e91-2b16-4f49-b91e-7c52a6e0042a</t>
+          <t>90700d86-70f6-433f-b995-b9ad8cfdec84</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="C646" t="inlineStr">
         <is>
-          <t>(Conjunto de escalas) Permita que la orquestación flexible distribuya las instancias de VM en tantos dominios de error como sea posible.</t>
+          <t>(VM, conjunto de escalado) Evalúe las opciones de disco asociadas a las SKU de la máquina virtual.  Determine sus necesidades de rendimiento teniendo en cuenta sus necesidades de capacidad de almacenamiento y teniendo en cuenta los patrones de carga de trabajo fluctuantes.  Por ejemplo, el disco SSD prémium v2 de Azure permite ajustar de forma granular el rendimiento independientemente del tamaño del disco.</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>Esta opción aísla los dominios de error. Durante los períodos de mantenimiento, cuando se actualiza un dominio de error, las instancias de VM están disponibles en los demás dominios de error.</t>
+          <t>Algunos tipos de discos de alto rendimiento ofrecen funciones y estrategias de optimización de costos adicionales.  La capacidad de ajuste del disco SSD prémium v2 puede reducir los costos, ya que proporciona un alto rendimiento sin sobreaprovisionamiento, lo que, de otro modo, podría conducir a recursos infrautilizados.</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
@@ -16923,19 +16861,19 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>07b6117e-18f8-4df2-9816-9bba2f028219</t>
+          <t>14211a5a-ea48-4aa1-9f24-e46689328dda</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="C647" t="inlineStr">
         <is>
-          <t>(Conjunto de escalas) Implemente en zonas de disponibilidad en conjuntos de escalado. Configure al menos dos instancias en cada zona. El equilibrio de zonas distribuye equitativamente las instancias entre zonas.</t>
+          <t>(Conjunto de escalas) Combine máquinas virtuales normales con máquinas virtuales de acceso puntual.  La orquestación flexible le permite distribuir máquinas virtuales de acceso puntual en función de un porcentaje especificado.</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>Las instancias de máquina virtual se aprovisionan en ubicaciones físicamente separadas dentro de cada región de Azure que son tolerantes a errores locales.  Tenga en cuenta que, en función de la disponibilidad de recursos, puede haber un número impar de instancias en todas las zonas. El equilibrio de zonas admite la disponibilidad al asegurarse de que, si una zona está inactiva, las otras zonas tengan suficientes instancias.  Dos instancias en cada zona proporcionan un búfer durante las actualizaciones.</t>
+          <t>Reduzca los costos de infraestructura informática aplicando los grandes descuentos de las máquinas virtuales de acceso puntual.</t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
@@ -16945,19 +16883,19 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>056b1e06-a521-4662-9c87-19371260efe6</t>
+          <t>38d3a88b-a84f-46f3-95ce-76a4e245027b</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="C648" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales) Aproveche la función de reservas de capacidad.</t>
+          <t>(Conjunto de escalas) Reduzca el número de instancias de VM cuando la demanda disminuya. Establezca una política de reducción horizontal basada en criterios.   Detenga las máquinas virtuales durante las horas de inactividad. Puede usar la característica Iniciar/Detener de Azure Automation y configurarla según las necesidades de su empresa.</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>La capacidad está reservada para su uso y está disponible dentro del alcance de los SLA aplicables. Puede eliminar reservas de capacidad cuando ya no las necesite, y la facturación se basa en el consumo.</t>
+          <t>El escalado vertical o la detención de recursos cuando no están en uso reduce el número de máquinas virtuales que se ejecutan en el conjunto de escalado, lo que ahorra costos.  La función Start/Stop es una opción de automatización de bajo costo.</t>
         </is>
       </c>
       <c r="F648" t="inlineStr">
@@ -16967,17 +16905,21 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>2554bcd7-c6b8-4461-aaaa-071092d5483f</t>
+          <t>eccee9b1-70f3-4c96-8223-35e24d842201</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="C649" t="inlineStr">
         <is>
-          <t>Revise las líneas base de seguridad para las máquinas virtuales Linux y Windows y los conjuntos de escalado de máquinas virtuales.</t>
-        </is>
-      </c>
-      <c r="D649" t="inlineStr"/>
+          <t>(VM, conjunto de escalado) Aproveche la movilidad de licencias mediante la Ventaja híbrida de Azure. Las máquinas virtuales tienen una opción de licencia que le permite traer sus propias licencias locales del SO de servidor Windows a Azure.  La Ventaja híbrida de Azure también le permite incorporar determinadas suscripciones de Linux a Azure.</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>Puede maximizar sus licencias locales mientras obtiene los beneficios de la nube.</t>
+        </is>
+      </c>
       <c r="F649" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -16985,14 +16927,14 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>fa5e017f-a99c-4fcc-883b-e16427f4e05d</t>
+          <t>3c34c3e4-5715-472e-953e-2d5030bf18a0</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="C650" t="inlineStr">
         <is>
-          <t>Garantice la aplicación oportuna y automatizada de parches y actualizaciones de seguridad. Asegúrese de que las actualizaciones se implementen y validen automáticamente mediante un proceso bien definido. Use una solución como Azure Automation para administrar las actualizaciones del sistema operativo y mantener el cumplimiento de la seguridad mediante la realización de actualizaciones críticas.</t>
+          <t>Supervise las instancias de VM. Recopile registros y métricas de instancias de VM para supervisar el uso de recursos y medir el estado de las instancias. Algunas métricas comunes incluyen el uso de la CPU, el número de solicitudes y la latencia de entrada/salida (E/S). Configure alertas de Azure Monitor para recibir notificaciones sobre problemas y detectar cambios de configuración en su entorno.</t>
         </is>
       </c>
       <c r="D650" t="inlineStr"/>
@@ -17003,14 +16945,14 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>63866f61-ef77-4793-9257-dfc53e87a550</t>
+          <t>fc1734b9-fefe-403d-bfc9-c2beca6f12a2</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="C651" t="inlineStr">
         <is>
-          <t>Identifique las máquinas virtuales que mantienen el estado. Asegúrese de que los datos se clasifican según las etiquetas de confidencialidad proporcionadas por su organización. Proteja los datos mediante el uso de controles de seguridad, como niveles adecuados de cifrado en reposo y en tránsito. Si tiene requisitos de alta confidencialidad, considere la posibilidad de usar controles de alta seguridad, como el cifrado doble y la informática confidencial de Azure, para proteger los datos en uso.</t>
+          <t>Supervise el estado de las máquinas virtuales y sus dependencias.</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
@@ -17021,14 +16963,14 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>5bc85e31-f7fa-4102-8e43-6fbe7add0d89</t>
+          <t>724b847d-caf4-4e90-83e7-f4c71e68c4f7</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="C652" t="inlineStr">
         <is>
-          <t>Proporcione segmentación a las máquinas virtuales y a los conjuntos de escalado mediante el establecimiento de límites de red y controles de acceso. Coloque las máquinas virtuales en grupos de recursos que compartan el mismo ciclo de vida.</t>
+          <t>Cree un plan de mantenimiento que incluya la aplicación regular de parches en el sistema como parte de las operaciones rutinarias. Incluir procesos de emergencia que permitan la aplicación inmediata de parches. Puede tener procesos personalizados para administrar la aplicación de revisiones o delegar parcialmente la tarea a Azure.</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
@@ -17039,14 +16981,14 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>d5320544-6d25-46c7-ab46-e81e5d85d9b3</t>
+          <t>f99e71a9-05ee-41c2-81b7-8d794763040b</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="C653" t="inlineStr">
         <is>
-          <t>Aplique controles de acceso a las identidades que intentan llegar a las máquinas virtuales y también a las máquinas virtuales que acceden a otros recursos. Use el identificador de Microsoft Entra para las necesidades de autenticación y autorización. Implemente contraseñas seguras, autenticación multifactor y control de acceso basado en roles (RBAC) para las máquinas virtuales y sus dependencias, como los secretos, para permitir que las identidades permitidas realicen solo las operaciones que se esperan de sus roles.</t>
+          <t>Automatice los procesos de arranque, ejecución de scripts y configuración de máquinas virtuales. Puede automatizar procesos mediante el uso de extensiones o scripts personalizados. Recomendamos las siguientes opciones:</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
@@ -17057,14 +16999,14 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>becd6031-a256-4186-995e-75817fc7783c</t>
+          <t>ca34b9c2-69db-4256-a354-c491877f79ac</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="C654" t="inlineStr">
         <is>
-          <t>Utilice los controles de red para restringir el tráfico de entrada y salida. Aísle las máquinas virtuales y los conjuntos de escalado en Azure Virtual Network y defina grupos de seguridad de red para filtrar el tráfico. Protéjase contra ataques de denegación de servicio distribuido (DDoS). Utilice equilibradores de carga y reglas de firewall para protegerse contra el tráfico malicioso y los ataques de exfiltración de datos.</t>
+          <t>Tener procesos para instalar actualizaciones automáticas. Considere la posibilidad de usar la aplicación automática de parches de invitado de VM para una implementación oportuna de parches críticos y parches de seguridad. Use Azure Update Manager para administrar las actualizaciones del sistema operativo de las máquinas virtuales Windows y Linux en Azure.</t>
         </is>
       </c>
       <c r="D654" t="inlineStr"/>
@@ -17075,14 +17017,14 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>cc96d188-8a1f-4b48-9525-d6f3f867f322</t>
+          <t>821779c7-588f-40af-a740-8dd41fb585fd</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="C655" t="inlineStr">
         <is>
-          <t>Reduzca la superficie expuesta a ataques mediante la protección de las imágenes del sistema operativo y la eliminación de los componentes no utilizados. Use imágenes más pequeñas y quite los archivos binarios que no sean necesarios para ejecutar la carga de trabajo. Ajuste las configuraciones de la máquina virtual eliminando características, como cuentas y puertos predeterminados, que no necesite.</t>
+          <t>Cree un entorno de prueba que coincida estrechamente con su entorno de producción para probar las actualizaciones y los cambios antes de implementarlos en producción. Contar con procesos para probar las actualizaciones de seguridad, las líneas base de rendimiento y los errores de confiabilidad. Aproveche las bibliotecas de errores de Azure Chaos Studio para insertar y simular condiciones de error. Para más información, consulte Biblioteca de errores y acciones de Azure Chaos Studio.</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
@@ -17093,14 +17035,14 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>66e5f683-0d57-4ed1-b2bd-68e4549631bc</t>
+          <t>079c8821-00dd-4eaf-9cae-5a3dbfd6fdfa</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="C656" t="inlineStr">
         <is>
-          <t>Proteja los secretos, como los certificados, que necesita para proteger los datos en tránsito. Considere la posibilidad de usar la extensión de Azure Key Vault para Windows o Linux que actualiza automáticamente los certificados almacenados en un almacén de claves. Cuando detecta un cambio en los certificados, la extensión recupera e instala los certificados correspondientes.</t>
+          <t>Administra tu cuota. Planifique el nivel de cuota que requiere su carga de trabajo y revise ese nivel con regularidad a medida que evoluciona la carga de trabajo. Si necesita aumentar o disminuir su cuota, solicite esos cambios con anticipación.</t>
         </is>
       </c>
       <c r="D656" t="inlineStr"/>
@@ -17111,17 +17053,21 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>961b264a-fddf-43d4-b137-a132429c2874</t>
+          <t>77cdbef0-ba18-4ef0-9ef4-088931e331c7</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="C657" t="inlineStr">
         <is>
-          <t>Detección de amenazas. Supervise las máquinas virtuales en busca de amenazas y configuraciones incorrectas. Use Defender para servidores para capturar los cambios en la máquina virtual y el sistema operativo, y mantener un registro de auditoría del acceso, las nuevas cuentas y los cambios en los permisos.</t>
-        </is>
-      </c>
-      <c r="D657" t="inlineStr"/>
+          <t>(Conjunto de escalas) Los conjuntos de escalado de máquinas virtuales en modo de orquestación flexible pueden ayudar a simplificar la implementación y la administración de la carga de trabajo. Por ejemplo, puede administrar fácilmente la autorreparación mediante el uso de reparaciones automáticas.</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>La orquestación flexible puede administrar instancias de VM a escala. La entrega de máquinas virtuales individuales agrega sobrecarga operativa.  Por ejemplo, cuando se eliminan instancias de VM, los discos y las NIC asociados también se eliminan automáticamente. Las instancias de VM se distribuyen en varios dominios de error para que las operaciones de actualización no interrumpan el servicio.</t>
+        </is>
+      </c>
       <c r="F657" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -17129,17 +17075,21 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>39b32108-5423-42aa-beaa-1601df1971f6</t>
+          <t>3049efb5-d3ae-4e36-a8fa-12f2c4a44144</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="C658" t="inlineStr">
         <is>
-          <t>Prevención de amenazas. Protéjase contra ataques de malware y actores maliciosos mediante la implementación de controles de seguridad como firewalls, software antivirus y sistemas de detección de intrusos. Determine si se requiere un entorno de ejecución de confianza (TEE).</t>
-        </is>
-      </c>
-      <c r="D658" t="inlineStr"/>
+          <t>(Conjunto de escalas) Mantenga sus máquinas virtuales actualizadas mediante la configuración de una directiva de actualización. Recomendamos actualizaciones continuas. Sin embargo, si necesita un control granular, elija actualizar manualmente.  Para la orquestación flexible, puede usar Azure Update Manager.</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>La seguridad es la razón principal de las actualizaciones. Las garantías de seguridad de las instancias no deben deteriorarse con el tiempo.  Las actualizaciones graduales se realizan en lotes, lo que garantiza que todas las instancias no estén inactivas al mismo tiempo.</t>
+        </is>
+      </c>
       <c r="F658" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -17147,19 +17097,19 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>fb9921a8-884c-40df-a588-a554143809f2</t>
+          <t>19de83a6-2f87-49b1-8241-d1d687f46658</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="C659" t="inlineStr">
         <is>
-          <t>(Conjunto de escalas) Asigne una identidad administrada a conjuntos de escalado. Todas las máquinas virtuales del conjunto de escalado obtienen la misma identidad a través del perfil de máquina virtual especificado.  (Máquinas virtuales) También puede asignar una identidad administrada a máquinas virtuales individuales al crearlas y, a continuación, agregarla a un conjunto de escalado si es necesario.</t>
+          <t>(VM, conjunto de escalado) Implemente automáticamente aplicaciones de máquina virtual desde Azure Compute Gallery definiendo las aplicaciones en el perfil.</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>Cuando las máquinas virtuales se comunican con otros recursos, cruzan un límite de confianza. Los conjuntos de escalado y las máquinas virtuales deben autenticar su identidad antes de permitir la comunicación. Microsoft Entra ID controla esa autenticación mediante identidades administradas.</t>
+          <t>Se crean las máquinas virtuales del conjunto de escalado y se preinstalan las aplicaciones especificadas, lo que facilita la administración.</t>
         </is>
       </c>
       <c r="F659" t="inlineStr">
@@ -17169,19 +17119,19 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>21e2209a-6217-464b-9886-1914124b0721</t>
+          <t>65c832e8-2882-45ed-b239-0e68f74975aa</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="C660" t="inlineStr">
         <is>
-          <t>(Conjunto de escalas) Elija SKU de máquina virtual con características de seguridad. Por ejemplo, algunas SKU admiten el cifrado de BitLocker y la informática confidencial proporciona el cifrado de los datos en uso.  Revise las características para comprender las limitaciones.</t>
+          <t>Instale componentes de software precompilados como extensiones como parte del arranque.  Azure admite muchas extensiones que se pueden usar para configurar, supervisar, proteger y proporcionar aplicaciones de utilidad para las máquinas virtuales.   Habilite las actualizaciones automáticas en las extensiones.</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>Las características proporcionadas por Azure se basan en señales que se capturan en muchos inquilinos y pueden proteger los recursos mejor que los controles personalizados. También puede usar directivas para aplicar esos controles.</t>
+          <t>Las extensiones pueden ayudar a simplificar la instalación de software a escala sin tener que instalarlo, configurarlo o actualizarlo manualmente en cada máquina virtual.</t>
         </is>
       </c>
       <c r="F660" t="inlineStr">
@@ -17191,19 +17141,19 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>f13132ec-ac80-4a27-a14e-b7b357523df1</t>
+          <t>40266c61-9685-4ee1-8cb6-a899a6b573f2</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="C661" t="inlineStr">
         <is>
-          <t>(VM, conjunto de escalado) Aplique etiquetas recomendadas por la organización en los recursos aprovisionados.</t>
+          <t>(VM, conjunto de escalado) Supervise y mida el estado de las instancias de VM.  Implemente la extensión del agente Monitor en las máquinas virtuales para recopilar datos de supervisión del sistema operativo invitado con reglas de recopilación de datos específicas del sistema operativo.  Permita que VM Insights supervise el estado y el rendimiento, y vea las tendencias de los datos recopilados. Use los diagnósticos de arranque para obtener información a medida que arrancan las máquinas virtuales. Los diagnósticos de arranque también diagnostican errores de arranque.</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>El etiquetado es una forma común de segmentar y organizar los recursos, y puede ser crucial durante la gestión de incidentes. Para obtener más información, consulte Propósito de la nomenclatura y el etiquetado.</t>
+          <t>La monitorización de los datos es el núcleo de la resolución de incidentes. Una pila de supervisión completa proporciona información sobre el rendimiento de las máquinas virtuales y su estado. Al monitorear continuamente las instancias, puede estar preparado para errores o prevenirlos, como la sobrecarga de rendimiento y los problemas de confiabilidad.</t>
         </is>
       </c>
       <c r="F661" t="inlineStr">
@@ -17213,21 +17163,17 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>944802d9-671c-479f-b973-fd6111a18486</t>
+          <t>72e210dc-5abb-4569-b650-ec27003bb1cf</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="C662" t="inlineStr">
         <is>
-          <t>(VM, conjunto de escalado) Establezca un perfil de seguridad con las características de seguridad que desea habilitar en la configuración de la máquina virtual.  Por ejemplo, cuando se especifica el cifrado en el host en el perfil, los datos almacenados en el host de la máquina virtual se cifran en reposo y los flujos se cifran en el servicio de almacenamiento.</t>
-        </is>
-      </c>
-      <c r="D662" t="inlineStr">
-        <is>
-          <t>Las características del perfil de seguridad se habilitan automáticamente cuando se crea la máquina virtual.  Para más información, consulte Línea base de seguridad de Azure para conjuntos de escalado de máquinas virtuales.</t>
-        </is>
-      </c>
+          <t>Definir objetivos de rendimiento. Identifique las métricas de VM para realizar un seguimiento y medir los indicadores de rendimiento, como el tiempo de respuesta, la utilización de la CPU y la utilización de la memoria, así como las métricas de la carga de trabajo, como las transacciones por segundo, los usuarios simultáneos y la disponibilidad y el estado.</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr"/>
       <c r="F662" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -17235,21 +17181,17 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>a6b12603-c2e3-43fd-9a79-6e6317817278</t>
+          <t>0303e75c-321d-42b0-9226-b05f43633d50</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="C663" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales) Elija opciones de red seguras para el perfil de red de la máquina virtual.  No asocie directamente direcciones IP públicas a las máquinas virtuales y no habilite el reenvío de IP.  Asegúrese de que todas las interfaces de red virtual tengan un grupo de seguridad de red asociado.</t>
-        </is>
-      </c>
-      <c r="D663" t="inlineStr">
-        <is>
-          <t>Puede establecer controles de segmentación en el perfil de red.  Los atacantes analizan las direcciones IP públicas, lo que hace que las máquinas virtuales sean vulnerables a las amenazas.</t>
-        </is>
-      </c>
+          <t>Tenga en cuenta el perfil de rendimiento de las máquinas virtuales, los conjuntos de escalado y la configuración de disco en la planeación de la capacidad. Cada SKU tiene un perfil diferente de memoria y CPU y se comporta de forma diferente en función del tipo de carga de trabajo. Realice pruebas piloto y pruebas de concepto para comprender el comportamiento del rendimiento en la carga de trabajo específica.</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr"/>
       <c r="F663" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -17257,21 +17199,17 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>3c83a4bb-2b58-4fae-9a65-37490fecaf1c</t>
+          <t>f2c0ba97-9170-43ab-90b5-b30f159913ba</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="C664" t="inlineStr">
         <is>
-          <t>(Máquinas virtuales) Elija opciones de almacenamiento seguro para el perfil de almacenamiento de su máquina virtual.  Habilite el cifrado de disco y el cifrado de datos en reposo de forma predeterminada. Deshabilite el acceso de red pública a los discos de la máquina virtual.</t>
-        </is>
-      </c>
-      <c r="D664" t="inlineStr">
-        <is>
-          <t>Deshabilitar el acceso a la red pública ayuda a evitar el acceso no autorizado a sus datos y recursos.</t>
-        </is>
-      </c>
+          <t>Ajuste del rendimiento de la máquina virtual. Aproveche la optimización del rendimiento y la mejora de las características según lo requiera la carga de trabajo. Por ejemplo, use Memoria no volátil Express (NVMe) conectada localmente para casos de uso de alto rendimiento y redes aceleradas, y use SSD Premium v2 para mejorar el rendimiento y la escalabilidad.</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr"/>
       <c r="F664" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -17279,21 +17217,17 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>fe1df647-99c3-43ea-b8ed-507b23f120e0</t>
+          <t>ffee7b2f-b57c-40cc-a8ab-9044dead9dc7</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="C665" t="inlineStr">
         <is>
-          <t>(VM, conjunto de escalado) Incluya extensiones en las máquinas virtuales que protejan contra las amenazas.  Por ejemplo, - Extensión de Key Vault para Windows y Linux - Autenticación de identificador de Microsoft Entra - Microsoft Antimalware para Azure Cloud Services y Virtual Machines - Extensión de Azure Disk Encryption para Windows y Linux.</t>
-        </is>
-      </c>
-      <c r="D665" t="inlineStr">
-        <is>
-          <t>Las extensiones se usan para arrancar las máquinas virtuales con el software adecuado que protege el acceso hacia y desde las máquinas virtuales.  Las extensiones proporcionadas por Microsoft se actualizan con frecuencia para mantenerse al día con la evolución de los estándares de seguridad.</t>
-        </is>
-      </c>
+          <t>Tenga en cuenta los servicios dependientes. Las dependencias de la carga de trabajo, como el almacenamiento en caché, el tráfico de red y las redes de entrega de contenido, que interactúan con las máquinas virtuales pueden afectar al rendimiento. Además, tenga en cuenta la distribución geográfica, como zonas y regiones, que pueden agregar latencia.</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr"/>
       <c r="F665" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -17301,14 +17235,14 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>06c4068a-2562-4cc4-9269-8bdb6b349c3a</t>
+          <t>75cf3a03-3d7c-4199-8138-45ff62b1f7a5</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="C666" t="inlineStr">
         <is>
-          <t>Calcule costos realistas. Use la calculadora de precios para calcular los costos de sus máquinas virtuales. Identifique la mejor máquina virtual para su carga de trabajo mediante el selector de máquinas virtuales. Para obtener más información, consulte Precios de Linux y Windows.</t>
+          <t>Recopilar datos de rendimiento. Siga las prácticas recomendadas de Excelencia operativa para supervisar e implementar las extensiones adecuadas para ver las métricas que se basan en los indicadores de rendimiento.</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
@@ -17319,14 +17253,14 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>3e760d37-8430-4da5-833d-95bff2d43e4f</t>
+          <t>739525ea-4d0a-4965-baef-ab0325fbed67</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="C667" t="inlineStr">
         <is>
-          <t>Implemente barreras de protección de costos. Utilice políticas de gobernanza para restringir los tipos de recursos, las configuraciones y las ubicaciones. Utilice RBAC para bloquear acciones que pueden conducir a un gasto excesivo.</t>
+          <t>Grupos de ubicación por proximidad. Use grupos de ubicación por proximidad en cargas de trabajo en las que se requiera una latencia baja para asegurarse de que las máquinas virtuales estén ubicadas físicamente cerca unas de otras.</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
@@ -17337,17 +17271,21 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>284bc1f9-59a6-491e-8070-d05e31e29ee7</t>
+          <t>39acd43b-a405-439b-83c9-b9d79d9cdba6</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="C668" t="inlineStr">
         <is>
-          <t>Elija los recursos adecuados. La selección de los tamaños de plan de VM y SKU afecta directamente al costo total. Elija las máquinas virtuales en función de las características de la carga de trabajo. ¿La carga de trabajo hace un uso intensivo de la CPU o ejecuta procesos interrumpibles? Cada SKU tiene opciones de disco asociadas que afectan al costo total.</t>
-        </is>
-      </c>
-      <c r="D668" t="inlineStr"/>
+          <t>(VM, conjunto de escalado) Elija SKU para máquinas virtuales que se alineen con su planificación de capacidad. Comprenda bien los requisitos de su carga de trabajo, incluido el número de núcleos, la memoria, el almacenamiento y el ancho de banda de red para que pueda filtrar las SKU inadecuadas.</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>El tamaño correcto de las máquinas virtuales es una decisión fundamental que afecta significativamente al rendimiento de la carga de trabajo. Sin el conjunto adecuado de máquinas virtuales, es posible que experimente problemas de rendimiento y acumule costos innecesarios.</t>
+        </is>
+      </c>
       <c r="F668" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -17355,17 +17293,21 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>353f0d7a-b104-43c3-b3e9-926af6458844</t>
+          <t>67cc04db-4b74-40f4-9bf6-0ba5f758b45e</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="C669" t="inlineStr">
         <is>
-          <t>Elija las capacidades adecuadas para los recursos dependientes. Ahorre en costos de almacenamiento de copia de seguridad para el nivel estándar de almacén mediante el almacenamiento de Azure Backup con capacidad reservada. Ofrece un descuento cuando te comprometes a una reserva por un año o tres años.</t>
-        </is>
-      </c>
-      <c r="D669" t="inlineStr"/>
+          <t>(VM, conjunto de escalado) Implemente máquinas virtuales de carga de trabajo sensibles a la latencia en grupos con ubicación de proximidad.</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>Los grupos de selección de ubicación por proximidad reducen la distancia física entre los recursos de proceso de Azure, lo que puede mejorar el rendimiento y reducir la latencia de red entre máquinas virtuales independientes, máquinas virtuales de varios conjuntos de disponibilidad o máquinas virtuales de varios conjuntos de escalado.</t>
+        </is>
+      </c>
       <c r="F669" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -17373,17 +17315,21 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>dff9f383-b459-4359-907e-bd33a92d4bd6</t>
+          <t>ef3de2ad-d5b6-4931-9fc7-28249d9300c0</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="C670" t="inlineStr">
         <is>
-          <t>Elige el modelo de facturación adecuado. Evalúe si los modelos informáticos basados en compromisos optimizan los costos en función de los requisitos empresariales de la carga de trabajo. Tenga en cuenta estas opciones de Azure:</t>
-        </is>
-      </c>
-      <c r="D670" t="inlineStr"/>
+          <t>(VM, conjunto de escalado)  Establezca el perfil de almacenamiento analizando el rendimiento del disco de las cargas de trabajo existentes y la SKU de la máquina virtual.  Use SSD prémium para máquinas virtuales de producción. Ajuste el rendimiento de los discos con SSD prémium v2. Utilice dispositivos NVMe conectados localmente.</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>Las SSD prémium ofrecen máquinas virtuales compatibles con discos de alto rendimiento y baja latencia con cargas de trabajo intensivas en E/S.  SSD prémium v2 no requiere cambiar el tamaño del disco, lo que permite un alto rendimiento sin un sobreaprovisionamiento excesivo y minimiza el costo de la capacidad no utilizada.  Cuando están disponibles en SKU de máquina virtual, NVMe conectado localmente o dispositivos similares pueden ofrecer un alto rendimiento, especialmente para casos de uso que requieren altas operaciones de entrada/salida por segundo (IOPS) y baja latencia.</t>
+        </is>
+      </c>
       <c r="F670" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -17391,17 +17337,21 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>24cfa2c5-9e77-48e8-82ad-c5e98c636a69</t>
+          <t>a91aae92-2b2c-4c88-b268-2c70b995a952</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="C671" t="inlineStr">
         <is>
-          <t>Supervise el uso. Supervise continuamente los patrones de uso y detecte las máquinas virtuales no utilizadas o infrautilizadas. Para esas instancias, apague las instancias de VM cuando no estén en uso. El monitoreo es un enfoque clave de la Excelencia Operativa. Para obtener más información, consulte las recomendaciones de Excelencia operativa.</t>
-        </is>
-      </c>
-      <c r="D671" t="inlineStr"/>
+          <t>(Máquinas virtuales) Considere la posibilidad de habilitar redes aceleradas.</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>Permite la virtualización de E/S de raíz única (SR-IOV) en una máquina virtual, lo que mejora en gran medida su rendimiento de red.</t>
+        </is>
+      </c>
       <c r="F671" t="inlineStr">
         <is>
           <t>No verificado</t>
@@ -17409,587 +17359,27 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>046215f1-13ee-4fbf-893d-eeafa28ab76b</t>
+          <t>57e446da-1b2e-4bdc-abc9-3e978a11e940</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="C672" t="inlineStr">
         <is>
-          <t>Busca formas de optimizar. Algunas estrategias incluyen la elección del enfoque más rentable entre aumentar los recursos de un sistema existente, o escalar verticalmente, y agregar más instancias de ese sistema, o escalar horizontalmente. Puede descargar la demanda distribuyéndola a otros recursos, o puede reducir la demanda mediante la implementación de colas de prioridad, descarga de puerta de enlace, almacenamiento en búfer y limitación de velocidad. Para obtener más información, consulte las recomendaciones de Eficiencia del rendimiento.</t>
-        </is>
-      </c>
-      <c r="D672" t="inlineStr"/>
+          <t>(VM, conjunto de escalado) Establezca reglas de escalado automático para aumentar o disminuir el número de instancias de VM en el conjunto de escalado en función de la demanda.</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>Si aumenta la demanda de la aplicación, aumenta la carga de las instancias de máquina virtual del conjunto de escalado. Las reglas de escalado automático garantizan que tenga suficientes recursos para satisfacer la demanda.</t>
+        </is>
+      </c>
       <c r="F672" t="inlineStr">
         <is>
           <t>No verificado</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
-        <is>
-          <t>877c04dd-441f-4202-9b87-9eeb3c60b564</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="C673" t="inlineStr">
-        <is>
-          <t>(VM, conjunto de escalado) Elija el tamaño del plan de máquina virtual y la SKU adecuados. Identifique los mejores tamaños de máquina virtual para su carga de trabajo.  Utilice el selector de máquina virtual para identificar la mejor máquina virtual para su carga de trabajo. Consulta los precios de Windows y Linux.  En el caso de las cargas de trabajo, como los trabajos de procesamiento por lotes muy paralelos que pueden tolerar algunas interrupciones, considere la posibilidad de usar Azure Spot Virtual Machines. Las máquinas virtuales puntuales son buenas para experimentar, desarrollar y probar soluciones a gran escala.</t>
-        </is>
-      </c>
-      <c r="D673" t="inlineStr">
-        <is>
-          <t>Los SKU tienen un precio según las capacidades que ofrecen. Si no necesitas capacidades avanzadas, no gastes de más en SKU.  Las máquinas virtuales de acceso puntual aprovechan la capacidad excedente de Azure a un costo menor.</t>
-        </is>
-      </c>
-      <c r="F673" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L673" t="inlineStr">
-        <is>
-          <t>90700d86-70f6-433f-b995-b9ad8cfdec84</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="C674" t="inlineStr">
-        <is>
-          <t>(VM, conjunto de escalado) Evalúe las opciones de disco asociadas a las SKU de la máquina virtual.  Determine sus necesidades de rendimiento teniendo en cuenta sus necesidades de capacidad de almacenamiento y teniendo en cuenta los patrones de carga de trabajo fluctuantes.  Por ejemplo, el disco SSD prémium v2 de Azure permite ajustar de forma granular el rendimiento independientemente del tamaño del disco.</t>
-        </is>
-      </c>
-      <c r="D674" t="inlineStr">
-        <is>
-          <t>Algunos tipos de discos de alto rendimiento ofrecen funciones y estrategias de optimización de costos adicionales.  La capacidad de ajuste del disco SSD prémium v2 puede reducir los costos, ya que proporciona un alto rendimiento sin sobreaprovisionamiento, lo que, de otro modo, podría conducir a recursos infrautilizados.</t>
-        </is>
-      </c>
-      <c r="F674" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L674" t="inlineStr">
-        <is>
-          <t>14211a5a-ea48-4aa1-9f24-e46689328dda</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="C675" t="inlineStr">
-        <is>
-          <t>(Conjunto de escalas) Combine máquinas virtuales normales con máquinas virtuales de acceso puntual.  La orquestación flexible le permite distribuir máquinas virtuales de acceso puntual en función de un porcentaje especificado.</t>
-        </is>
-      </c>
-      <c r="D675" t="inlineStr">
-        <is>
-          <t>Reduzca los costos de infraestructura informática aplicando los grandes descuentos de las máquinas virtuales de acceso puntual.</t>
-        </is>
-      </c>
-      <c r="F675" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L675" t="inlineStr">
-        <is>
-          <t>38d3a88b-a84f-46f3-95ce-76a4e245027b</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="C676" t="inlineStr">
-        <is>
-          <t>(Conjunto de escalas) Reduzca el número de instancias de VM cuando la demanda disminuya. Establezca una política de reducción horizontal basada en criterios.   Detenga las máquinas virtuales durante las horas de inactividad. Puede usar la característica Iniciar/Detener de Azure Automation y configurarla según las necesidades de su empresa.</t>
-        </is>
-      </c>
-      <c r="D676" t="inlineStr">
-        <is>
-          <t>El escalado vertical o la detención de recursos cuando no están en uso reduce el número de máquinas virtuales que se ejecutan en el conjunto de escalado, lo que ahorra costos.  La función Start/Stop es una opción de automatización de bajo costo.</t>
-        </is>
-      </c>
-      <c r="F676" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L676" t="inlineStr">
-        <is>
-          <t>eccee9b1-70f3-4c96-8223-35e24d842201</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>(VM, conjunto de escalado) Aproveche la movilidad de licencias mediante la Ventaja híbrida de Azure. Las máquinas virtuales tienen una opción de licencia que le permite traer sus propias licencias locales del SO de servidor Windows a Azure.  La Ventaja híbrida de Azure también le permite incorporar determinadas suscripciones de Linux a Azure.</t>
-        </is>
-      </c>
-      <c r="D677" t="inlineStr">
-        <is>
-          <t>Puede maximizar sus licencias locales mientras obtiene los beneficios de la nube.</t>
-        </is>
-      </c>
-      <c r="F677" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L677" t="inlineStr">
-        <is>
-          <t>3c34c3e4-5715-472e-953e-2d5030bf18a0</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="C678" t="inlineStr">
-        <is>
-          <t>Supervise las instancias de VM. Recopile registros y métricas de instancias de VM para supervisar el uso de recursos y medir el estado de las instancias. Algunas métricas comunes incluyen el uso de la CPU, el número de solicitudes y la latencia de entrada/salida (E/S). Configure alertas de Azure Monitor para recibir notificaciones sobre problemas y detectar cambios de configuración en su entorno.</t>
-        </is>
-      </c>
-      <c r="D678" t="inlineStr"/>
-      <c r="F678" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L678" t="inlineStr">
-        <is>
-          <t>fc1734b9-fefe-403d-bfc9-c2beca6f12a2</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="C679" t="inlineStr">
-        <is>
-          <t>Supervise el estado de las máquinas virtuales y sus dependencias.</t>
-        </is>
-      </c>
-      <c r="D679" t="inlineStr"/>
-      <c r="F679" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L679" t="inlineStr">
-        <is>
-          <t>724b847d-caf4-4e90-83e7-f4c71e68c4f7</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="C680" t="inlineStr">
-        <is>
-          <t>Cree un plan de mantenimiento que incluya la aplicación regular de parches en el sistema como parte de las operaciones rutinarias. Incluir procesos de emergencia que permitan la aplicación inmediata de parches. Puede tener procesos personalizados para administrar la aplicación de revisiones o delegar parcialmente la tarea a Azure.</t>
-        </is>
-      </c>
-      <c r="D680" t="inlineStr"/>
-      <c r="F680" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L680" t="inlineStr">
-        <is>
-          <t>f99e71a9-05ee-41c2-81b7-8d794763040b</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="C681" t="inlineStr">
-        <is>
-          <t>Automatice los procesos de arranque, ejecución de scripts y configuración de máquinas virtuales. Puede automatizar procesos mediante el uso de extensiones o scripts personalizados. Recomendamos las siguientes opciones:</t>
-        </is>
-      </c>
-      <c r="D681" t="inlineStr"/>
-      <c r="F681" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L681" t="inlineStr">
-        <is>
-          <t>ca34b9c2-69db-4256-a354-c491877f79ac</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="C682" t="inlineStr">
-        <is>
-          <t>Tener procesos para instalar actualizaciones automáticas. Considere la posibilidad de usar la aplicación automática de parches de invitado de VM para una implementación oportuna de parches críticos y parches de seguridad. Use Azure Update Manager para administrar las actualizaciones del sistema operativo de las máquinas virtuales Windows y Linux en Azure.</t>
-        </is>
-      </c>
-      <c r="D682" t="inlineStr"/>
-      <c r="F682" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L682" t="inlineStr">
-        <is>
-          <t>821779c7-588f-40af-a740-8dd41fb585fd</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="C683" t="inlineStr">
-        <is>
-          <t>Cree un entorno de prueba que coincida estrechamente con su entorno de producción para probar las actualizaciones y los cambios antes de implementarlos en producción. Contar con procesos para probar las actualizaciones de seguridad, las líneas base de rendimiento y los errores de confiabilidad. Aproveche las bibliotecas de errores de Azure Chaos Studio para insertar y simular condiciones de error. Para más información, consulte Biblioteca de errores y acciones de Azure Chaos Studio.</t>
-        </is>
-      </c>
-      <c r="D683" t="inlineStr"/>
-      <c r="F683" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L683" t="inlineStr">
-        <is>
-          <t>079c8821-00dd-4eaf-9cae-5a3dbfd6fdfa</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="C684" t="inlineStr">
-        <is>
-          <t>Administra tu cuota. Planifique el nivel de cuota que requiere su carga de trabajo y revise ese nivel con regularidad a medida que evoluciona la carga de trabajo. Si necesita aumentar o disminuir su cuota, solicite esos cambios con anticipación.</t>
-        </is>
-      </c>
-      <c r="D684" t="inlineStr"/>
-      <c r="F684" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L684" t="inlineStr">
-        <is>
-          <t>77cdbef0-ba18-4ef0-9ef4-088931e331c7</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="C685" t="inlineStr">
-        <is>
-          <t>(Conjunto de escalas) Los conjuntos de escalado de máquinas virtuales en modo de orquestación flexible pueden ayudar a simplificar la implementación y la administración de la carga de trabajo. Por ejemplo, puede administrar fácilmente la autorreparación mediante el uso de reparaciones automáticas.</t>
-        </is>
-      </c>
-      <c r="D685" t="inlineStr">
-        <is>
-          <t>La orquestación flexible puede administrar instancias de VM a escala. La entrega de máquinas virtuales individuales agrega sobrecarga operativa.  Por ejemplo, cuando se eliminan instancias de VM, los discos y las NIC asociados también se eliminan automáticamente. Las instancias de VM se distribuyen en varios dominios de error para que las operaciones de actualización no interrumpan el servicio.</t>
-        </is>
-      </c>
-      <c r="F685" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L685" t="inlineStr">
-        <is>
-          <t>3049efb5-d3ae-4e36-a8fa-12f2c4a44144</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="C686" t="inlineStr">
-        <is>
-          <t>(Conjunto de escalas) Mantenga sus máquinas virtuales actualizadas mediante la configuración de una directiva de actualización. Recomendamos actualizaciones continuas. Sin embargo, si necesita un control granular, elija actualizar manualmente.  Para la orquestación flexible, puede usar Azure Update Manager.</t>
-        </is>
-      </c>
-      <c r="D686" t="inlineStr">
-        <is>
-          <t>La seguridad es la razón principal de las actualizaciones. Las garantías de seguridad de las instancias no deben deteriorarse con el tiempo.  Las actualizaciones graduales se realizan en lotes, lo que garantiza que todas las instancias no estén inactivas al mismo tiempo.</t>
-        </is>
-      </c>
-      <c r="F686" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L686" t="inlineStr">
-        <is>
-          <t>19de83a6-2f87-49b1-8241-d1d687f46658</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="C687" t="inlineStr">
-        <is>
-          <t>(VM, conjunto de escalado) Implemente automáticamente aplicaciones de máquina virtual desde Azure Compute Gallery definiendo las aplicaciones en el perfil.</t>
-        </is>
-      </c>
-      <c r="D687" t="inlineStr">
-        <is>
-          <t>Se crean las máquinas virtuales del conjunto de escalado y se preinstalan las aplicaciones especificadas, lo que facilita la administración.</t>
-        </is>
-      </c>
-      <c r="F687" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L687" t="inlineStr">
-        <is>
-          <t>65c832e8-2882-45ed-b239-0e68f74975aa</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="C688" t="inlineStr">
-        <is>
-          <t>Instale componentes de software precompilados como extensiones como parte del arranque.  Azure admite muchas extensiones que se pueden usar para configurar, supervisar, proteger y proporcionar aplicaciones de utilidad para las máquinas virtuales.   Habilite las actualizaciones automáticas en las extensiones.</t>
-        </is>
-      </c>
-      <c r="D688" t="inlineStr">
-        <is>
-          <t>Las extensiones pueden ayudar a simplificar la instalación de software a escala sin tener que instalarlo, configurarlo o actualizarlo manualmente en cada máquina virtual.</t>
-        </is>
-      </c>
-      <c r="F688" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L688" t="inlineStr">
-        <is>
-          <t>40266c61-9685-4ee1-8cb6-a899a6b573f2</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="C689" t="inlineStr">
-        <is>
-          <t>(VM, conjunto de escalado) Supervise y mida el estado de las instancias de VM.  Implemente la extensión del agente Monitor en las máquinas virtuales para recopilar datos de supervisión del sistema operativo invitado con reglas de recopilación de datos específicas del sistema operativo.  Permita que VM Insights supervise el estado y el rendimiento, y vea las tendencias de los datos recopilados. Use los diagnósticos de arranque para obtener información a medida que arrancan las máquinas virtuales. Los diagnósticos de arranque también diagnostican errores de arranque.</t>
-        </is>
-      </c>
-      <c r="D689" t="inlineStr">
-        <is>
-          <t>La monitorización de los datos es el núcleo de la resolución de incidentes. Una pila de supervisión completa proporciona información sobre el rendimiento de las máquinas virtuales y su estado. Al monitorear continuamente las instancias, puede estar preparado para errores o prevenirlos, como la sobrecarga de rendimiento y los problemas de confiabilidad.</t>
-        </is>
-      </c>
-      <c r="F689" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L689" t="inlineStr">
-        <is>
-          <t>72e210dc-5abb-4569-b650-ec27003bb1cf</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="C690" t="inlineStr">
-        <is>
-          <t>Definir objetivos de rendimiento. Identifique las métricas de VM para realizar un seguimiento y medir los indicadores de rendimiento, como el tiempo de respuesta, la utilización de la CPU y la utilización de la memoria, así como las métricas de la carga de trabajo, como las transacciones por segundo, los usuarios simultáneos y la disponibilidad y el estado.</t>
-        </is>
-      </c>
-      <c r="D690" t="inlineStr"/>
-      <c r="F690" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L690" t="inlineStr">
-        <is>
-          <t>0303e75c-321d-42b0-9226-b05f43633d50</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="C691" t="inlineStr">
-        <is>
-          <t>Tenga en cuenta el perfil de rendimiento de las máquinas virtuales, los conjuntos de escalado y la configuración de disco en la planeación de la capacidad. Cada SKU tiene un perfil diferente de memoria y CPU y se comporta de forma diferente en función del tipo de carga de trabajo. Realice pruebas piloto y pruebas de concepto para comprender el comportamiento del rendimiento en la carga de trabajo específica.</t>
-        </is>
-      </c>
-      <c r="D691" t="inlineStr"/>
-      <c r="F691" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L691" t="inlineStr">
-        <is>
-          <t>f2c0ba97-9170-43ab-90b5-b30f159913ba</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="C692" t="inlineStr">
-        <is>
-          <t>Ajuste del rendimiento de la máquina virtual. Aproveche la optimización del rendimiento y la mejora de las características según lo requiera la carga de trabajo. Por ejemplo, use Memoria no volátil Express (NVMe) conectada localmente para casos de uso de alto rendimiento y redes aceleradas, y use SSD Premium v2 para mejorar el rendimiento y la escalabilidad.</t>
-        </is>
-      </c>
-      <c r="D692" t="inlineStr"/>
-      <c r="F692" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L692" t="inlineStr">
-        <is>
-          <t>ffee7b2f-b57c-40cc-a8ab-9044dead9dc7</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="C693" t="inlineStr">
-        <is>
-          <t>Tenga en cuenta los servicios dependientes. Las dependencias de la carga de trabajo, como el almacenamiento en caché, el tráfico de red y las redes de entrega de contenido, que interactúan con las máquinas virtuales pueden afectar al rendimiento. Además, tenga en cuenta la distribución geográfica, como zonas y regiones, que pueden agregar latencia.</t>
-        </is>
-      </c>
-      <c r="D693" t="inlineStr"/>
-      <c r="F693" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L693" t="inlineStr">
-        <is>
-          <t>75cf3a03-3d7c-4199-8138-45ff62b1f7a5</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="C694" t="inlineStr">
-        <is>
-          <t>Recopilar datos de rendimiento. Siga las prácticas recomendadas de Excelencia operativa para supervisar e implementar las extensiones adecuadas para ver las métricas que se basan en los indicadores de rendimiento.</t>
-        </is>
-      </c>
-      <c r="D694" t="inlineStr"/>
-      <c r="F694" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L694" t="inlineStr">
-        <is>
-          <t>739525ea-4d0a-4965-baef-ab0325fbed67</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="C695" t="inlineStr">
-        <is>
-          <t>Grupos de ubicación por proximidad. Use grupos de ubicación por proximidad en cargas de trabajo en las que se requiera una latencia baja para asegurarse de que las máquinas virtuales estén ubicadas físicamente cerca unas de otras.</t>
-        </is>
-      </c>
-      <c r="D695" t="inlineStr"/>
-      <c r="F695" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L695" t="inlineStr">
-        <is>
-          <t>39acd43b-a405-439b-83c9-b9d79d9cdba6</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="C696" t="inlineStr">
-        <is>
-          <t>(VM, conjunto de escalado) Elija SKU para máquinas virtuales que se alineen con su planificación de capacidad. Comprenda bien los requisitos de su carga de trabajo, incluido el número de núcleos, la memoria, el almacenamiento y el ancho de banda de red para que pueda filtrar las SKU inadecuadas.</t>
-        </is>
-      </c>
-      <c r="D696" t="inlineStr">
-        <is>
-          <t>El tamaño correcto de las máquinas virtuales es una decisión fundamental que afecta significativamente al rendimiento de la carga de trabajo. Sin el conjunto adecuado de máquinas virtuales, es posible que experimente problemas de rendimiento y acumule costos innecesarios.</t>
-        </is>
-      </c>
-      <c r="F696" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L696" t="inlineStr">
-        <is>
-          <t>67cc04db-4b74-40f4-9bf6-0ba5f758b45e</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="C697" t="inlineStr">
-        <is>
-          <t>(VM, conjunto de escalado) Implemente máquinas virtuales de carga de trabajo sensibles a la latencia en grupos con ubicación de proximidad.</t>
-        </is>
-      </c>
-      <c r="D697" t="inlineStr">
-        <is>
-          <t>Los grupos de selección de ubicación por proximidad reducen la distancia física entre los recursos de proceso de Azure, lo que puede mejorar el rendimiento y reducir la latencia de red entre máquinas virtuales independientes, máquinas virtuales de varios conjuntos de disponibilidad o máquinas virtuales de varios conjuntos de escalado.</t>
-        </is>
-      </c>
-      <c r="F697" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L697" t="inlineStr">
-        <is>
-          <t>ef3de2ad-d5b6-4931-9fc7-28249d9300c0</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="C698" t="inlineStr">
-        <is>
-          <t>(VM, conjunto de escalado)  Establezca el perfil de almacenamiento analizando el rendimiento del disco de las cargas de trabajo existentes y la SKU de la máquina virtual.  Use SSD prémium para máquinas virtuales de producción. Ajuste el rendimiento de los discos con SSD prémium v2. Utilice dispositivos NVMe conectados localmente.</t>
-        </is>
-      </c>
-      <c r="D698" t="inlineStr">
-        <is>
-          <t>Las SSD prémium ofrecen máquinas virtuales compatibles con discos de alto rendimiento y baja latencia con cargas de trabajo intensivas en E/S.  SSD prémium v2 no requiere cambiar el tamaño del disco, lo que permite un alto rendimiento sin un sobreaprovisionamiento excesivo y minimiza el costo de la capacidad no utilizada.  Cuando están disponibles en SKU de máquina virtual, NVMe conectado localmente o dispositivos similares pueden ofrecer un alto rendimiento, especialmente para casos de uso que requieren altas operaciones de entrada/salida por segundo (IOPS) y baja latencia.</t>
-        </is>
-      </c>
-      <c r="F698" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L698" t="inlineStr">
-        <is>
-          <t>a91aae92-2b2c-4c88-b268-2c70b995a952</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="C699" t="inlineStr">
-        <is>
-          <t>(Máquinas virtuales) Considere la posibilidad de habilitar redes aceleradas.</t>
-        </is>
-      </c>
-      <c r="D699" t="inlineStr">
-        <is>
-          <t>Permite la virtualización de E/S de raíz única (SR-IOV) en una máquina virtual, lo que mejora en gran medida su rendimiento de red.</t>
-        </is>
-      </c>
-      <c r="F699" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L699" t="inlineStr">
-        <is>
-          <t>57e446da-1b2e-4bdc-abc9-3e978a11e940</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="C700" t="inlineStr">
-        <is>
-          <t>(VM, conjunto de escalado) Establezca reglas de escalado automático para aumentar o disminuir el número de instancias de VM en el conjunto de escalado en función de la demanda.</t>
-        </is>
-      </c>
-      <c r="D700" t="inlineStr">
-        <is>
-          <t>Si aumenta la demanda de la aplicación, aumenta la carga de las instancias de máquina virtual del conjunto de escalado. Las reglas de escalado automático garantizan que tenga suficientes recursos para satisfacer la demanda.</t>
-        </is>
-      </c>
-      <c r="F700" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
-      <c r="L700" t="inlineStr">
         <is>
           <t>785858b0-2f0b-476d-9f1e-af92b57314c9</t>
         </is>
@@ -18121,7 +17511,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F701" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F673" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
